--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dd/Dd_Github/管理表/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dd/Dd_Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-7340" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="33600" yWindow="-7340" windowWidth="51200" windowHeight="28340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="进行中" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="148">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -880,34 +880,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与业务方确认方案、产品内审、提交任务</t>
-    <rPh sb="0" eb="1">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ye'wu'fang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>chan'pin</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>nei'shen</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ren'wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-31682</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1012,10 +984,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://t.cn/RfjEWKM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>飞翔表示在11月底可以投入开发</t>
     <rPh sb="0" eb="1">
       <t>fei'xiang</t>
@@ -1082,12 +1050,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>要求紧急上线</t>
+    <t>已上线</t>
+    <rPh sb="0" eb="1">
+      <t>yi'shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入用户的初级工具</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chu'ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gong'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷启动工具</t>
+    <rPh sb="0" eb="1">
+      <t>leng'qi'dong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作计划</t>
+    <rPh sb="0" eb="1">
+      <t>gong'zuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销V2.0后</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <rPh sb="0" eb="1">
+      <t>you'xian'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它工作</t>
+    <rPh sb="0" eb="1">
+      <t>qi'ta</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ta</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gogn'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交视觉需求，视觉审核</t>
+    <rPh sb="0" eb="1">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi'jue</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shen'he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-32666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求快速上线</t>
     <rPh sb="0" eb="1">
       <t>yao'qiu</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>jin'ji</t>
+      <t>kuai'su</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>shang'xian</t>
@@ -1095,178 +1162,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已上线</t>
-    <rPh sb="0" eb="1">
-      <t>yi'shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入用户的初级工具</t>
-    <rPh sb="0" eb="1">
-      <t>dao'ru</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yong'hu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>de</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>chu'ji</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>gong'ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷启动工具</t>
-    <rPh sb="0" eb="1">
-      <t>leng'qi'dong</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>gong'ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作计划</t>
-    <rPh sb="0" eb="1">
-      <t>gong'zuo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销V2.0后</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>hou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <rPh sb="0" eb="1">
-      <t>you'xian'ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <rPh sb="0" eb="1">
-      <t>kai'fa'zhogn</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它工作</t>
-    <rPh sb="0" eb="1">
-      <t>qi'ta</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ta</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gogn'zuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交视觉需求，视觉审核</t>
-    <rPh sb="0" eb="1">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi'jue</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shi'jue</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shen'he</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>制订上线计划，测试验收</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'ding</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shang'xian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ji'hua</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yan'shou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-32666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求快速上线</t>
-    <rPh sb="0" eb="1">
-      <t>yao'qiu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kuai'su</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>确认需求，完成方案，提交任务</t>
     <rPh sb="0" eb="1">
       <t>que'ren</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1d</t>
-    <rPh sb="1" eb="2">
-      <t xml:space="preserve">                                                        </t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成和提交数据日报需求</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>he</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ti'jaio</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ri'bao</t>
-    </rPh>
-    <rPh sb="9" eb="10">
       <t>xu'qiu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1304,7 +1204,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提交网站联盟数据周报需求（需要市场回复邮件）</t>
+    <t>跟进上线</t>
+    <rPh sb="0" eb="1">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作计划</t>
+    <rPh sb="0" eb="1">
+      <t>gogn'zuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成和提交数据日报需求，测试验收，制订上线计划</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ti'jaio</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ri'bao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与业务方确认方案、产品内审</t>
+    <rPh sb="9" eb="10">
+      <t>chan'pin</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>nei'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RfjEWKM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交任务</t>
+    <rPh sb="0" eb="1">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认需求，完成方案，提交任务，产品自测，跟进上线</t>
+    <rPh sb="0" eb="1">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ti'jaio</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>chan'pin</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zi'ce</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急上线</t>
+    <rPh sb="0" eb="1">
+      <t>jin'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已上线</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交网站联盟数据周报需求（市场尚未回复邮件）</t>
     <rPh sb="0" eb="1">
       <t>ti'jiao</t>
     </rPh>
@@ -1324,54 +1344,16 @@
       <t>xu'qiu</t>
     </rPh>
     <rPh sb="13" eb="14">
-      <t>xu'yao</t>
+      <t>shi'chang</t>
     </rPh>
     <rPh sb="15" eb="16">
-      <t>shi'chang</t>
+      <t>shang'wei</t>
     </rPh>
     <rPh sb="17" eb="18">
       <t>hui'fu</t>
     </rPh>
     <rPh sb="19" eb="20">
       <t>you'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认需求，完成方案，提交任务，测试验收</t>
-    <rPh sb="0" eb="1">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ti'jaio</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ren'wu</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>yan'shou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进上线</t>
-    <rPh sb="0" eb="1">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shang'xian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1474,7 +1456,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1494,8 +1476,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
@@ -1534,8 +1520,11 @@
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="23">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -1555,6 +1544,10 @@
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1832,7 +1825,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1841,12 +1834,12 @@
     <col min="3" max="3" width="18.83203125" style="7" customWidth="1"/>
     <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1857,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>58</v>
@@ -1872,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>14</v>
@@ -1915,7 +1908,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2020,7 +2013,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>99</v>
@@ -2040,7 +2033,7 @@
         <v>105</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>80</v>
@@ -2051,12 +2044,14 @@
       <c r="F7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="H7" s="7" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -2122,20 +2117,17 @@
         <v>18</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="3">
@@ -2222,7 +2214,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>31</v>
@@ -2249,7 +2241,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>31</v>
@@ -2276,7 +2268,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>31</v>
@@ -2285,7 +2277,7 @@
         <v>43</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2314,7 +2306,7 @@
         <v>82</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2345,7 +2337,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>69</v>
@@ -2356,16 +2348,16 @@
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7"/>
     </row>
@@ -2453,35 +2445,35 @@
         <v>25</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="7" t="s">
-        <v>13</v>
+      <c r="F22" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I22" s="15">
-        <v>42706</v>
+        <v>138</v>
+      </c>
+      <c r="I22" s="16">
+        <v>42705</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -2489,30 +2481,30 @@
         <v>27</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -2522,9 +2514,6 @@
       <c r="B24" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="D24" s="7" t="s">
         <v>71</v>
       </c>
@@ -2535,12 +2524,10 @@
         <v>13</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I24" s="3">
+        <v>140</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="15">
         <v>42709</v>
       </c>
       <c r="J24" s="9" t="s">
@@ -2568,7 +2555,7 @@
         <v>8</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7" t="s">
@@ -2593,34 +2580,37 @@
         <v>97</v>
       </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="7" t="s">
-        <v>131</v>
+      <c r="F26" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" s="15">
+        <v>109</v>
+      </c>
+      <c r="I26" s="16">
         <v>42705</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L26" s="7"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D32" s="7"/>
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I34" s="7" t="s">
@@ -2665,23 +2655,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="H9" sqref="H9:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2689,60 +2681,97 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="3">
+      <c r="I2" s="3">
         <v>42690</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="3">
+        <v>42703</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-7340" windowWidth="51200" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="33600" yWindow="-7340" windowWidth="51200" windowHeight="28340" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="进行中" sheetId="1" r:id="rId1"/>
-    <sheet name="已上线" sheetId="2" r:id="rId2"/>
+    <sheet name="项目" sheetId="1" r:id="rId1"/>
+    <sheet name="其他事务" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="166">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -211,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网站联盟订单管理优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>考拉微商</t>
     <rPh sb="0" eb="1">
       <t>kao'la</t>
@@ -327,19 +323,6 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>hou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和微商V1.0一起</t>
-    <rPh sb="0" eb="1">
-      <t>he</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>wei'shang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yi'qi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -591,10 +574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开发中</t>
     <rPh sb="0" eb="1">
       <t>kai'fa</t>
@@ -709,22 +688,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成方案，提交内审</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>nei'shen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>由于微商V1.0优先级更高，在此之后进行开发</t>
     <rPh sb="0" eb="1">
       <t>you'yu</t>
@@ -774,31 +737,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>hzuan'qian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进测试、上线，运营对接安排</t>
-    <rPh sb="0" eb="1">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shang'xian</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yun'ying</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>dui'jie</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>jie</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>an'pai</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -884,290 +822,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跟进测试上线</t>
+    <t>跟进开发排查字段完成、完成方案、提交任务</t>
     <rPh sb="0" eb="1">
       <t>gen'jin</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>ce'shi</t>
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai'cha</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi'duan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/12/19 (APP3.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/12/19 (APP3.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-32503</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS渠道屏蔽wap页“APP专享价”区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排除对CPS渠道的负面影响</t>
+    <rPh sb="0" eb="1">
+      <t>pai'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qu'dao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fu'mian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ying'xinag</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-32557</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已上线</t>
+    <rPh sb="0" eb="1">
+      <t>yi'shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入用户的初级工具</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chu'ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gong'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷启动工具</t>
+    <rPh sb="0" eb="1">
+      <t>leng'qi'dong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作计划</t>
+    <rPh sb="0" eb="1">
+      <t>gong'zuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销V2.0后</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <rPh sb="0" eb="1">
+      <t>you'xian'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-32666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求快速上线</t>
+    <rPh sb="0" eb="1">
+      <t>yao'qiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kuai'su</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进开发排查字段完成、完成方案、提交任务</t>
-    <rPh sb="0" eb="1">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pai'cha</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zi'duan</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ren'wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/12/19 (APP3.4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/12/19 (APP3.4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP3.4左右发布</t>
-    <rPh sb="6" eb="7">
-      <t>zuo'you</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>fa'bu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于测试资源被微商V1.0占用，微商上线后给出排期</t>
-    <rPh sb="0" eb="1">
-      <t>you'yu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zi'yuan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>bei</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>wei'shang</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zhan'yong</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>wei'shang</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>shang'xian'hou</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>gei'chu</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>pai'qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞翔表示在11月底可以投入开发</t>
-    <rPh sb="0" eb="1">
-      <t>fei'xiang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>biao'shi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yeu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>di</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ke'yi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>tou'ru</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-32503</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS渠道屏蔽wap页“APP专享价”区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排除对CPS渠道的负面影响</t>
-    <rPh sb="0" eb="1">
-      <t>pai'chu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dui</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>qu'dao</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>de</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>fu'mian</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ying'xinag</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-32557</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已上线</t>
-    <rPh sb="0" eb="1">
-      <t>yi'shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入用户的初级工具</t>
-    <rPh sb="0" eb="1">
-      <t>dao'ru</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yong'hu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>de</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>chu'ji</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>gong'ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷启动工具</t>
-    <rPh sb="0" eb="1">
-      <t>leng'qi'dong</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>gong'ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作计划</t>
-    <rPh sb="0" eb="1">
-      <t>gong'zuo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销V2.0后</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>hou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <rPh sb="0" eb="1">
-      <t>you'xian'ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它工作</t>
-    <rPh sb="0" eb="1">
-      <t>qi'ta</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ta</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gogn'zuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交视觉需求，视觉审核</t>
-    <rPh sb="0" eb="1">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi'jue</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shi'jue</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shen'he</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-32666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求快速上线</t>
-    <rPh sb="0" eb="1">
-      <t>yao'qiu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kuai'su</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认需求，完成方案，提交任务</t>
-    <rPh sb="0" eb="1">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1200,20 +1011,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跟进测试、上线，安排技术支持和税务对接导出照片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进上线</t>
-    <rPh sb="0" eb="1">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工作计划</t>
     <rPh sb="0" eb="1">
       <t>gogn'zuo</t>
@@ -1224,38 +1021,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成和提交数据日报需求，测试验收，制订上线计划</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>he</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ti'jaio</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ri'bao</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>xu'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与业务方确认方案、产品内审</t>
-    <rPh sb="9" eb="10">
-      <t>chan'pin</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>nei'shen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://t.cn/RfjEWKM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1266,40 +1031,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ren'wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认需求，完成方案，提交任务，产品自测，跟进上线</t>
-    <rPh sb="0" eb="1">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ti'jaio</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ren'wu</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>chan'pin</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>zi'ce</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>shang'xian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1324,36 +1055,386 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提交网站联盟数据周报需求（市场尚未回复邮件）</t>
-    <rPh sb="0" eb="1">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wang'zhan</t>
+    <t>网站联盟、微商也需要支持</t>
+    <rPh sb="0" eb="1">
+      <t>wabg'zhan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lian'meng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi'chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小师妹说12.6给出排期</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'shi'mei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hsuo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gei'chu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>pai'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进排期落地</t>
+    <rPh sb="0" eb="1">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pai'qi</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>lian'meng</t>
+      <t>luo'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等鲜龙那边给出内审意见</t>
+    <rPh sb="0" eb="1">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xian'long</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>na'bain</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gei'chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>nei'shen</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进测试、上线，线上回归</t>
+    <rPh sb="0" eb="1">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang'xian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian'shang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hui'gu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认技术方案细节，跟进开发</t>
+    <rPh sb="0" eb="1">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xi'jie</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP3.4后发布</t>
+    <rPh sb="6" eb="7">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fa'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进排期落地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-15号之间评审掉</t>
+    <rPh sb="4" eb="5">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi'jain</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ping'shen</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>diao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务名称</t>
+    <rPh sb="0" eb="1">
+      <t>shi'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mign'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交网站联盟数据周报需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决时间</t>
+    <rPh sb="0" eb="1">
+      <t>jie'jue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d</t>
+    <rPh sb="1" eb="2">
+      <t>jie'jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看网盟业务数据</t>
+    <rPh sb="0" eb="1">
+      <t>cha'kan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wang'meng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ye'wu</t>
     </rPh>
     <rPh sb="6" eb="7">
       <t>shu'ju</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待朱浩回复</t>
+    <rPh sb="0" eb="1">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu'aho</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和技术沟通招行接口分仓/2.0升级的事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保招行分销业务平整切换</t>
+    <rPh sb="0" eb="1">
+      <t>que'bao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhao'hang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ye'wu</t>
+    </rPh>
     <rPh sb="8" eb="9">
+      <t>ping'zheng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qie'huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术评估中</t>
+    <rPh sb="0" eb="1">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping'gu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Due</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站联盟订单管理优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有调X客户端唤醒考拉客户端的问题解决</t>
+    <rPh sb="1" eb="2">
+      <t>diao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ke'hu'duan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huan'xing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kao'la</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ke'hu'duan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jie'jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决有调合作问题</t>
+    <rPh sb="0" eb="1">
+      <t>jie'jue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he'zuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通中</t>
+    <rPh sb="0" eb="1">
+      <t>gou'tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RfgjXOb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进测试、上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上回归</t>
+    <rPh sb="0" eb="1">
+      <t>xian'shang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui'gu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求方确认，提交内审</t>
+    <rPh sb="0" eb="1">
+      <t>xu'qiu'fang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nei'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周报</t>
+    <rPh sb="0" eb="1">
       <t>zhou'bao</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>shi'chang</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>shang'wei</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>hui'fu</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>you'jian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1456,11 +1537,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1524,7 +1606,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="24">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -1548,6 +1630,7 @@
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1822,24 +1905,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1850,13 +1934,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -1865,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>14</v>
@@ -1885,21 +1969,26 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="I2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>9</v>
@@ -1908,7 +1997,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1916,13 +2005,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>8</v>
@@ -1930,13 +2019,13 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L3" s="7"/>
     </row>
@@ -1947,20 +2036,25 @@
       <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="C4" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="D4" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="3" t="s">
-        <v>49</v>
+      <c r="I4" s="3">
+        <v>42723</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>12</v>
@@ -1972,10 +2066,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
@@ -1984,13 +2078,13 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2001,10 +2095,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
@@ -2013,16 +2107,16 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -2030,44 +2124,44 @@
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>141</v>
-      </c>
+      <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>8</v>
@@ -2075,13 +2169,13 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L8" s="7"/>
     </row>
@@ -2092,90 +2186,99 @@
       <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="C9" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="D9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>159</v>
+      </c>
       <c r="F9" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="3">
-        <v>42719</v>
+      <c r="H9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="L9" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="F10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="3">
-        <v>42703</v>
+      <c r="I10" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
-        <v>49</v>
+      <c r="H11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="15">
+        <v>42709</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>88</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>61</v>
@@ -2187,13 +2290,13 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7"/>
     </row>
@@ -2205,7 +2308,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
@@ -2214,13 +2317,13 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L13" s="7"/>
     </row>
@@ -2229,10 +2332,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
@@ -2241,92 +2344,100 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="I15" s="7" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>114</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>116</v>
-      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2334,42 +2445,37 @@
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="H18" s="7"/>
       <c r="I18" s="7" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>18</v>
+      <c r="A19" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
@@ -2378,13 +2484,13 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L19" s="7"/>
     </row>
@@ -2393,229 +2499,270 @@
         <v>25</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>72</v>
+        <v>154</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>104</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>25</v>
+      <c r="A21" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="7"/>
+      <c r="I21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1</v>
-      </c>
       <c r="D22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="11" t="s">
-        <v>94</v>
+        <v>69</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="I22" s="16">
-        <v>42705</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>31</v>
+        <v>162</v>
+      </c>
+      <c r="I22" s="15">
+        <v>42709</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>145</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>27</v>
+      <c r="A23" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>132</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>31</v>
+        <v>97</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="3">
+        <v>42690</v>
+      </c>
+      <c r="J28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="3">
+        <v>42703</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="16">
+        <v>42705</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="15">
-        <v>42709</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="D31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="16">
+        <v>42705</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J25" s="9" t="s">
+      <c r="K31" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="K25" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I26" s="16">
-        <v>42705</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="7"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D32" s="7"/>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I34" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="L31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2624,29 +2771,31 @@
     <hyperlink ref="K2" r:id="rId2"/>
     <hyperlink ref="K4" r:id="rId3"/>
     <hyperlink ref="K9" r:id="rId4"/>
-    <hyperlink ref="K13" r:id="rId5"/>
+    <hyperlink ref="K12" r:id="rId5"/>
     <hyperlink ref="K5" r:id="rId6"/>
-    <hyperlink ref="K12" r:id="rId7"/>
-    <hyperlink ref="K14" r:id="rId8"/>
-    <hyperlink ref="K15" r:id="rId9"/>
-    <hyperlink ref="K24" r:id="rId10"/>
-    <hyperlink ref="J24" r:id="rId11"/>
-    <hyperlink ref="K25" r:id="rId12"/>
-    <hyperlink ref="J25" r:id="rId13"/>
+    <hyperlink ref="K11" r:id="rId7"/>
+    <hyperlink ref="K13" r:id="rId8"/>
+    <hyperlink ref="K14" r:id="rId9"/>
+    <hyperlink ref="K22" r:id="rId10"/>
+    <hyperlink ref="J22" r:id="rId11"/>
+    <hyperlink ref="K23" r:id="rId12"/>
+    <hyperlink ref="J23" r:id="rId13"/>
     <hyperlink ref="K10" r:id="rId14"/>
-    <hyperlink ref="K11" r:id="rId15"/>
-    <hyperlink ref="J8" r:id="rId16"/>
-    <hyperlink ref="K16" r:id="rId17"/>
-    <hyperlink ref="K19" r:id="rId18"/>
-    <hyperlink ref="J6" r:id="rId19"/>
-    <hyperlink ref="K6" r:id="rId20"/>
-    <hyperlink ref="K20" r:id="rId21"/>
-    <hyperlink ref="K8" r:id="rId22"/>
-    <hyperlink ref="K26" r:id="rId23"/>
-    <hyperlink ref="J7" r:id="rId24"/>
-    <hyperlink ref="K18" r:id="rId25"/>
-    <hyperlink ref="K22" r:id="rId26"/>
-    <hyperlink ref="K23" r:id="rId27"/>
+    <hyperlink ref="J8" r:id="rId15"/>
+    <hyperlink ref="K15" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
+    <hyperlink ref="J6" r:id="rId18"/>
+    <hyperlink ref="K6" r:id="rId19"/>
+    <hyperlink ref="K19" r:id="rId20"/>
+    <hyperlink ref="K8" r:id="rId21"/>
+    <hyperlink ref="J7" r:id="rId22"/>
+    <hyperlink ref="K17" r:id="rId23"/>
+    <hyperlink ref="K21" r:id="rId24"/>
+    <hyperlink ref="K28" r:id="rId25"/>
+    <hyperlink ref="K29" r:id="rId26"/>
+    <hyperlink ref="K30" r:id="rId27"/>
+    <hyperlink ref="K31" r:id="rId28"/>
+    <hyperlink ref="J20" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2655,124 +2804,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="3">
-        <v>42690</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="B3" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="7"/>
+        <v>149</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="D3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="3">
-        <v>42703</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="7"/>
+        <v>151</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="3">
+        <v>42719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-7340" windowWidth="51200" windowHeight="28340" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="36220" yWindow="-7340" windowWidth="51200" windowHeight="28240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="190">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -221,10 +221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其它</t>
     <rPh sb="0" eb="1">
       <t>qi'ta</t>
@@ -270,10 +266,6 @@
   </si>
   <si>
     <t>分享赚钱_用户审核接入杭研多媒体接口（优化）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-29785</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -360,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任务价值</t>
     <rPh sb="0" eb="1">
       <t>ren'wu</t>
@@ -620,10 +608,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://t.cn/RfwRvO6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分销V2.0</t>
     <rPh sb="0" eb="1">
       <t>fen'xiao</t>
@@ -665,9 +649,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-30748</t>
-  </si>
-  <si>
     <t>和分仓项目一致</t>
     <rPh sb="0" eb="1">
       <t>he</t>
@@ -720,10 +701,6 @@
   </si>
   <si>
     <t>分仓对CPS的影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.cn/RcnD3mx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -822,46 +799,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跟进开发排查字段完成、完成方案、提交任务</t>
-    <rPh sb="0" eb="1">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pai'cha</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zi'duan</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ren'wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2016/12/19 (APP3.4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2016/12/19 (APP3.4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1025,16 +967,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提交任务</t>
-    <rPh sb="0" eb="1">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ren'wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>紧急上线</t>
     <rPh sb="0" eb="1">
       <t>jin'ji</t>
@@ -1055,44 +987,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网站联盟、微商也需要支持</t>
-    <rPh sb="0" eb="1">
-      <t>wabg'zhan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>lian'meng</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wei'shang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ye</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zhi'chi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小师妹说12.6给出排期</t>
-    <rPh sb="0" eb="1">
-      <t>xiao'shi'mei</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>hsuo</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>gei'chu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>pai'qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>跟进排期落地</t>
     <rPh sb="0" eb="1">
       <t>gen'jin</t>
@@ -1102,79 +996,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>luo'di</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等鲜龙那边给出内审意见</t>
-    <rPh sb="0" eb="1">
-      <t>deng</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>xian'long</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>na'bain</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>gei'chu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>chu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>nei'shen</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yi'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进测试、上线，线上回归</t>
-    <rPh sb="0" eb="1">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shang'xian</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>xian'shang</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>hui'gu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>gui</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认技术方案细节，跟进开发</t>
-    <rPh sb="0" eb="1">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xi'jie</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>kai'fa</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1193,18 +1014,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进排期落地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8-15号之间评审掉</t>
     <rPh sb="4" eb="5">
       <t>hao</t>
@@ -1245,196 +1054,673 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>查看网盟业务数据</t>
+    <rPh sb="0" eb="1">
+      <t>cha'kan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wang'meng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待朱浩回复</t>
+    <rPh sb="0" eb="1">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu'aho</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和技术沟通招行接口分仓/2.0升级的事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保招行分销业务平整切换</t>
+    <rPh sb="0" eb="1">
+      <t>que'bao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhao'hang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ping'zheng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qie'huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术评估中</t>
+    <rPh sb="0" eb="1">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping'gu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Due</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站联盟订单管理优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS业务线核心原理解释</t>
+    <rPh sb="3" eb="4">
+      <t>ye'wu'xian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he'xin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yuan'li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jie'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RcnD3mx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-29785</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已提高优先级</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>you'xian'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉微商V1.1迭代优化</t>
+    <rPh sb="8" eb="9">
+      <t>die'dai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修补内测过程中发现的问题</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nei'ce</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guo'cheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fa'xian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写分销V2.0话术</t>
+    <rPh sb="0" eb="1">
+      <t>xie</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hua'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月20号左右</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zuo'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站联盟、微商也需要支持，排在12月15号左右</t>
+    <rPh sb="0" eb="1">
+      <t>wabg'zhan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lian'meng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>pai'zai</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zuo'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>native分享浮层“分享赚”标题可配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助解除微信屏蔽</t>
+    <rPh sb="0" eb="1">
+      <t>xie'zhu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei'xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ping'bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33249</t>
+  </si>
+  <si>
+    <t>其他</t>
+    <rPh sb="0" eb="1">
+      <t>qi'ta</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春节活动2017</t>
+    <rPh sb="0" eb="1">
+      <t>chun'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hud'oong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高曝光、拉新</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao'guang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>la'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月20号左右</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月19号之前定稿</t>
+    <rPh sb="2" eb="3">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi'qian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ding'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不做拆单，等上线后加上这个逻辑</t>
+    <rPh sb="0" eb="1">
+      <t>zan'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chai'dan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shang'xian'hou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jia'shang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhe'ge</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>luo'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RfwRvO6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享赚钱V4.1后台先改</t>
+    <rPh sb="0" eb="1">
+      <t>fn'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuan'qian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hou'tai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-30748</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RfgjXOb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33463</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春节活动完成流程图后，给法务、税务发封邮件</t>
+    <rPh sb="0" eb="1">
+      <t>chun'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huo'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>liu'cheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fa'wu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shui'wu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>feng</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>you'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销V2.0_税款计算接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前支持拼多多合作</t>
+    <rPh sb="0" eb="1">
+      <t>ti'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pin'duo'duo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>he'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33557</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理后台常用交互组件</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hou'tai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chang'yon</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jiao'hu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zu'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d</t>
     <rPh sb="1" eb="2">
       <t>jie'jue</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看网盟业务数据</t>
-    <rPh sb="0" eb="1">
-      <t>cha'kan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wang'meng</t>
+    <t>1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年终总结撰写</t>
+    <rPh sb="0" eb="1">
+      <t>nian'zhong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong'jie</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>ye'wu</t>
+      <t>zhuan'xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排期中</t>
+    <rPh sb="0" eb="1">
+      <t>pai'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求评审</t>
+    <rPh sb="0" eb="1">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互稿定稿，约评审</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'hu'gao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ding'gao</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>shu'ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待朱浩回复</t>
-    <rPh sb="0" eb="1">
-      <t>deng'dai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhu'aho</t>
+      <t>yue</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ping'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试验收</t>
+  </si>
+  <si>
+    <t>测试验收</t>
+    <rPh sb="0" eb="1">
+      <t>ce'shi'yan'shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人物品清关独立对分销的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销兼容个人物品清关独立</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian'rong</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>hui'fu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和技术沟通招行接口分仓/2.0升级的事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确保招行分销业务平整切换</t>
-    <rPh sb="0" eb="1">
-      <t>que'bao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhao'hang</t>
+      <t>ge'ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qing'guan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>du'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33731</t>
+  </si>
+  <si>
+    <t>部分内容必须在12月20号之前</t>
+    <rPh sb="0" eb="1">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nei'rong</t>
     </rPh>
     <rPh sb="4" eb="5">
+      <t>bi'xu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yeu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hjao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhi'qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台类目调整影响评估：cps/分销</t>
+    <rPh sb="0" eb="1">
+      <t>hou'tai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'mu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ying'xiang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ping'gu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
       <t>fen'xiao</t>
     </rPh>
-    <rPh sb="6" eb="7">
-      <t>ye'wu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ping'zheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳理一下前台后台的冻结中状态（和吕玉君讨论一下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/12/19 (APP3.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明确需求，完成方案，提交开发</t>
+    <rPh sb="0" eb="1">
+      <t>ming'que</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fang'an</t>
     </rPh>
     <rPh sb="10" eb="11">
-      <t>qie'huan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术评估中</t>
-    <rPh sb="0" eb="1">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ping'gu</t>
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续增补任务，提交开发</t>
+    <rPh sb="0" eb="1">
+      <t>chi'xu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zeng'bu</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Due</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站联盟订单管理优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有调X客户端唤醒考拉客户端的问题解决</t>
-    <rPh sb="1" eb="2">
-      <t>diao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ke'hu'duan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>huan'xing</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>kao'la</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ke'hu'duan</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>de</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>wen'ti</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>jie'jue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决有调合作问题</t>
-    <rPh sb="0" eb="1">
-      <t>jie'jue</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>he'zuo</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>wen'ti</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沟通中</t>
-    <rPh sb="0" eb="1">
-      <t>gou'tong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.cn/RfgjXOb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进测试、上线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线上回归</t>
-    <rPh sb="0" eb="1">
-      <t>xian'shang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hui'gu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>gui</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求方确认，提交内审</t>
-    <rPh sb="0" eb="1">
-      <t>xu'qiu'fang</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="6" eb="7">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
       <t>ti'jiao</t>
     </rPh>
-    <rPh sb="8" eb="9">
-      <t>nei'shen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周报</t>
-    <rPh sb="0" eb="1">
-      <t>zhou'bao</t>
+    <rPh sb="9" eb="10">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/12/20 左右</t>
+    <rPh sb="11" eb="12">
+      <t>zuo'you</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1537,11 +1823,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1599,14 +1904,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="43">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -1631,6 +1936,25 @@
     <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1905,10 +2229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1918,12 +2242,12 @@
     <col min="3" max="3" width="7.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1934,13 +2258,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -1949,7 +2273,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>14</v>
@@ -1969,26 +2293,24 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>27</v>
+      <c r="H2" s="7"/>
+      <c r="I2" s="15">
+        <v>42732</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>9</v>
@@ -1997,7 +2319,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2005,13 +2327,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>8</v>
@@ -2019,13 +2341,13 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="L3" s="7"/>
     </row>
@@ -2036,25 +2358,20 @@
       <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>140</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="3">
         <v>42723</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>12</v>
@@ -2066,10 +2383,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
@@ -2078,13 +2395,13 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2095,10 +2412,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
@@ -2107,16 +2424,16 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -2124,95 +2441,89 @@
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>127</v>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7" t="s">
-        <v>133</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>18</v>
+      <c r="A8" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>54</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>75</v>
+      <c r="I8" s="3">
+        <v>42723</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>18</v>
+      <c r="A9" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>159</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>134</v>
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="3">
+        <v>42724</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2220,110 +2531,121 @@
         <v>18</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="F10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>30</v>
+        <v>96</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>84</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I11" s="15">
-        <v>42709</v>
+        <v>121</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>179</v>
+      </c>
       <c r="I13" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="L13" s="7"/>
     </row>
@@ -2332,80 +2654,86 @@
         <v>18</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="I14" s="7" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>137</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>78</v>
+      <c r="G15" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="3">
+        <v>42733</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2413,31 +2741,22 @@
         <v>18</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>121</v>
+        <v>23</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2445,37 +2764,40 @@
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>85</v>
+        <v>24</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>25</v>
+      <c r="A19" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
@@ -2484,285 +2806,458 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>25</v>
+      <c r="A20" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>163</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="K20" s="7"/>
+        <v>178</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>26</v>
+      <c r="A21" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="J22" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I22" s="15">
-        <v>42709</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="B23" s="7" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>98</v>
+        <v>116</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="L23" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="D24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I27" s="1" t="s">
+      <c r="H30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I28" s="3">
-        <v>42690</v>
-      </c>
-      <c r="J28" t="s">
-        <v>30</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="3">
-        <v>42703</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="16">
-        <v>42705</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>28</v>
+      <c r="A31" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="F31" s="11" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="16">
+      <c r="I31" s="15">
+        <v>42709</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="15">
+        <v>42709</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="15">
+        <v>42709</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="15">
         <v>42705</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="9" t="s">
+      <c r="J34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L31" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="15">
+        <v>42705</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="3">
+        <v>42703</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" s="3">
+        <v>42690</v>
+      </c>
+      <c r="J37" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2770,32 +3265,37 @@
     <hyperlink ref="J2" r:id="rId1"/>
     <hyperlink ref="K2" r:id="rId2"/>
     <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K9" r:id="rId4"/>
-    <hyperlink ref="K12" r:id="rId5"/>
+    <hyperlink ref="K11" r:id="rId4"/>
+    <hyperlink ref="K13" r:id="rId5"/>
     <hyperlink ref="K5" r:id="rId6"/>
-    <hyperlink ref="K11" r:id="rId7"/>
-    <hyperlink ref="K13" r:id="rId8"/>
-    <hyperlink ref="K14" r:id="rId9"/>
-    <hyperlink ref="K22" r:id="rId10"/>
-    <hyperlink ref="J22" r:id="rId11"/>
-    <hyperlink ref="K23" r:id="rId12"/>
-    <hyperlink ref="J23" r:id="rId13"/>
-    <hyperlink ref="K10" r:id="rId14"/>
-    <hyperlink ref="J8" r:id="rId15"/>
-    <hyperlink ref="K15" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
-    <hyperlink ref="J6" r:id="rId18"/>
-    <hyperlink ref="K6" r:id="rId19"/>
-    <hyperlink ref="K19" r:id="rId20"/>
-    <hyperlink ref="K8" r:id="rId21"/>
-    <hyperlink ref="J7" r:id="rId22"/>
-    <hyperlink ref="K17" r:id="rId23"/>
-    <hyperlink ref="K21" r:id="rId24"/>
-    <hyperlink ref="K28" r:id="rId25"/>
-    <hyperlink ref="K29" r:id="rId26"/>
-    <hyperlink ref="K30" r:id="rId27"/>
-    <hyperlink ref="K31" r:id="rId28"/>
-    <hyperlink ref="J20" r:id="rId29"/>
+    <hyperlink ref="K14" r:id="rId7"/>
+    <hyperlink ref="K15" r:id="rId8"/>
+    <hyperlink ref="K25" r:id="rId9"/>
+    <hyperlink ref="J25" r:id="rId10"/>
+    <hyperlink ref="K12" r:id="rId11"/>
+    <hyperlink ref="J10" r:id="rId12"/>
+    <hyperlink ref="K16" r:id="rId13"/>
+    <hyperlink ref="K19" r:id="rId14"/>
+    <hyperlink ref="J6" r:id="rId15"/>
+    <hyperlink ref="K6" r:id="rId16"/>
+    <hyperlink ref="K21" r:id="rId17"/>
+    <hyperlink ref="K10" r:id="rId18"/>
+    <hyperlink ref="J7" r:id="rId19"/>
+    <hyperlink ref="K18" r:id="rId20"/>
+    <hyperlink ref="K23" r:id="rId21"/>
+    <hyperlink ref="K37" r:id="rId22"/>
+    <hyperlink ref="K36" r:id="rId23"/>
+    <hyperlink ref="K35" r:id="rId24"/>
+    <hyperlink ref="K34" r:id="rId25"/>
+    <hyperlink ref="J22" r:id="rId26"/>
+    <hyperlink ref="K33" r:id="rId27"/>
+    <hyperlink ref="J33" r:id="rId28"/>
+    <hyperlink ref="K32" r:id="rId29"/>
+    <hyperlink ref="K7" r:id="rId30"/>
+    <hyperlink ref="K22" r:id="rId31"/>
+    <hyperlink ref="K8" r:id="rId32"/>
+    <hyperlink ref="K31" r:id="rId33"/>
+    <hyperlink ref="J31" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2804,17 +3304,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="7"/>
     <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2823,22 +3325,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>6</v>
@@ -2849,16 +3351,16 @@
         <v>25</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2866,41 +3368,107 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F3" s="3">
         <v>42719</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>25</v>
+      <c r="A4" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" t="s">
-        <v>158</v>
+        <v>138</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>144</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="36220" yWindow="-7340" windowWidth="51200" windowHeight="28240" tabRatio="500"/>
+    <workbookView xWindow="33600" yWindow="-7340" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="200">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -186,10 +186,6 @@
   </si>
   <si>
     <t>http://jira.netease.com/browse/KJDS-28405</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动链接分享除FTL路径外的解决方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -665,10 +661,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-22238</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>由于微商V1.0优先级更高，在此之后进行开发</t>
     <rPh sb="0" eb="1">
       <t>you'yu</t>
@@ -987,19 +979,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跟进排期落地</t>
-    <rPh sb="0" eb="1">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pai'qi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>luo'di</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>APP3.4后发布</t>
     <rPh sb="6" eb="7">
       <t>hou</t>
@@ -1014,22 +993,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8-15号之间评审掉</t>
-    <rPh sb="4" eb="5">
-      <t>hao</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhi'jain</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ping'shen</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>diao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>事务名称</t>
     <rPh sb="0" eb="1">
       <t>shi'wu</t>
@@ -1310,16 +1273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-33249</t>
-  </si>
-  <si>
-    <t>其他</t>
-    <rPh sb="0" eb="1">
-      <t>qi'ta</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>春节活动2017</t>
     <rPh sb="0" eb="1">
       <t>chun'jie</t>
@@ -1424,55 +1377,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-30748</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://t.cn/RfgjXOb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://jira.netease.com/browse/KJDS-33463</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>春节活动完成流程图后，给法务、税务发封邮件</t>
-    <rPh sb="0" eb="1">
-      <t>chun'jie</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>huo'dong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>liu'cheng</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>tu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>gei</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>fa'wu</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>shui'wu</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>fa</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>feng</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>you'jian</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1530,65 +1439,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年终总结撰写</t>
-    <rPh sb="0" eb="1">
-      <t>nian'zhong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zong'jie</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhuan'xie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>排期中</t>
     <rPh sb="0" eb="1">
       <t>pai'qi</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求评审</t>
-    <rPh sb="0" eb="1">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ping'shen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交互稿定稿，约评审</t>
-    <rPh sb="0" eb="1">
-      <t>jiao'hu'gao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ding'gao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ping'shen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试验收</t>
-  </si>
-  <si>
-    <t>测试验收</t>
-    <rPh sb="0" eb="1">
-      <t>ce'shi'yan'shou</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1677,51 +1533,326 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>明确需求，完成方案，提交开发</t>
-    <rPh sb="0" eb="1">
-      <t>ming'que</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
+    <t>年终总结</t>
+    <rPh sb="0" eb="1">
+      <t>nian'zhong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-22558</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动链接分享除FTL路径外的解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33249</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合伙小队迭代优化</t>
+    <rPh sb="0" eb="1">
+      <t>he'huo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao'dui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>die'dai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉微商V2.0</t>
+    <rPh sb="0" eb="1">
+      <t>kao'la</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化用户体验，推进微商合作</t>
+    <rPh sb="0" eb="1">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti'yan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tui'jin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei'shnag</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>he'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wap链接唤起app跟踪cps订单，据说分享赚钱尚未实现</t>
+    <rPh sb="18" eb="19">
+      <t>ju'shuo</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fen'xiang</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zhuan'qian</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>shang'wei</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>shi'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34079</t>
+  </si>
+  <si>
+    <t>接入虚拟商品销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加分销销售品类，提高销售额</t>
+    <rPh sb="0" eb="1">
+      <t>zeng'jai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao'shou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiao'shou'e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销2.0上线后对</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
     </rPh>
     <rPh sb="5" eb="6">
+      <t>shang'xian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-30748</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成第二轮评审，补全交互稿，跟进视觉稿修订，安排业务方培训</t>
+    <rPh sb="0" eb="1">
       <t>wan'cheng</t>
     </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'er'lun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ping'shen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu'quan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiao'hu'gao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shi'jue'gao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xiu'ding</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>an'pai</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>pei'xun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进测试</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ijn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进测试</t>
+    <rPh sb="0" eb="1">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进测试、上线</t>
+    <rPh sb="0" eb="1">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进测试、上线</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ijn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明确技术方案</t>
+    <rPh sb="0" eb="1">
+      <t>mign'que</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和需求方沟通确认该任务是否仍然需要做</t>
+    <rPh sb="0" eb="1">
+      <t>he</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xu'qiu'fang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gou'tong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gai'ren'wu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>reng'ran</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分批跟进测试、上线</t>
+    <rPh sb="0" eb="1">
+      <t>fen'pi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ce'shi</t>
+    </rPh>
     <rPh sb="7" eb="8">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="12" eb="13">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始策划</t>
+    <rPh sb="0" eb="1">
+      <t>kai'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进开发</t>
+    <rPh sb="0" eb="1">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>kai'fa</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持续增补任务，提交开发</t>
-    <rPh sb="0" eb="1">
-      <t>chi'xu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zeng'bu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ren'wu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/12/20 左右</t>
-    <rPh sb="11" eb="12">
-      <t>zuo'you</t>
-    </rPh>
+    <t>http://t.cn/RItK8zO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1868,7 +1999,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
@@ -1908,6 +2039,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2229,10 +2363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2243,7 +2377,7 @@
     <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38.83203125" bestFit="1" customWidth="1"/>
@@ -2258,13 +2392,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -2273,7 +2407,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>14</v>
@@ -2293,22 +2427,24 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="I2" s="15">
         <v>42732</v>
       </c>
@@ -2319,7 +2455,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2327,27 +2463,29 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="I3" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="L3" s="7"/>
     </row>
@@ -2359,19 +2497,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="3">
-        <v>42723</v>
+      <c r="I4" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>12</v>
@@ -2383,10 +2521,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
@@ -2395,13 +2533,13 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2412,10 +2550,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
@@ -2424,16 +2562,16 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -2441,30 +2579,30 @@
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7"/>
     </row>
@@ -2473,25 +2611,27 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="3">
-        <v>42723</v>
+      <c r="H8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="17">
+        <v>42724</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="L8" s="7"/>
     </row>
@@ -2500,124 +2640,125 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="3">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I9" s="17">
         <v>42724</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>18</v>
+      <c r="A10" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>82</v>
+        <v>184</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>169</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>161</v>
+      <c r="I10" s="3"/>
+      <c r="J10" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="L10" s="7"/>
+        <v>183</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>29</v>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>149</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>44</v>
+        <v>20</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="F12" s="7" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7" t="s">
-        <v>46</v>
+      <c r="H12" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I12" s="17">
+        <v>42724</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2625,39 +2766,39 @@
         <v>18</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>179</v>
-      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
@@ -2665,16 +2806,16 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="L14" s="7"/>
     </row>
@@ -2683,41 +2824,39 @@
         <v>18</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="3">
-        <v>42733</v>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>122</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
@@ -2725,38 +2864,49 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7" t="s">
-        <v>74</v>
+      <c r="I16" s="3">
+        <v>42733</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="L16" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="7">
-        <v>3</v>
+        <v>176</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2764,29 +2914,22 @@
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>113</v>
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>100</v>
-      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -2794,25 +2937,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>80</v>
+        <v>23</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="L19" s="7"/>
     </row>
@@ -2821,442 +2967,487 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="7" t="s">
-        <v>178</v>
-      </c>
+      <c r="H20" s="7"/>
       <c r="I20" s="7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>25</v>
+      <c r="A21" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7" t="s">
-        <v>87</v>
+      <c r="H21" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>141</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="7"/>
+        <v>8</v>
+      </c>
       <c r="H22" s="7"/>
-      <c r="J22" s="9" t="s">
-        <v>164</v>
+      <c r="I22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="L22" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>26</v>
+      <c r="A23" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>29</v>
+      <c r="J23" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>112</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>142</v>
+        <v>104</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>92</v>
+        <v>196</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>154</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>19</v>
+        <v>181</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J26" s="9"/>
+        <v>197</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="7" t="s">
-        <v>159</v>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A29" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="15">
-        <v>42709</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="15">
-        <v>42709</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="15">
-        <v>42709</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="7"/>
       <c r="F34" s="11" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="15">
-        <v>42705</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>29</v>
+        <v>42709</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
-        <v>25</v>
+      <c r="A35" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="11" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="15">
-        <v>42705</v>
+        <v>42709</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>119</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
-        <v>18</v>
+      <c r="A36" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="11" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="3">
+      <c r="I36" s="15">
+        <v>42705</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="15">
+        <v>42705</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="3">
         <v>42703</v>
       </c>
-      <c r="J36" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="J38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39" s="3">
+        <v>42690</v>
+      </c>
+      <c r="J39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C37"/>
-      <c r="D37" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I37" s="3">
-        <v>42690</v>
-      </c>
-      <c r="J37" t="s">
-        <v>29</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3265,37 +3456,35 @@
     <hyperlink ref="J2" r:id="rId1"/>
     <hyperlink ref="K2" r:id="rId2"/>
     <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K11" r:id="rId4"/>
-    <hyperlink ref="K13" r:id="rId5"/>
+    <hyperlink ref="K12" r:id="rId4"/>
+    <hyperlink ref="K14" r:id="rId5"/>
     <hyperlink ref="K5" r:id="rId6"/>
-    <hyperlink ref="K14" r:id="rId7"/>
-    <hyperlink ref="K15" r:id="rId8"/>
-    <hyperlink ref="K25" r:id="rId9"/>
-    <hyperlink ref="J25" r:id="rId10"/>
-    <hyperlink ref="K12" r:id="rId11"/>
-    <hyperlink ref="J10" r:id="rId12"/>
-    <hyperlink ref="K16" r:id="rId13"/>
-    <hyperlink ref="K19" r:id="rId14"/>
+    <hyperlink ref="K15" r:id="rId7"/>
+    <hyperlink ref="K16" r:id="rId8"/>
+    <hyperlink ref="K27" r:id="rId9"/>
+    <hyperlink ref="J27" r:id="rId10"/>
+    <hyperlink ref="K13" r:id="rId11"/>
+    <hyperlink ref="J11" r:id="rId12"/>
+    <hyperlink ref="K17" r:id="rId13"/>
+    <hyperlink ref="K20" r:id="rId14"/>
     <hyperlink ref="J6" r:id="rId15"/>
     <hyperlink ref="K6" r:id="rId16"/>
-    <hyperlink ref="K21" r:id="rId17"/>
-    <hyperlink ref="K10" r:id="rId18"/>
+    <hyperlink ref="K22" r:id="rId17"/>
+    <hyperlink ref="K11" r:id="rId18"/>
     <hyperlink ref="J7" r:id="rId19"/>
-    <hyperlink ref="K18" r:id="rId20"/>
-    <hyperlink ref="K23" r:id="rId21"/>
-    <hyperlink ref="K37" r:id="rId22"/>
-    <hyperlink ref="K36" r:id="rId23"/>
-    <hyperlink ref="K35" r:id="rId24"/>
-    <hyperlink ref="K34" r:id="rId25"/>
-    <hyperlink ref="J22" r:id="rId26"/>
-    <hyperlink ref="K33" r:id="rId27"/>
-    <hyperlink ref="J33" r:id="rId28"/>
-    <hyperlink ref="K32" r:id="rId29"/>
-    <hyperlink ref="K7" r:id="rId30"/>
-    <hyperlink ref="K22" r:id="rId31"/>
-    <hyperlink ref="K8" r:id="rId32"/>
-    <hyperlink ref="K31" r:id="rId33"/>
-    <hyperlink ref="J31" r:id="rId34"/>
+    <hyperlink ref="K19" r:id="rId20"/>
+    <hyperlink ref="K24" r:id="rId21"/>
+    <hyperlink ref="K39" r:id="rId22"/>
+    <hyperlink ref="K38" r:id="rId23"/>
+    <hyperlink ref="K37" r:id="rId24"/>
+    <hyperlink ref="K36" r:id="rId25"/>
+    <hyperlink ref="J23" r:id="rId26"/>
+    <hyperlink ref="K35" r:id="rId27"/>
+    <hyperlink ref="K7" r:id="rId28"/>
+    <hyperlink ref="K23" r:id="rId29"/>
+    <hyperlink ref="K8" r:id="rId30"/>
+    <hyperlink ref="K34" r:id="rId31"/>
+    <hyperlink ref="J34" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3307,7 +3496,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45:H46"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3325,22 +3514,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>6</v>
@@ -3348,19 +3537,19 @@
     </row>
     <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3368,16 +3557,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F3" s="3">
         <v>42719</v>
@@ -3385,10 +3574,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -3399,7 +3588,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -3410,7 +3599,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -3418,57 +3607,54 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>171</v>
-      </c>
-      <c r="C9" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>174</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>26</v>
+      <c r="A11" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-7340" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="231">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -181,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部分售后原因不扣除佣金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-28405</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,10 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wap链接唤起app能跟踪cps订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">APP商品详情页访问后台接口获取CPS返佣信息接口改动 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,10 +278,6 @@
   </si>
   <si>
     <t>http://jira.netease.com/browse/KJDS-28569</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-25538</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -661,37 +649,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>由于微商V1.0优先级更高，在此之后进行开发</t>
-    <rPh sb="0" eb="1">
-      <t>you'yu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wei'shang</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>you'xian'ji</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>geng'gao</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ci</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>zhi'hoiu</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>jin'xing</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分仓对CPS的影响</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -761,10 +718,6 @@
   </si>
   <si>
     <t>APP3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.cn/RfoQgRe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -917,13 +870,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2d</t>
-    <rPh sb="1" eb="2">
-      <t>wan'cheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导出用户身份证照片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1097,10 +1043,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1142,16 +1084,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>考拉微商V1.1迭代优化</t>
-    <rPh sb="8" eb="9">
-      <t>die'dai</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>you'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修补内测过程中发现的问题</t>
     <rPh sb="0" eb="1">
       <t>xiu'bu</t>
@@ -1307,53 +1239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12月19号之前定稿</t>
-    <rPh sb="2" eb="3">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>hao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhi'qian</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ding'gao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时不做拆单，等上线后加上这个逻辑</t>
-    <rPh sb="0" eb="1">
-      <t>zan'shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zuo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>chai'dan</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>deng</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shang'xian'hou</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>jia'shang</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zhe'ge</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>luo'ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://t.cn/RfwRvO6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1475,34 +1360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-33731</t>
-  </si>
-  <si>
-    <t>部分内容必须在12月20号之前</t>
-    <rPh sb="0" eb="1">
-      <t>bu'fen</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>nei'rong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bi'xu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yeu</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>hjao</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zhi'qian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后台类目调整影响评估：cps/分销</t>
     <rPh sb="0" eb="1">
       <t>hou'tai</t>
@@ -1571,16 +1428,6 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>you'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考拉微商V2.0</t>
-    <rPh sb="0" eb="1">
-      <t>kao'la</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wei'shang</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1637,10 +1484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加分销销售品类，提高销售额</t>
     <rPh sb="0" eb="1">
       <t>zeng'jai</t>
@@ -1686,66 +1529,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成第二轮评审，补全交互稿，跟进视觉稿修订，安排业务方培训</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>di'er'lun</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ping'shen</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>bu'quan</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>jiao'hu'gao</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>shi'jue'gao</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>xiu'ding</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>an'pai</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ye'wu</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>fang</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>pei'xun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进测试</t>
-    <rPh sb="0" eb="1">
-      <t>gen'ijn</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ce'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进测试</t>
-    <rPh sb="0" eb="1">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ce'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>跟进测试、上线</t>
     <rPh sb="0" eb="1">
       <t>gen'jin</t>
@@ -1816,38 +1599,509 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分批跟进测试、上线</t>
-    <rPh sb="0" eb="1">
+    <t>跟进开发</t>
+    <rPh sb="0" eb="1">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RfoQgRe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-25538</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待排期</t>
+    <rPh sb="0" eb="1">
+      <t>dai'pai'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34631</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>native分享浮层文案修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉微商V1.2</t>
+    <rPh sb="0" eb="1">
+      <t>kao'la</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉微商V1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34592</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待需求方给出文案</t>
+    <rPh sb="0" eb="1">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu'fang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gei'chu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen'an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34651</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高用户体验，降低客诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此任务为原有任务未完成的子任务部分</t>
+    <rPh sb="0" eb="1">
+      <t>ci'ren'wu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yuan'you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zi'ren'wu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu'fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.23-1.30活动时间</t>
+    <rPh sb="9" eb="10">
+      <t>huo'dong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wap链接唤起app能跟踪cps订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享赚钱wap支持唤起app后跟单</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuan'qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分售后原因不扣除佣金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据说要排到年后</t>
+    <rPh sb="0" eb="1">
+      <t>ju'shuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pai'dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nian'hou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要拆分需求</t>
+    <rPh sb="0" eb="1">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chai'fen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只做客服相关的改动</t>
+    <rPh sb="0" eb="1">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>uzo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ke'fu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang'guan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gai'dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接招行的物流信息接口和取消订单接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决和招行进行分销合作的问题</t>
+    <rPh sb="0" eb="1">
+      <t>jie'jue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhao'hang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>he'zuo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待招行给到接口文档</t>
+    <rPh sb="0" eb="1">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhao'ahng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gei'dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen'dnag</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-35106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合伙小队_排除虚拟商品后消费总额不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高用户体验，降低客诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <rPh sb="0" eb="1">
+      <t>kai'fa'hzong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-35110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增根据skuid库存查询接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销基础服务</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fu'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <rPh sb="0" eb="1">
+      <t>kjai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推进开发排期</t>
+    <rPh sb="0" eb="1">
+      <t>tui'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-35113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春节活动2016的一个基础任务</t>
+    <rPh sb="0" eb="1">
+      <t>chun'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hud'oong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商优先级更高，持续delay</t>
+    <rPh sb="0" eb="1">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'xian'ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>geng'gao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chi'xu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场部反馈可以先不做</t>
+    <rPh sb="0" eb="1">
+      <t>shi'chang'bu'fan'kui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'men</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动开发排期</t>
+    <rPh sb="0" eb="1">
+      <t>tui'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai'iq</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续分批跟进测试、上线</t>
+    <rPh sb="0" eb="1">
+      <t>ji'xu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>fen'pi</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="4" eb="5">
       <t>gen'jin</t>
     </rPh>
-    <rPh sb="4" eb="5">
+    <rPh sb="6" eb="7">
       <t>ce'shi</t>
     </rPh>
+    <rPh sb="9" eb="10">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成需求5-7并提交</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
     <rPh sb="7" eb="8">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti'jaio</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补全交互稿文案部分、安排客服培训</t>
+    <rPh sb="5" eb="6">
+      <t>wen'an</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>an'pai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ke'fu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>pei'xun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RIO8l4t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原计划本周上线，已安排妥当，因高层需求延迟到1.3上线</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'ji'hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ben'zhou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
       <t>shang'xian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始策划</t>
-    <rPh sb="0" eb="1">
-      <t>kai'shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ce'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进开发</t>
-    <rPh sb="0" eb="1">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kai'fa</t>
+    <rPh sb="8" eb="9">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>an'pai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tuo'dang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yin</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>gao'ceng</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yan'chi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shang'xian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1954,11 +2208,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2045,7 +2304,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="48">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -2089,6 +2348,11 @@
     <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2363,10 +2627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2376,8 +2640,7 @@
     <col min="3" max="3" width="7.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="59.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38.83203125" bestFit="1" customWidth="1"/>
@@ -2392,13 +2655,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -2407,7 +2670,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>14</v>
@@ -2427,23 +2690,25 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="H2" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="I2" s="15">
         <v>42732</v>
@@ -2454,38 +2719,34 @@
       <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>154</v>
-      </c>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="L3" s="7"/>
     </row>
@@ -2497,19 +2758,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="3" t="s">
-        <v>73</v>
+      <c r="I4" s="15">
+        <v>42732</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>12</v>
@@ -2521,25 +2782,27 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="I5" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2550,10 +2813,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
@@ -2562,16 +2825,16 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -2579,91 +2842,90 @@
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="7"/>
+        <v>135</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>159</v>
+        <v>171</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="I8" s="17">
-        <v>42724</v>
-      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="L8" s="7"/>
+        <v>170</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="I9" s="17">
-        <v>42724</v>
-      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2671,29 +2933,28 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2701,13 +2962,13 @@
         <v>18</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>8</v>
@@ -2715,50 +2976,45 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>133</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="I12" s="17">
-        <v>42724</v>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2766,28 +3022,28 @@
         <v>18</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7" t="s">
-        <v>45</v>
+      <c r="I13" s="3">
+        <v>42733</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2795,10 +3051,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>35</v>
+        <v>164</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
@@ -2806,16 +3065,16 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>97</v>
+        <v>177</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7"/>
     </row>
@@ -2824,28 +3083,24 @@
         <v>18</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>37</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2853,59 +3108,57 @@
         <v>18</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="3">
-        <v>42733</v>
+      <c r="I16" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>119</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>73</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L17" s="7"/>
     </row>
@@ -2914,22 +3167,29 @@
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="7">
-        <v>3</v>
+        <v>184</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>183</v>
+      </c>
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -2937,517 +3197,677 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="I19" s="16"/>
       <c r="J19" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" s="7"/>
+        <v>192</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>18</v>
+      <c r="A20" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L20" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>18</v>
+      <c r="A21" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
+      <c r="H21" s="7"/>
+      <c r="J21" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>66</v>
+        <v>99</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="I22" s="7" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="7" t="s">
-        <v>19</v>
+      <c r="F23" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="J23" s="9" t="s">
-        <v>157</v>
+      <c r="H23" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="L23" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>120</v>
+        <v>186</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7" t="s">
-        <v>113</v>
+        <v>167</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>226</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="16" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>28</v>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>15</v>
+        <v>143</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>27</v>
+        <v>166</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="F27" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="7">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="I28" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="17">
+        <v>42725</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="17">
+        <v>42725</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="J28" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C29" s="7">
-        <v>2</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="15">
-        <v>42709</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>18</v>
+      <c r="A35" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="H35" s="7"/>
-      <c r="I35" s="15">
-        <v>42709</v>
+      <c r="I35" s="17">
+        <v>42725</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>26</v>
+      <c r="A36" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="G36" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="H36" s="7"/>
-      <c r="I36" s="15">
-        <v>42705</v>
+      <c r="I36" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="H37" s="7"/>
-      <c r="I37" s="15">
-        <v>42705</v>
+      <c r="I37" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>117</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G38" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="H38" s="7"/>
-      <c r="I38" s="3">
+      <c r="I38" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="15">
+        <v>42709</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="15">
+        <v>42709</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="15">
+        <v>42705</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="15">
+        <v>42705</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="3">
         <v>42703</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="J43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44" s="3">
+        <v>42690</v>
+      </c>
+      <c r="J44" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C39"/>
-      <c r="D39" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I39" s="3">
-        <v>42690</v>
-      </c>
-      <c r="J39" t="s">
-        <v>28</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3456,35 +3876,39 @@
     <hyperlink ref="J2" r:id="rId1"/>
     <hyperlink ref="K2" r:id="rId2"/>
     <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K12" r:id="rId4"/>
-    <hyperlink ref="K14" r:id="rId5"/>
+    <hyperlink ref="K33" r:id="rId4"/>
+    <hyperlink ref="K37" r:id="rId5"/>
     <hyperlink ref="K5" r:id="rId6"/>
-    <hyperlink ref="K15" r:id="rId7"/>
-    <hyperlink ref="K16" r:id="rId8"/>
-    <hyperlink ref="K27" r:id="rId9"/>
-    <hyperlink ref="J27" r:id="rId10"/>
-    <hyperlink ref="K13" r:id="rId11"/>
+    <hyperlink ref="K38" r:id="rId7"/>
+    <hyperlink ref="K13" r:id="rId8"/>
+    <hyperlink ref="K25" r:id="rId9"/>
+    <hyperlink ref="J25" r:id="rId10"/>
+    <hyperlink ref="K12" r:id="rId11"/>
     <hyperlink ref="J11" r:id="rId12"/>
-    <hyperlink ref="K17" r:id="rId13"/>
-    <hyperlink ref="K20" r:id="rId14"/>
+    <hyperlink ref="K14" r:id="rId13"/>
+    <hyperlink ref="K17" r:id="rId14"/>
     <hyperlink ref="J6" r:id="rId15"/>
     <hyperlink ref="K6" r:id="rId16"/>
-    <hyperlink ref="K22" r:id="rId17"/>
+    <hyperlink ref="K20" r:id="rId17"/>
     <hyperlink ref="K11" r:id="rId18"/>
     <hyperlink ref="J7" r:id="rId19"/>
-    <hyperlink ref="K19" r:id="rId20"/>
-    <hyperlink ref="K24" r:id="rId21"/>
-    <hyperlink ref="K39" r:id="rId22"/>
-    <hyperlink ref="K38" r:id="rId23"/>
-    <hyperlink ref="K37" r:id="rId24"/>
-    <hyperlink ref="K36" r:id="rId25"/>
-    <hyperlink ref="J23" r:id="rId26"/>
-    <hyperlink ref="K35" r:id="rId27"/>
+    <hyperlink ref="K16" r:id="rId20"/>
+    <hyperlink ref="K22" r:id="rId21"/>
+    <hyperlink ref="K44" r:id="rId22"/>
+    <hyperlink ref="K43" r:id="rId23"/>
+    <hyperlink ref="K42" r:id="rId24"/>
+    <hyperlink ref="K41" r:id="rId25"/>
+    <hyperlink ref="J21" r:id="rId26"/>
+    <hyperlink ref="K40" r:id="rId27"/>
     <hyperlink ref="K7" r:id="rId28"/>
-    <hyperlink ref="K23" r:id="rId29"/>
-    <hyperlink ref="K8" r:id="rId30"/>
-    <hyperlink ref="K34" r:id="rId31"/>
-    <hyperlink ref="J34" r:id="rId32"/>
+    <hyperlink ref="K21" r:id="rId29"/>
+    <hyperlink ref="K34" r:id="rId30"/>
+    <hyperlink ref="K39" r:id="rId31"/>
+    <hyperlink ref="J39" r:id="rId32"/>
+    <hyperlink ref="K19" r:id="rId33"/>
+    <hyperlink ref="J24" r:id="rId34"/>
+    <hyperlink ref="K9" r:id="rId35"/>
+    <hyperlink ref="K28" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3514,22 +3938,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>6</v>
@@ -3537,19 +3961,19 @@
     </row>
     <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3557,16 +3981,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F3" s="3">
         <v>42719</v>
@@ -3574,10 +3998,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -3588,7 +4012,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -3599,7 +4023,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -3607,10 +4031,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -3618,10 +4042,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -3629,10 +4053,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -3640,10 +4064,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -3654,7 +4078,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="227">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -148,22 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>依赖客服APP3.4统一改版</t>
-    <rPh sb="0" eb="1">
-      <t>yi'lai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ke'fu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>tong'yi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>gai'ban</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分享赚钱</t>
     <rPh sb="0" eb="1">
       <t>fen'xiang</t>
@@ -290,16 +274,6 @@
   </si>
   <si>
     <t>http://jira.netease.com/browse/KJDS-29015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双12后</t>
-    <rPh sb="0" eb="1">
-      <t>shuang</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>hou</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -332,10 +306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任务价值</t>
     <rPh sb="0" eb="1">
       <t>ren'wu</t>
@@ -692,28 +662,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://t.cn/RfSJsqe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://jira.netease.com/browse/KJDS-31808</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排到分销V2.0后</t>
-    <rPh sb="0" eb="1">
-      <t>pai'dao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fen'xiao</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>hou</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -736,10 +689,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-31682</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -905,16 +854,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>紧急上线</t>
-    <rPh sb="0" eb="1">
-      <t>jin'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已上线</t>
     <rPh sb="0" eb="1">
       <t>yi'jing</t>
@@ -925,20 +864,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>APP3.4后发布</t>
-    <rPh sb="6" eb="7">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fa'bu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>事务名称</t>
     <rPh sb="0" eb="1">
       <t>shi'wu</t>
@@ -1040,10 +965,6 @@
   </si>
   <si>
     <t>网站联盟订单管理优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1122,120 +1043,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://jira.netease.com/browse/KJDS-33233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>native分享浮层“分享赚”标题可配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助解除微信屏蔽</t>
+    <rPh sb="0" eb="1">
+      <t>xie'zhu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei'xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ping'bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春节活动2017</t>
+    <rPh sb="0" eb="1">
+      <t>chun'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hud'oong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高曝光、拉新</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao'guang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>la'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1月20号左右</t>
     <rPh sb="1" eb="2">
       <t>yue</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>hao</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zuo'you</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-33233</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站联盟、微商也需要支持，排在12月15号左右</t>
-    <rPh sb="0" eb="1">
-      <t>wabg'zhan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>lian'meng</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wei'shang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ye</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zhi'chi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>pai'zai</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>hao</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>zuo'you</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-33136</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>native分享浮层“分享赚”标题可配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协助解除微信屏蔽</t>
-    <rPh sb="0" eb="1">
-      <t>xie'zhu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'chu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wei'xin</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ping'bi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>春节活动2017</t>
-    <rPh sb="0" eb="1">
-      <t>chun'jie</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hud'oong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高曝光、拉新</t>
-    <rPh sb="0" eb="1">
-      <t>ti'gao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bao'guang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>la'xin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1月20号左右</t>
-    <rPh sb="1" eb="2">
-      <t>yue</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1400,10 +1266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-22558</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1542,19 +1404,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跟进测试、上线</t>
-    <rPh sb="0" eb="1">
-      <t>gen'ijn</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>明确技术方案</t>
     <rPh sb="0" eb="1">
       <t>mign'que</t>
@@ -1599,16 +1448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跟进开发</t>
-    <rPh sb="0" eb="1">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://t.cn/RfoQgRe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1658,31 +1497,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待需求方给出文案</t>
-    <rPh sb="0" eb="1">
-      <t>deng'dai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu'fang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>gei'chu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>wen'an</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-34651</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1756,22 +1571,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>据说要排到年后</t>
-    <rPh sb="0" eb="1">
-      <t>ju'shuo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>pai'dao</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>nian'hou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需要拆分需求</t>
     <rPh sb="0" eb="1">
       <t>xu'yao</t>
@@ -1785,10 +1584,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>只做客服相关的改动</t>
     <rPh sb="0" eb="1">
       <t>zhi</t>
@@ -1921,19 +1716,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推进开发排期</t>
-    <rPh sb="0" eb="1">
-      <t>tui'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pai'qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-35113</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1991,54 +1773,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>bu'zuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推动开发排期</t>
-    <rPh sb="0" eb="1">
-      <t>tui'dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pai'iq</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续分批跟进测试、上线</t>
-    <rPh sb="0" eb="1">
-      <t>ji'xu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fen'pi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成需求5-7并提交</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>bing</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ti'jaio</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2066,7 +1800,286 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原计划本周上线，已安排妥当，因高层需求延迟到1.3上线</t>
+    <t>http://t.cn/RItK8zO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进测试</t>
+    <rPh sb="0" eb="1">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动开发排期</t>
+    <rPh sb="0" eb="1">
+      <t>tui'jin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排到年后</t>
+    <rPh sb="0" eb="1">
+      <t>pai'dao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nian'hou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和开发明确技术方案</t>
+    <rPh sb="0" eb="1">
+      <t>he</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ming'que</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <rPh sb="0" eb="1">
+      <t>kai'f'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动开发排期，跟进测试、上线</t>
+    <rPh sb="0" eb="1">
+      <t>tui'jin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai'qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进需求方给出文案，提交任务</t>
+    <rPh sb="0" eb="1">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gei'chu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen'an</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ti'jao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和开发明确技术方案，提交任务</t>
+    <rPh sb="0" eb="1">
+      <t>he</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ming'que</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ti'jaio</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分批跟进测试、上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成需求5-7并提交开发</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti'jaio</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成需求1-4并提交开发（1.11提测）</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti'jaio</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ti'ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进视觉稿产出、协调各组进度、解决开发过程中的问题、补全交互稿文案部分</t>
+    <rPh sb="0" eb="1">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jue'gao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chan'chu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xie'tiao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ge'zu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jin'du</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jie'jue</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>kai'fa'guo'cheng'zhong</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>de</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>wn't'n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收需求，完成方案，提交任务</t>
+    <rPh sb="0" eb="1">
+      <t>jie'shou</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ti'jao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是个bug</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原计划本周上线，已完成上线计划制订、运营通知培训，因高层需求延迟到1.3上线</t>
     <rPh sb="0" eb="1">
       <t>yuan'ji'hua</t>
     </rPh>
@@ -2080,33 +2093,73 @@
       <t>yi</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>an'pai</t>
+      <t>wan'cheng</t>
     </rPh>
     <rPh sb="11" eb="12">
-      <t>tuo'dang</t>
+      <t>shang'xian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ji'hua</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yun'ying</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>tong'zhi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>pei'xun</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yin</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>gao'ceng</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>yan'chi</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新制订上线计划，跟进测试、上线</t>
+    <rPh sb="0" eb="1">
+      <t>chong'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shang'xian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'hua</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ce'shi</t>
     </rPh>
     <rPh sb="14" eb="15">
-      <t>yin</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>gao'ceng</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>yan'chi</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="25" eb="26">
       <t>shang'xian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://t.cn/RItK8zO</t>
+    <t>3d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2208,11 +2261,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2304,7 +2362,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -2353,6 +2411,11 @@
     <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2629,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2640,7 +2703,8 @@
     <col min="3" max="3" width="7.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="74" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38.83203125" bestFit="1" customWidth="1"/>
@@ -2655,13 +2719,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -2670,7 +2734,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>14</v>
@@ -2690,28 +2754,28 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>134</v>
+        <v>65</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="I2" s="15">
-        <v>42732</v>
+        <v>225</v>
+      </c>
+      <c r="I2" s="17">
+        <v>42738</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>9</v>
@@ -2726,27 +2790,29 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
-        <v>133</v>
+      <c r="H3" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" s="3">
+        <v>42752</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="L3" s="7"/>
     </row>
@@ -2758,19 +2824,21 @@
         <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="15">
-        <v>42732</v>
+      <c r="H4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" s="17">
+        <v>42372</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>12</v>
@@ -2782,10 +2850,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
@@ -2793,82 +2864,80 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>17</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="I6" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>84</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="J7" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2876,13 +2945,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
@@ -2892,13 +2961,13 @@
       <c r="H8" s="7"/>
       <c r="I8" s="3"/>
       <c r="J8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2906,10 +2975,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
@@ -2919,13 +2988,13 @@
       <c r="H9" s="7"/>
       <c r="I9" s="3"/>
       <c r="J9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2933,10 +3002,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
@@ -2945,58 +3014,55 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="3" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="J11" s="9" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
@@ -3004,590 +3070,598 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>36</v>
+        <v>149</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="3">
-        <v>42733</v>
+      <c r="H13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>113</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>162</v>
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>71</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="I16" s="7" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>74</v>
+        <v>167</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>209</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="H17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>73</v>
+        <v>210</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G18" s="7"/>
+        <v>165</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="H18" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="I18" s="16"/>
+        <v>205</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>207</v>
+      </c>
       <c r="J18" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="L18" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>18</v>
+      <c r="A19" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>193</v>
+        <v>60</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>194</v>
+        <v>58</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G19" s="7"/>
+        <v>8</v>
+      </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="16"/>
+      <c r="I19" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="J19" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>195</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>27</v>
+        <v>215</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>125</v>
+        <v>93</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="J21" s="9" t="s">
-        <v>147</v>
+      <c r="H21" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="L21" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="B23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="B24" s="7" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="H24" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="I24" s="15"/>
+        <v>201</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="J24" s="9" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>26</v>
+        <v>151</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="F25" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="7">
+        <v>189</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" s="7">
+      <c r="C30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>215</v>
+      <c r="H30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D31" s="7"/>
+      <c r="A31" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="17">
+        <v>42733</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="17">
+        <v>42733</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>126</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E33" s="7"/>
       <c r="F33" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>175</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="17">
+      <c r="I33" s="15">
         <v>42725</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>137</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>175</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="17">
+      <c r="I34" s="15">
         <v>42725</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="L34" s="7"/>
     </row>
@@ -3596,132 +3670,124 @@
         <v>7</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>175</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="17">
+      <c r="I35" s="15">
         <v>42725</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>176</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="11" t="s">
-        <v>91</v>
+      <c r="I36" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>176</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="11" t="s">
-        <v>92</v>
+      <c r="I37" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>176</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="11" t="s">
-        <v>160</v>
+      <c r="I38" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -3729,26 +3795,26 @@
         <v>42709</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -3756,26 +3822,26 @@
         <v>42709</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -3783,26 +3849,26 @@
         <v>42705</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -3810,28 +3876,26 @@
         <v>42705</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>111</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -3839,10 +3903,10 @@
         <v>42703</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L43" s="7"/>
     </row>
@@ -3851,23 +3915,23 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I44" s="3">
         <v>42690</v>
       </c>
       <c r="J44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3880,35 +3944,35 @@
     <hyperlink ref="K37" r:id="rId5"/>
     <hyperlink ref="K5" r:id="rId6"/>
     <hyperlink ref="K38" r:id="rId7"/>
-    <hyperlink ref="K13" r:id="rId8"/>
-    <hyperlink ref="K25" r:id="rId9"/>
-    <hyperlink ref="J25" r:id="rId10"/>
+    <hyperlink ref="K32" r:id="rId8"/>
+    <hyperlink ref="K23" r:id="rId9"/>
+    <hyperlink ref="J23" r:id="rId10"/>
     <hyperlink ref="K12" r:id="rId11"/>
     <hyperlink ref="J11" r:id="rId12"/>
-    <hyperlink ref="K14" r:id="rId13"/>
-    <hyperlink ref="K17" r:id="rId14"/>
+    <hyperlink ref="K13" r:id="rId13"/>
+    <hyperlink ref="K16" r:id="rId14"/>
     <hyperlink ref="J6" r:id="rId15"/>
     <hyperlink ref="K6" r:id="rId16"/>
-    <hyperlink ref="K20" r:id="rId17"/>
+    <hyperlink ref="K19" r:id="rId17"/>
     <hyperlink ref="K11" r:id="rId18"/>
     <hyperlink ref="J7" r:id="rId19"/>
-    <hyperlink ref="K16" r:id="rId20"/>
-    <hyperlink ref="K22" r:id="rId21"/>
+    <hyperlink ref="K15" r:id="rId20"/>
+    <hyperlink ref="K21" r:id="rId21"/>
     <hyperlink ref="K44" r:id="rId22"/>
     <hyperlink ref="K43" r:id="rId23"/>
     <hyperlink ref="K42" r:id="rId24"/>
     <hyperlink ref="K41" r:id="rId25"/>
-    <hyperlink ref="J21" r:id="rId26"/>
+    <hyperlink ref="J20" r:id="rId26"/>
     <hyperlink ref="K40" r:id="rId27"/>
     <hyperlink ref="K7" r:id="rId28"/>
-    <hyperlink ref="K21" r:id="rId29"/>
+    <hyperlink ref="K20" r:id="rId29"/>
     <hyperlink ref="K34" r:id="rId30"/>
     <hyperlink ref="K39" r:id="rId31"/>
     <hyperlink ref="J39" r:id="rId32"/>
-    <hyperlink ref="K19" r:id="rId33"/>
-    <hyperlink ref="J24" r:id="rId34"/>
+    <hyperlink ref="K18" r:id="rId33"/>
+    <hyperlink ref="J22" r:id="rId34"/>
     <hyperlink ref="K9" r:id="rId35"/>
-    <hyperlink ref="K28" r:id="rId36"/>
+    <hyperlink ref="K26" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3938,22 +4002,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>6</v>
@@ -3961,19 +4025,19 @@
     </row>
     <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3981,16 +4045,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F3" s="3">
         <v>42719</v>
@@ -3998,10 +4062,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -4012,7 +4076,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -4020,10 +4084,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -4031,10 +4095,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -4042,10 +4106,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -4053,10 +4117,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -4064,10 +4128,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -4075,10 +4139,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="218">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -806,37 +806,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>要求快速上线</t>
-    <rPh sb="0" eb="1">
-      <t>yao'qiu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kuai'su</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导出用户身份证照片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排期中</t>
-    <rPh sb="0" eb="1">
-      <t>pai'qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双12后</t>
-    <rPh sb="0" eb="1">
-      <t>shuagn</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>hou</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1391,19 +1361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跟进测试、上线</t>
-    <rPh sb="0" eb="1">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>明确技术方案</t>
     <rPh sb="0" eb="1">
       <t>mign'que</t>
@@ -1417,41 +1374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>和需求方沟通确认该任务是否仍然需要做</t>
-    <rPh sb="0" eb="1">
-      <t>he</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>xu'qiu'fang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gou'tong</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>gai'ren'wu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shi'fou</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>reng'ran</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>zuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.cn/RfoQgRe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-25538</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1460,10 +1382,6 @@
     <rPh sb="0" eb="1">
       <t>dai'pai'qi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-34631</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1814,7 +1732,141 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推动开发排期</t>
+    <t>排到年后</t>
+    <rPh sb="0" eb="1">
+      <t>pai'dao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nian'hou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和开发明确技术方案</t>
+    <rPh sb="0" eb="1">
+      <t>he</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ming'que</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <rPh sb="0" eb="1">
+      <t>kai'f'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成需求5-7并提交开发</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti'jaio</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是个bug</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新制订上线计划，跟进测试、上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已撤销</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>che'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已用线下方法解决，不用做了</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian'xia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang'fa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34631</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动开发排期，跟进测试、上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动技术排期</t>
     <rPh sb="0" eb="1">
       <t>tui'jin</t>
     </rPh>
@@ -1822,7 +1874,7 @@
       <t>dong</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>kai'fa</t>
+      <t>ji'shu</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>pai'qi</t>
@@ -1830,336 +1882,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>排到年后</t>
-    <rPh sb="0" eb="1">
-      <t>pai'dao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>nian'hou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和开发明确技术方案</t>
-    <rPh sb="0" eb="1">
-      <t>he</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ming'que</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fang'an</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <rPh sb="0" eb="1">
-      <t>kai'f'zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推动开发排期，跟进测试、上线</t>
-    <rPh sb="0" eb="1">
-      <t>tui'jin</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pai'qi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进需求方给出文案，提交任务</t>
-    <rPh sb="0" eb="1">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>gei'chu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>wen'an</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ti'jao</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ren'wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和开发明确技术方案，提交任务</t>
-    <rPh sb="0" eb="1">
-      <t>he</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ming'que</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ti'jaio</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ren'wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分批跟进测试、上线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成需求5-7并提交开发</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>bing</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ti'jaio</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成需求1-4并提交开发（1.11提测）</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>bing</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ti'jaio</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ti'ce</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进视觉稿产出、协调各组进度、解决开发过程中的问题、补全交互稿文案部分</t>
-    <rPh sb="0" eb="1">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi'jue'gao</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>chan'chu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>xie'tiao</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ge'zu</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>jin'du</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>jie'jue</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>kai'fa'guo'cheng'zhong</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>de</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>wn't'n</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收需求，完成方案，提交任务</t>
-    <rPh sb="0" eb="1">
-      <t>jie'shou</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>shou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ti'jao</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ren'wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是个bug</t>
-    <rPh sb="0" eb="1">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ge</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原计划本周上线，已完成上线计划制订、运营通知培训，因高层需求延迟到1.3上线</t>
-    <rPh sb="0" eb="1">
-      <t>yuan'ji'hua</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ben'zhou</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shang'xian</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shang'xian</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ji'hua</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>zhi'ding</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>yun'ying</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>tong'zhi</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>pei'xun</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>yin</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>gao'ceng</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>yan'chi</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新制订上线计划，跟进测试、上线</t>
-    <rPh sb="0" eb="1">
-      <t>chong'xin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhi'ding</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shang'xian</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ji'hua</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3d</t>
+    <t>2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RfoQgRe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2202,7 +1929,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2251,6 +1978,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2316,7 +2049,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
@@ -2359,6 +2092,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2692,8 +2428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2769,11 +2505,9 @@
         <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>225</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="H2" s="7"/>
       <c r="I2" s="17">
         <v>42738</v>
       </c>
@@ -2799,11 +2533,11 @@
         <v>64</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I3" s="3">
         <v>42752</v>
@@ -2812,7 +2546,7 @@
         <v>69</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L3" s="7"/>
     </row>
@@ -2823,6 +2557,9 @@
       <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="C4" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="D4" s="7" t="s">
         <v>48</v>
       </c>
@@ -2832,10 +2569,10 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="I4" s="17">
-        <v>42372</v>
+        <v>215</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>26</v>
@@ -2864,7 +2601,7 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>41</v>
@@ -2896,7 +2633,7 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>96</v>
@@ -2917,7 +2654,7 @@
         <v>82</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>66</v>
@@ -2926,18 +2663,18 @@
         <v>44</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="J7" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2945,13 +2682,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
@@ -2964,10 +2701,10 @@
         <v>26</v>
       </c>
       <c r="K8" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2975,10 +2712,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
@@ -2991,10 +2728,10 @@
         <v>26</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3002,10 +2739,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
@@ -3014,16 +2751,16 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3037,7 +2774,7 @@
         <v>51</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>8</v>
@@ -3045,13 +2782,13 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="J11" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>83</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3077,7 +2814,7 @@
         <v>40</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3085,7 +2822,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
@@ -3099,7 +2836,7 @@
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>67</v>
@@ -3131,7 +2868,7 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -3183,7 +2920,7 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>70</v>
@@ -3201,32 +2938,27 @@
         <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>211</v>
+        <v>213</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="17">
+        <v>42372</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7"/>
     </row>
@@ -3235,35 +2967,33 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>213</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -3282,7 +3012,7 @@
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>26</v>
@@ -3291,7 +3021,7 @@
         <v>81</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -3299,7 +3029,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>49</v>
@@ -3311,13 +3041,13 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L20" s="7"/>
     </row>
@@ -3326,231 +3056,220 @@
         <v>23</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
-        <v>101</v>
+        <v>149</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>204</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>23</v>
+      <c r="A22" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H22" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I22" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>202</v>
-      </c>
       <c r="K22" s="9" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>25</v>
+        <v>124</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>220</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="I23" s="7" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>177</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="7">
+        <v>182</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="H29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>6</v>
+      <c r="K30" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -3558,27 +3277,25 @@
         <v>23</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>216</v>
-      </c>
+      <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="17">
+      <c r="I31" s="15">
         <v>42733</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L31" s="7"/>
     </row>
@@ -3596,11 +3313,9 @@
       <c r="F32" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>160</v>
-      </c>
+      <c r="G32" s="7"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="17">
+      <c r="I32" s="15">
         <v>42733</v>
       </c>
       <c r="J32" s="7" t="s">
@@ -3616,7 +3331,7 @@
         <v>17</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>51</v>
@@ -3634,7 +3349,7 @@
         <v>26</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L33" s="7"/>
     </row>
@@ -3643,10 +3358,10 @@
         <v>7</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="11" t="s">
@@ -3661,7 +3376,7 @@
         <v>26</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L34" s="7"/>
     </row>
@@ -3670,10 +3385,10 @@
         <v>7</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="11" t="s">
@@ -3688,7 +3403,7 @@
         <v>26</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="L35" s="7"/>
     </row>
@@ -3697,10 +3412,10 @@
         <v>17</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="11" t="s">
@@ -3715,7 +3430,7 @@
         <v>26</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L36" s="7"/>
     </row>
@@ -3724,7 +3439,7 @@
         <v>22</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>51</v>
@@ -3763,7 +3478,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>26</v>
@@ -3795,7 +3510,7 @@
         <v>42709</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K39" s="9" t="s">
         <v>37</v>
@@ -3825,7 +3540,7 @@
         <v>26</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L40" s="7"/>
     </row>
@@ -3841,7 +3556,7 @@
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -3888,7 +3603,7 @@
         <v>17</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>52</v>
@@ -3945,8 +3660,8 @@
     <hyperlink ref="K5" r:id="rId6"/>
     <hyperlink ref="K38" r:id="rId7"/>
     <hyperlink ref="K32" r:id="rId8"/>
-    <hyperlink ref="K23" r:id="rId9"/>
-    <hyperlink ref="J23" r:id="rId10"/>
+    <hyperlink ref="K22" r:id="rId9"/>
+    <hyperlink ref="J22" r:id="rId10"/>
     <hyperlink ref="K12" r:id="rId11"/>
     <hyperlink ref="J11" r:id="rId12"/>
     <hyperlink ref="K13" r:id="rId13"/>
@@ -3957,7 +3672,7 @@
     <hyperlink ref="K11" r:id="rId18"/>
     <hyperlink ref="J7" r:id="rId19"/>
     <hyperlink ref="K15" r:id="rId20"/>
-    <hyperlink ref="K21" r:id="rId21"/>
+    <hyperlink ref="K30" r:id="rId21"/>
     <hyperlink ref="K44" r:id="rId22"/>
     <hyperlink ref="K43" r:id="rId23"/>
     <hyperlink ref="K42" r:id="rId24"/>
@@ -3970,9 +3685,9 @@
     <hyperlink ref="K39" r:id="rId31"/>
     <hyperlink ref="J39" r:id="rId32"/>
     <hyperlink ref="K18" r:id="rId33"/>
-    <hyperlink ref="J22" r:id="rId34"/>
+    <hyperlink ref="J21" r:id="rId34"/>
     <hyperlink ref="K9" r:id="rId35"/>
-    <hyperlink ref="K26" r:id="rId36"/>
+    <hyperlink ref="K25" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4002,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>97</v>
@@ -4014,10 +3729,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>6</v>
@@ -4028,16 +3743,16 @@
         <v>22</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4045,16 +3760,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="F3" s="3">
         <v>42719</v>
@@ -4065,7 +3780,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -4076,7 +3791,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -4087,7 +3802,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -4098,7 +3813,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -4109,7 +3824,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -4120,7 +3835,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -4131,7 +3846,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -4142,7 +3857,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="33600" yWindow="-7340" windowWidth="51200" windowHeight="28340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="236">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -106,14 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分销渠道取消订单接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-27167</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开发中</t>
     <rPh sb="0" eb="1">
       <t>kai'fa'zhong</t>
@@ -274,13 +266,6 @@
   </si>
   <si>
     <t>http://jira.netease.com/browse/KJDS-29015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP3.4后</t>
-    <rPh sb="6" eb="7">
-      <t>hou</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -627,16 +612,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分享赚钱V4.1</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hzuan'qian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已上线</t>
     <rPh sb="0" eb="1">
       <t>yi'jing</t>
@@ -666,22 +641,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-31808</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>APP3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-29869</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销V2.1（退税）</t>
-    <rPh sb="7" eb="8">
-      <t>tui'shui</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -781,16 +741,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ji'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销V2.0后</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>hou</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -954,10 +904,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://t.cn/RcnD3mx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-29785</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1126,10 +1072,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-33557</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1341,22 +1283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分销2.0上线后对</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiao</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shang'xian</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>dui</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-30748</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1385,37 +1311,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>native分享浮层文案修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-33731</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>考拉微商V1.2</t>
-    <rPh sb="0" eb="1">
-      <t>kao'la</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wei'shang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>考拉微商V1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-34592</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-34651</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1489,19 +1389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要拆分需求</t>
-    <rPh sb="0" eb="1">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chai'fen</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xu'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>只做客服相关的改动</t>
     <rPh sb="0" eb="1">
       <t>zhi</t>
@@ -1524,10 +1411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对接招行的物流信息接口和取消订单接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1634,10 +1517,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-35113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>春节活动2016的一个基础任务</t>
     <rPh sb="0" eb="1">
       <t>chun'jie</t>
@@ -1676,7 +1555,553 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>市场部反馈可以先不做</t>
+    <t>http://t.cn/RItK8zO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排到年后</t>
+    <rPh sb="0" eb="1">
+      <t>pai'dao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nian'hou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是个bug</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已撤销</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>che'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已用线下方法解决，不用做了</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian'xia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang'fa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34631</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动开发排期，跟进测试、上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动技术排期</t>
+    <rPh sb="0" eb="1">
+      <t>tui'jin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RfoQgRe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>native分享浮层文案修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销v2.0上线后优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用研建议&amp;市场建议修订交互稿、撰写并敲定细节文案、确认数据需求</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'yan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi'chang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jian'yi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiu'ding</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jiao'hu'gao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhuan'xie</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>qiao'ding</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xi'jie</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>wen'an</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新制订上线计划，跟进测试、上线、跟进解决上线后出现的各种问题</t>
+    <rPh sb="17" eb="18">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jie'jue</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>shang'xian</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>chu'xian</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>de</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ge'zhong</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-35776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>native分享浮层文案修改（修订）</t>
+    <rPh sb="15" eb="16">
+      <t>xiu'ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化文案排版</t>
+    <rPh sb="0" eb="1">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen'an</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai'ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-35885</t>
+  </si>
+  <si>
+    <t>明确需求，提交任务</t>
+    <rPh sb="0" eb="1">
+      <t>ming'que'xu'qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti'jaio</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动技术排期</t>
+    <rPh sb="0" eb="1">
+      <t>tui'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升分销系统体验，提高效率</t>
+    <rPh sb="0" eb="1">
+      <t>ti'sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ti'yan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiao'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13号后的日常版本</t>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ri'chang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ban'bne</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-27167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动技术排期落地</t>
+    <rPh sb="6" eb="7">
+      <t>luo'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销渠道取消订单接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-31808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明确需求，提交任务，推动技术排期落地</t>
+    <rPh sb="0" eb="1">
+      <t>ming'que</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>luo'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术反馈需要排到年后</t>
+    <rPh sb="0" eb="1">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan'kui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pai'dao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nian'hou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34651</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅剩利润脱敏没有上线，年后处理</t>
+    <rPh sb="0" eb="1">
+      <t>jin'jin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>sheng'xia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li'run</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tuo'min</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shang'xian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>nian'hou</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chu'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉微商v1.2</t>
+    <rPh sb="0" eb="1">
+      <t>kao'la</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销v2.1（退税）</t>
+    <rPh sb="7" eb="8">
+      <t>tui'shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享赚钱v4.1</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hzuan'qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明确技术方案</t>
+    <rPh sb="0" eb="1">
+      <t>ming'que</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RcnD3mx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未启动</t>
+    <rPh sb="0" eb="1">
+      <t>wei'lai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qi'dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS_新增返佣商品表支持数据分析业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持数据分析业务</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen'xi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ye'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排期中</t>
+    <rPh sb="0" eb="1">
+      <t>pai'q'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-36091</t>
+  </si>
+  <si>
+    <t>http://t.cn/RIO8l4t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-29869</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成方案，提交内审，和需求方确认，需求评审，提交开发</t>
+    <rPh sb="0" eb="1">
+      <t>wan'c'gebg</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ping'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该任务不急，预计排到年后上线</t>
+    <rPh sb="0" eb="1">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu'ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yu'ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>nian'hou</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进主站接口对接</t>
+    <rPh sb="0" eb="1">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu'zhan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dui'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖主站接口</t>
+    <rPh sb="0" eb="1">
+      <t>yi'lai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu'zhan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-35113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场部反馈可以先不做，持续delay</t>
     <rPh sb="0" eb="1">
       <t>shi'chang'bu'fan'kui</t>
     </rPh>
@@ -1692,201 +2117,146 @@
     <rPh sb="8" eb="9">
       <t>bu'zuo</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补全交互稿文案部分、安排客服培训</t>
+    <rPh sb="11" eb="12">
+      <t>chi'xu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成相关调研</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'guan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>diao'yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动技术进行字段排查</t>
+    <rPh sb="0" eb="1">
+      <t>tui'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi'duan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pai'cha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和需求方、开发明确技术方案</t>
+    <rPh sb="0" eb="1">
+      <t>he</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xu'qiu'fang</t>
+    </rPh>
     <rPh sb="5" eb="6">
-      <t>wen'an</t>
+      <t>kai'fa</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>bu'fen</t>
-    </rPh>
-    <rPh sb="10" eb="11">
+      <t>ming'que</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计排到年后</t>
+    <rPh sb="0" eb="1">
+      <t>yu'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pai'dao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nian'hou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大部分内容可以年前上线</t>
+    <rPh sb="0" eb="1">
+      <t>da'bu'fen</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei'rong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>nian'qian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shagn'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34592</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安排客服培训，完成TC评审， 跟进测试</t>
+    <rPh sb="0" eb="1">
       <t>an'pai</t>
     </rPh>
-    <rPh sb="12" eb="13">
+    <rPh sb="2" eb="3">
       <t>ke'fu</t>
     </rPh>
-    <rPh sb="14" eb="15">
+    <rPh sb="4" eb="5">
       <t>pei'xun</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.cn/RIO8l4t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.cn/RItK8zO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进测试</t>
-    <rPh sb="0" eb="1">
+    <rPh sb="7" eb="8">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ping'shne</t>
+    </rPh>
+    <rPh sb="15" eb="16">
       <t>gen'jin</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="17" eb="18">
       <t>ce'shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>排到年后</t>
-    <rPh sb="0" eb="1">
-      <t>pai'dao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>nian'hou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和开发明确技术方案</t>
-    <rPh sb="0" eb="1">
-      <t>he</t>
+    <t>与安全组讨论并更新需求</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
     </rPh>
     <rPh sb="1" eb="2">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ming'que</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ji'shu</t>
+      <t>an'quan'zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tao'lun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bing</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>fang'an</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <rPh sb="0" eb="1">
-      <t>kai'f'zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成需求5-7并提交开发</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
       <t>xu'qiu</t>
     </rPh>
-    <rPh sb="7" eb="8">
-      <t>bing</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ti'jaio</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是个bug</t>
-    <rPh sb="0" eb="1">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ge</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新制订上线计划，跟进测试、上线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已撤销</t>
-    <rPh sb="0" eb="1">
-      <t>yi'jing</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>che'xiao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已用线下方法解决，不用做了</t>
-    <rPh sb="0" eb="1">
-      <t>yi'jing</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xian'xia</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fang'fa</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>jie'jue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-34631</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推动开发排期，跟进测试、上线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推动技术排期</t>
-    <rPh sb="0" eb="1">
-      <t>tui'jin</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pai'qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.cn/RfoQgRe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1994,11 +2364,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2098,7 +2469,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="54">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -2152,6 +2523,7 @@
     <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2426,10 +2798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2439,7 +2811,7 @@
     <col min="3" max="3" width="7.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="74" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="59.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
@@ -2455,13 +2827,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -2470,10 +2842,10 @@
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>4</v>
@@ -2490,32 +2862,29 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="17">
-        <v>42738</v>
+      <c r="I2" s="3">
+        <v>42752</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="L2" s="7"/>
     </row>
@@ -2524,29 +2893,27 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>64</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
-        <v>197</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" s="7"/>
       <c r="I3" s="3">
-        <v>42752</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>69</v>
+        <v>42751</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="L3" s="7"/>
     </row>
@@ -2555,126 +2922,125 @@
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>179</v>
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="H5" s="7" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>26</v>
+        <v>81</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="7"/>
+        <v>203</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="F6" s="7" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>96</v>
-      </c>
+      <c r="H6" s="7"/>
       <c r="J6" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>208</v>
+        <v>143</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>44</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="J7" s="9" t="s">
-        <v>101</v>
+        <v>8</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2682,29 +3048,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="3"/>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2712,26 +3075,30 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2739,67 +3106,65 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="3" t="s">
-        <v>179</v>
+      <c r="I10" s="3">
+        <v>42752</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>191</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>134</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="J11" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
@@ -2808,67 +3173,67 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>3</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -2876,43 +3241,48 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <v>2</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="I15" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
@@ -2920,774 +3290,877 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="17">
-        <v>42372</v>
+        <v>148</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="L17" s="7"/>
+        <v>207</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="7">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="I18" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="D19" s="7" t="s">
-        <v>58</v>
+        <v>216</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>117</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>130</v>
+      <c r="I20" s="3">
+        <v>42753</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="L20" s="7"/>
+        <v>221</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="D23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="7">
         <v>1</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="L21" s="7" t="s">
+      <c r="D24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="7"/>
+      <c r="K24" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D28" s="7"/>
+      <c r="K26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="7"/>
       <c r="F31" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="H31" s="7"/>
-      <c r="I31" s="15">
-        <v>42733</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>26</v>
+      <c r="I31" s="17">
+        <v>42738</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>184</v>
+      </c>
       <c r="H32" s="7"/>
-      <c r="I32" s="15">
-        <v>42733</v>
+      <c r="I32" s="17">
+        <v>42372</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>17</v>
+      <c r="A33" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="11" t="s">
-        <v>92</v>
+      <c r="F33" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="15">
-        <v>42725</v>
+      <c r="I33" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="L33" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>7</v>
+      <c r="A34" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="15">
-        <v>42725</v>
+        <v>42733</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>7</v>
+      <c r="A35" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="15">
-        <v>42725</v>
+        <v>42733</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="16" t="s">
-        <v>85</v>
+      <c r="I36" s="15">
+        <v>42725</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
-        <v>22</v>
+      <c r="A37" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="16" t="s">
-        <v>86</v>
+      <c r="I37" s="15">
+        <v>42725</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>17</v>
+      <c r="A38" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="16" t="s">
-        <v>143</v>
+      <c r="I38" s="15">
+        <v>42725</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
-        <v>23</v>
+      <c r="A39" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E39" s="7"/>
       <c r="F39" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="15">
-        <v>42709</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>115</v>
+      <c r="I39" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
-        <v>17</v>
+      <c r="A40" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="15">
-        <v>42709</v>
+      <c r="I40" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
-        <v>24</v>
+      <c r="A41" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="11" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="15">
-        <v>42705</v>
+      <c r="I41" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
-        <v>22</v>
+      <c r="A42" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="F42" s="11" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="15">
-        <v>42705</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>26</v>
+        <v>42709</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="3">
+      <c r="I43" s="15">
+        <v>42709</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="15">
+        <v>42705</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="15">
+        <v>42705</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="3">
         <v>42703</v>
       </c>
-      <c r="J43" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L43" s="7"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="J46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44"/>
-      <c r="D44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I47" s="3">
         <v>42690</v>
       </c>
-      <c r="J44" t="s">
-        <v>26</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>30</v>
+      <c r="J47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="K2" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K33" r:id="rId4"/>
-    <hyperlink ref="K37" r:id="rId5"/>
-    <hyperlink ref="K5" r:id="rId6"/>
-    <hyperlink ref="K38" r:id="rId7"/>
-    <hyperlink ref="K32" r:id="rId8"/>
-    <hyperlink ref="K22" r:id="rId9"/>
-    <hyperlink ref="J22" r:id="rId10"/>
+    <hyperlink ref="J31" r:id="rId1"/>
+    <hyperlink ref="K31" r:id="rId2"/>
+    <hyperlink ref="K3" r:id="rId3"/>
+    <hyperlink ref="K36" r:id="rId4"/>
+    <hyperlink ref="K40" r:id="rId5"/>
+    <hyperlink ref="K4" r:id="rId6"/>
+    <hyperlink ref="K41" r:id="rId7"/>
+    <hyperlink ref="K35" r:id="rId8"/>
+    <hyperlink ref="K23" r:id="rId9"/>
+    <hyperlink ref="J23" r:id="rId10"/>
     <hyperlink ref="K12" r:id="rId11"/>
     <hyperlink ref="J11" r:id="rId12"/>
     <hyperlink ref="K13" r:id="rId13"/>
     <hyperlink ref="K16" r:id="rId14"/>
-    <hyperlink ref="J6" r:id="rId15"/>
-    <hyperlink ref="K6" r:id="rId16"/>
-    <hyperlink ref="K19" r:id="rId17"/>
+    <hyperlink ref="J5" r:id="rId15"/>
+    <hyperlink ref="K5" r:id="rId16"/>
+    <hyperlink ref="K20" r:id="rId17"/>
     <hyperlink ref="K11" r:id="rId18"/>
-    <hyperlink ref="J7" r:id="rId19"/>
+    <hyperlink ref="J6" r:id="rId19"/>
     <hyperlink ref="K15" r:id="rId20"/>
-    <hyperlink ref="K30" r:id="rId21"/>
-    <hyperlink ref="K44" r:id="rId22"/>
-    <hyperlink ref="K43" r:id="rId23"/>
-    <hyperlink ref="K42" r:id="rId24"/>
-    <hyperlink ref="K41" r:id="rId25"/>
-    <hyperlink ref="J20" r:id="rId26"/>
-    <hyperlink ref="K40" r:id="rId27"/>
-    <hyperlink ref="K7" r:id="rId28"/>
-    <hyperlink ref="K20" r:id="rId29"/>
-    <hyperlink ref="K34" r:id="rId30"/>
-    <hyperlink ref="K39" r:id="rId31"/>
-    <hyperlink ref="J39" r:id="rId32"/>
-    <hyperlink ref="K18" r:id="rId33"/>
-    <hyperlink ref="J21" r:id="rId34"/>
-    <hyperlink ref="K9" r:id="rId35"/>
-    <hyperlink ref="K25" r:id="rId36"/>
+    <hyperlink ref="K33" r:id="rId21"/>
+    <hyperlink ref="K47" r:id="rId22"/>
+    <hyperlink ref="K46" r:id="rId23"/>
+    <hyperlink ref="K45" r:id="rId24"/>
+    <hyperlink ref="K44" r:id="rId25"/>
+    <hyperlink ref="J21" r:id="rId26"/>
+    <hyperlink ref="K43" r:id="rId27"/>
+    <hyperlink ref="K6" r:id="rId28"/>
+    <hyperlink ref="K21" r:id="rId29"/>
+    <hyperlink ref="K37" r:id="rId30"/>
+    <hyperlink ref="K42" r:id="rId31"/>
+    <hyperlink ref="J42" r:id="rId32"/>
+    <hyperlink ref="K17" r:id="rId33"/>
+    <hyperlink ref="J22" r:id="rId34"/>
+    <hyperlink ref="K8" r:id="rId35"/>
+    <hyperlink ref="K26" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3717,22 +4190,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>6</v>
@@ -3740,19 +4213,19 @@
     </row>
     <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3760,16 +4233,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F3" s="3">
         <v>42719</v>
@@ -3777,10 +4250,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -3791,7 +4264,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -3799,10 +4272,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -3810,10 +4283,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -3821,10 +4294,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -3832,10 +4305,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -3843,10 +4316,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -3854,10 +4327,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-7340" windowWidth="51200" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
-    <sheet name="其他事务" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="212">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -641,10 +640,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>APP3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-32048</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -784,123 +779,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事务名称</t>
-    <rPh sb="0" eb="1">
-      <t>shi'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>mign'cheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交网站联盟数据周报需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决时间</t>
-    <rPh sb="0" eb="1">
-      <t>jie'jue</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看网盟业务数据</t>
-    <rPh sb="0" eb="1">
-      <t>cha'kan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wang'meng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ye'wu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shu'ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待朱浩回复</t>
-    <rPh sb="0" eb="1">
-      <t>deng'dai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhu'aho</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>hui'fu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和技术沟通招行接口分仓/2.0升级的事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确保招行分销业务平整切换</t>
-    <rPh sb="0" eb="1">
-      <t>que'bao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhao'hang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fen'xiao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ye'wu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ping'zheng</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>qie'huan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术评估中</t>
-    <rPh sb="0" eb="1">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ping'gu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Due</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网站联盟订单管理优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS业务线核心原理解释</t>
-    <rPh sb="3" eb="4">
-      <t>ye'wu'xian</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>he'xin</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yuan'li</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>jie'shi</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -942,19 +821,6 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>wen'ti</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>写分销V2.0话术</t>
-    <rPh sb="0" eb="1">
-      <t>xie</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>fen'xiao</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>hua'shu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1025,25 +891,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分享赚钱V4.1后台先改</t>
-    <rPh sb="0" eb="1">
-      <t>fn'xiang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhuan'qian</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>hou'tai</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>xian</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>gai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://t.cn/RfgjXOb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1076,32 +923,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>整理后台常用交互组件</t>
-    <rPh sb="0" eb="1">
-      <t>zheng'li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hou'tai</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>chang'yon</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>jiao'hu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zu'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2d</t>
-    <rPh sb="1" eb="2">
-      <t>jie'jue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>排期中</t>
     <rPh sb="0" eb="1">
       <t>pai'qi</t>
@@ -1138,43 +959,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后台类目调整影响评估：cps/分销</t>
-    <rPh sb="0" eb="1">
-      <t>hou'tai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>lei'mu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>tiao'zheng</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ying'xiang</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ping'gu</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>fen'xiao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梳理一下前台后台的冻结中状态（和吕玉君讨论一下）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2016/12/19 (APP3.4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年终总结</t>
-    <rPh sb="0" eb="1">
-      <t>nian'zhong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zong'jie</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1229,25 +1014,6 @@
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wap链接唤起app跟踪cps订单，据说分享赚钱尚未实现</t>
-    <rPh sb="18" eb="19">
-      <t>ju'shuo</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>fen'xiang</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>zhuan'qian</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>shang'wei</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>shi'xian</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1485,10 +1251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-35110</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1513,28 +1275,6 @@
     <t>开发中</t>
     <rPh sb="0" eb="1">
       <t>kjai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>春节活动2016的一个基础任务</t>
-    <rPh sb="0" eb="1">
-      <t>chun'jie</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hud'oong</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>de</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yi'ge</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ji'chu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ren'wu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1555,10 +1295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://t.cn/RItK8zO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>排到年后</t>
     <rPh sb="0" eb="1">
       <t>pai'dao</t>
@@ -1566,10 +1302,6 @@
     <rPh sb="2" eb="3">
       <t>nian'hou</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1628,10 +1360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推动开发排期，跟进测试、上线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1661,83 +1389,6 @@
   </si>
   <si>
     <t>分销v2.0上线后优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据用研建议&amp;市场建议修订交互稿、撰写并敲定细节文案、确认数据需求</t>
-    <rPh sb="0" eb="1">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yong'yan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jian'yi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shi'chang</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jian'yi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>xiu'ding</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>jiao'hu'gao</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>zhuan'xie</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>bing</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>qiao'ding</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>xi'jie</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>wen'an</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>xu'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新制订上线计划，跟进测试、上线、跟进解决上线后出现的各种问题</t>
-    <rPh sb="17" eb="18">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>jie'jue</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>shang'xian</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>chu'xian</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>de</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ge'zhong</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>wen'ti</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1768,19 +1419,6 @@
     <t>http://jira.netease.com/browse/KJDS-35885</t>
   </si>
   <si>
-    <t>明确需求，提交任务</t>
-    <rPh sb="0" eb="1">
-      <t>ming'que'xu'qiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ti'jaio</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ren'wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推动技术排期</t>
     <rPh sb="0" eb="1">
       <t>tui'dong</t>
@@ -1839,64 +1477,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推动技术排期落地</t>
-    <rPh sb="6" eb="7">
-      <t>luo'di</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分销渠道取消订单接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://jira.netease.com/browse/KJDS-31808</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明确需求，提交任务，推动技术排期落地</t>
-    <rPh sb="0" eb="1">
-      <t>ming'que</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ren'wu</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>luo'di</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术反馈需要排到年后</t>
-    <rPh sb="0" eb="1">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fan'kui</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>pai'dao</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>nian'hou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-34651</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1955,19 +1540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>明确技术方案</t>
-    <rPh sb="0" eb="1">
-      <t>ming'que</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fang'an</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://t.cn/RcnD3mx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2013,30 +1585,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-36091</t>
-  </si>
-  <si>
-    <t>http://t.cn/RIO8l4t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-29869</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成方案，提交内审，和需求方确认，需求评审，提交开发</t>
-    <rPh sb="0" eb="1">
-      <t>wan'c'gebg</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ping'shen</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2068,22 +1617,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跟进主站接口对接</t>
-    <rPh sb="0" eb="1">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhu'zhan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jie'kou</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>dui'jie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>依赖主站接口</t>
     <rPh sb="0" eb="1">
       <t>yi'lai</t>
@@ -2155,7 +1688,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>和需求方、开发明确技术方案</t>
+    <t>预计排到年后</t>
+    <rPh sb="0" eb="1">
+      <t>yu'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pai'dao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nian'hou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大部分内容可以年前上线</t>
+    <rPh sb="0" eb="1">
+      <t>da'bu'fen</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei'rong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>nian'qian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shagn'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34592</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与安全组讨论并更新需求</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>an'quan'zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tao'lun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动技术排期落地</t>
+    <rPh sb="0" eb="1">
+      <t>tui'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai'qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>luo'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年后进行</t>
+    <rPh sb="0" eb="1">
+      <t>nian'hou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与技术沟通后确定是年后再进行</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gou'tong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>que'ding</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>nian'hou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zai'o</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jix'ning</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34651</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-36091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计本周</t>
+    <rPh sb="0" eb="1">
+      <t>yu'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ben'zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动技术排期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RItK8zO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RIO8l4t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成数据修订方案，待与需求方、开发确认</t>
+    <rPh sb="2" eb="3">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiu'ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成数据修订方案，待与需求方、开发确认</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiu'ding</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dai'yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>que'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和需求方、开发确认数据修订方案</t>
     <rPh sb="0" eb="1">
       <t>he</t>
     </rPh>
@@ -2166,96 +1887,81 @@
       <t>kai'fa</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>ming'que</t>
+      <t>que'ren</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>ji'shu</t>
+      <t>shu'ju</t>
     </rPh>
     <rPh sb="11" eb="12">
+      <t>xiu'ding</t>
+    </rPh>
+    <rPh sb="13" eb="14">
       <t>fang'an</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预计排到年后</t>
-    <rPh sb="0" eb="1">
-      <t>yu'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pai'dao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>nian'hou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大部分内容可以年前上线</t>
-    <rPh sb="0" eb="1">
-      <t>da'bu'fen</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>nei'rong</t>
+    <t>跟进测试、上线</t>
+    <rPh sb="0" eb="1">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce'shi</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>ke'yi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>nian'qian</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shagn'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-34592</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安排客服培训，完成TC评审， 跟进测试</t>
-    <rPh sb="0" eb="1">
-      <t>an'pai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成TC评审，修订交互稿，完成客服培训，根据高层需求修订交互稿，跟进视觉稿修订，跟进解决测试过程中的问题</t>
+    <rPh sb="13" eb="14">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="15" eb="16">
       <t>ke'fu</t>
     </rPh>
-    <rPh sb="4" eb="5">
+    <rPh sb="17" eb="18">
       <t>pei'xun</t>
     </rPh>
-    <rPh sb="7" eb="8">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ping'shne</t>
-    </rPh>
-    <rPh sb="15" eb="16">
+    <rPh sb="20" eb="21">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>gao'ceng</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>xiu'ding</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>jiao'hu'gao</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>shi'jue'gao</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>xiu'ding</t>
+    </rPh>
+    <rPh sb="40" eb="41">
       <t>gen'jin</t>
     </rPh>
-    <rPh sb="17" eb="18">
-      <t>ce'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与安全组讨论并更新需求</t>
-    <rPh sb="0" eb="1">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>an'quan'zu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>tao'lun</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>bing</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>geng'xin</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>xu'qiu</t>
+    <rPh sb="42" eb="43">
+      <t>jie'jue</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>guo'cheng</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>de</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>wn'ti</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2420,7 +2126,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
@@ -2460,9 +2166,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2800,8 +2503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2811,8 +2514,8 @@
     <col min="3" max="3" width="7.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="103.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38.83203125" bestFit="1" customWidth="1"/>
@@ -2827,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>43</v>
@@ -2842,7 +2545,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>12</v>
@@ -2871,12 +2574,14 @@
         <v>61</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H2" s="7"/>
+        <v>207</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="I2" s="3">
         <v>42752</v>
       </c>
@@ -2884,7 +2589,7 @@
         <v>66</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="L2" s="7"/>
     </row>
@@ -2893,7 +2598,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>45</v>
@@ -2902,9 +2607,7 @@
       <c r="F3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>201</v>
-      </c>
+      <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="3">
         <v>42751</v>
@@ -2913,7 +2616,7 @@
         <v>24</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="L3" s="7"/>
     </row>
@@ -2931,12 +2634,10 @@
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>24</v>
@@ -2945,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2963,22 +2664,20 @@
         <v>8</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>235</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>74</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -2986,7 +2685,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>63</v>
@@ -2995,18 +2694,18 @@
         <v>41</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="J6" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -3014,33 +2713,29 @@
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2</v>
+        <v>123</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>186</v>
-      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="3"/>
       <c r="J7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -3048,10 +2743,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
@@ -3064,10 +2759,10 @@
         <v>24</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3075,30 +2770,30 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>186</v>
-      </c>
+      <c r="G9" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9" s="7"/>
       <c r="I9" s="3" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3106,18 +2801,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>204</v>
-      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="3">
         <v>42752</v>
@@ -3126,7 +2819,7 @@
         <v>24</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7"/>
     </row>
@@ -3135,7 +2828,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>48</v>
@@ -3147,13 +2840,13 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="J11" s="9" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3179,7 +2872,7 @@
         <v>38</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3187,7 +2880,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
@@ -3201,7 +2894,7 @@
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>64</v>
@@ -3233,7 +2926,7 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -3258,16 +2951,16 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L15" s="7"/>
     </row>
@@ -3288,9 +2981,11 @@
       <c r="F16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="H16" s="7" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>67</v>
@@ -3308,33 +3003,33 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -3342,27 +3037,25 @@
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="15" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="L18" s="7"/>
     </row>
@@ -3371,29 +3064,26 @@
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="L19" s="7"/>
     </row>
@@ -3411,9 +3101,7 @@
       <c r="F20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>201</v>
-      </c>
+      <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="3">
         <v>42753</v>
@@ -3422,10 +3110,10 @@
         <v>24</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -3433,7 +3121,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>46</v>
@@ -3445,16 +3133,16 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -3462,37 +3150,32 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H22" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="I22" s="15" t="s">
-        <v>178</v>
+      <c r="H22" s="7"/>
+      <c r="I22" s="3">
+        <v>42754</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -3506,7 +3189,7 @@
         <v>45</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>8</v>
@@ -3514,16 +3197,16 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3531,37 +3214,37 @@
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -3569,7 +3252,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C25" s="7">
         <v>2</v>
@@ -3578,11 +3261,11 @@
         <v>48</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -3590,29 +3273,29 @@
         <v>22</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -3626,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>43</v>
@@ -3641,7 +3324,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>12</v>
@@ -3670,13 +3353,11 @@
         <v>42</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>191</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="17">
+      <c r="I31" s="15">
         <v>42738</v>
       </c>
       <c r="J31" s="9" t="s">
@@ -3692,27 +3373,25 @@
         <v>15</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>184</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G32" s="7"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="17">
+      <c r="I32" s="15">
         <v>42372</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="L32" s="7"/>
     </row>
@@ -3721,28 +3400,28 @@
         <v>21</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="18" t="s">
-        <v>181</v>
+      <c r="F33" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="7" t="s">
-        <v>185</v>
+      <c r="I33" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -3750,14 +3429,14 @@
         <v>21</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -3768,7 +3447,7 @@
         <v>24</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="L34" s="7"/>
     </row>
@@ -3784,7 +3463,7 @@
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -3804,14 +3483,14 @@
         <v>15</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -3822,7 +3501,7 @@
         <v>24</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="L36" s="7"/>
     </row>
@@ -3831,14 +3510,14 @@
         <v>7</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -3849,7 +3528,7 @@
         <v>24</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="L37" s="7"/>
     </row>
@@ -3858,14 +3537,14 @@
         <v>7</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -3876,7 +3555,7 @@
         <v>24</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="L38" s="7"/>
     </row>
@@ -3885,25 +3564,25 @@
         <v>15</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="L39" s="7"/>
     </row>
@@ -3912,19 +3591,19 @@
         <v>20</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>24</v>
@@ -3946,12 +3625,12 @@
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="16" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>24</v>
@@ -3975,7 +3654,7 @@
         <v>40</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -3983,7 +3662,7 @@
         <v>42709</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="K42" s="9" t="s">
         <v>35</v>
@@ -4002,7 +3681,7 @@
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -4013,7 +3692,7 @@
         <v>24</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="L43" s="7"/>
     </row>
@@ -4029,7 +3708,7 @@
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -4040,7 +3719,7 @@
         <v>24</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L44" s="7"/>
     </row>
@@ -4049,10 +3728,10 @@
         <v>20</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="11" t="s">
@@ -4067,7 +3746,7 @@
         <v>24</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L45" s="7"/>
     </row>
@@ -4076,14 +3755,14 @@
         <v>15</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -4165,177 +3844,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="7"/>
-    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="3">
-        <v>42719</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="33600" yWindow="-7800" windowWidth="51200" windowHeight="28800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$N$24</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="252">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -149,25 +152,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>策划中</t>
-    <rPh sb="0" eb="1">
-      <t>ce'hua'zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-28405</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分享渠道内容优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短标题弃用需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网站联盟</t>
     <rPh sb="0" eb="1">
       <t>wang'zhan</t>
@@ -228,10 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分销导出数据脱敏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分享赚钱_用户审核接入杭研多媒体接口（优化）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,10 +241,6 @@
   </si>
   <si>
     <t>http://jira.netease.com/browse/KJDS-26860</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付账号反作弊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -435,138 +415,116 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提高用户体验，提高分享点击率</t>
+    <t>和主站一致，保持统一性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高合作效果</t>
     <rPh sb="0" eb="1">
       <t>ti'gao</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>yong'hu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ti'yan</t>
+      <t>he'zuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开辟新的拉新、成交渠道</t>
+    <rPh sb="0" eb="1">
+      <t>kai'pi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>la'xin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cheng'jiao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qu'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗鱼CPS商品查询接口升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <rPh sb="0" eb="1">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_分仓版</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fen'cang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ban'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合分仓影响，配合分仓项目</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'cang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ying'xinag</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pei'he</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fen'cang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiang'mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销V2.0</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决售后问题，提高运营效率</t>
+    <rPh sb="0" eb="1">
+      <t>jie'jue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou'hou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen'ti</t>
     </rPh>
     <rPh sb="7" eb="8">
       <t>ti'gao</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>fen'xiang</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>dian'ji'lv</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和主站一致，保持统一性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高合作效果</t>
-    <rPh sb="0" eb="1">
-      <t>ti'gao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>he'zuo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xiao'guo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开辟新的拉新、成交渠道</t>
-    <rPh sb="0" eb="1">
-      <t>kai'pi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xin</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>de</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>la'xin</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>cheng'jiao</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>qu'dao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗鱼CPS商品查询接口升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <rPh sb="0" eb="1">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销_分仓版</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>fen'cang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ban'ben</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整合分仓影响，配合分仓项目</t>
-    <rPh sb="0" eb="1">
-      <t>zheng'he</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fen'cang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ying'xinag</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>pei'he</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>fen'cang</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>xiang'mu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销V2.0</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决售后问题，提高运营效率</t>
-    <rPh sb="0" eb="1">
-      <t>jie'jue</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shou'hou</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wen'ti</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ti'gao</t>
-    </rPh>
-    <rPh sb="9" eb="10">
       <t>yun'ying</t>
     </rPh>
     <rPh sb="11" eb="12">
@@ -603,10 +561,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分仓对CPS的影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>考拉微商V1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -645,10 +599,6 @@
   </si>
   <si>
     <t>http://jira.netease.com/browse/KJDS-31682</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/12/19 (APP3.4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -779,10 +729,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网站联盟订单管理优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-29785</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -829,10 +775,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-33136</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>native分享浮层“分享赚”标题可配</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -863,27 +805,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提高曝光、拉新</t>
-    <rPh sb="0" eb="1">
-      <t>ti'gao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bao'guang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>la'xin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1月20号左右</t>
-    <rPh sb="1" eb="2">
-      <t>yue</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -967,14 +889,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>活动链接分享除FTL路径外的解决方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-33249</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合伙小队迭代优化</t>
     <rPh sb="0" eb="1">
       <t>he'huo</t>
@@ -1017,13 +931,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-34079</t>
-  </si>
-  <si>
-    <t>接入虚拟商品销售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加分销销售品类，提高销售额</t>
     <rPh sb="0" eb="1">
       <t>zeng'jai</t>
@@ -1053,19 +960,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>明确技术方案</t>
-    <rPh sb="0" eb="1">
-      <t>mign'que</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fang'an</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-25538</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1074,10 +968,6 @@
     <rPh sb="0" eb="1">
       <t>dai'pai'qi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-33731</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1120,10 +1010,6 @@
     <rPh sb="15" eb="16">
       <t>bu'fen</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-34707</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1177,10 +1063,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对接招行的物流信息接口和取消订单接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>解决和招行进行分销合作的问题</t>
     <rPh sb="0" eb="1">
       <t>jie'jue</t>
@@ -1232,10 +1114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-35106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合伙小队_排除虚拟商品后消费总额不变</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1252,10 +1130,6 @@
   </si>
   <si>
     <t>http://jira.netease.com/browse/KJDS-35110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增根据skuid库存查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1356,39 +1230,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-34631</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推动技术排期</t>
-    <rPh sb="0" eb="1">
-      <t>tui'jin</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pai'qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://t.cn/RfoQgRe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>native分享浮层文案修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销v2.0上线后优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1416,9 +1266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-35885</t>
-  </si>
-  <si>
     <t>推动技术排期</t>
     <rPh sb="0" eb="1">
       <t>tui'dong</t>
@@ -1450,25 +1297,6 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>xiao'lv</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13号后的日常版本</t>
-    <rPh sb="2" eb="3">
-      <t>hao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>de</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ri'chang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ban'bne</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1554,10 +1382,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CPS_新增返佣商品表支持数据分析业务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支持数据分析业务</t>
     <rPh sb="0" eb="1">
       <t>zhi'chi</t>
@@ -1617,19 +1441,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>依赖主站接口</t>
-    <rPh sb="0" eb="1">
-      <t>yi'lai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhu'zhan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jie'kou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-35113</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1669,25 +1480,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推动技术进行字段排查</t>
-    <rPh sb="0" eb="1">
-      <t>tui'dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jin'xing</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zi'duan</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>pai'cha</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预计排到年后</t>
     <rPh sb="0" eb="1">
       <t>yu'ji</t>
@@ -1724,244 +1516,830 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与安全组讨论并更新需求</t>
-    <rPh sb="0" eb="1">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>an'quan'zu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>tao'lun</t>
+    <t>年后进行</t>
+    <rPh sb="0" eb="1">
+      <t>nian'hou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34651</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进测试、上线</t>
+    <rPh sb="0" eb="1">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-35106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖主站接口，主站反馈年后给到</t>
+    <rPh sb="0" eb="1">
+      <t>yi'lai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu'zhan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhu'zhan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fan'kui</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>nian'hou</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gei'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <rPh sb="0" eb="1">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结中</t>
+    <rPh sb="0" eb="1">
+      <t>dong'jei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结中</t>
+    <rPh sb="0" eb="1">
+      <t>dong'jei'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于开发在分仓项目分支上，只能和分仓一起上</t>
+    <rPh sb="0" eb="1">
+      <t>you'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen'cang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiang'mu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fen'zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhi'neng</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>he</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>fen'cnag</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yi'qi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉微商v1.3</t>
+    <rPh sb="0" eb="1">
+      <t>kao'la</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销财务对账功能</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cai'wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dui'zhang</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>bing</t>
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持财务对账和审计</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cai'wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dui'zhang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>geng'xin</t>
-    </rPh>
-    <rPh sb="9" eb="10">
+      <t>shen'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成方案，提交开发</t>
+  </si>
+  <si>
+    <t>节约成本</t>
+    <rPh sb="0" eb="1">
+      <t>jie'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'bne</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收需求</t>
+    <rPh sb="0" eb="1">
+      <t>jie'shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>xu'qiu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>APP3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推动技术排期落地</t>
-    <rPh sb="0" eb="1">
-      <t>tui'dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pai'qi</t>
+    <t>http://t.cn/RItK8zO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务表示Q1完成就行</t>
+    <rPh sb="0" eb="1">
+      <t>cai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao'shi</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>luo'di</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年后进行</t>
-    <rPh sb="0" eb="1">
-      <t>nian'hou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jin'xing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与技术沟通后确定是年后再进行</t>
-    <rPh sb="0" eb="1">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ji'shu</t>
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiu'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责开发/QA</t>
+    <rPh sb="0" eb="1">
+      <t>fu'ze</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄群/胡素雅</t>
+    <rPh sb="0" eb="1">
+      <t>huang'qun</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>gou'tong</t>
+      <t>hu'su'ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄群</t>
+    <rPh sb="0" eb="1">
+      <t>huang'qun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司徒</t>
+    <rPh sb="0" eb="1">
+      <t>si'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋飞翔/胡素雅</t>
+    <rPh sb="0" eb="1">
+      <t>song'fei'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贝</t>
+    <rPh sb="0" eb="1">
+      <t>wang'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司徒/胡素雅</t>
+    <rPh sb="0" eb="1">
+      <t>si'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-35885</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贝/胡素雅</t>
+    <rPh sb="0" eb="1">
+      <t>wang'bei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hu'su'ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周明明/石磊</t>
+    <rPh sb="0" eb="1">
+      <t>zhou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄武汉/马鑫</t>
+    <rPh sb="0" eb="1">
+      <t>huang'wu'han</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ma'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄群/朱开诚</t>
+    <rPh sb="0" eb="1">
+      <t>huang'qun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhu'kai'cheng</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>hou</t>
+      <t>cheng'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34631</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司徒/朱开诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭梅/张杰</t>
+    <rPh sb="3" eb="4">
+      <t>zhang'jei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司徒/张杰</t>
+    <rPh sb="0" eb="1">
+      <t>si'tu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhang'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33249</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈智钊/石磊</t>
+    <rPh sb="4" eb="5">
+      <t>shi'lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘新奇/石磊</t>
+    <rPh sb="0" eb="1">
+      <t>liu'xin'qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王志超/石磊</t>
+    <rPh sb="4" eb="5">
+      <t>shi'lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕昱君/朱开诚</t>
+    <rPh sb="0" eb="1">
+      <t>lv'yu'jun</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu'kai'cheng</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>que'ding</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>nian'hou</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zai'o</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>jix'ning</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-34651</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-36091</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计本周</t>
-    <rPh sb="0" eb="1">
-      <t>yu'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ben'zhou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推动技术排期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.cn/RItK8zO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.cn/RIO8l4t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成数据修订方案，待与需求方、开发确认</t>
-    <rPh sb="2" eb="3">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xiu'ding</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成数据修订方案，待与需求方、开发确认</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xiu'ding</t>
+      <t>cheng'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戚龙辉/魏雅婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘新奇/孙丹丹</t>
+    <rPh sb="0" eb="1">
+      <t>liu'xin'qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sun'dan'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范世龙/凌杏红</t>
+    <rPh sb="0" eb="1">
+      <t>fan'shi'logn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ling'xing'hong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屈国庆/蒋川静</t>
+    <rPh sb="0" eb="1">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chuan'jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进测试、上线</t>
+  </si>
+  <si>
+    <t>屈国庆/王美燕</t>
+    <rPh sb="0" eb="1">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wang'mei'yan</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>dai'yu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>que'ren</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和需求方、开发确认数据修订方案</t>
+      <t>yan'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进测试、上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和需求方确认数据修订方案</t>
     <rPh sb="0" eb="1">
       <t>he</t>
     </rPh>
     <rPh sb="1" eb="2">
       <t>xu'qiu'fang</t>
     </rPh>
+    <rPh sb="4" eb="5">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiu'ding</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成数据修订技术方案评估</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiu'ding</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ping'gu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-36091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年末专题活动，提高曝光、拉新</t>
+    <rPh sb="0" eb="1">
+      <t>nian'mo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuan'ti</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huo'dong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bao'guang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>la'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/12/19 (APP3.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/1/19 (APP3.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划中</t>
+    <rPh sb="0" eb="1">
+      <t>ce'hua'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年后第一批</t>
+    <rPh sb="0" eb="1">
+      <t>nian'hou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'yi'pi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动技术排期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RIO8l4t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享赚钱</t>
+  </si>
+  <si>
+    <t>CPS后台风控迭代</t>
+    <rPh sb="3" eb="4">
+      <t>hou'tai</t>
+    </rPh>
     <rPh sb="5" eb="6">
+      <t>feng'kong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>die'dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认需求</t>
+    <rPh sb="0" eb="1">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-37460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司徒/胡素雅</t>
+    <rPh sb="0" eb="1">
+      <t>si'tu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hu'su'ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销导出数据脱敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入虚拟商品销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接招行的物流信息接口和取消订单接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增根据skuid库存查询接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销v2.0上线后优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入需求池</t>
+    <rPh sb="0" eb="1">
+      <t>jia'ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu'chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付账号反作弊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动链接分享除FTL路径外的解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短标题替换为商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS_新增返佣商品表支持数据分析业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站联盟订单管理优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-37463</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大分销业务线分仓后数据修订</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收需求，确认需求，完成方案逻辑部分，交互部分由陈琛进行中</t>
+    <rPh sb="0" eb="1">
+      <t>jie'hsou</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>luo'ji</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jiao'hu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>you</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>chen'chen</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>jin'xing'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成交互部分</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进视觉验收、bugbash测试、一轮上线与问题解决，二轮上线与运营跟进</t>
+    <rPh sb="14" eb="15">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yi'lun</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shang'xian</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jie'jeu</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>er'lun</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>shagn'xian</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>yun'ying</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>gne'jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收需求，确认需求，完成方案，提交开发</t>
+    <rPh sb="0" eb="1">
+      <t>jie'hsou</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
       <t>kai'fa</t>
     </rPh>
-    <rPh sb="7" eb="8">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>xiu'ding</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fang'an</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进测试、上线</t>
-    <rPh sb="0" eb="1">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成TC评审，修订交互稿，完成客服培训，根据高层需求修订交互稿，跟进视觉稿修订，跟进解决测试过程中的问题</t>
-    <rPh sb="13" eb="14">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ke'fu</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>pei'xun</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>gao'ceng</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>xiu'ding</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>jiao'hu'gao</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>shi'jue'gao</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>xiu'ding</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>jie'jue</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>guo'cheng</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>de</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>wn'ti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动取消佣金功能</t>
+    <rPh sb="0" eb="1">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qu'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong'jin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年后启动策划</t>
+    <rPh sb="0" eb="1">
+      <t>nian'hou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ce'hua</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2070,7 +2448,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2125,8 +2503,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
@@ -2171,8 +2558,19 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="63">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -2227,6 +2625,15 @@
     <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2501,10 +2908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2514,15 +2921,17 @@
     <col min="3" max="3" width="7.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="103.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" style="21" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2530,13 +2939,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -2545,7 +2954,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>12</v>
@@ -2556,79 +2965,98 @@
       <c r="K1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="C2" s="7">
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="3">
+        <v>42781</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="I2" s="3">
-        <v>42752</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="K2" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="3">
-        <v>42751</v>
+      <c r="I3" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
@@ -2636,90 +3064,106 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7" t="s">
-        <v>80</v>
+      <c r="I4" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>195</v>
-      </c>
+      <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="J6" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
@@ -2727,26 +3171,34 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>139</v>
+        <v>233</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
@@ -2754,377 +3206,449 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>148</v>
+        <v>234</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>200</v>
-      </c>
+      <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="3" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="3">
-        <v>42752</v>
+      <c r="I10" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>15</v>
+        <v>140</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="J11" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>15</v>
+      <c r="I11" s="3"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="M11" s="20"/>
+      <c r="N11" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>244</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I12" s="3">
+        <v>42781</v>
+      </c>
       <c r="J12" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="7">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>24</v>
+      <c r="H13" s="7"/>
+      <c r="J13" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3</v>
+        <v>238</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H14" s="7"/>
+      <c r="J14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2</v>
+        <v>239</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="H15" s="7"/>
       <c r="I15" s="7" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C16" s="16"/>
       <c r="D16" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>209</v>
-      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L16" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C17" s="16"/>
       <c r="D17" s="7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
-        <v>161</v>
-      </c>
+      <c r="H17" s="7"/>
       <c r="I17" s="16" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+        <v>155</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="I18" s="15" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>181</v>
+        <v>250</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>20</v>
+      <c r="F19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>57</v>
+        <v>226</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>230</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="7"/>
+        <v>155</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="3">
-        <v>42753</v>
+      <c r="I20" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
@@ -3133,713 +3657,909 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="J21" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" t="s">
+        <v>161</v>
+      </c>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="18">
+        <v>42754</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="M29" s="20"/>
+      <c r="N29" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="18">
+        <v>42754</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M30" s="20"/>
+      <c r="N30" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K21" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="L21" s="7" t="s">
+      <c r="F31" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="18">
+        <v>42754</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="M31" s="20"/>
+      <c r="N31" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L32" s="20" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="M32" s="20"/>
+      <c r="N32" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="18">
+        <v>42753</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="3">
-        <v>42754</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" t="s">
+      <c r="K33" s="9" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="L33" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="M33" s="20"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="15">
-        <v>42738</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="15">
-        <v>42372</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="F34" s="11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="15">
-        <v>42733</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>24</v>
+        <v>42738</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="M34" s="20"/>
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="15">
-        <v>42733</v>
+        <v>42738</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="M35" s="20"/>
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="11" t="s">
-        <v>84</v>
+      <c r="F36" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="15">
-        <v>42725</v>
+      <c r="I36" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="M36" s="20"/>
+      <c r="N36" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="15">
-        <v>42725</v>
+        <v>42733</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>7</v>
+        <v>197</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="M37" s="20"/>
+      <c r="N37" s="7"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G38" s="7"/>
+        <v>76</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="15">
-        <v>42725</v>
+        <v>42733</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M38" s="20"/>
+      <c r="N38" s="7"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="16" t="s">
-        <v>77</v>
+      <c r="I39" s="15">
+        <v>42725</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
-        <v>20</v>
+        <v>104</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="M39" s="20"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="16" t="s">
-        <v>78</v>
+      <c r="I40" s="15">
+        <v>42725</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" s="7"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
-        <v>15</v>
+        <v>99</v>
+      </c>
+      <c r="L40" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="M40" s="20"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="16" t="s">
-        <v>115</v>
+      <c r="I41" s="15">
+        <v>42725</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L41" s="7"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
-        <v>21</v>
+        <v>201</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M41" s="20"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E42" s="7"/>
       <c r="F42" s="11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="15">
-        <v>42709</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>179</v>
+      <c r="I42" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L42" s="7"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
-        <v>15</v>
+        <v>202</v>
+      </c>
+      <c r="L42" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="M42" s="20"/>
+      <c r="N42" s="7"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="15">
-        <v>42709</v>
+      <c r="I43" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="L43" s="7"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="L43" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="M43" s="20"/>
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="11" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="15">
-        <v>42705</v>
+      <c r="I44" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K44" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M44" s="20"/>
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="L44" s="7"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="15">
-        <v>42705</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>24</v>
+        <v>42709</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="L45" s="7"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="L45" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M45" s="20"/>
+      <c r="N45" s="7"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="3">
+      <c r="I46" s="15">
+        <v>42709</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L46" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="M46" s="20"/>
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="15">
+        <v>42705</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L47" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="M47" s="20"/>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="15">
+        <v>42705</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L48" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M48" s="20"/>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="3">
         <v>42703</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="M49" s="20"/>
+      <c r="N49" s="7"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
         <v>24</v>
       </c>
-      <c r="K46" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L46" s="7"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47"/>
-      <c r="D47" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="C50"/>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I50" s="3">
         <v>42690</v>
       </c>
-      <c r="J47" t="s">
-        <v>24</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="J50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="M50" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J31" r:id="rId1"/>
-    <hyperlink ref="K31" r:id="rId2"/>
+    <hyperlink ref="J34" r:id="rId1"/>
+    <hyperlink ref="K34" r:id="rId2"/>
     <hyperlink ref="K3" r:id="rId3"/>
-    <hyperlink ref="K36" r:id="rId4"/>
-    <hyperlink ref="K40" r:id="rId5"/>
+    <hyperlink ref="K39" r:id="rId4"/>
+    <hyperlink ref="K43" r:id="rId5"/>
     <hyperlink ref="K4" r:id="rId6"/>
-    <hyperlink ref="K41" r:id="rId7"/>
-    <hyperlink ref="K35" r:id="rId8"/>
-    <hyperlink ref="K23" r:id="rId9"/>
-    <hyperlink ref="J23" r:id="rId10"/>
-    <hyperlink ref="K12" r:id="rId11"/>
-    <hyperlink ref="J11" r:id="rId12"/>
-    <hyperlink ref="K13" r:id="rId13"/>
-    <hyperlink ref="K16" r:id="rId14"/>
+    <hyperlink ref="K44" r:id="rId7"/>
+    <hyperlink ref="K38" r:id="rId8"/>
+    <hyperlink ref="K32" r:id="rId9"/>
+    <hyperlink ref="J32" r:id="rId10"/>
+    <hyperlink ref="K14" r:id="rId11"/>
+    <hyperlink ref="J13" r:id="rId12"/>
+    <hyperlink ref="K15" r:id="rId13"/>
+    <hyperlink ref="K12" r:id="rId14"/>
     <hyperlink ref="J5" r:id="rId15"/>
     <hyperlink ref="K5" r:id="rId16"/>
-    <hyperlink ref="K20" r:id="rId17"/>
-    <hyperlink ref="K11" r:id="rId18"/>
+    <hyperlink ref="K29" r:id="rId17"/>
+    <hyperlink ref="K13" r:id="rId18"/>
     <hyperlink ref="J6" r:id="rId19"/>
-    <hyperlink ref="K15" r:id="rId20"/>
-    <hyperlink ref="K33" r:id="rId21"/>
-    <hyperlink ref="K47" r:id="rId22"/>
-    <hyperlink ref="K46" r:id="rId23"/>
-    <hyperlink ref="K45" r:id="rId24"/>
-    <hyperlink ref="K44" r:id="rId25"/>
+    <hyperlink ref="K16" r:id="rId20"/>
+    <hyperlink ref="K36" r:id="rId21"/>
+    <hyperlink ref="K50" r:id="rId22"/>
+    <hyperlink ref="K49" r:id="rId23"/>
+    <hyperlink ref="K48" r:id="rId24"/>
+    <hyperlink ref="K47" r:id="rId25"/>
     <hyperlink ref="J21" r:id="rId26"/>
-    <hyperlink ref="K43" r:id="rId27"/>
+    <hyperlink ref="K46" r:id="rId27"/>
     <hyperlink ref="K6" r:id="rId28"/>
     <hyperlink ref="K21" r:id="rId29"/>
-    <hyperlink ref="K37" r:id="rId30"/>
-    <hyperlink ref="K42" r:id="rId31"/>
-    <hyperlink ref="J42" r:id="rId32"/>
+    <hyperlink ref="K40" r:id="rId30"/>
+    <hyperlink ref="K45" r:id="rId31"/>
+    <hyperlink ref="J45" r:id="rId32"/>
     <hyperlink ref="K17" r:id="rId33"/>
-    <hyperlink ref="J22" r:id="rId34"/>
+    <hyperlink ref="J31" r:id="rId34"/>
     <hyperlink ref="K8" r:id="rId35"/>
-    <hyperlink ref="K26" r:id="rId36"/>
+    <hyperlink ref="K24" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-7800" windowWidth="51200" windowHeight="28800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$N$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$N$31</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="278">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -101,9 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://t.cn/Rt5X0yq</t>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-21592</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,10 +238,6 @@
   </si>
   <si>
     <t>http://jira.netease.com/browse/KJDS-26860</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-29015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -545,22 +538,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>和分仓项目一致</t>
-    <rPh sb="0" eb="1">
-      <t>he</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>fen'cang</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>xiang'mu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yi'zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>考拉微商V1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -771,10 +748,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-33233</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>native分享浮层“分享赚”标题可配</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -956,18 +929,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-30748</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-25538</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待排期</t>
-    <rPh sb="0" eb="1">
-      <t>dai'pai'qi</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1013,16 +975,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.23-1.30活动时间</t>
-    <rPh sb="9" eb="10">
-      <t>huo'dong</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shi'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wap链接唤起app能跟踪cps订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1091,10 +1043,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>待招行给到接口文档</t>
     <rPh sb="0" eb="1">
       <t>dai</t>
@@ -1129,23 +1077,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-35110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销基础服务</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'chu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fu'wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开发中</t>
     <rPh sb="0" eb="1">
       <t>kjai'fa</t>
@@ -1165,16 +1096,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>chi'xu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排到年后</t>
-    <rPh sb="0" eb="1">
-      <t>pai'dao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>nian'hou</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1368,20 +1289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://t.cn/RcnD3mx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未启动</t>
-    <rPh sb="0" eb="1">
-      <t>wei'lai</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>qi'dong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支持数据分析业务</t>
     <rPh sb="0" eb="1">
       <t>zhi'chi</t>
@@ -1405,10 +1312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-29869</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1441,112 +1344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-35113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场部反馈可以先不做，持续delay</t>
-    <rPh sb="0" eb="1">
-      <t>shi'chang'bu'fan'kui</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bu'men</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ke'yi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xian</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>bu'zuo</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>chi'xu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成相关调研</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiang'guan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>diao'yan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计排到年后</t>
-    <rPh sb="0" eb="1">
-      <t>yu'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pai'dao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>nian'hou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大部分内容可以年前上线</t>
-    <rPh sb="0" eb="1">
-      <t>da'bu'fen</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>nei'rong</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ke'yi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>nian'qian</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shagn'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-34592</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年后进行</t>
-    <rPh sb="0" eb="1">
-      <t>nian'hou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jin'xing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-34651</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进测试、上线</t>
-    <rPh sb="0" eb="1">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-34079</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-35106</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1596,13 +1393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冻结中</t>
-    <rPh sb="0" eb="1">
-      <t>dong'jei'zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>由于开发在分仓项目分支上，只能和分仓一起上</t>
     <rPh sb="0" eb="1">
       <t>you'yu</t>
@@ -1698,20 +1488,6 @@
     <rPh sb="2" eb="3">
       <t>cheng'bne</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收需求</t>
-    <rPh sb="0" eb="1">
-      <t>jie'shou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.cn/RItK8zO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1948,9 +1724,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跟进测试、上线</t>
-  </si>
-  <si>
     <t>屈国庆/王美燕</t>
     <rPh sb="0" eb="1">
       <t>qu</t>
@@ -1964,59 +1737,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跟进测试、上线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和需求方确认数据修订方案</t>
-    <rPh sb="0" eb="1">
-      <t>he</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>xu'qiu'fang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>xiu'ding</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>fang'an</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成数据修订技术方案评估</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xiu'ding</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ping'gu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-36091</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2054,20 +1775,6 @@
     <rPh sb="0" eb="1">
       <t>ce'hua'zhong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年后第一批</t>
-    <rPh sb="0" eb="1">
-      <t>nian'hou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>di'yi'pi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推动技术排期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2091,20 +1798,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确认需求</t>
-    <rPh sb="0" eb="1">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-37460</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>司徒/胡素雅</t>
     <rPh sb="0" eb="1">
       <t>si'tu</t>
@@ -2131,10 +1824,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增根据skuid库存查询接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分销v2.0上线后优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2173,145 +1862,6 @@
   </si>
   <si>
     <t>网站联盟订单管理优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-37463</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大分销业务线分仓后数据修订</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收需求，确认需求，完成方案逻辑部分，交互部分由陈琛进行中</t>
-    <rPh sb="0" eb="1">
-      <t>jie'hsou</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>shou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>luo'ji</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>bu'fen</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>jiao'hu</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>bu'fen</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>you</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>chen'chen</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>jin'xing'zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成交互部分</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jiao'hu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bu'fen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进视觉验收、bugbash测试、一轮上线与问题解决，二轮上线与运营跟进</t>
-    <rPh sb="14" eb="15">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>yi'lun</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>shang'xian</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>wen'ti</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>jie'jeu</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>er'lun</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>shagn'xian</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>yun'ying</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>gne'jin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收需求，确认需求，完成方案，提交开发</t>
-    <rPh sb="0" eb="1">
-      <t>jie'hsou</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>shou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>kai'fa</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2331,15 +1881,838 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年后启动策划</t>
-    <rPh sb="0" eb="1">
-      <t>nian'hou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
+    <t>http://jira.netease.com/browse/KJDS-30748</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大分销业务线分仓后数据修订</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动策划</t>
+    <rPh sb="0" eb="1">
       <t>qi'dong</t>
     </rPh>
-    <rPh sb="4" eb="5">
+    <rPh sb="2" eb="3">
       <t>ce'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34592</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34651</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-36091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-37460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和技术沟通，反馈和主站对接口中</t>
+    <rPh sb="0" eb="1">
+      <t>he</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gou'tong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fan'kui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>he</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhu'zhan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和技术沟通，反馈会尽快处理</t>
+    <rPh sb="6" eb="7">
+      <t>fann'kui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jin'kuai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chu'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先处理完分仓相关业务再投入开发</t>
+    <rPh sb="0" eb="1">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>chu'li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen'cang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiang'guan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tou'ru</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和技术沟通，反馈在分仓后投入开发</t>
+    <rPh sb="6" eb="7">
+      <t>fann'kui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>za'iu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fen'cang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tou'ru</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和技术沟通，反馈会以中等优先级处理</t>
+    <rPh sb="6" eb="7">
+      <t>fann'kui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhong'deng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you'xian'ji</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>chu'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和技术沟通，反馈会以低优先级处理</t>
+    <rPh sb="6" eb="7">
+      <t>fann'kui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>di</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>you'xian'ji</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chu'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息通知还没完成</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hai'mei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和技术沟通，反馈会尽快完成年前未完成的内容开发（消息通知部分）</t>
+    <rPh sb="6" eb="7">
+      <t>fann'kui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jin'kuai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>nian'qian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>nei'rong</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>xiao'xi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>tong'zhi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>bu'fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分仓版库存查询功能</t>
+    <rPh sb="0" eb="1">
+      <t>fen'cang'ban</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ban'bne</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ku'cun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cha'xun</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程需要</t>
+    <rPh sb="0" eb="1">
+      <t>xie'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-37720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税金计算公式修改</t>
+    <rPh sb="0" eb="1">
+      <t>shui'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ixugai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足合规要求</t>
+    <rPh sb="0" eb="1">
+      <t>man'zu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he'gui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yao'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-37732</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不太急</t>
+    <rPh sb="0" eb="1">
+      <t>bu'tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认需求，完成方案，提交任务，确定排期</t>
+    <rPh sb="0" eb="1">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ti'ijao'ren'wu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>que'ding</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>pai'iq</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_数据总览</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zong'lan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高查看数据的便利性</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cha'kan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bian'li'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交任务</t>
+    <rPh sb="0" eb="1">
+      <t>ti'jaio</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-37832</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王宏/胡素雅</t>
+    <rPh sb="0" eb="1">
+      <t>wang'hong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hu'su'ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接数据组徐晓楠</t>
+    <rPh sb="0" eb="1">
+      <t>dui'jei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'ju'zu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xu'xiao'nan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-29015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排到微商1.3之后</t>
+    <rPh sb="0" eb="1">
+      <t>pai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi'hou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案修订，和技术沟通，反馈排到微商v1.3之后处理</t>
+    <rPh sb="0" eb="1">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiu'ding</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fan'kui</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>pai'dao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zhi'hou</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>chu'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程合作要求</t>
+    <rPh sb="0" eb="1">
+      <t>xie'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he'zuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yao'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认需求</t>
+    <rPh sb="0" eb="1">
+      <t>que'rn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_订单查询接口库存查询加字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动技术排期落地</t>
+    <rPh sb="0" eb="1">
+      <t>tui'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai'qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>luo'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和需求方确认数据修订方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <rPh sb="0" eb="1">
+      <t>kia'f'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商</t>
+    <rPh sb="0" eb="1">
+      <t>wei'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商_运营页登录提示机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给微商提供素材</t>
+    <rPh sb="0" eb="1">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>su'cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RJ4EhuO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-37463</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_合单支付</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>he'dan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升用户体验</t>
+    <rPh sb="0" eb="1">
+      <t>ti'sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti'yahn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认需求</t>
+    <rPh sb="0" eb="1">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RcnD3mx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/Rt5X0yq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RItK8zO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王蝶丽/黄群/胡素雅</t>
+    <rPh sb="0" eb="1">
+      <t>wang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huang'qun</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hu'su'ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周</t>
+    <rPh sb="0" eb="1">
+      <t>xia'zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认需求，完成方案，提交任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-35110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动时间 1.23-1.30</t>
+    <rPh sb="0" eb="1">
+      <t>huo'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成方案，提交任务，确定排期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成方案，提交任务</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉微商v1.4</t>
+    <rPh sb="0" eb="1">
+      <t>kao'la</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成方案，完成内审，需求评审</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试验收、上线</t>
+    <rPh sb="0" eb="1">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan'shou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认需求，完成方案，提交任务，推动技术排期落地</t>
+    <rPh sb="0" eb="1">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ti'ijao'ren'wu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>tui'dong</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>pai'qi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>luo'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息通知部分测试验收、上线</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan'shou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试验收、上线</t>
+    <rPh sb="0" eb="1">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan'sho</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探讨需求，启动策划</t>
+    <rPh sb="0" eb="1">
+      <t>tan'tao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi'dong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ce'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成方案初稿，与开发讨论，目前看实现有问题</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chu'gao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>toa'lun</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>mu'qian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>kan</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shi'xian</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>you</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修订方案，提交内审</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'ding</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti'jaio</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>nei'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ju'feni</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'xi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2448,7 +2821,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2512,8 +2885,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
@@ -2558,9 +2940,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2570,7 +2949,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="72">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -2634,6 +3013,15 @@
     <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2908,10 +3296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2921,13 +3309,13 @@
     <col min="3" max="3" width="7.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" style="21" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" style="20" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="20" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2939,13 +3327,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -2954,10 +3342,10 @@
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>4</v>
@@ -2965,11 +3353,11 @@
       <c r="K1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>237</v>
+      <c r="L1" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>6</v>
@@ -2980,71 +3368,73 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="7">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="I2" s="3">
-        <v>42781</v>
+        <v>42779</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>165</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>236</v>
+        <v>134</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="N3" s="7"/>
     </row>
@@ -3053,34 +3443,34 @@
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>236</v>
+        <v>22</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -3088,34 +3478,36 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>218</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>236</v>
+        <v>136</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -3123,36 +3515,38 @@
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>220</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>236</v>
+        <v>212</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>130</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -3160,34 +3554,36 @@
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="7"/>
+        <v>248</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>236</v>
+        <v>213</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -3195,34 +3591,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="3" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>236</v>
+        <v>145</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -3230,34 +3626,36 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="3" t="s">
-        <v>121</v>
+      <c r="H9" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I9" s="3">
+        <v>42779</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>236</v>
+        <v>129</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -3265,34 +3663,31 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>235</v>
+        <v>151</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>171</v>
+      <c r="F10" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>236</v>
-      </c>
+      <c r="H10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="M10" s="19"/>
       <c r="N10" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -3300,885 +3695,912 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>210</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="17" t="s">
-        <v>13</v>
+      <c r="F11" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="7" t="s">
-        <v>182</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="I11" s="3">
+        <v>42781</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>245</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C12" s="16"/>
       <c r="D12" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="I12" s="3">
-        <v>42781</v>
+        <v>42779</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="N12" s="7"/>
+        <v>227</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M12" s="19"/>
+      <c r="N12" s="7" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>15</v>
+      <c r="A13" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>151</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C13" s="16"/>
       <c r="D13" s="7" t="s">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>235</v>
+      </c>
       <c r="H13" s="7"/>
-      <c r="J13" s="9" t="s">
-        <v>94</v>
+      <c r="I13" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20" t="s">
-        <v>236</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="M13" s="19"/>
       <c r="N13" s="7" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>15</v>
+      <c r="A14" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="J14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>160</v>
-      </c>
+      <c r="F14" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>15</v>
+      <c r="A15" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
+      </c>
+      <c r="C15" s="16">
+        <v>2</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>41</v>
+        <v>255</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>130</v>
-      </c>
+      <c r="F15" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="M15" s="19"/>
+      <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C16" s="16"/>
+        <v>140</v>
+      </c>
       <c r="D16" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>21</v>
+      <c r="J16" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>236</v>
+        <v>65</v>
+      </c>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="16"/>
+        <v>201</v>
+      </c>
       <c r="D17" s="7" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>242</v>
+      </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="16" t="s">
-        <v>131</v>
+      <c r="I17" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>236</v>
+        <v>240</v>
+      </c>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>114</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>155</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>156</v>
+        <v>132</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>236</v>
+        <v>57</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C19" s="16"/>
       <c r="D19" s="7" t="s">
-        <v>179</v>
+        <v>46</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="17" t="s">
-        <v>13</v>
+      <c r="F19" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="7" t="s">
-        <v>251</v>
-      </c>
+      <c r="I19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>230</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C20" s="16"/>
       <c r="D20" s="7" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="15" t="s">
-        <v>131</v>
+      <c r="I20" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>236</v>
+        <v>214</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>17</v>
+      <c r="A21" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>246</v>
+      </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>95</v>
+      <c r="I21" s="3">
+        <v>42782</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="M21" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>162</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>18</v>
+      <c r="A22" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="C22" s="13">
         <v>1</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>35</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="E22" s="7"/>
       <c r="F22" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="G22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="3">
+        <v>42782</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="I27" s="15">
+        <v>42754</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="13">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H30" t="s">
+        <v>276</v>
+      </c>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="13">
+      <c r="H31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I31" s="15">
+        <v>42781</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="13">
         <v>1</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" t="s">
-        <v>161</v>
-      </c>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L24" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="M24" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="D32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" s="15">
+        <v>42754</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="1" t="s">
+      <c r="I36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="1" t="s">
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="7" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="18">
-        <v>42754</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="M29" s="20"/>
-      <c r="N29" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="18">
-        <v>42754</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="L30" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="M30" s="20"/>
-      <c r="N30" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="18">
-        <v>42754</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="L31" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="M31" s="20"/>
-      <c r="N31" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="L32" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="M32" s="20"/>
-      <c r="N32" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="18">
-        <v>42753</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="L33" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="M33" s="20"/>
-      <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="15">
-        <v>42738</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="M34" s="20"/>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="15">
-        <v>42738</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="L35" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="M35" s="20"/>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L36" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="M36" s="20"/>
-      <c r="N36" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="D37" s="7" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="15">
-        <v>42733</v>
+        <v>42754</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="L37" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="M37" s="20"/>
-      <c r="N37" s="7"/>
+        <v>143</v>
+      </c>
+      <c r="L37" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M37" s="19"/>
+      <c r="N37" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>15</v>
+      <c r="A38" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="F38" s="11" t="s">
-        <v>76</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="15">
-        <v>42733</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>21</v>
+      <c r="I38" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L38" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="M38" s="20"/>
-      <c r="N38" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="L38" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="M38" s="19"/>
+      <c r="N38" s="7" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
       <c r="I39" s="15">
-        <v>42725</v>
+        <v>42753</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L39" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="M39" s="20"/>
+        <v>163</v>
+      </c>
+      <c r="L39" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M39" s="19"/>
       <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -4186,380 +4608,568 @@
         <v>7</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="F40" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="15">
-        <v>42725</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>21</v>
+        <v>42738</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L40" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="M40" s="20"/>
+        <v>9</v>
+      </c>
+      <c r="L40" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M40" s="19"/>
       <c r="N40" s="7"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>7</v>
+      <c r="A41" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="15">
-        <v>42725</v>
+        <v>42738</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="L41" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="M41" s="20"/>
+        <v>169</v>
+      </c>
+      <c r="L41" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M41" s="19"/>
       <c r="N41" s="7"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
-        <v>15</v>
+      <c r="A42" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E42" s="7"/>
-      <c r="F42" s="11" t="s">
-        <v>76</v>
+      <c r="F42" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="16" t="s">
-        <v>219</v>
+        <v>126</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="L42" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="M42" s="20"/>
-      <c r="N42" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M42" s="19"/>
+      <c r="N42" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="16" t="s">
-        <v>70</v>
+      <c r="I43" s="15">
+        <v>42733</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L43" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="M43" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="L43" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M43" s="19"/>
       <c r="N43" s="7"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" s="7"/>
+        <v>73</v>
+      </c>
       <c r="H44" s="7"/>
-      <c r="I44" s="16" t="s">
-        <v>103</v>
+      <c r="I44" s="15">
+        <v>42733</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="M44" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="L44" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="M44" s="19"/>
       <c r="N44" s="7"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
-        <v>18</v>
+      <c r="A45" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>35</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E45" s="7"/>
       <c r="F45" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
       <c r="I45" s="15">
-        <v>42709</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>152</v>
+        <v>42725</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L45" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="M45" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="L45" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="M45" s="19"/>
       <c r="N45" s="7"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
-        <v>15</v>
+      <c r="A46" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="15">
-        <v>42709</v>
+        <v>42725</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="L46" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="M46" s="20"/>
+        <v>95</v>
+      </c>
+      <c r="L46" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M46" s="19"/>
       <c r="N46" s="7"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
-        <v>19</v>
+      <c r="A47" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="11" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="15">
-        <v>42705</v>
+        <v>42725</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L47" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="M47" s="20"/>
+        <v>174</v>
+      </c>
+      <c r="L47" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M47" s="19"/>
       <c r="N47" s="7"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
-        <v>17</v>
+      <c r="A48" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="11" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="15">
-        <v>42705</v>
+      <c r="I48" s="16" t="s">
+        <v>187</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="L48" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="M48" s="20"/>
+        <v>175</v>
+      </c>
+      <c r="L48" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="M48" s="19"/>
       <c r="N48" s="7"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
-        <v>15</v>
+      <c r="A49" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="3">
+      <c r="I49" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L49" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M49" s="19"/>
+      <c r="N49" s="7"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M50" s="19"/>
+      <c r="N50" s="7"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="15">
+        <v>42709</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L51" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="M51" s="19"/>
+      <c r="N51" s="7"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="15">
+        <v>42709</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L52" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M52" s="19"/>
+      <c r="N52" s="7"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="15">
+        <v>42705</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L53" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="M53" s="19"/>
+      <c r="N53" s="7"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="15">
+        <v>42705</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L54" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M54" s="19"/>
+      <c r="N54" s="7"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="3">
         <v>42703</v>
       </c>
-      <c r="J49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L49" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="M49" s="20"/>
-      <c r="N49" s="7"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="J55" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M55" s="19"/>
+      <c r="N55" s="7"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I56" s="3">
+        <v>42690</v>
+      </c>
+      <c r="J56" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C50"/>
-      <c r="D50" t="s">
-        <v>41</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I50" s="3">
-        <v>42690</v>
-      </c>
-      <c r="J50" t="s">
-        <v>21</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L50" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="M50" s="20"/>
+      <c r="L56" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M56" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J34" r:id="rId1"/>
-    <hyperlink ref="K34" r:id="rId2"/>
+    <hyperlink ref="J40" r:id="rId1"/>
+    <hyperlink ref="K40" r:id="rId2"/>
     <hyperlink ref="K3" r:id="rId3"/>
-    <hyperlink ref="K39" r:id="rId4"/>
-    <hyperlink ref="K43" r:id="rId5"/>
+    <hyperlink ref="K45" r:id="rId4"/>
+    <hyperlink ref="K49" r:id="rId5"/>
     <hyperlink ref="K4" r:id="rId6"/>
-    <hyperlink ref="K44" r:id="rId7"/>
-    <hyperlink ref="K38" r:id="rId8"/>
-    <hyperlink ref="K32" r:id="rId9"/>
-    <hyperlink ref="J32" r:id="rId10"/>
-    <hyperlink ref="K14" r:id="rId11"/>
-    <hyperlink ref="J13" r:id="rId12"/>
-    <hyperlink ref="K15" r:id="rId13"/>
-    <hyperlink ref="K12" r:id="rId14"/>
+    <hyperlink ref="K50" r:id="rId7"/>
+    <hyperlink ref="K44" r:id="rId8"/>
+    <hyperlink ref="K38" r:id="rId9"/>
+    <hyperlink ref="J38" r:id="rId10"/>
+    <hyperlink ref="K17" r:id="rId11"/>
+    <hyperlink ref="J16" r:id="rId12"/>
+    <hyperlink ref="K18" r:id="rId13"/>
+    <hyperlink ref="K11" r:id="rId14"/>
     <hyperlink ref="J5" r:id="rId15"/>
     <hyperlink ref="K5" r:id="rId16"/>
-    <hyperlink ref="K29" r:id="rId17"/>
-    <hyperlink ref="K13" r:id="rId18"/>
+    <hyperlink ref="K37" r:id="rId17"/>
+    <hyperlink ref="K16" r:id="rId18"/>
     <hyperlink ref="J6" r:id="rId19"/>
-    <hyperlink ref="K16" r:id="rId20"/>
-    <hyperlink ref="K36" r:id="rId21"/>
-    <hyperlink ref="K50" r:id="rId22"/>
-    <hyperlink ref="K49" r:id="rId23"/>
-    <hyperlink ref="K48" r:id="rId24"/>
-    <hyperlink ref="K47" r:id="rId25"/>
-    <hyperlink ref="J21" r:id="rId26"/>
-    <hyperlink ref="K46" r:id="rId27"/>
+    <hyperlink ref="K19" r:id="rId20"/>
+    <hyperlink ref="K42" r:id="rId21"/>
+    <hyperlink ref="K56" r:id="rId22"/>
+    <hyperlink ref="K55" r:id="rId23"/>
+    <hyperlink ref="K54" r:id="rId24"/>
+    <hyperlink ref="K53" r:id="rId25"/>
+    <hyperlink ref="J25" r:id="rId26"/>
+    <hyperlink ref="K52" r:id="rId27"/>
     <hyperlink ref="K6" r:id="rId28"/>
-    <hyperlink ref="K21" r:id="rId29"/>
-    <hyperlink ref="K40" r:id="rId30"/>
-    <hyperlink ref="K45" r:id="rId31"/>
-    <hyperlink ref="J45" r:id="rId32"/>
-    <hyperlink ref="K17" r:id="rId33"/>
-    <hyperlink ref="J31" r:id="rId34"/>
+    <hyperlink ref="K25" r:id="rId29"/>
+    <hyperlink ref="K46" r:id="rId30"/>
+    <hyperlink ref="K51" r:id="rId31"/>
+    <hyperlink ref="J51" r:id="rId32"/>
+    <hyperlink ref="K20" r:id="rId33"/>
+    <hyperlink ref="J27" r:id="rId34"/>
     <hyperlink ref="K8" r:id="rId35"/>
-    <hyperlink ref="K24" r:id="rId36"/>
+    <hyperlink ref="K31" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="520" windowWidth="33560" windowHeight="20420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$N$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$N$39</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="281">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -180,16 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消息中心优化</t>
-    <rPh sb="0" eb="1">
-      <t>xiao'xi'zhong'ixn</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>you'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <rPh sb="0" eb="1">
       <t>wu</t>
@@ -214,10 +204,6 @@
   </si>
   <si>
     <t>分享赚钱_用户审核接入杭研多媒体接口（优化）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">APP商品详情页访问后台接口获取CPS返佣信息接口改动 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -710,19 +696,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已提高优先级</t>
-    <rPh sb="0" eb="1">
-      <t>yi'jing</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ti'gao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>you'xian'ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修补内测过程中发现的问题</t>
     <rPh sb="0" eb="1">
       <t>xiu'bu</t>
@@ -1070,20 +1043,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开发中</t>
-    <rPh sb="0" eb="1">
-      <t>kai'fa'hzong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <rPh sb="0" eb="1">
-      <t>kjai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>微商优先级更高，持续delay</t>
     <rPh sb="0" eb="1">
       <t>wei'shang</t>
@@ -1160,10 +1119,6 @@
   </si>
   <si>
     <t>native分享浮层文案修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-35776</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1373,16 +1328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开发中</t>
-    <rPh sb="0" eb="1">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冻结中</t>
     <rPh sb="0" eb="1">
       <t>dong'jei</t>
@@ -1433,16 +1378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>考拉微商v1.3</t>
-    <rPh sb="0" eb="1">
-      <t>kao'la</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wei'shang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分销财务对账功能</t>
     <rPh sb="0" eb="1">
       <t>fen'xiao</t>
@@ -1478,9 +1413,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成方案，提交开发</t>
-  </si>
-  <si>
     <t>节约成本</t>
     <rPh sb="0" eb="1">
       <t>jie'yue</t>
@@ -1527,13 +1459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄群</t>
-    <rPh sb="0" eb="1">
-      <t>huang'qun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>司徒</t>
     <rPh sb="0" eb="1">
       <t>si'tu</t>
@@ -1614,10 +1539,6 @@
   </si>
   <si>
     <t>http://jira.netease.com/browse/KJDS-34631</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-33136</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1767,17 +1688,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017/1/19 (APP3.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划中</t>
-    <rPh sb="0" eb="1">
-      <t>ce'hua'zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://t.cn/RIO8l4t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1808,10 +1718,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分销导出数据脱敏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1821,10 +1727,6 @@
   </si>
   <si>
     <t>对接招行的物流信息接口和取消订单接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销v2.0上线后优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1885,10 +1787,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大分销业务线分仓后数据修订</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>启动策划</t>
     <rPh sb="0" eb="1">
       <t>qi'dong</t>
@@ -1899,10 +1797,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-34592</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1919,58 +1813,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-36091</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-37460</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和技术沟通，反馈和主站对接口中</t>
-    <rPh sb="0" eb="1">
-      <t>he</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>gou'tong</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>fan'kui</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>he</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zhu'zhan</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>dui</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>jie'kou</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和技术沟通，反馈会尽快处理</t>
-    <rPh sb="6" eb="7">
-      <t>fann'kui</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>hui</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jin'kuai</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>chu'li</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2005,131 +1848,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>和技术沟通，反馈在分仓后投入开发</t>
-    <rPh sb="6" eb="7">
-      <t>fann'kui</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>za'iu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>fen'cang</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>tou'ru</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和技术沟通，反馈会以中等优先级处理</t>
-    <rPh sb="6" eb="7">
-      <t>fann'kui</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>hui</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zhong'deng</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>you'xian'ji</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>chu'li</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和技术沟通，反馈会以低优先级处理</t>
-    <rPh sb="6" eb="7">
-      <t>fann'kui</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>hui</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>di</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>you'xian'ji</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>chu'li</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息通知还没完成</t>
-    <rPh sb="0" eb="1">
-      <t>xiao'xi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tong'zhi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>hai'mei</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>wan'cheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和技术沟通，反馈会尽快完成年前未完成的内容开发（消息通知部分）</t>
-    <rPh sb="6" eb="7">
-      <t>fann'kui</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>hui</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jin'kuai</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>nian'qian</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>de</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>nei'rong</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>xiao'xi</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>tong'zhi</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>bu'fen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分仓版库存查询功能</t>
     <rPh sb="0" eb="1">
       <t>fen'cang'ban</t>
@@ -2159,10 +1877,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-37720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>税金计算公式修改</t>
     <rPh sb="0" eb="1">
       <t>shui'jin</t>
@@ -2192,38 +1906,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-37732</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不太急</t>
     <rPh sb="0" eb="1">
       <t>bu'tai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认需求，完成方案，提交任务，确定排期</t>
-    <rPh sb="0" eb="1">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ti'ijao'ren'wu</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>que'ding</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>pai'iq</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2260,34 +1945,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提交任务</t>
-    <rPh sb="0" eb="1">
-      <t>ti'jaio</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ren'wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-37832</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王宏/胡素雅</t>
-    <rPh sb="0" eb="1">
-      <t>wang'hong</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>hu'su'ya</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对接数据组徐晓楠</t>
     <rPh sb="0" eb="1">
       <t>dui'jei</t>
@@ -2321,31 +1978,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>方案修订，和技术沟通，反馈排到微商v1.3之后处理</t>
-    <rPh sb="0" eb="1">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiu'ding</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>fan'kui</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>pai'dao</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>wei'shang</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>zhi'hou</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>chu'li</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>携程合作要求</t>
     <rPh sb="0" eb="1">
       <t>xie'cheng</t>
@@ -2356,40 +1988,6 @@
     <rPh sb="4" eb="5">
       <t>yao'qiu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认需求</t>
-    <rPh sb="0" eb="1">
-      <t>que'rn</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销_订单查询接口库存查询加字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推动技术排期落地</t>
-    <rPh sb="0" eb="1">
-      <t>tui'dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pai'qi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>luo'di</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和需求方确认数据修订方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2461,16 +2059,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确认需求</t>
-    <rPh sb="0" eb="1">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://t.cn/RcnD3mx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2496,14 +2084,192 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下周</t>
-    <rPh sb="0" eb="1">
-      <t>xia'zhou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认需求，完成方案，提交任务</t>
+    <t>活动时间 1.23-1.30</t>
+    <rPh sb="0" eb="1">
+      <t>huo'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉微商v1.4</t>
+    <rPh sb="0" eb="1">
+      <t>kao'la</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-35776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <rPh sb="0" eb="1">
+      <t>kai'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉微商v1.2（消息通知部分）</t>
+    <rPh sb="9" eb="10">
+      <t>xiao'xi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tong'zhi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu'fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息中心优化（App3.6）</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhogn'xin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RJ91YqZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周明明/季江诚</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'ming'ming</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'jiang'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只做交互稿中4、5、6点</t>
+    <rPh sb="0" eb="1">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao'hu'gao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息中心优化（App3.5）</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'xi'zhong'ixn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/1/19 (App3.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享赚钱</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hzuan'qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化用户体验</t>
+    <rPh sb="0" eb="1">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti'yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-37720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大分销业务线分仓后数据修订</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS_身份证匹配优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-38193</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-38599</t>
+  </si>
+  <si>
+    <t>运营准备申请停运整个项目，相关迭代暂停</t>
+    <rPh sb="0" eb="1">
+      <t>yun'ying</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhun'bei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shen'qing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ting'yun</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zheng'ge</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiang'mu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xiang'guan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>die'dai</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zan'ting</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2511,136 +2277,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>活动时间 1.23-1.30</t>
-    <rPh sb="0" eb="1">
-      <t>huo'dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成方案，提交任务，确定排期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成方案，提交任务</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fang'an</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考拉微商v1.4</t>
-    <rPh sb="0" eb="1">
-      <t>kao'la</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wei'shang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成方案，完成内审，需求评审</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fang'an</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试验收、上线</t>
-    <rPh sb="0" eb="1">
+  </si>
+  <si>
+    <t>测试验收、上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求评审</t>
+    <rPh sb="0" eb="1">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping'shne</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试验收、上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动技术排期</t>
+    <rPh sb="0" eb="1">
+      <t>tui'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>j'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一期测试验收、上线</t>
+    <rPh sb="0" eb="1">
+      <t>yi'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>ce'shi</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="4" eb="5">
       <t>yan'shou</t>
     </rPh>
-    <rPh sb="5" eb="6">
+    <rPh sb="7" eb="8">
       <t>shang'xian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认需求，完成方案，提交任务，推动技术排期落地</t>
+    <t>确认需求，启动策划</t>
     <rPh sb="0" eb="1">
       <t>que'ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ti'ijao'ren'wu</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>tui'dong</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>pai'qi</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>luo'di</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息通知部分测试验收、上线</t>
-    <rPh sb="0" eb="1">
-      <t>xiao'xi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tong'zhi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bu'fen</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yan'shou</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试验收、上线</t>
-    <rPh sb="0" eb="1">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yan'sho</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>探讨需求，启动策划</t>
-    <rPh sb="0" eb="1">
-      <t>tan'tao</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>xu'qiu</t>
@@ -2654,65 +2343,231 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成方案初稿，与开发讨论，目前看实现有问题</t>
+    <t>http://jira.netease.com/browse/KJDS-37732</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-36091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商_公众号消息提醒优化</t>
+    <rPh sb="0" eb="1">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'zhong'hao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao'xi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti'xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RJBsBs3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-38978</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从客服消息换成模板消息</t>
+    <rPh sb="0" eb="1">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ke'fu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiao'xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huan'cheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mo'ban</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiao'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成方案，提交任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-38484</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和开发讲解本期需求，协调开发资源</t>
+    <rPh sb="0" eb="1">
+      <t>he</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiang'jie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ben'qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xie'tiao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-38521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉微商v1.3（一期）</t>
+    <rPh sb="0" eb="1">
+      <t>kao'la</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉微商v1.3（二期）</t>
+    <rPh sb="0" eb="1">
+      <t>kao'la</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>er</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进解决开发过程中的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">APP商品详情页获取CPS返佣信息接口改动 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-37463</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动技术排期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商_配置页体验优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划中</t>
+    <rPh sb="0" eb="1">
+      <t>ce'hua'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成方案，提交任务</t>
+    <rPh sb="7" eb="8">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成方案，提交视觉出图，完成线上配置替换</t>
     <rPh sb="0" eb="1">
       <t>wan'cheng</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>fang'an</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>chu'gao</t>
-    </rPh>
     <rPh sb="7" eb="8">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>toa'lun</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>mu'qian</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>kan</t>
+      <t>shi'jue</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chu'tu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xian'shang</t>
     </rPh>
     <rPh sb="16" eb="17">
-      <t>shi'xian</t>
+      <t>pei'zhi</t>
     </rPh>
     <rPh sb="18" eb="19">
-      <t>you</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>wen'ti</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修订方案，提交内审</t>
-    <rPh sb="0" eb="1">
-      <t>xiu'ding</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ti'jaio</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>nei'shen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据分析</t>
-    <rPh sb="0" eb="1">
-      <t>shu'ju'feni</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fen'xi</t>
+      <t>ti'haun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_订单查询接口库存查询加字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-38112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-37832</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄群/马鑫</t>
+    <rPh sb="0" eb="1">
+      <t>huang'qun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ma'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王宏/马鑫</t>
+    <rPh sb="0" eb="1">
+      <t>wang'hong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ma'xin</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2821,7 +2676,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="72">
+  <cellStyleXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2894,8 +2749,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
@@ -2948,8 +2849,11 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="72">
+  <cellStyles count="118">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -3022,6 +2926,52 @@
     <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="117" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3296,21 +3246,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38.83203125" bestFit="1" customWidth="1"/>
@@ -3327,13 +3277,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -3342,7 +3292,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>11</v>
@@ -3354,10 +3304,10 @@
         <v>5</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>6</v>
@@ -3368,38 +3318,31 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="7">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>53</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="I2" s="3">
-        <v>42779</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>58</v>
+      <c r="H2" s="7"/>
+      <c r="I2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="N2" s="7"/>
     </row>
@@ -3408,69 +3351,70 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>217</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="N3" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C4" s="16"/>
       <c r="D4" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>20</v>
+      <c r="I4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="L4" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="M4" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="M4" s="19" t="s">
-        <v>199</v>
-      </c>
       <c r="N4" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -3478,36 +3422,39 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>136</v>
-      </c>
       <c r="L5" s="19" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="M5" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="N5" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -3515,38 +3462,35 @@
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>139</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C6" s="16"/>
       <c r="D6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>220</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>81</v>
+      <c r="I6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>219</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -3554,36 +3498,35 @@
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>196</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C7" s="16"/>
       <c r="D7" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>217</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="3" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>213</v>
+        <v>139</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -3591,34 +3534,27 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>197</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C8" s="16"/>
       <c r="D8" s="7" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
-        <v>10</v>
+      <c r="F8" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>199</v>
-      </c>
+      <c r="H8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="7" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -3626,244 +3562,237 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>198</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C9" s="16"/>
       <c r="D9" s="7" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="I9" s="3">
-        <v>42779</v>
+        <v>250</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>149</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>7</v>
+      <c r="A10" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="13">
-        <v>1</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C10" s="16"/>
       <c r="D10" s="7" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="17" t="s">
-        <v>12</v>
+      <c r="F10" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="9"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>208</v>
+      </c>
       <c r="L10" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="M10" s="19"/>
+        <v>180</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>184</v>
+      </c>
       <c r="N10" s="7" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>7</v>
+      <c r="A11" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>210</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C11" s="16"/>
       <c r="D11" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="I11" s="3">
-        <v>42781</v>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>7</v>
+      <c r="A12" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="7" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="I12" s="3">
-        <v>42779</v>
+        <v>136</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="M12" s="19"/>
+        <v>151</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>184</v>
+      </c>
       <c r="N12" s="7" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>7</v>
+      <c r="A13" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="7" t="s">
-        <v>234</v>
+        <v>145</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="3" t="s">
+      <c r="F13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="9" t="s">
+      <c r="B15" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="L13" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C14" s="13">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C15" s="16">
-        <v>2</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>255</v>
-      </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="17" t="s">
-        <v>189</v>
+      <c r="F15" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="9"/>
+        <v>271</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="22">
+        <v>42789</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>264</v>
+      </c>
       <c r="L15" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="M15" s="19"/>
+        <v>180</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>184</v>
+      </c>
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -3871,1110 +3800,1097 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>140</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C16" s="16"/>
       <c r="D16" s="7" t="s">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G16" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>246</v>
+      </c>
       <c r="H16" s="7"/>
-      <c r="J16" s="9" t="s">
-        <v>90</v>
+      <c r="I16" s="22">
+        <v>42789</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" s="19"/>
+        <v>253</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>180</v>
+      </c>
       <c r="M16" s="19" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>14</v>
+      <c r="A17" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>201</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C17" s="16"/>
       <c r="D17" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>242</v>
-      </c>
+      <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>20</v>
+        <v>116</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="L17" s="19"/>
+        <v>89</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>180</v>
+      </c>
       <c r="M17" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>241</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>14</v>
+      <c r="A18" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>202</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C18" s="16"/>
       <c r="D18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="F18" s="7" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>251</v>
+      </c>
+      <c r="I18" s="22">
+        <v>42789</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>57</v>
+        <v>270</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>14</v>
+      <c r="A19" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="F19" s="7" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>20</v>
+      <c r="I19" s="15">
+        <v>42794</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>14</v>
+      <c r="A20" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>20</v>
+        <v>99</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>108</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>14</v>
+      <c r="A21" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>204</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="C21" s="16"/>
       <c r="D21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>260</v>
+      </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="3">
-        <v>42782</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>259</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>256</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="N21" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>14</v>
+      <c r="A22" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="13">
-        <v>1</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C22" s="16"/>
       <c r="D22" s="7" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="17" t="s">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="I22" s="15"/>
-      <c r="J22" s="7"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>191</v>
+    <row r="23" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>194</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C23" s="16"/>
       <c r="D23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="7" t="s">
-        <v>142</v>
+      <c r="F23" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>20</v>
+        <v>230</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="3">
-        <v>42782</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="B27" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="13">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="N26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="I27" s="15">
-        <v>42754</v>
-      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
       <c r="J27" s="9" t="s">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>164</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="L27" s="19"/>
       <c r="M27" s="19" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>223</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>249</v>
+      <c r="A28" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>250</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C28" s="16"/>
       <c r="D28" s="7" t="s">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="J28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C29" s="13">
-        <v>1</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="13">
-        <v>1</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="H33" s="7"/>
+      <c r="I33" s="22">
+        <v>42787</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="22">
+        <v>42787</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="M34" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I31" s="15">
-        <v>42781</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="L31" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="M31" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="13">
-        <v>1</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7" t="s">
+      <c r="C35" s="16"/>
+      <c r="D35" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="22">
+        <v>42787</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="I32" s="15">
-        <v>42754</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="M32" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="N32" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D35" s="7"/>
+      <c r="L35" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A36" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="15">
+        <v>42782</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M36" s="19"/>
+      <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
-        <v>16</v>
+      <c r="A37" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>49</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="C37" s="16"/>
       <c r="D37" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="F37" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="15">
-        <v>42754</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>20</v>
+        <v>42782</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="7" t="s">
-        <v>84</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M37" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>18</v>
+      <c r="A38" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C38" s="16"/>
       <c r="D38" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>122</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="E38" s="7"/>
       <c r="F38" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>127</v>
+      <c r="I38" s="15">
+        <v>42782</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>105</v>
+        <v>254</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="M38" s="19"/>
-      <c r="N38" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="N38" s="7"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>130</v>
-      </c>
+      <c r="C39" s="16"/>
       <c r="D39" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" s="7"/>
+        <v>113</v>
+      </c>
       <c r="F39" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="15">
-        <v>42753</v>
+        <v>42781</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>163</v>
+        <v>19</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="L39" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="M39" s="19"/>
-      <c r="N39" s="7"/>
+        <v>169</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>54</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C40" s="16"/>
       <c r="D40" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>35</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E40" s="7"/>
       <c r="F40" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="15">
-        <v>42738</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>258</v>
+        <v>42781</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="L40" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="M40" s="19"/>
+        <v>149</v>
+      </c>
+      <c r="M40" s="19" t="s">
+        <v>184</v>
+      </c>
       <c r="N40" s="7"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
-        <v>14</v>
+      <c r="A41" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="15">
-        <v>42738</v>
+        <v>42779</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="L41" s="19" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="M41" s="19"/>
-      <c r="N41" s="7"/>
+      <c r="N41" s="7" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
-        <v>17</v>
+      <c r="A42" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="13" t="s">
-        <v>124</v>
+        <v>50</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>20</v>
+      <c r="I42" s="15">
+        <v>42779</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="L42" s="19" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="M42" s="19"/>
-      <c r="N42" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
-        <v>17</v>
+      <c r="N42" s="7"/>
+    </row>
+    <row r="43" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>106</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C43" s="16"/>
       <c r="D43" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="7"/>
+        <v>175</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="F43" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="15">
-        <v>42733</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>20</v>
+        <v>42754</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="L43" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="M43" s="19"/>
-      <c r="N43" s="7"/>
+        <v>157</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
-        <v>14</v>
+      <c r="A44" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="11" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="15">
-        <v>42733</v>
+        <v>42754</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="M44" s="19"/>
       <c r="N44" s="7"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
-        <v>14</v>
+      <c r="A45" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>111</v>
+        <v>234</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="F45" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="I45" s="15">
-        <v>42725</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>20</v>
+      <c r="H45" s="7"/>
+      <c r="I45" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="K45" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L45" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="M45" s="19"/>
+      <c r="N45" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L45" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="M45" s="19"/>
-      <c r="N45" s="7"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="7"/>
       <c r="F46" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="15">
-        <v>42725</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>20</v>
+        <v>42754</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="M46" s="19"/>
       <c r="N46" s="7"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
-        <v>7</v>
+      <c r="A47" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="15">
-        <v>42725</v>
+        <v>42753</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M47" s="19"/>
       <c r="N47" s="7"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
-        <v>14</v>
+      <c r="A48" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="F48" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>20</v>
+      <c r="I48" s="15">
+        <v>42738</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>175</v>
+        <v>9</v>
       </c>
       <c r="L48" s="19" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="M48" s="19"/>
       <c r="N48" s="7"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
-        <v>16</v>
+      <c r="A49" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="16" t="s">
-        <v>67</v>
+      <c r="I49" s="15">
+        <v>42738</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="M49" s="19"/>
       <c r="N49" s="7"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
-        <v>14</v>
+      <c r="A50" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E50" s="7"/>
-      <c r="F50" s="11" t="s">
-        <v>73</v>
+      <c r="F50" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="16" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="M50" s="19"/>
-      <c r="N50" s="7"/>
+      <c r="N50" s="7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>33</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E51" s="7"/>
       <c r="F51" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="15">
-        <v>42709</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>257</v>
+        <v>42733</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>30</v>
+        <v>269</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="M51" s="19"/>
       <c r="N51" s="7"/>
@@ -4984,192 +4900,443 @@
         <v>14</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" s="7"/>
+        <v>71</v>
+      </c>
       <c r="H52" s="7"/>
       <c r="I52" s="15">
-        <v>42709</v>
+        <v>42733</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="L52" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M52" s="19"/>
       <c r="N52" s="7"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="14" t="s">
-        <v>18</v>
+      <c r="A53" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="11" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
       <c r="I53" s="15">
-        <v>42705</v>
+        <v>42725</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="L53" s="19" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="M53" s="19"/>
       <c r="N53" s="7"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
-        <v>16</v>
+      <c r="A54" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="11" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="15">
-        <v>42705</v>
+        <v>42725</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="M54" s="19"/>
       <c r="N54" s="7"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
-        <v>14</v>
+      <c r="A55" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
-      <c r="I55" s="3">
-        <v>42703</v>
+      <c r="I55" s="15">
+        <v>42725</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="L55" s="19" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="M55" s="19"/>
       <c r="N55" s="7"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L56" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="M56" s="19"/>
+      <c r="N56" s="7"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L57" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M57" s="19"/>
+      <c r="N57" s="7"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M58" s="19"/>
+      <c r="N58" s="7"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="15">
+        <v>42709</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L59" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M59" s="19"/>
+      <c r="N59" s="7"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="15">
+        <v>42709</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L60" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M60" s="19"/>
+      <c r="N60" s="7"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="15">
+        <v>42705</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L61" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M61" s="19"/>
+      <c r="N61" s="7"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="15">
+        <v>42705</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L62" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M62" s="19"/>
+      <c r="N62" s="7"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="3">
+        <v>42703</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L63" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M63" s="19"/>
+      <c r="N63" s="7"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I64" s="3">
+        <v>42690</v>
+      </c>
+      <c r="J64" t="s">
+        <v>19</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C56"/>
-      <c r="D56" t="s">
-        <v>39</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I56" s="3">
-        <v>42690</v>
-      </c>
-      <c r="J56" t="s">
-        <v>20</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L56" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="M56" s="19"/>
+      <c r="L64" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="M64" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J40" r:id="rId1"/>
-    <hyperlink ref="K40" r:id="rId2"/>
-    <hyperlink ref="K3" r:id="rId3"/>
-    <hyperlink ref="K45" r:id="rId4"/>
-    <hyperlink ref="K49" r:id="rId5"/>
-    <hyperlink ref="K4" r:id="rId6"/>
-    <hyperlink ref="K50" r:id="rId7"/>
-    <hyperlink ref="K44" r:id="rId8"/>
-    <hyperlink ref="K38" r:id="rId9"/>
-    <hyperlink ref="J38" r:id="rId10"/>
-    <hyperlink ref="K17" r:id="rId11"/>
-    <hyperlink ref="J16" r:id="rId12"/>
-    <hyperlink ref="K18" r:id="rId13"/>
-    <hyperlink ref="K11" r:id="rId14"/>
-    <hyperlink ref="J5" r:id="rId15"/>
-    <hyperlink ref="K5" r:id="rId16"/>
-    <hyperlink ref="K37" r:id="rId17"/>
-    <hyperlink ref="K16" r:id="rId18"/>
-    <hyperlink ref="J6" r:id="rId19"/>
-    <hyperlink ref="K19" r:id="rId20"/>
-    <hyperlink ref="K42" r:id="rId21"/>
-    <hyperlink ref="K56" r:id="rId22"/>
-    <hyperlink ref="K55" r:id="rId23"/>
-    <hyperlink ref="K54" r:id="rId24"/>
-    <hyperlink ref="K53" r:id="rId25"/>
-    <hyperlink ref="J25" r:id="rId26"/>
-    <hyperlink ref="K52" r:id="rId27"/>
-    <hyperlink ref="K6" r:id="rId28"/>
-    <hyperlink ref="K25" r:id="rId29"/>
-    <hyperlink ref="K46" r:id="rId30"/>
-    <hyperlink ref="K51" r:id="rId31"/>
-    <hyperlink ref="J51" r:id="rId32"/>
-    <hyperlink ref="K20" r:id="rId33"/>
-    <hyperlink ref="J27" r:id="rId34"/>
-    <hyperlink ref="K8" r:id="rId35"/>
-    <hyperlink ref="K31" r:id="rId36"/>
+    <hyperlink ref="J48" r:id="rId1"/>
+    <hyperlink ref="K48" r:id="rId2"/>
+    <hyperlink ref="K2" r:id="rId3"/>
+    <hyperlink ref="K53" r:id="rId4"/>
+    <hyperlink ref="K57" r:id="rId5"/>
+    <hyperlink ref="K3" r:id="rId6"/>
+    <hyperlink ref="K58" r:id="rId7"/>
+    <hyperlink ref="K52" r:id="rId8"/>
+    <hyperlink ref="K45" r:id="rId9"/>
+    <hyperlink ref="J45" r:id="rId10"/>
+    <hyperlink ref="K10" r:id="rId11"/>
+    <hyperlink ref="J27" r:id="rId12"/>
+    <hyperlink ref="K28" r:id="rId13"/>
+    <hyperlink ref="K40" r:id="rId14"/>
+    <hyperlink ref="J4" r:id="rId15"/>
+    <hyperlink ref="K4" r:id="rId16"/>
+    <hyperlink ref="K44" r:id="rId17"/>
+    <hyperlink ref="K27" r:id="rId18"/>
+    <hyperlink ref="J5" r:id="rId19"/>
+    <hyperlink ref="K11" r:id="rId20"/>
+    <hyperlink ref="K50" r:id="rId21"/>
+    <hyperlink ref="K64" r:id="rId22"/>
+    <hyperlink ref="K63" r:id="rId23"/>
+    <hyperlink ref="K62" r:id="rId24"/>
+    <hyperlink ref="K61" r:id="rId25"/>
+    <hyperlink ref="J17" r:id="rId26"/>
+    <hyperlink ref="K60" r:id="rId27"/>
+    <hyperlink ref="K5" r:id="rId28"/>
+    <hyperlink ref="K17" r:id="rId29"/>
+    <hyperlink ref="K54" r:id="rId30"/>
+    <hyperlink ref="K59" r:id="rId31"/>
+    <hyperlink ref="J59" r:id="rId32"/>
+    <hyperlink ref="K12" r:id="rId33"/>
+    <hyperlink ref="J46" r:id="rId34"/>
+    <hyperlink ref="K7" r:id="rId35"/>
+    <hyperlink ref="K39" r:id="rId36"/>
+    <hyperlink ref="J37" r:id="rId37"/>
+    <hyperlink ref="K15" r:id="rId38"/>
+    <hyperlink ref="K33" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="520" windowWidth="33560" windowHeight="20420" tabRatio="500"/>
+    <workbookView xWindow="33600" yWindow="-7340" windowWidth="51200" windowHeight="28240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$N$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$M$46</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="298">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -437,13 +437,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开发中</t>
-    <rPh sb="0" eb="1">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分销_分仓版</t>
     <rPh sb="0" eb="1">
       <t>fen'xiao</t>
@@ -649,13 +642,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ji'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <rPh sb="0" eb="1">
-      <t>you'xian'ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1142,19 +1128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推动技术排期</t>
-    <rPh sb="0" eb="1">
-      <t>tui'dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pai'qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提升分销系统体验，提高效率</t>
     <rPh sb="0" eb="1">
       <t>ti'sheng</t>
@@ -1182,38 +1155,6 @@
   </si>
   <si>
     <t>分销渠道取消订单接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-31808</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅剩利润脱敏没有上线，年后处理</t>
-    <rPh sb="0" eb="1">
-      <t>jin'jin</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>sheng'xia</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>li'run</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>tuo'min</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>mei'you</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shang'xian</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>nian'hou</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>chu'li</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1260,71 +1201,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>排期中</t>
-    <rPh sb="0" eb="1">
-      <t>pai'q'zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-29869</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>该任务不急，预计排到年后上线</t>
-    <rPh sb="0" eb="1">
-      <t>gai</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ren'wu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>bu'ji</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>yu'ji</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>pai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>nian'hou</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-35106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖主站接口，主站反馈年后给到</t>
-    <rPh sb="0" eb="1">
-      <t>yi'lai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhu'zhan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jie'kou</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhu'zhan</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>fan'kui</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>nian'hou</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>gei'dao</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1374,22 +1255,6 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>shang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销财务对账功能</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cai'wu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>dui'zhang</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>gong'neng</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1695,19 +1560,6 @@
     <t>分享赚钱</t>
   </si>
   <si>
-    <t>CPS后台风控迭代</t>
-    <rPh sb="3" eb="4">
-      <t>hou'tai</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>feng'kong</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>die'dai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>司徒/胡素雅</t>
     <rPh sb="0" eb="1">
       <t>si'tu</t>
@@ -1763,10 +1615,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网站联盟订单管理优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自动取消佣金功能</t>
     <rPh sb="0" eb="1">
       <t>zi'dong</t>
@@ -1801,53 +1649,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-33233</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-34079</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-34651</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-37460</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先处理完分仓相关业务再投入开发</t>
-    <rPh sb="0" eb="1">
-      <t>xian</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>chu'li</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>wan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fen'cang</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xiang'guan</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ye'wu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>tou'ru</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分仓版库存查询功能</t>
     <rPh sb="0" eb="1">
       <t>fen'cang'ban</t>
@@ -1958,26 +1759,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-29015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排到微商1.3之后</t>
-    <rPh sb="0" eb="1">
-      <t>pai</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wei'shang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhi'hou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>携程合作要求</t>
     <rPh sb="0" eb="1">
       <t>xie'cheng</t>
@@ -1987,13 +1768,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>yao'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <rPh sb="0" eb="1">
-      <t>kia'f'zhong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2059,10 +1833,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://t.cn/RcnD3mx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://t.cn/Rt5X0yq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2104,18 +1874,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-35776</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <rPh sb="0" eb="1">
-      <t>kai'f</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2163,7 +1922,645 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只做交互稿中4、5、6点</t>
+    <t>消息中心优化（App3.5）</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'xi'zhong'ixn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/1/19 (App3.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享赚钱</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hzuan'qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化用户体验</t>
+    <rPh sb="0" eb="1">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti'yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-37720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大分销业务线分仓后数据修订</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS_身份证匹配优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-38193</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营准备申请停运整个项目，相关迭代暂停</t>
+    <rPh sb="0" eb="1">
+      <t>yun'ying</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhun'bei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shen'qing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ting'yun</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zheng'ge</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiang'mu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xiang'guan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>die'dai</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zan'ting</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-35110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动技术排期</t>
+    <rPh sb="0" eb="1">
+      <t>tui'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>j'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-37732</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-36091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商_公众号消息提醒优化</t>
+    <rPh sb="0" eb="1">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'zhong'hao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao'xi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti'xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从客服消息换成模板消息</t>
+    <rPh sb="0" eb="1">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ke'fu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiao'xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huan'cheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mo'ban</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiao'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-38484</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-38521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉微商v1.3（一期）</t>
+    <rPh sb="0" eb="1">
+      <t>kao'la</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉微商v1.3（二期）</t>
+    <rPh sb="0" eb="1">
+      <t>kao'la</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>er</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">APP商品详情页获取CPS返佣信息接口改动 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-37463</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_订单查询接口库存查询加字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-38112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-37832</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄群/马鑫</t>
+    <rPh sb="0" eb="1">
+      <t>huang'qun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ma'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王宏/马鑫</t>
+    <rPh sb="0" eb="1">
+      <t>wang'hong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ma'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS_后台风控迭代</t>
+    <rPh sb="4" eb="5">
+      <t>hou'tai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>feng'kong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>die'dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_财务对账功能</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cai'wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dui'zhang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_锁定库存指定时间</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>suo'ding</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ku'cun</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi'jain</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少对主站售卖影响</t>
+    <rPh sb="0" eb="1">
+      <t>jian'shao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhu'zhan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shou'mai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ying'xinag</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升分销商对接效率</t>
+    <rPh sb="0" eb="1">
+      <t>ti'sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'xiao'shang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dui'jie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiao'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_订单确认接口税费细化</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ding'dan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shui'fei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xi'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升分销商对接要求</t>
+    <rPh sb="0" eb="1">
+      <t>ti'sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'xiao'shang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dui'jie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yao'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站联盟订单管理优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_商品查询接口开放3级类目信息</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shang'pin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cha'xun</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kai'fang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>lei'mu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RJ4EhuO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划中</t>
+    <rPh sb="0" eb="1">
+      <t>ce'hua'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_下单时仓库限定在渠道选定仓库内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决下单缺陷问题</t>
+    <rPh sb="0" eb="1">
+      <t>jie'jue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xia'dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>que'xian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘巍巍/马鑫</t>
+    <rPh sb="0" eb="1">
+      <t>liu'wi'w</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ma'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-31808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-39665</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要抓紧出排期</t>
+    <rPh sb="0" eb="1">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhua'jin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pai'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该任务不急</t>
+    <rPh sb="0" eb="1">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-39772</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-29015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34651</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉微商v1.3（三期）</t>
+    <rPh sb="0" eb="1">
+      <t>kao'la</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站联盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站联盟v3.1</t>
+    <rPh sb="0" eb="1">
+      <t>wang'zhan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lian'meng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化网盟用户体验，促进网盟合作</t>
+    <rPh sb="0" eb="1">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wang'meng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ti'yan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cu'jin</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wang'meng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>he'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RcnD3mx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-38978</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RJBsBs3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-40941</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商_链接特殊处理优化</t>
+    <rPh sb="0" eb="1">
+      <t>wei'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测验验收，跟进上线</t>
+    <rPh sb="0" eb="1">
+      <t>ce'yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan'shou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结中</t>
+    <rPh sb="0" eb="1">
+      <t>dong'jie'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结中</t>
+    <rPh sb="0" eb="1">
+      <t>dong'jei'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结中</t>
+    <rPh sb="0" eb="1">
+      <t>dogn'jei'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商_屏蔽App专享团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.im/1bs6t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求评审</t>
+    <rPh sb="0" eb="1">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/Riw5nHA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-41451</t>
+  </si>
+  <si>
+    <t>周新宝/马鑫</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'xin'bao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ma'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只做交互稿中4、5点</t>
     <rPh sb="0" eb="1">
       <t>zhi</t>
     </rPh>
@@ -2176,398 +2573,121 @@
     <rPh sb="5" eb="6">
       <t>zhong</t>
     </rPh>
-    <rPh sb="11" eb="12">
+    <rPh sb="9" eb="10">
       <t>dian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消息中心优化（App3.5）</t>
-    <rPh sb="0" eb="1">
-      <t>xiao'xi'zhong'ixn</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>you'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/1/19 (App3.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享赚钱</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hzuan'qian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化用户体验</t>
-    <rPh sb="0" eb="1">
-      <t>you'hua</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yong'hu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ti'yan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-37720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大分销业务线分仓后数据修订</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPS_身份证匹配优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-38193</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-38599</t>
-  </si>
-  <si>
-    <t>运营准备申请停运整个项目，相关迭代暂停</t>
-    <rPh sb="0" eb="1">
-      <t>yun'ying</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhun'bei</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shen'qing</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ting'yun</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zheng'ge</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>xiang'mu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>xiang'guan</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>die'dai</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>zan'ting</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-35110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试验收、上线</t>
-  </si>
-  <si>
-    <t>测试验收、上线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求评审</t>
-    <rPh sb="0" eb="1">
+    <t>http://jira.netease.com/browse/KJDS-37460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-40291</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-39774</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-41544</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.im/1bvaz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商_考拉App微商项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低微信封禁后的风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明确需求，完成方案</t>
+    <rPh sb="0" eb="1">
+      <t>ming'que</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>xu'qiu</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>ping'shne</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试验收、上线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推动技术排期</t>
-    <rPh sb="0" eb="1">
-      <t>tui'dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>j'shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pai'qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一期测试验收、上线</t>
-    <rPh sb="0" eb="1">
-      <t>yi'qi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="5" eb="6">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试验收，跟进上线一期部分</t>
+    <rPh sb="0" eb="1">
       <t>ce'shi</t>
     </rPh>
-    <rPh sb="4" eb="5">
+    <rPh sb="2" eb="3">
       <t>yan'shou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gen'jin</t>
     </rPh>
     <rPh sb="7" eb="8">
       <t>shang'xian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认需求，启动策划</t>
-    <rPh sb="0" eb="1">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>qi'dong</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ce'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-37732</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-36091</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微商_公众号消息提醒优化</t>
-    <rPh sb="0" eb="1">
-      <t>wei'shang</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>gong'zhong'hao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xiao'xi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ti'xing</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>you'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.cn/RJBsBs3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-38978</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从客服消息换成模板消息</t>
-    <rPh sb="0" eb="1">
-      <t>cong</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ke'fu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>xiao'xi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>huan'cheng</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>mo'ban</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>xiao'xi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成方案，提交任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-38484</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和开发讲解本期需求，协调开发资源</t>
-    <rPh sb="0" eb="1">
-      <t>he</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>jiang'jie</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ben'qi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>xie'tiao</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>zi'yuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-38521</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考拉微商v1.3（一期）</t>
-    <rPh sb="0" eb="1">
-      <t>kao'la</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wei'shang</t>
-    </rPh>
     <rPh sb="9" eb="10">
       <t>yi'qi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考拉微商v1.3（二期）</t>
-    <rPh sb="0" eb="1">
-      <t>kao'la</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wei'shang</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>er</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进解决开发过程中的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">APP商品详情页获取CPS返佣信息接口改动 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-33136</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-37463</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推动技术排期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微商_配置页体验优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划中</t>
-    <rPh sb="0" eb="1">
-      <t>ce'hua'zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成方案，提交任务</t>
-    <rPh sb="7" eb="8">
-      <t>ren'wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成方案，提交视觉出图，完成线上配置替换</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shi'jue</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>chu'tu</t>
+    <rPh sb="11" eb="12">
+      <t>bu'fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-38599</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待支付组支持，需要需求方评估紧急程度</t>
+    <rPh sb="0" eb="1">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'fu'zu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xu'qiu</t>
     </rPh>
     <rPh sb="12" eb="13">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>xian'shang</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>pei'zhi</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ti'haun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销_订单查询接口库存查询加字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-38112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-37832</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄群/马鑫</t>
-    <rPh sb="0" eb="1">
-      <t>huang'qun</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ma'xin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王宏/马鑫</t>
-    <rPh sb="0" eb="1">
-      <t>wang'hong</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ma'xin</t>
+      <t>fang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ping'gu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jin'ji</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>cheng'du</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2676,7 +2796,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="118">
+  <cellStyleXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2795,8 +2915,65 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
@@ -2849,11 +3026,8 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="118">
+  <cellStyles count="175">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -2972,6 +3146,63 @@
     <cellStyle name="已访问的超链接" xfId="115" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3246,30 +3477,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" style="20" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.83203125" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3277,815 +3507,680 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="K1" s="18" t="s">
+        <v>138</v>
+      </c>
       <c r="L1" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="N1" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="H2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>128</v>
+      <c r="J2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>128</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>21</v>
+      <c r="H3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>139</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
-        <v>8</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="H4" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I4" s="7" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>139</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>196</v>
+      <c r="J6" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="15">
+        <v>42817</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="L7" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>7</v>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="17" t="s">
-        <v>12</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H10" s="15">
+        <v>42815</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="I17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="I18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="I19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="22">
-        <v>42789</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="22">
-        <v>42789</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I18" s="22">
-        <v>42789</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="M18" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="15">
-        <v>42794</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="17" t="s">
-        <v>273</v>
-      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="I22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="16" t="s">
-        <v>8</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -4093,1250 +4188,1546 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>14</v>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7" t="s">
-        <v>141</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="15">
+        <v>42810</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="J27" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>14</v>
+        <v>285</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
-        <v>141</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="J28" s="7" t="s">
+      <c r="H28" s="15">
+        <v>42810</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>18</v>
+      <c r="J28" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="L28" s="19"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>141</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="7"/>
       <c r="G29" s="7"/>
+      <c r="H29" s="15">
+        <v>42809</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>145</v>
+      </c>
       <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" t="s">
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="H30" s="15">
+        <v>42809</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="H31" s="15">
+        <v>42809</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="H32" s="15">
+        <v>42808</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="15">
+        <v>42808</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="15">
+        <v>42808</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="22">
-        <v>42787</v>
-      </c>
-      <c r="J33" s="7" t="s">
+      <c r="C35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="15">
+        <v>42808</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="15">
+        <v>42797</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="L36" s="19"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="15">
+        <v>42789</v>
+      </c>
+      <c r="I37" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="L33" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="M33" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N33" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="22">
-        <v>42787</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="L34" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="M34" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="22">
-        <v>42787</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="L35" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="M35" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="15">
-        <v>42782</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="L36" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="M36" s="19"/>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="15">
-        <v>42782</v>
-      </c>
       <c r="J37" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="L37" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="M37" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="L37" s="19"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="11" t="s">
-        <v>71</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="15">
-        <v>42782</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="H38" s="15">
+        <v>42789</v>
+      </c>
+      <c r="I38" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K38" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="L38" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="M38" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>18</v>
+      <c r="J38" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="L38" s="19"/>
+      <c r="M38" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="16"/>
+        <v>230</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="D39" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>71</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="15">
-        <v>42781</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="L39" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="M39" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N39" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H39" s="15">
+        <v>42789</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="K39" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="L39" s="19"/>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="11" t="s">
-        <v>71</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="15">
-        <v>42781</v>
-      </c>
-      <c r="J40" s="7" t="s">
+      <c r="H40" s="15">
+        <v>42787</v>
+      </c>
+      <c r="I40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K40" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L40" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="M40" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N40" s="7"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J40" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="L40" s="19"/>
+      <c r="M40" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="15">
+        <v>42787</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="K41" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="15">
-        <v>42779</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="L41" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="M41" s="19"/>
-      <c r="N41" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L41" s="19"/>
+      <c r="M41" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="15">
+        <v>42787</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="L42" s="19"/>
+      <c r="M42" s="7"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="H43" s="15">
+        <v>42782</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="L43" s="19"/>
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="15">
+        <v>42782</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K44" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="L44" s="19"/>
+      <c r="M44" s="7"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="15">
+        <v>42782</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="K45" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L45" s="19"/>
+      <c r="M45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="15">
+        <v>42781</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L46" s="19"/>
+      <c r="M46" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="15">
-        <v>42779</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="L42" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="M42" s="19"/>
-      <c r="N42" s="7"/>
-    </row>
-    <row r="43" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="15">
-        <v>42754</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L43" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="M43" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N43" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="15">
-        <v>42754</v>
-      </c>
-      <c r="J44" s="7" t="s">
+      <c r="D47" s="7"/>
+      <c r="E47" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="15">
+        <v>42781</v>
+      </c>
+      <c r="I47" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K44" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="L44" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="M44" s="19"/>
-      <c r="N44" s="7"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="L45" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="M45" s="19"/>
-      <c r="N45" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="15">
-        <v>42754</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="L46" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="M46" s="19"/>
-      <c r="N46" s="7"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="15">
-        <v>42753</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="L47" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="M47" s="19"/>
-      <c r="N47" s="7"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J47" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K47" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L47" s="19"/>
+      <c r="M47" s="7"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>71</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="15">
-        <v>42738</v>
+      <c r="H48" s="15">
+        <v>42779</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L48" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="M48" s="19"/>
-      <c r="N48" s="7"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L48" s="19"/>
+      <c r="M48" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="15">
+        <v>42779</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K49" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L49" s="19"/>
+      <c r="M49" s="7"/>
+    </row>
+    <row r="50" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="15">
+        <v>42754</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="L50" s="19"/>
+      <c r="M50" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="15">
+        <v>42754</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L51" s="19"/>
+      <c r="M51" s="7"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K52" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="L52" s="19"/>
+      <c r="M52" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="15">
+        <v>42754</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K53" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="L53" s="19"/>
+      <c r="M53" s="7"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B54" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="15">
-        <v>42738</v>
-      </c>
-      <c r="J49" s="7" t="s">
+      <c r="D54" s="7"/>
+      <c r="E54" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="15">
+        <v>42753</v>
+      </c>
+      <c r="I54" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K49" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L49" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="M49" s="19"/>
-      <c r="N49" s="7"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="L50" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="M50" s="19"/>
-      <c r="N50" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="15">
-        <v>42733</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K51" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="L51" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="7"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="15">
-        <v>42733</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L52" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="M52" s="19"/>
-      <c r="N52" s="7"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G53" s="7"/>
-      <c r="I53" s="15">
-        <v>42725</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L53" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="M53" s="19"/>
-      <c r="N53" s="7"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="15">
-        <v>42725</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="L54" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="M54" s="19"/>
-      <c r="N54" s="7"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J54" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="K54" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L54" s="19"/>
+      <c r="M54" s="7"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="15">
+        <v>42738</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="K55" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L55" s="19"/>
+      <c r="M55" s="7"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="15">
+        <v>42738</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="L56" s="19"/>
+      <c r="M56" s="7"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="15">
+        <v>42738</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="K57" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L57" s="19"/>
+      <c r="M57" s="7"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="15">
-        <v>42725</v>
-      </c>
-      <c r="J55" s="7" t="s">
+      <c r="C58" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I58" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K55" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="L55" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="M55" s="19"/>
-      <c r="N55" s="7"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="L56" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="M56" s="19"/>
-      <c r="N56" s="7"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L57" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="M57" s="19"/>
-      <c r="N57" s="7"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K58" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L58" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="M58" s="19"/>
-      <c r="N58" s="7"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J58" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K58" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L58" s="19"/>
+      <c r="M58" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>71</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" s="7"/>
       <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="15">
-        <v>42709</v>
+      <c r="H59" s="15">
+        <v>42733</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="K59" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L59" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="M59" s="19"/>
-      <c r="N59" s="7"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="K59" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="L59" s="19"/>
+      <c r="M59" s="7"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="15">
+        <v>42733</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K60" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="L60" s="19"/>
+      <c r="M60" s="7"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="H61" s="15">
+        <v>42725</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K61" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L61" s="19"/>
+      <c r="M61" s="7"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="15">
+        <v>42725</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K62" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="L62" s="19"/>
+      <c r="M62" s="7"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="15">
+        <v>42725</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="K63" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L63" s="19"/>
+      <c r="M63" s="7"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="K64" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L64" s="19"/>
+      <c r="M64" s="7"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K65" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="L65" s="19"/>
+      <c r="M65" s="7"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K66" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L66" s="19"/>
+      <c r="M66" s="7"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="15">
+        <v>42709</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K67" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L67" s="19"/>
+      <c r="M67" s="7"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="C68" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="15">
+      <c r="D68" s="7"/>
+      <c r="E68" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="15">
         <v>42709</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="I68" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K60" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L60" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="M60" s="19"/>
-      <c r="N60" s="7"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="14" t="s">
+      <c r="J68" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K68" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L68" s="19"/>
+      <c r="M68" s="7"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B69" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="15">
+      <c r="D69" s="7"/>
+      <c r="E69" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="15">
         <v>42705</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="I69" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K61" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="L61" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="M61" s="19"/>
-      <c r="N61" s="7"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="12" t="s">
+      <c r="J69" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K69" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L69" s="19"/>
+      <c r="M69" s="7"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B70" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D70" s="7"/>
+      <c r="E70" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="15">
+        <v>42705</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="15">
-        <v>42705</v>
-      </c>
-      <c r="J62" s="7" t="s">
+      <c r="K70" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L70" s="19"/>
+      <c r="M70" s="7"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="3">
+        <v>42703</v>
+      </c>
+      <c r="I71" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K62" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="L62" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="M62" s="19"/>
-      <c r="N62" s="7"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="3">
-        <v>42703</v>
-      </c>
-      <c r="J63" s="7" t="s">
+      <c r="J71" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K71" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L71" s="19"/>
+      <c r="M71" s="7"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H72" s="3">
+        <v>42690</v>
+      </c>
+      <c r="I72" t="s">
         <v>19</v>
       </c>
-      <c r="K63" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L63" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="M63" s="19"/>
-      <c r="N63" s="7"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64"/>
-      <c r="D64" t="s">
-        <v>37</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I64" s="3">
-        <v>42690</v>
-      </c>
-      <c r="J64" t="s">
-        <v>19</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J72" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L64" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="M64" s="19"/>
+      <c r="K72" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L72" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J48" r:id="rId1"/>
-    <hyperlink ref="K48" r:id="rId2"/>
-    <hyperlink ref="K2" r:id="rId3"/>
-    <hyperlink ref="K53" r:id="rId4"/>
-    <hyperlink ref="K57" r:id="rId5"/>
-    <hyperlink ref="K3" r:id="rId6"/>
-    <hyperlink ref="K58" r:id="rId7"/>
-    <hyperlink ref="K52" r:id="rId8"/>
-    <hyperlink ref="K45" r:id="rId9"/>
-    <hyperlink ref="J45" r:id="rId10"/>
-    <hyperlink ref="K10" r:id="rId11"/>
-    <hyperlink ref="J27" r:id="rId12"/>
-    <hyperlink ref="K28" r:id="rId13"/>
-    <hyperlink ref="K40" r:id="rId14"/>
-    <hyperlink ref="J4" r:id="rId15"/>
-    <hyperlink ref="K4" r:id="rId16"/>
-    <hyperlink ref="K44" r:id="rId17"/>
-    <hyperlink ref="K27" r:id="rId18"/>
-    <hyperlink ref="J5" r:id="rId19"/>
-    <hyperlink ref="K11" r:id="rId20"/>
-    <hyperlink ref="K50" r:id="rId21"/>
-    <hyperlink ref="K64" r:id="rId22"/>
-    <hyperlink ref="K63" r:id="rId23"/>
-    <hyperlink ref="K62" r:id="rId24"/>
-    <hyperlink ref="K61" r:id="rId25"/>
-    <hyperlink ref="J17" r:id="rId26"/>
-    <hyperlink ref="K60" r:id="rId27"/>
-    <hyperlink ref="K5" r:id="rId28"/>
-    <hyperlink ref="K17" r:id="rId29"/>
-    <hyperlink ref="K54" r:id="rId30"/>
-    <hyperlink ref="K59" r:id="rId31"/>
-    <hyperlink ref="J59" r:id="rId32"/>
-    <hyperlink ref="K12" r:id="rId33"/>
-    <hyperlink ref="J46" r:id="rId34"/>
-    <hyperlink ref="K7" r:id="rId35"/>
-    <hyperlink ref="K39" r:id="rId36"/>
-    <hyperlink ref="J37" r:id="rId37"/>
-    <hyperlink ref="K15" r:id="rId38"/>
-    <hyperlink ref="K33" r:id="rId39"/>
+    <hyperlink ref="I56" r:id="rId1"/>
+    <hyperlink ref="J56" r:id="rId2"/>
+    <hyperlink ref="J30" r:id="rId3"/>
+    <hyperlink ref="J61" r:id="rId4"/>
+    <hyperlink ref="J65" r:id="rId5"/>
+    <hyperlink ref="J2" r:id="rId6"/>
+    <hyperlink ref="J66" r:id="rId7"/>
+    <hyperlink ref="J60" r:id="rId8"/>
+    <hyperlink ref="J52" r:id="rId9"/>
+    <hyperlink ref="I52" r:id="rId10"/>
+    <hyperlink ref="I17" r:id="rId11"/>
+    <hyperlink ref="J18" r:id="rId12"/>
+    <hyperlink ref="J47" r:id="rId13"/>
+    <hyperlink ref="I55" r:id="rId14"/>
+    <hyperlink ref="J55" r:id="rId15"/>
+    <hyperlink ref="J51" r:id="rId16"/>
+    <hyperlink ref="J17" r:id="rId17"/>
+    <hyperlink ref="I3" r:id="rId18"/>
+    <hyperlink ref="J19" r:id="rId19"/>
+    <hyperlink ref="J58" r:id="rId20"/>
+    <hyperlink ref="J72" r:id="rId21"/>
+    <hyperlink ref="J71" r:id="rId22"/>
+    <hyperlink ref="J70" r:id="rId23"/>
+    <hyperlink ref="J69" r:id="rId24"/>
+    <hyperlink ref="I8" r:id="rId25"/>
+    <hyperlink ref="J68" r:id="rId26"/>
+    <hyperlink ref="J3" r:id="rId27"/>
+    <hyperlink ref="J8" r:id="rId28"/>
+    <hyperlink ref="J62" r:id="rId29"/>
+    <hyperlink ref="J67" r:id="rId30"/>
+    <hyperlink ref="I67" r:id="rId31"/>
+    <hyperlink ref="J21" r:id="rId32"/>
+    <hyperlink ref="I53" r:id="rId33"/>
+    <hyperlink ref="J4" r:id="rId34"/>
+    <hyperlink ref="J46" r:id="rId35"/>
+    <hyperlink ref="I44" r:id="rId36"/>
+    <hyperlink ref="J40" r:id="rId37"/>
+    <hyperlink ref="I35" r:id="rId38"/>
+    <hyperlink ref="J37" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-7340" windowWidth="51200" windowHeight="28240" tabRatio="500"/>
+    <workbookView xWindow="33600" yWindow="-7340" windowWidth="51200" windowHeight="28340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$M$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$M$51</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="329">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -566,10 +567,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CPS渠道屏蔽wap页“APP专享价”区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -952,28 +949,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只做客服相关的改动</t>
-    <rPh sb="0" eb="1">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>uzo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ke'fu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xiang'guan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>gai'dong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>解决和招行进行分销合作的问题</t>
     <rPh sb="0" eb="1">
       <t>jie'jue</t>
@@ -1049,21 +1024,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是个bug</t>
-    <rPh sb="0" eb="1">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ge</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1073,25 +1034,6 @@
     </rPh>
     <rPh sb="1" eb="2">
       <t>che'xiao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已用线下方法解决，不用做了</t>
-    <rPh sb="0" eb="1">
-      <t>yi'jing</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xian'xia</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fang'fa</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>jie'jue</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1150,10 +1092,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-27167</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分销渠道取消订单接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1219,46 +1157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>由于开发在分仓项目分支上，只能和分仓一起上</t>
-    <rPh sb="0" eb="1">
-      <t>you'yu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>fen'cang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xiang'mu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>fen'zhi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shang</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zhi'neng</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>he</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>fen'cnag</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>yi'qi</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>shang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支持财务对账和审计</t>
     <rPh sb="0" eb="1">
       <t>zhi'chi</t>
@@ -1668,16 +1566,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>携程需要</t>
-    <rPh sb="0" eb="1">
-      <t>xie'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'yao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>税金计算公式修改</t>
     <rPh sb="0" eb="1">
       <t>shui'jin</t>
@@ -1707,13 +1595,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不太急</t>
-    <rPh sb="0" eb="1">
-      <t>bu'tai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分销_数据总览</t>
     <rPh sb="0" eb="1">
       <t>fen'xiao</t>
@@ -1746,19 +1627,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对接数据组徐晓楠</t>
-    <rPh sb="0" eb="1">
-      <t>dui'jei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shu'ju'zu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xu'xiao'nan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>携程合作要求</t>
     <rPh sb="0" eb="1">
       <t>xie'cheng</t>
@@ -1850,16 +1718,6 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>hu'su'ya</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动时间 1.23-1.30</t>
-    <rPh sb="0" eb="1">
-      <t>huo'dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi'jian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2054,28 +1912,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从客服消息换成模板消息</t>
-    <rPh sb="0" eb="1">
-      <t>cong</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ke'fu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>xiao'xi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>huan'cheng</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>mo'ban</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>xiao'xi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2368,22 +2204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要抓紧出排期</t>
-    <rPh sb="0" eb="1">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhua'jin</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>chu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>pai'qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>该任务不急</t>
     <rPh sb="0" eb="1">
       <t>gai</t>
@@ -2488,9 +2308,458 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测验验收，跟进上线</t>
-    <rPh sb="0" eb="1">
-      <t>ce'yan</t>
+    <t>冻结中</t>
+    <rPh sb="0" eb="1">
+      <t>dong'jie'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结中</t>
+    <rPh sb="0" eb="1">
+      <t>dong'jei'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结中</t>
+    <rPh sb="0" eb="1">
+      <t>dogn'jei'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商_屏蔽App专享团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.im/1bs6t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/Riw5nHA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-41451</t>
+  </si>
+  <si>
+    <t>周新宝/马鑫</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'xin'bao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ma'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只做交互稿中4、5点</t>
+    <rPh sb="0" eb="1">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao'hu'gao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-37460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-40291</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-41544</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低微信封禁后的风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-38599</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待支付组支持，需要需求方评估紧急程度</t>
+    <rPh sb="0" eb="1">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'fu'zu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ping'gu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jin'ji</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>cheng'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_携程加密信息解密</t>
+  </si>
+  <si>
+    <t>支持携程分销上线</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xie'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-42169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡传奇/马鑫</t>
+    <rPh sb="0" eb="1">
+      <t>hu'chuan'qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ma'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>实际支付订单数</t>
+  </si>
+  <si>
+    <t>实际支付流水</t>
+  </si>
+  <si>
+    <t>整站流水占比</t>
+  </si>
+  <si>
+    <t>新下单用户UV</t>
+  </si>
+  <si>
+    <t>下单老用户UV</t>
+  </si>
+  <si>
+    <t>活跃个人站长</t>
+  </si>
+  <si>
+    <t>活跃企业站长</t>
+  </si>
+  <si>
+    <t>微商_屏蔽wap首页限时购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低成本</t>
+    <rPh sb="0" eb="1">
+      <t>jiang'di</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪日哲/胡素雅</t>
+    <rPh sb="4" eb="5">
+      <t>hu'su'ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要加急处理</t>
+    <rPh sb="0" eb="1">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chu'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-42258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商_拒收情况拦截</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高风控标准</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>feng'kong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao'zhun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成方案，提交开发</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动技术排期</t>
+    <rPh sb="0" eb="1">
+      <t>tui'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-42298</t>
+  </si>
+  <si>
+    <t>王贝/胡素雅</t>
+    <rPh sb="0" eb="1">
+      <t>wang'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商 App v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <rPh sb="0" eb="1">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贝/胡素雅</t>
+    <rPh sb="0" eb="1">
+      <t>wagn'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.im/1c0yr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-39774</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-42567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低监管风险</t>
+    <rPh sb="0" eb="1">
+      <t>jiang'di</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian'guan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>feng'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <rPh sb="0" eb="1">
+      <t>kaf'ia'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.im/1c2oc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-42663</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.im/1bvaz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-27167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_下单接口地址校验强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化地址校验，保证推单成功</t>
+    <rPh sb="0" eb="1">
+      <t>qiang'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiao'yan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bao'zheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tui'dan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dan'zi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>cheng'gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-42740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认需求，完成方案，提交开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认需求，完成方案，提交开发，推动技术排期，测试验收，跟进上线</t>
+    <rPh sb="0" eb="1">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商_提醒消息去密友化</t>
+    <rPh sb="3" eb="4">
+      <t>ti'ixng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认需求，完成方案，提交开发，测试验收，跟进上线</t>
+    <rPh sb="15" eb="16">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yan'shou</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急上线</t>
+    <rPh sb="0" eb="1">
+      <t>jin'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试验收，跟进上线一期部分，新策划一部分</t>
+    <rPh sb="0" eb="1">
+      <t>ce'shi</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>yan'shou</t>
@@ -2501,123 +2770,44 @@
     <rPh sb="7" eb="8">
       <t>shang'xian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冻结中</t>
-    <rPh sb="0" eb="1">
-      <t>dong'jie'zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冻结中</t>
-    <rPh sb="0" eb="1">
-      <t>dong'jei'zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冻结中</t>
-    <rPh sb="0" eb="1">
-      <t>dogn'jei'zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微商_屏蔽App专享团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.im/1bs6t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求评审</t>
-    <rPh sb="0" eb="1">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ping'shen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.cn/Riw5nHA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-41451</t>
-  </si>
-  <si>
-    <t>周新宝/马鑫</t>
-    <rPh sb="0" eb="1">
-      <t>zhou'xin'bao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ma'xin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只做交互稿中4、5点</t>
-    <rPh sb="0" eb="1">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zuo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jiao'hu'gao</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhong</t>
-    </rPh>
     <rPh sb="9" eb="10">
-      <t>dian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-37460</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-40291</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-34079</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-39774</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-41544</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.im/1bvaz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微商_考拉App微商项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低微信封禁后的风险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明确需求，完成方案</t>
-    <rPh sb="0" eb="1">
-      <t>ming'que</t>
+      <t>yi'qi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ce'hua</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yui'bu'fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明确需求，完成方案，需求评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动技术排期</t>
+    <rPh sb="0" eb="1">
+      <t>tui'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai'iq</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认需求，完成方案，提交开发，测试验收，由于业务方要求延迟上线</t>
+    <rPh sb="0" eb="1">
+      <t>que'ren</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>xu'qiu</t>
@@ -2628,66 +2818,45 @@
     <rPh sb="7" eb="8">
       <t>fang'an</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试验收，跟进上线一期部分</t>
-    <rPh sb="0" eb="1">
+    <rPh sb="10" eb="11">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="15" eb="16">
       <t>ce'shi</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="17" eb="18">
       <t>yan'shou</t>
     </rPh>
-    <rPh sb="5" eb="6">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="7" eb="8">
+    <rPh sb="20" eb="21">
+      <t>you'yu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ye'wu'fang</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yao'qiu</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>yan'chi</t>
+    </rPh>
+    <rPh sb="29" eb="30">
       <t>shang'xian</t>
     </rPh>
-    <rPh sb="9" eb="10">
-      <t>yi'qi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>bu'fen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-38599</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-33233</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待支付组支持，需要需求方评估紧急程度</t>
-    <rPh sb="0" eb="1">
-      <t>deng'dai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhi'fu'zu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhi'chi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>fang</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ping'gu</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>jin'ji</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>cheng'du</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整上线时间</t>
+    <rPh sb="0" eb="1">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'jian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2696,7 +2865,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2729,6 +2898,17 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2796,7 +2976,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="175">
+  <cellStyleXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2972,8 +3152,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
@@ -3026,8 +3225,14 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="175">
+  <cellStyles count="194">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -3203,6 +3408,25 @@
     <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="173" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="193" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3477,10 +3701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3489,8 +3713,8 @@
     <col min="2" max="2" width="44.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.83203125" customWidth="1"/>
+    <col min="6" max="6" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="38.83203125" bestFit="1" customWidth="1"/>
@@ -3519,7 +3743,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>11</v>
@@ -3531,10 +3755,10 @@
         <v>5</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>6</v>
@@ -3566,13 +3790,13 @@
         <v>21</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -3580,7 +3804,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>52</v>
@@ -3589,7 +3813,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -3597,19 +3821,19 @@
         <v>53</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -3617,10 +3841,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
@@ -3629,22 +3853,22 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="K4" s="19" t="s">
-        <v>139</v>
-      </c>
       <c r="L4" s="19" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -3652,10 +3876,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="17" t="s">
@@ -3663,7 +3887,7 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="7"/>
@@ -3671,7 +3895,7 @@
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
       <c r="M5" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -3679,10 +3903,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
@@ -3690,34 +3914,34 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
@@ -3726,412 +3950,432 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="15">
-        <v>42817</v>
+        <v>42823</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>16</v>
+      <c r="A8" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>37</v>
+        <v>279</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>86</v>
+      <c r="H8" s="25">
+        <v>42817</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>87</v>
+        <v>280</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="M8" s="7"/>
+        <v>281</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>264</v>
+      <c r="A9" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="19"/>
+      <c r="F9" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>226</v>
+      </c>
       <c r="L9" s="19"/>
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>193</v>
+      <c r="A10" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H10" s="15">
-        <v>42815</v>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="I10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>193</v>
-      </c>
       <c r="B11" s="7" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>288</v>
-      </c>
       <c r="K11" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>174</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="L11" s="19"/>
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="15">
+        <v>42822</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="K15" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
+      <c r="L15" s="19"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F16" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="L16" s="19"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>14</v>
+      <c r="A17" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>129</v>
+        <v>321</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>39</v>
+        <v>309</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" s="7"/>
+        <v>310</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="25">
+        <v>42818</v>
+      </c>
       <c r="I17" s="9" t="s">
-        <v>85</v>
+        <v>312</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19" t="s">
-        <v>174</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="L17" s="19"/>
       <c r="M17" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>14</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="I18" s="7" t="s">
-        <v>19</v>
+      <c r="H18" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="I19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="H20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="M20" s="7"/>
+        <v>268</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>103</v>
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -4139,1334 +4383,1300 @@
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>274</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="9"/>
+      <c r="I22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="7"/>
+      <c r="L22" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>18</v>
+      <c r="A23" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="I23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="I24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="I25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" t="s">
-        <v>220</v>
-      </c>
+      <c r="L25" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="1" t="s">
-        <v>6</v>
+      <c r="A26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>7</v>
+      <c r="A27" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>254</v>
+        <v>129</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="11" t="s">
-        <v>70</v>
+      <c r="E27" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="15">
-        <v>42810</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>174</v>
-      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>193</v>
+      <c r="A28" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>277</v>
+        <v>95</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="11" t="s">
-        <v>70</v>
+        <v>39</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="15">
-        <v>42810</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>282</v>
-      </c>
+      <c r="G28" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K28" s="19"/>
       <c r="L28" s="19"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="15">
-        <v>42809</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="H30" s="15">
-        <v>42809</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="M30" s="7"/>
+      <c r="M28" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="H31" s="15">
-        <v>42809</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="L31" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="M31" s="7"/>
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>172</v>
+        <v>241</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>99</v>
+        <v>242</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="15">
-        <v>42808</v>
+        <v>42810</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>174</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="L32" s="19"/>
       <c r="M32" s="7"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>169</v>
+      <c r="A33" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="15">
-        <v>42808</v>
+        <v>42810</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="L33" s="19" t="s">
-        <v>174</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="L33" s="19"/>
       <c r="M33" s="7"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>227</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D34" s="7"/>
       <c r="E34" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="15">
-        <v>42808</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>269</v>
+        <v>42809</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="L34" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>226</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="L34" s="19"/>
+      <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>242</v>
+        <v>7</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>244</v>
+        <v>120</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
       <c r="H35" s="15">
-        <v>42808</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>280</v>
+        <v>42809</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>257</v>
+        <v>315</v>
       </c>
       <c r="K35" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="L35" s="19"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="L35" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="C36" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>31</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D36" s="7"/>
       <c r="E36" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
       <c r="H36" s="15">
-        <v>42797</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>251</v>
+        <v>42809</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="L36" s="19"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
-        <v>213</v>
+      <c r="A37" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
       <c r="H37" s="15">
-        <v>42789</v>
+        <v>42808</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="L37" s="19"/>
       <c r="M37" s="7"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="15">
-        <v>42789</v>
+        <v>42808</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="L38" s="19"/>
-      <c r="M38" s="7" t="s">
-        <v>188</v>
-      </c>
+      <c r="M38" s="7"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="15">
-        <v>42789</v>
+        <v>42808</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="L39" s="19"/>
       <c r="M39" s="7"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>7</v>
+        <v>230</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>49</v>
+        <v>233</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="15">
-        <v>42787</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>19</v>
+        <v>42808</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="L40" s="19"/>
-      <c r="M40" s="7" t="s">
-        <v>185</v>
-      </c>
+      <c r="M40" s="7"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>7</v>
+      <c r="A41" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D41" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="E41" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="15">
-        <v>42787</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>19</v>
+        <v>42797</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>239</v>
+        <v>138</v>
       </c>
       <c r="L41" s="19"/>
-      <c r="M41" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="M41" s="7"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>7</v>
+      <c r="A42" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="15">
-        <v>42787</v>
+        <v>42789</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="L42" s="19"/>
       <c r="M42" s="7"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
-        <v>193</v>
+      <c r="A43" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
       <c r="H43" s="15">
-        <v>42782</v>
+        <v>42789</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K43" s="19" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L43" s="19"/>
       <c r="M43" s="7"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="15">
-        <v>42782</v>
+        <v>42789</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="L44" s="19"/>
       <c r="M44" s="7"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
-        <v>14</v>
+      <c r="A45" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="15">
-        <v>42782</v>
+        <v>42787</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="K45" s="19" t="s">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="L45" s="19"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
-        <v>18</v>
+      <c r="A46" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>111</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D46" s="7"/>
       <c r="E46" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="15">
-        <v>42781</v>
+        <v>42787</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>221</v>
+      <c r="J46" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="L46" s="19"/>
-      <c r="M46" s="7" t="s">
-        <v>116</v>
-      </c>
+      <c r="M46" s="7"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="15">
-        <v>42781</v>
+        <v>42787</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="K47" s="19" t="s">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="L47" s="19"/>
       <c r="M47" s="7"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>7</v>
+      <c r="A48" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
       <c r="H48" s="15">
-        <v>42779</v>
+        <v>42782</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="M48" s="7" t="s">
-        <v>134</v>
-      </c>
+      <c r="M48" s="7"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>7</v>
+      <c r="A49" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="15">
-        <v>42779</v>
+        <v>42782</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K49" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L49" s="19"/>
       <c r="M49" s="7"/>
     </row>
-    <row r="50" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
-        <v>18</v>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>84</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D50" s="7"/>
       <c r="E50" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="15">
-        <v>42754</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>201</v>
+        <v>42782</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="L50" s="19"/>
-      <c r="M50" s="7" t="s">
-        <v>203</v>
-      </c>
+      <c r="M50" s="7"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
-        <v>16</v>
+      <c r="A51" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="7"/>
+        <v>109</v>
+      </c>
       <c r="E51" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="15">
-        <v>42754</v>
+        <v>42781</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J51" s="9" t="s">
-        <v>131</v>
+      <c r="J51" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="K51" s="19" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L51" s="19"/>
       <c r="M51" s="7"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
-        <v>18</v>
+      <c r="A52" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>115</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D52" s="7"/>
       <c r="E52" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>120</v>
+      <c r="H52" s="15">
+        <v>42781</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="K52" s="19" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="L52" s="19"/>
-      <c r="M52" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="M52" s="7"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
-        <v>193</v>
+      <c r="A53" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D53" s="7"/>
       <c r="E53" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="15">
-        <v>42754</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>168</v>
+        <v>42779</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="K53" s="19" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L53" s="19"/>
       <c r="M53" s="7"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
-        <v>14</v>
+      <c r="A54" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="E54" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="15">
-        <v>42753</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>19</v>
+        <v>42779</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L54" s="19"/>
       <c r="M54" s="7"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
-        <v>7</v>
+    <row r="55" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="7"/>
+        <v>159</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="E55" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="15">
-        <v>42738</v>
+        <v>42754</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c r="K55" s="19" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L55" s="19"/>
       <c r="M55" s="7"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
-        <v>7</v>
+      <c r="A56" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>33</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D56" s="7"/>
       <c r="E56" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="15">
-        <v>42738</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>200</v>
+        <v>42754</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="L56" s="19"/>
       <c r="M56" s="7"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
-        <v>14</v>
+      <c r="A57" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="E57" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
-      <c r="H57" s="15">
-        <v>42738</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>19</v>
+      <c r="H57" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="K57" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L57" s="19"/>
       <c r="M57" s="7"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="13" t="s">
-        <v>117</v>
+        <v>96</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
-      <c r="H58" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>19</v>
+      <c r="H58" s="15">
+        <v>42754</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="K58" s="19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L58" s="19"/>
-      <c r="M58" s="7" t="s">
+      <c r="M58" s="7"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="15">
-        <v>42733</v>
+        <v>42753</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>233</v>
+        <v>137</v>
       </c>
       <c r="K59" s="19" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="L59" s="19"/>
       <c r="M59" s="7"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="10" t="s">
-        <v>14</v>
+      <c r="A60" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="11" t="s">
-        <v>70</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="15">
-        <v>42733</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>19</v>
+        <v>42738</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>27</v>
+        <v>244</v>
       </c>
       <c r="K60" s="19" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="L60" s="19"/>
       <c r="M60" s="7"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
-        <v>14</v>
+      <c r="A61" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="E61" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
       <c r="H61" s="15">
-        <v>42725</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>19</v>
+        <v>42738</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L61" s="19"/>
       <c r="M61" s="7"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
-        <v>7</v>
+      <c r="A62" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="15">
-        <v>42725</v>
+        <v>42738</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="K62" s="19" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="L62" s="19"/>
       <c r="M62" s="7"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
-        <v>7</v>
+      <c r="A63" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D63" s="7"/>
-      <c r="E63" s="11" t="s">
-        <v>70</v>
+      <c r="E63" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="15">
-        <v>42725</v>
+      <c r="H63" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="K63" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L63" s="19"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="10" t="s">
-        <v>14</v>
+      <c r="A64" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
-      <c r="H64" s="16" t="s">
-        <v>167</v>
+      <c r="H64" s="15">
+        <v>42733</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="K64" s="19" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="L64" s="19"/>
       <c r="M64" s="7"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="12" t="s">
-        <v>16</v>
+      <c r="A65" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F65" s="7"/>
+        <v>69</v>
+      </c>
       <c r="G65" s="7"/>
-      <c r="H65" s="16" t="s">
-        <v>64</v>
+      <c r="H65" s="15">
+        <v>42733</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="K65" s="19" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="L65" s="19"/>
       <c r="M65" s="7"/>
@@ -5476,123 +5686,120 @@
         <v>14</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="16" t="s">
-        <v>94</v>
+      <c r="H66" s="15">
+        <v>42725</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="L66" s="19"/>
       <c r="M66" s="7"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="13" t="s">
-        <v>17</v>
+      <c r="A67" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>31</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D67" s="7"/>
       <c r="E67" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="15">
-        <v>42709</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>267</v>
+        <v>42725</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="K67" s="19" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="L67" s="19"/>
       <c r="M67" s="7"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="10" t="s">
-        <v>14</v>
+      <c r="A68" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="15">
-        <v>42709</v>
+        <v>42725</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="K68" s="19" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L68" s="19"/>
       <c r="M68" s="7"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="14" t="s">
-        <v>18</v>
+      <c r="A69" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
-      <c r="H69" s="15">
-        <v>42705</v>
+      <c r="H69" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="L69" s="19"/>
       <c r="M69" s="7"/>
@@ -5602,28 +5809,28 @@
         <v>16</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="11" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
-      <c r="H70" s="15">
-        <v>42705</v>
+      <c r="H70" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="L70" s="19"/>
       <c r="M70" s="7"/>
@@ -5633,103 +5840,487 @@
         <v>14</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
-      <c r="H71" s="3">
-        <v>42703</v>
+      <c r="H71" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K71" s="19" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="L71" s="19"/>
       <c r="M71" s="7"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="15">
+        <v>42709</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K72" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="L72" s="19"/>
+      <c r="M72" s="7"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="15">
+        <v>42709</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K73" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="L73" s="19"/>
+      <c r="M73" s="7"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="15">
+        <v>42705</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K74" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L74" s="19"/>
+      <c r="M74" s="7"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="15">
+        <v>42705</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K75" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="L75" s="19"/>
+      <c r="M75" s="7"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="3">
+        <v>42703</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K76" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L76" s="19"/>
+      <c r="M76" s="7"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B77" t="s">
         <v>22</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C77" t="s">
         <v>37</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H77" s="3">
         <v>42690</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I77" t="s">
         <v>19</v>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="J77" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K72" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="L72" s="19"/>
+      <c r="K77" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L77" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I56" r:id="rId1"/>
-    <hyperlink ref="J56" r:id="rId2"/>
-    <hyperlink ref="J30" r:id="rId3"/>
-    <hyperlink ref="J61" r:id="rId4"/>
-    <hyperlink ref="J65" r:id="rId5"/>
+    <hyperlink ref="I61" r:id="rId1"/>
+    <hyperlink ref="J61" r:id="rId2"/>
+    <hyperlink ref="J35" r:id="rId3"/>
+    <hyperlink ref="J66" r:id="rId4"/>
+    <hyperlink ref="J70" r:id="rId5"/>
     <hyperlink ref="J2" r:id="rId6"/>
-    <hyperlink ref="J66" r:id="rId7"/>
-    <hyperlink ref="J60" r:id="rId8"/>
-    <hyperlink ref="J52" r:id="rId9"/>
-    <hyperlink ref="I52" r:id="rId10"/>
-    <hyperlink ref="I17" r:id="rId11"/>
-    <hyperlink ref="J18" r:id="rId12"/>
-    <hyperlink ref="J47" r:id="rId13"/>
-    <hyperlink ref="I55" r:id="rId14"/>
-    <hyperlink ref="J55" r:id="rId15"/>
-    <hyperlink ref="J51" r:id="rId16"/>
-    <hyperlink ref="J17" r:id="rId17"/>
+    <hyperlink ref="J71" r:id="rId7"/>
+    <hyperlink ref="J65" r:id="rId8"/>
+    <hyperlink ref="J57" r:id="rId9"/>
+    <hyperlink ref="I57" r:id="rId10"/>
+    <hyperlink ref="I22" r:id="rId11"/>
+    <hyperlink ref="J23" r:id="rId12"/>
+    <hyperlink ref="J52" r:id="rId13"/>
+    <hyperlink ref="I60" r:id="rId14"/>
+    <hyperlink ref="J60" r:id="rId15"/>
+    <hyperlink ref="J56" r:id="rId16"/>
+    <hyperlink ref="J22" r:id="rId17"/>
     <hyperlink ref="I3" r:id="rId18"/>
-    <hyperlink ref="J19" r:id="rId19"/>
-    <hyperlink ref="J58" r:id="rId20"/>
-    <hyperlink ref="J72" r:id="rId21"/>
-    <hyperlink ref="J71" r:id="rId22"/>
-    <hyperlink ref="J70" r:id="rId23"/>
-    <hyperlink ref="J69" r:id="rId24"/>
-    <hyperlink ref="I8" r:id="rId25"/>
-    <hyperlink ref="J68" r:id="rId26"/>
+    <hyperlink ref="J24" r:id="rId19"/>
+    <hyperlink ref="J63" r:id="rId20"/>
+    <hyperlink ref="J77" r:id="rId21"/>
+    <hyperlink ref="J76" r:id="rId22"/>
+    <hyperlink ref="J75" r:id="rId23"/>
+    <hyperlink ref="J74" r:id="rId24"/>
+    <hyperlink ref="I10" r:id="rId25"/>
+    <hyperlink ref="J73" r:id="rId26"/>
     <hyperlink ref="J3" r:id="rId27"/>
-    <hyperlink ref="J8" r:id="rId28"/>
-    <hyperlink ref="J62" r:id="rId29"/>
-    <hyperlink ref="J67" r:id="rId30"/>
-    <hyperlink ref="I67" r:id="rId31"/>
-    <hyperlink ref="J21" r:id="rId32"/>
-    <hyperlink ref="I53" r:id="rId33"/>
+    <hyperlink ref="J10" r:id="rId28"/>
+    <hyperlink ref="J67" r:id="rId29"/>
+    <hyperlink ref="J72" r:id="rId30"/>
+    <hyperlink ref="I72" r:id="rId31"/>
+    <hyperlink ref="J26" r:id="rId32"/>
+    <hyperlink ref="I58" r:id="rId33"/>
     <hyperlink ref="J4" r:id="rId34"/>
-    <hyperlink ref="J46" r:id="rId35"/>
-    <hyperlink ref="I44" r:id="rId36"/>
-    <hyperlink ref="J40" r:id="rId37"/>
-    <hyperlink ref="I35" r:id="rId38"/>
-    <hyperlink ref="J37" r:id="rId39"/>
+    <hyperlink ref="J51" r:id="rId35"/>
+    <hyperlink ref="I49" r:id="rId36"/>
+    <hyperlink ref="J45" r:id="rId37"/>
+    <hyperlink ref="I40" r:id="rId38"/>
+    <hyperlink ref="J42" r:id="rId39"/>
+    <hyperlink ref="I14" r:id="rId40"/>
+    <hyperlink ref="I17" r:id="rId41"/>
+    <hyperlink ref="J17" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E19:L26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="19" spans="5:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="E19" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="E20" s="23">
+        <v>42813</v>
+      </c>
+      <c r="F20" s="24">
+        <v>1053</v>
+      </c>
+      <c r="G20" s="24">
+        <v>126388.91</v>
+      </c>
+      <c r="H20" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="I20" s="24">
+        <v>765</v>
+      </c>
+      <c r="J20" s="24">
+        <v>238</v>
+      </c>
+      <c r="K20" s="24">
+        <v>37</v>
+      </c>
+      <c r="L20" s="24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="E21" s="23">
+        <v>42812</v>
+      </c>
+      <c r="F21" s="24">
+        <v>974</v>
+      </c>
+      <c r="G21" s="24">
+        <v>158674.14000000001</v>
+      </c>
+      <c r="H21" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="24">
+        <v>641</v>
+      </c>
+      <c r="J21" s="24">
+        <v>253</v>
+      </c>
+      <c r="K21" s="24">
+        <v>34</v>
+      </c>
+      <c r="L21" s="24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="E22" s="23">
+        <v>42811</v>
+      </c>
+      <c r="F22" s="24">
+        <v>1888</v>
+      </c>
+      <c r="G22" s="24">
+        <v>165229.44</v>
+      </c>
+      <c r="H22" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="I22" s="24">
+        <v>1399</v>
+      </c>
+      <c r="J22" s="24">
+        <v>304</v>
+      </c>
+      <c r="K22" s="24">
+        <v>33</v>
+      </c>
+      <c r="L22" s="24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="E23" s="23">
+        <v>42810</v>
+      </c>
+      <c r="F23" s="24">
+        <v>1378</v>
+      </c>
+      <c r="G23" s="24">
+        <v>139831.87</v>
+      </c>
+      <c r="H23" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="I23" s="24">
+        <v>957</v>
+      </c>
+      <c r="J23" s="24">
+        <v>351</v>
+      </c>
+      <c r="K23" s="24">
+        <v>31</v>
+      </c>
+      <c r="L23" s="24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="E24" s="23">
+        <v>42809</v>
+      </c>
+      <c r="F24" s="24">
+        <v>1347</v>
+      </c>
+      <c r="G24" s="24">
+        <v>173584.14</v>
+      </c>
+      <c r="H24" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="I24" s="24">
+        <v>931</v>
+      </c>
+      <c r="J24" s="24">
+        <v>353</v>
+      </c>
+      <c r="K24" s="24">
+        <v>33</v>
+      </c>
+      <c r="L24" s="24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="E25" s="23">
+        <v>42808</v>
+      </c>
+      <c r="F25" s="24">
+        <v>1072</v>
+      </c>
+      <c r="G25" s="24">
+        <v>179184</v>
+      </c>
+      <c r="H25" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="I25" s="24">
+        <v>670</v>
+      </c>
+      <c r="J25" s="24">
+        <v>320</v>
+      </c>
+      <c r="K25" s="24">
+        <v>39</v>
+      </c>
+      <c r="L25" s="24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="E26" s="23">
+        <v>42807</v>
+      </c>
+      <c r="F26" s="24">
+        <v>1204</v>
+      </c>
+      <c r="G26" s="24">
+        <v>170982.78</v>
+      </c>
+      <c r="H26" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="I26" s="24">
+        <v>705</v>
+      </c>
+      <c r="J26" s="24">
+        <v>397</v>
+      </c>
+      <c r="K26" s="24">
+        <v>44</v>
+      </c>
+      <c r="L26" s="24">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-7340" windowWidth="51200" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="36120" yWindow="-5240" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="322">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -2548,57 +2548,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成方案，提交开发</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="7" eb="8">
+    <t>推动技术排期</t>
+    <rPh sb="0" eb="1">
+      <t>tui'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贝/胡素雅</t>
+    <rPh sb="0" eb="1">
+      <t>wang'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商 App v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <rPh sb="0" eb="1">
       <t>kai'fa</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推动技术排期</t>
-    <rPh sb="0" eb="1">
-      <t>tui'dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pai'qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-42298</t>
-  </si>
-  <si>
-    <t>王贝/胡素雅</t>
-    <rPh sb="0" eb="1">
-      <t>wang'bei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微商 App v1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <rPh sb="0" eb="1">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求评审</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2695,32 +2672,6 @@
   </si>
   <si>
     <t>http://jira.netease.com/browse/KJDS-42740</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认需求，完成方案，提交开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认需求，完成方案，提交开发，推动技术排期，测试验收，跟进上线</t>
-    <rPh sb="0" eb="1">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>kai'fa</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2731,22 +2682,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确认需求，完成方案，提交开发，测试验收，跟进上线</t>
-    <rPh sb="15" eb="16">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>yan'shou</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>紧急上线</t>
     <rPh sb="0" eb="1">
       <t>jin'ji</t>
@@ -2788,10 +2723,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>明确需求，完成方案，需求评审</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推动技术排期</t>
     <rPh sb="0" eb="1">
       <t>tui'dong</t>
@@ -2805,59 +2736,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确认需求，完成方案，提交开发，测试验收，由于业务方要求延迟上线</t>
-    <rPh sb="0" eb="1">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>yan'shou</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>you'yu</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ye'wu'fang</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>yao'qiu</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>yan'chi</t>
-    </rPh>
-    <rPh sb="29" eb="30">
+    <t>调整上线时间</t>
+    <rPh sb="0" eb="1">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>shang'xian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整上线时间</t>
-    <rPh sb="0" eb="1">
-      <t>tiao'zheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shang'xian</t>
-    </rPh>
     <rPh sb="4" eb="5">
       <t>shi'jian</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-42298</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2976,11 +2868,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="194">
+  <cellStyleXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3232,7 +3126,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="194">
+  <cellStyles count="196">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -3427,6 +3321,8 @@
     <cellStyle name="已访问的超链接" xfId="191" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="195" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3704,7 +3600,7 @@
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3956,7 +3852,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K7" s="19" t="s">
         <v>226</v>
@@ -3971,133 +3867,129 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>320</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="25">
-        <v>42817</v>
+      <c r="H8" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="L8" s="19"/>
-      <c r="M8" s="7" t="s">
-        <v>293</v>
-      </c>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>7</v>
+      <c r="A9" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>316</v>
+        <v>237</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>317</v>
+        <v>37</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>319</v>
-      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>19</v>
+      <c r="H9" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>318</v>
+        <v>86</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="L9" s="19"/>
+        <v>163</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>167</v>
+      </c>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>37</v>
+        <v>253</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>85</v>
+        <v>311</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>86</v>
+        <v>294</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="L10" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="15">
+        <v>42822</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="L11" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="L11" s="19"/>
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -4105,27 +3997,27 @@
         <v>183</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>229</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>240</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="15">
-        <v>42822</v>
-      </c>
+      <c r="G12" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H12" s="15"/>
       <c r="I12" s="9" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="K12" s="19" t="s">
         <v>138</v>
@@ -4140,34 +4032,28 @@
         <v>183</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>193</v>
+        <v>299</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>96</v>
+        <v>273</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>240</v>
+        <v>274</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>167</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -4175,29 +4061,31 @@
         <v>183</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>274</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>325</v>
-      </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="19"/>
+      <c r="K14" s="19" t="s">
+        <v>292</v>
+      </c>
       <c r="L14" s="19"/>
       <c r="M14" s="7"/>
     </row>
@@ -4206,176 +4094,165 @@
         <v>183</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>327</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L15" s="19"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>183</v>
+    <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>296</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>298</v>
-      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="I16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="I20" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="I21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="25">
-        <v>42818</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="L18" s="19" t="s">
+      <c r="J21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L21" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="M18" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="1" t="s">
-        <v>6</v>
+      <c r="M21" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -4383,23 +4260,26 @@
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
         <v>127</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="I22" s="9" t="s">
-        <v>84</v>
+      <c r="G22" s="7"/>
+      <c r="I22" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22" s="19"/>
+        <v>248</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>163</v>
+      </c>
       <c r="L22" s="19" t="s">
         <v>167</v>
       </c>
@@ -4412,63 +4292,60 @@
         <v>14</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>127</v>
+        <v>262</v>
       </c>
       <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
       <c r="I23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L23" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="M23" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="7"/>
+        <v>261</v>
+      </c>
       <c r="G24" s="7"/>
+      <c r="H24" s="16"/>
       <c r="I24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="L24" s="19" t="s">
         <v>167</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -4476,143 +4353,148 @@
         <v>14</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="I25" s="7" t="s">
+      <c r="G25" s="7"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="25">
+        <v>42818</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="L30" s="19"/>
+      <c r="M30" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="25">
+        <v>42817</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="L26" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="1" t="s">
-        <v>6</v>
+      <c r="J31" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="L31" s="19"/>
+      <c r="M31" s="7" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -4730,7 +4612,7 @@
         <v>19</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K35" s="19" t="s">
         <v>132</v>
@@ -6063,28 +5945,28 @@
     <hyperlink ref="J65" r:id="rId8"/>
     <hyperlink ref="J57" r:id="rId9"/>
     <hyperlink ref="I57" r:id="rId10"/>
-    <hyperlink ref="I22" r:id="rId11"/>
-    <hyperlink ref="J23" r:id="rId12"/>
+    <hyperlink ref="I20" r:id="rId11"/>
+    <hyperlink ref="J21" r:id="rId12"/>
     <hyperlink ref="J52" r:id="rId13"/>
     <hyperlink ref="I60" r:id="rId14"/>
     <hyperlink ref="J60" r:id="rId15"/>
     <hyperlink ref="J56" r:id="rId16"/>
-    <hyperlink ref="J22" r:id="rId17"/>
+    <hyperlink ref="J20" r:id="rId17"/>
     <hyperlink ref="I3" r:id="rId18"/>
-    <hyperlink ref="J24" r:id="rId19"/>
+    <hyperlink ref="J22" r:id="rId19"/>
     <hyperlink ref="J63" r:id="rId20"/>
     <hyperlink ref="J77" r:id="rId21"/>
     <hyperlink ref="J76" r:id="rId22"/>
     <hyperlink ref="J75" r:id="rId23"/>
     <hyperlink ref="J74" r:id="rId24"/>
-    <hyperlink ref="I10" r:id="rId25"/>
+    <hyperlink ref="I9" r:id="rId25"/>
     <hyperlink ref="J73" r:id="rId26"/>
     <hyperlink ref="J3" r:id="rId27"/>
-    <hyperlink ref="J10" r:id="rId28"/>
+    <hyperlink ref="J9" r:id="rId28"/>
     <hyperlink ref="J67" r:id="rId29"/>
     <hyperlink ref="J72" r:id="rId30"/>
     <hyperlink ref="I72" r:id="rId31"/>
-    <hyperlink ref="J26" r:id="rId32"/>
+    <hyperlink ref="J24" r:id="rId32"/>
     <hyperlink ref="I58" r:id="rId33"/>
     <hyperlink ref="J4" r:id="rId34"/>
     <hyperlink ref="J51" r:id="rId35"/>
@@ -6092,9 +5974,9 @@
     <hyperlink ref="J45" r:id="rId37"/>
     <hyperlink ref="I40" r:id="rId38"/>
     <hyperlink ref="J42" r:id="rId39"/>
-    <hyperlink ref="I14" r:id="rId40"/>
-    <hyperlink ref="I17" r:id="rId41"/>
-    <hyperlink ref="J17" r:id="rId42"/>
+    <hyperlink ref="I13" r:id="rId40"/>
+    <hyperlink ref="I30" r:id="rId41"/>
+    <hyperlink ref="J30" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="36120" yWindow="-5240" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$M$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$M$56</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="322">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -1533,16 +1533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>启动策划</t>
-    <rPh sb="0" eb="1">
-      <t>qi'dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ce'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-34592</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1872,19 +1862,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推动技术排期</t>
-    <rPh sb="0" eb="1">
-      <t>tui'dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>j'shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pai'qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-37732</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2159,13 +2136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>策划中</t>
-    <rPh sb="0" eb="1">
-      <t>ce'hua'zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分销_下单时仓库限定在渠道选定仓库内</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2397,10 +2367,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-38599</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-33233</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2469,128 +2435,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>实际支付订单数</t>
-  </si>
-  <si>
-    <t>实际支付流水</t>
-  </si>
-  <si>
-    <t>整站流水占比</t>
-  </si>
-  <si>
-    <t>新下单用户UV</t>
-  </si>
-  <si>
-    <t>下单老用户UV</t>
-  </si>
-  <si>
-    <t>活跃个人站长</t>
-  </si>
-  <si>
-    <t>活跃企业站长</t>
-  </si>
-  <si>
-    <t>微商_屏蔽wap首页限时购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低成本</t>
+    <t>需要加急处理</t>
+    <rPh sb="0" eb="1">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chu'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商_拒收情况拦截</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高风控标准</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>feng'kong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao'zhun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动技术排期</t>
+    <rPh sb="0" eb="1">
+      <t>tui'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贝/胡素雅</t>
+    <rPh sb="0" eb="1">
+      <t>wang'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商 App v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <rPh sb="0" eb="1">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贝/胡素雅</t>
+    <rPh sb="0" eb="1">
+      <t>wagn'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-39774</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低监管风险</t>
     <rPh sb="0" eb="1">
       <t>jiang'di</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>cheng'ben</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倪日哲/胡素雅</t>
-    <rPh sb="4" eb="5">
-      <t>hu'su'ya</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要加急处理</t>
-    <rPh sb="0" eb="1">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jia'ji</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>chu'li</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-42258</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微商_拒收情况拦截</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高风控标准</t>
-    <rPh sb="0" eb="1">
-      <t>ti'gao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>feng'kong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>biao'zhun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推动技术排期</t>
-    <rPh sb="0" eb="1">
-      <t>tui'dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pai'qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王贝/胡素雅</t>
-    <rPh sb="0" eb="1">
-      <t>wang'bei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微商 App v1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <rPh sb="0" eb="1">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王贝/胡素雅</t>
-    <rPh sb="0" eb="1">
-      <t>wagn'bei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.im/1c0yr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-39774</t>
+      <t>jian'guan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>feng'xian</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2598,43 +2524,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-42567</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低监管风险</t>
-    <rPh sb="0" eb="1">
-      <t>jiang'di</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jian'guan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>feng'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <rPh sb="0" eb="1">
-      <t>kaf'ia'zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://t.im/1c2oc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://jira.netease.com/browse/KJDS-42663</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.im/1bvaz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2692,64 +2586,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试验收，跟进上线一期部分，新策划一部分</t>
-    <rPh sb="0" eb="1">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yan'shou</t>
-    </rPh>
+    <t>http://jira.netease.com/browse/KJDS-42298</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-38599</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.im/1bvaz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站联盟v3.2</t>
+    <rPh sb="0" eb="1">
+      <t>wang'zhan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lian'meng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商_合规改造</t>
+    <rPh sb="0" eb="1">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>he'gui'gai'zao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://kks.me/akp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站联盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站联盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开辟新的网红营销线路</t>
+    <rPh sb="0" eb="1">
+      <t>kai'pi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wang'hong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ying'xiao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网红营销项目v1.0</t>
+    <rPh sb="0" eb="1">
+      <t>wang'hong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying'xiao'xiang'mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-44315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <rPh sb="0" eb="1">
+      <t>kai'f'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认需求，跟进开发</t>
     <rPh sb="5" eb="6">
       <t>gen'jin</t>
     </rPh>
     <rPh sb="7" eb="8">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试验收，跟进上线</t>
+    <rPh sb="0" eb="1">
+      <t>ce'shi'yan'shou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
       <t>shang'xian</t>
     </rPh>
-    <rPh sb="9" eb="10">
-      <t>yi'qi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>bu'fen</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>xin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-44328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.im/1c0yr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-42258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商资格商品返佣改为根据返佣比例设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改微商资格商品购买后的短信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-43969</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据需求调整方案，推动技术排期落地</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu'fang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fang'an</t>
     </rPh>
     <rPh sb="15" eb="16">
+      <t>luo'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_开发票接口</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fa'piao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升用户体验</t>
+    <rPh sb="0" eb="1">
+      <t>ti'sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti'yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动策划</t>
+    <rPh sb="0" eb="1">
+      <t>qi'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>ce'hua</t>
     </rPh>
-    <rPh sb="17" eb="18">
-      <t>yui'bu'fen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推动技术排期</t>
-    <rPh sb="0" eb="1">
-      <t>tui'dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pai'iq</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整上线时间</t>
-    <rPh sb="0" eb="1">
-      <t>tiao'zheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shang'xian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shi'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-42298</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2868,7 +2897,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="196">
+  <cellStyleXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3065,8 +3094,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
@@ -3122,11 +3174,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="196">
+  <cellStyles count="219">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -3323,6 +3372,29 @@
     <cellStyle name="已访问的超链接" xfId="193" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="218" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3597,10 +3669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3609,7 +3681,7 @@
     <col min="2" max="2" width="44.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" customWidth="1"/>
     <col min="7" max="7" width="41.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
@@ -3692,7 +3764,7 @@
         <v>167</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -3720,7 +3792,7 @@
         <v>76</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>132</v>
@@ -3729,7 +3801,7 @@
         <v>167</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -3772,7 +3844,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>128</v>
@@ -3782,9 +3854,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="G5" s="7"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7"/>
       <c r="J5" s="9"/>
@@ -3794,35 +3864,33 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>208</v>
+      <c r="G6" s="7"/>
+      <c r="H6" s="3">
+        <v>42844</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L6" s="19" t="s">
         <v>167</v>
@@ -3831,13 +3899,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>230</v>
+        <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>236</v>
+        <v>293</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
@@ -3845,21 +3913,19 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="15">
-        <v>42823</v>
+      <c r="H7" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>167</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="L7" s="19"/>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -3867,29 +3933,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>8</v>
+      <c r="E8" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>226</v>
-      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="7"/>
     </row>
@@ -3898,7 +3956,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>37</v>
@@ -3928,176 +3986,156 @@
     </row>
     <row r="10" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>53</v>
+      <c r="H10" s="15">
+        <v>42853</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="L10" s="19"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>183</v>
+    <row r="11" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>10</v>
+      <c r="D11" s="7"/>
+      <c r="E11" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="15">
-        <v>42822</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>167</v>
-      </c>
+      <c r="G11" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>183</v>
+    <row r="12" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>304</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>193</v>
+        <v>306</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>229</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="17" t="s">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>167</v>
-      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
       <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>299</v>
+        <v>192</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>273</v>
+        <v>96</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H13" s="15"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="15" t="s">
+        <v>321</v>
+      </c>
       <c r="I13" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+        <v>261</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>167</v>
+      </c>
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>270</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>271</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>292</v>
-      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="15">
+        <v>42880</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
@@ -4105,186 +4143,194 @@
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="L15" s="19"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>18</v>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>196</v>
+        <v>301</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>317</v>
+      </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="15">
+        <v>42842</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="L16" s="19"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H17" s="15">
+        <v>42842</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="L17" s="19"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H18" s="15">
+        <v>42842</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="J19" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K19" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="L16" s="19" t="s">
+      <c r="L19" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="M16" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="M19" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="1" t="s">
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="I20" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="I21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="I22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="L22" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -4292,60 +4338,60 @@
         <v>14</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>262</v>
+        <v>127</v>
       </c>
       <c r="F23" s="7"/>
-      <c r="I23" s="7" t="s">
-        <v>19</v>
+      <c r="I23" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>133</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="K23" s="19"/>
       <c r="L23" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="M23" s="7"/>
+      <c r="M23" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>261</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="16"/>
       <c r="I24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>249</v>
+        <v>54</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L24" s="19" t="s">
         <v>167</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -4353,190 +4399,185 @@
         <v>14</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>260</v>
+        <v>127</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="7"/>
+      <c r="I25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="I26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="1" t="s">
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="25">
-        <v>42818</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="L30" s="19"/>
-      <c r="M30" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="25">
-        <v>42817</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="L31" s="19"/>
-      <c r="M31" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="15">
-        <v>42810</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="L32" s="19"/>
-      <c r="M32" s="7"/>
-    </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
-        <v>183</v>
+      <c r="A33" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="11" t="s">
@@ -4545,198 +4586,206 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="15">
-        <v>42810</v>
+        <v>42823</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="L33" s="19"/>
       <c r="M33" s="7"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="E34" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="15">
-        <v>42809</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>19</v>
+        <v>42821</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>237</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="K34" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="L34" s="19"/>
+      <c r="L34" s="19" t="s">
+        <v>167</v>
+      </c>
       <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>7</v>
+      <c r="A35" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>120</v>
+        <v>295</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>36</v>
+        <v>287</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="15">
-        <v>42809</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>19</v>
+        <v>42818</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>289</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>132</v>
+        <v>282</v>
       </c>
       <c r="L35" s="19"/>
-      <c r="M35" s="7"/>
+      <c r="M35" s="7" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>230</v>
+        <v>7</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
       <c r="H36" s="15">
-        <v>42809</v>
+        <v>42817</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
       <c r="L36" s="19"/>
-      <c r="M36" s="7"/>
+      <c r="M36" s="7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>98</v>
+        <v>239</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
       <c r="H37" s="15">
-        <v>42808</v>
+        <v>42810</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>132</v>
+        <v>240</v>
       </c>
       <c r="L37" s="19"/>
       <c r="M37" s="7"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>162</v>
+      <c r="A38" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
       <c r="H38" s="15">
-        <v>42808</v>
+        <v>42810</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>163</v>
+        <v>264</v>
       </c>
       <c r="L38" s="19"/>
       <c r="M38" s="7"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="D39" s="7"/>
       <c r="E39" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="15">
-        <v>42808</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>256</v>
+        <v>42809</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K39" s="19" t="s">
         <v>138</v>
@@ -4746,108 +4795,103 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>230</v>
+        <v>7</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>232</v>
+        <v>120</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
       <c r="H40" s="15">
-        <v>42808</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>265</v>
+        <v>42809</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="L40" s="19"/>
       <c r="M40" s="7"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
-        <v>183</v>
+      <c r="A41" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>31</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
       <c r="H41" s="15">
-        <v>42797</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>239</v>
+        <v>42809</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="L41" s="19"/>
       <c r="M41" s="7"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
-        <v>202</v>
+      <c r="A42" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
       <c r="H42" s="15">
-        <v>42789</v>
+        <v>42808</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="L42" s="19"/>
       <c r="M42" s="7"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="11" t="s">
@@ -4856,13 +4900,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="15">
-        <v>42789</v>
+        <v>42808</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="K43" s="19" t="s">
         <v>163</v>
@@ -4872,16 +4916,16 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>96</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>31</v>
+        <v>213</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>69</v>
@@ -4889,13 +4933,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="15">
-        <v>42789</v>
+        <v>42808</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="K44" s="19" t="s">
         <v>138</v>
@@ -4905,13 +4949,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>7</v>
+        <v>228</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="11" t="s">
@@ -4920,60 +4964,62 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="15">
-        <v>42787</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>19</v>
+        <v>42808</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>262</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="K45" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L45" s="19"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>7</v>
+      <c r="A46" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D46" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="E46" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="15">
-        <v>42787</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>19</v>
+        <v>42797</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>237</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c r="L46" s="19"/>
       <c r="M46" s="7"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
-        <v>7</v>
+      <c r="A47" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="11" t="s">
@@ -4982,62 +5028,63 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="15">
-        <v>42787</v>
+        <v>42789</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="K47" s="19" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="L47" s="19"/>
       <c r="M47" s="7"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
-        <v>183</v>
+      <c r="A48" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
       <c r="H48" s="15">
-        <v>42782</v>
+        <v>42789</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="L48" s="19"/>
       <c r="M48" s="7"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>96</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>69</v>
@@ -5045,13 +5092,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="15">
-        <v>42782</v>
+        <v>42789</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="K49" s="19" t="s">
         <v>138</v>
@@ -5060,14 +5107,14 @@
       <c r="M49" s="7"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
-        <v>14</v>
+      <c r="A50" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="11" t="s">
@@ -5076,46 +5123,47 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="15">
-        <v>42782</v>
+        <v>42787</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="L50" s="19"/>
       <c r="M50" s="7"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
-        <v>18</v>
+      <c r="A51" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>109</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D51" s="7"/>
       <c r="E51" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="15">
-        <v>42781</v>
+        <v>42787</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>210</v>
+      <c r="J51" s="9" t="s">
+        <v>223</v>
       </c>
       <c r="K51" s="19" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="L51" s="19"/>
       <c r="M51" s="7"/>
@@ -5125,10 +5173,10 @@
         <v>7</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="11" t="s">
@@ -5137,60 +5185,59 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="15">
-        <v>42781</v>
+        <v>42787</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="K52" s="19" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="L52" s="19"/>
       <c r="M52" s="7"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
-        <v>7</v>
+      <c r="A53" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
       <c r="H53" s="15">
-        <v>42779</v>
+        <v>42782</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="K53" s="19" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L53" s="19"/>
       <c r="M53" s="7"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
-        <v>7</v>
+      <c r="A54" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>50</v>
@@ -5201,316 +5248,315 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="15">
-        <v>42779</v>
+        <v>42782</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L54" s="19"/>
       <c r="M54" s="7"/>
     </row>
-    <row r="55" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
-        <v>18</v>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>83</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D55" s="7"/>
       <c r="E55" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="15">
-        <v>42754</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>191</v>
+        <v>42782</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="K55" s="19" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="L55" s="19"/>
       <c r="M55" s="7"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
-        <v>16</v>
+      <c r="A56" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D56" s="7"/>
+        <v>109</v>
+      </c>
       <c r="E56" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="15">
-        <v>42754</v>
+        <v>42781</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J56" s="9" t="s">
-        <v>125</v>
+      <c r="J56" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="L56" s="19"/>
       <c r="M56" s="7"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="14" t="s">
-        <v>18</v>
+      <c r="A57" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>112</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D57" s="7"/>
       <c r="E57" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
-      <c r="H57" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>115</v>
+      <c r="H57" s="15">
+        <v>42781</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="K57" s="19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L57" s="19"/>
       <c r="M57" s="7"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
-        <v>183</v>
+      <c r="A58" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>97</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D58" s="7"/>
       <c r="E58" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="15">
-        <v>42754</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>161</v>
+        <v>42779</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K58" s="19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L58" s="19"/>
       <c r="M58" s="7"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="10" t="s">
-        <v>14</v>
+      <c r="A59" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D59" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="E59" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="15">
-        <v>42753</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>19</v>
+        <v>42779</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="K59" s="19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L59" s="19"/>
       <c r="M59" s="7"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
-        <v>7</v>
+    <row r="60" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D60" s="7"/>
+        <v>159</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="E60" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="15">
-        <v>42738</v>
+        <v>42754</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>244</v>
+        <v>140</v>
       </c>
       <c r="K60" s="19" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="L60" s="19"/>
       <c r="M60" s="7"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
-        <v>7</v>
+      <c r="A61" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>33</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D61" s="7"/>
       <c r="E61" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="15">
-        <v>42738</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>190</v>
+        <v>42754</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L61" s="19"/>
       <c r="M61" s="7"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="10" t="s">
-        <v>14</v>
+      <c r="A62" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D62" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="E62" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
-      <c r="H62" s="15">
-        <v>42738</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>19</v>
+      <c r="H62" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="K62" s="19" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L62" s="19"/>
       <c r="M62" s="7"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="13" t="s">
-        <v>113</v>
+        <v>96</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>19</v>
+      <c r="H63" s="15">
+        <v>42754</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="K63" s="19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L63" s="19"/>
       <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
-        <v>17</v>
+      <c r="A64" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="11" t="s">
@@ -5519,89 +5565,93 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="15">
-        <v>42733</v>
+        <v>42753</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>221</v>
+        <v>137</v>
       </c>
       <c r="K64" s="19" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="L64" s="19"/>
       <c r="M64" s="7"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="10" t="s">
-        <v>14</v>
+      <c r="A65" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="11" t="s">
         <v>69</v>
       </c>
+      <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="15">
-        <v>42733</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>19</v>
+        <v>42738</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>27</v>
+        <v>241</v>
       </c>
       <c r="K65" s="19" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L65" s="19"/>
       <c r="M65" s="7"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="10" t="s">
-        <v>14</v>
+      <c r="A66" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="E66" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
       <c r="H66" s="15">
-        <v>42725</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>19</v>
+        <v>42738</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L66" s="19"/>
       <c r="M66" s="7"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
-        <v>7</v>
+      <c r="A67" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="11" t="s">
@@ -5610,60 +5660,60 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="15">
-        <v>42725</v>
+        <v>42738</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="K67" s="19" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L67" s="19"/>
       <c r="M67" s="7"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
-        <v>7</v>
+      <c r="A68" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D68" s="7"/>
-      <c r="E68" s="11" t="s">
-        <v>69</v>
+      <c r="E68" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="15">
-        <v>42725</v>
+      <c r="H68" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="K68" s="19" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L68" s="19"/>
       <c r="M68" s="7"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="10" t="s">
-        <v>14</v>
+      <c r="A69" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="11" t="s">
@@ -5671,48 +5721,47 @@
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
-      <c r="H69" s="16" t="s">
-        <v>160</v>
+      <c r="H69" s="15">
+        <v>42733</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L69" s="19"/>
       <c r="M69" s="7"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="12" t="s">
-        <v>16</v>
+      <c r="A70" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F70" s="7"/>
       <c r="G70" s="7"/>
-      <c r="H70" s="16" t="s">
-        <v>64</v>
+      <c r="H70" s="15">
+        <v>42733</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L70" s="19"/>
       <c r="M70" s="7"/>
@@ -5722,74 +5771,71 @@
         <v>14</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="16" t="s">
-        <v>93</v>
+      <c r="H71" s="15">
+        <v>42725</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="K71" s="19" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L71" s="19"/>
       <c r="M71" s="7"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="13" t="s">
-        <v>17</v>
+      <c r="A72" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>31</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D72" s="7"/>
       <c r="E72" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="15">
-        <v>42709</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>254</v>
+        <v>42725</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="K72" s="19" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="L72" s="19"/>
       <c r="M72" s="7"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="10" t="s">
-        <v>14</v>
+      <c r="A73" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="11" t="s">
@@ -5798,47 +5844,47 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="15">
-        <v>42709</v>
+        <v>42725</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="K73" s="19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L73" s="19"/>
       <c r="M73" s="7"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="14" t="s">
-        <v>18</v>
+      <c r="A74" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
-      <c r="H74" s="15">
-        <v>42705</v>
+      <c r="H74" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="K74" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L74" s="19"/>
       <c r="M74" s="7"/>
@@ -5848,28 +5894,28 @@
         <v>16</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="11" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
-      <c r="H75" s="15">
-        <v>42705</v>
+      <c r="H75" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="K75" s="19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L75" s="19"/>
       <c r="M75" s="7"/>
@@ -5879,10 +5925,10 @@
         <v>14</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="11" t="s">
@@ -5890,93 +5936,251 @@
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
-      <c r="H76" s="3">
-        <v>42703</v>
+      <c r="H76" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L76" s="19"/>
       <c r="M76" s="7"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="15">
+        <v>42709</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K77" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="L77" s="19"/>
+      <c r="M77" s="7"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="E78" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="15">
+        <v>42709</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K78" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="L78" s="19"/>
+      <c r="M78" s="7"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="15">
+        <v>42705</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K79" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L79" s="19"/>
+      <c r="M79" s="7"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" s="7"/>
+      <c r="E80" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="15">
+        <v>42705</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K80" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="L80" s="19"/>
+      <c r="M80" s="7"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="3">
+        <v>42703</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K81" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L81" s="19"/>
+      <c r="M81" s="7"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B82" t="s">
         <v>22</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C82" t="s">
         <v>37</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E82" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H82" s="3">
         <v>42690</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I82" t="s">
         <v>19</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="J82" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K77" s="19" t="s">
+      <c r="K82" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="L77" s="19"/>
+      <c r="L82" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I61" r:id="rId1"/>
-    <hyperlink ref="J61" r:id="rId2"/>
-    <hyperlink ref="J35" r:id="rId3"/>
-    <hyperlink ref="J66" r:id="rId4"/>
-    <hyperlink ref="J70" r:id="rId5"/>
+    <hyperlink ref="I66" r:id="rId1"/>
+    <hyperlink ref="J66" r:id="rId2"/>
+    <hyperlink ref="J40" r:id="rId3"/>
+    <hyperlink ref="J71" r:id="rId4"/>
+    <hyperlink ref="J75" r:id="rId5"/>
     <hyperlink ref="J2" r:id="rId6"/>
-    <hyperlink ref="J71" r:id="rId7"/>
-    <hyperlink ref="J65" r:id="rId8"/>
-    <hyperlink ref="J57" r:id="rId9"/>
-    <hyperlink ref="I57" r:id="rId10"/>
-    <hyperlink ref="I20" r:id="rId11"/>
-    <hyperlink ref="J21" r:id="rId12"/>
-    <hyperlink ref="J52" r:id="rId13"/>
-    <hyperlink ref="I60" r:id="rId14"/>
-    <hyperlink ref="J60" r:id="rId15"/>
-    <hyperlink ref="J56" r:id="rId16"/>
-    <hyperlink ref="J20" r:id="rId17"/>
+    <hyperlink ref="J76" r:id="rId7"/>
+    <hyperlink ref="J70" r:id="rId8"/>
+    <hyperlink ref="J62" r:id="rId9"/>
+    <hyperlink ref="I62" r:id="rId10"/>
+    <hyperlink ref="I23" r:id="rId11"/>
+    <hyperlink ref="J24" r:id="rId12"/>
+    <hyperlink ref="J57" r:id="rId13"/>
+    <hyperlink ref="I65" r:id="rId14"/>
+    <hyperlink ref="J65" r:id="rId15"/>
+    <hyperlink ref="J61" r:id="rId16"/>
+    <hyperlink ref="J23" r:id="rId17"/>
     <hyperlink ref="I3" r:id="rId18"/>
-    <hyperlink ref="J22" r:id="rId19"/>
-    <hyperlink ref="J63" r:id="rId20"/>
-    <hyperlink ref="J77" r:id="rId21"/>
-    <hyperlink ref="J76" r:id="rId22"/>
-    <hyperlink ref="J75" r:id="rId23"/>
-    <hyperlink ref="J74" r:id="rId24"/>
+    <hyperlink ref="J25" r:id="rId19"/>
+    <hyperlink ref="J68" r:id="rId20"/>
+    <hyperlink ref="J82" r:id="rId21"/>
+    <hyperlink ref="J81" r:id="rId22"/>
+    <hyperlink ref="J80" r:id="rId23"/>
+    <hyperlink ref="J79" r:id="rId24"/>
     <hyperlink ref="I9" r:id="rId25"/>
-    <hyperlink ref="J73" r:id="rId26"/>
+    <hyperlink ref="J78" r:id="rId26"/>
     <hyperlink ref="J3" r:id="rId27"/>
     <hyperlink ref="J9" r:id="rId28"/>
-    <hyperlink ref="J67" r:id="rId29"/>
-    <hyperlink ref="J72" r:id="rId30"/>
-    <hyperlink ref="I72" r:id="rId31"/>
-    <hyperlink ref="J24" r:id="rId32"/>
-    <hyperlink ref="I58" r:id="rId33"/>
+    <hyperlink ref="J72" r:id="rId29"/>
+    <hyperlink ref="J77" r:id="rId30"/>
+    <hyperlink ref="I77" r:id="rId31"/>
+    <hyperlink ref="J27" r:id="rId32"/>
+    <hyperlink ref="I63" r:id="rId33"/>
     <hyperlink ref="J4" r:id="rId34"/>
-    <hyperlink ref="J51" r:id="rId35"/>
-    <hyperlink ref="I49" r:id="rId36"/>
-    <hyperlink ref="J45" r:id="rId37"/>
-    <hyperlink ref="I40" r:id="rId38"/>
-    <hyperlink ref="J42" r:id="rId39"/>
-    <hyperlink ref="I13" r:id="rId40"/>
-    <hyperlink ref="I30" r:id="rId41"/>
-    <hyperlink ref="J30" r:id="rId42"/>
+    <hyperlink ref="J56" r:id="rId35"/>
+    <hyperlink ref="I54" r:id="rId36"/>
+    <hyperlink ref="J50" r:id="rId37"/>
+    <hyperlink ref="I45" r:id="rId38"/>
+    <hyperlink ref="J47" r:id="rId39"/>
+    <hyperlink ref="I14" r:id="rId40"/>
+    <hyperlink ref="I35" r:id="rId41"/>
+    <hyperlink ref="J35" r:id="rId42"/>
+    <hyperlink ref="I16" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5988,218 +6192,90 @@
   <dimension ref="E19:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:I26"/>
+      <selection activeCell="AB51" sqref="AB51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="19" spans="5:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="E19" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>289</v>
-      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
     </row>
     <row r="20" spans="5:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="E20" s="23">
-        <v>42813</v>
-      </c>
-      <c r="F20" s="24">
-        <v>1053</v>
-      </c>
-      <c r="G20" s="24">
-        <v>126388.91</v>
-      </c>
-      <c r="H20" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="I20" s="24">
-        <v>765</v>
-      </c>
-      <c r="J20" s="24">
-        <v>238</v>
-      </c>
-      <c r="K20" s="24">
-        <v>37</v>
-      </c>
-      <c r="L20" s="24">
-        <v>22</v>
-      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
     </row>
     <row r="21" spans="5:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="E21" s="23">
-        <v>42812</v>
-      </c>
-      <c r="F21" s="24">
-        <v>974</v>
-      </c>
-      <c r="G21" s="24">
-        <v>158674.14000000001</v>
-      </c>
-      <c r="H21" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="I21" s="24">
-        <v>641</v>
-      </c>
-      <c r="J21" s="24">
-        <v>253</v>
-      </c>
-      <c r="K21" s="24">
-        <v>34</v>
-      </c>
-      <c r="L21" s="24">
-        <v>22</v>
-      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
     </row>
     <row r="22" spans="5:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="E22" s="23">
-        <v>42811</v>
-      </c>
-      <c r="F22" s="24">
-        <v>1888</v>
-      </c>
-      <c r="G22" s="24">
-        <v>165229.44</v>
-      </c>
-      <c r="H22" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="I22" s="24">
-        <v>1399</v>
-      </c>
-      <c r="J22" s="24">
-        <v>304</v>
-      </c>
-      <c r="K22" s="24">
-        <v>33</v>
-      </c>
-      <c r="L22" s="24">
-        <v>21</v>
-      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
     </row>
     <row r="23" spans="5:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="E23" s="23">
-        <v>42810</v>
-      </c>
-      <c r="F23" s="24">
-        <v>1378</v>
-      </c>
-      <c r="G23" s="24">
-        <v>139831.87</v>
-      </c>
-      <c r="H23" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="I23" s="24">
-        <v>957</v>
-      </c>
-      <c r="J23" s="24">
-        <v>351</v>
-      </c>
-      <c r="K23" s="24">
-        <v>31</v>
-      </c>
-      <c r="L23" s="24">
-        <v>23</v>
-      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
     </row>
     <row r="24" spans="5:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="E24" s="23">
-        <v>42809</v>
-      </c>
-      <c r="F24" s="24">
-        <v>1347</v>
-      </c>
-      <c r="G24" s="24">
-        <v>173584.14</v>
-      </c>
-      <c r="H24" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="I24" s="24">
-        <v>931</v>
-      </c>
-      <c r="J24" s="24">
-        <v>353</v>
-      </c>
-      <c r="K24" s="24">
-        <v>33</v>
-      </c>
-      <c r="L24" s="24">
-        <v>23</v>
-      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
     </row>
     <row r="25" spans="5:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="E25" s="23">
-        <v>42808</v>
-      </c>
-      <c r="F25" s="24">
-        <v>1072</v>
-      </c>
-      <c r="G25" s="24">
-        <v>179184</v>
-      </c>
-      <c r="H25" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="I25" s="24">
-        <v>670</v>
-      </c>
-      <c r="J25" s="24">
-        <v>320</v>
-      </c>
-      <c r="K25" s="24">
-        <v>39</v>
-      </c>
-      <c r="L25" s="24">
-        <v>23</v>
-      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
     </row>
     <row r="26" spans="5:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="E26" s="23">
-        <v>42807</v>
-      </c>
-      <c r="F26" s="24">
-        <v>1204</v>
-      </c>
-      <c r="G26" s="24">
-        <v>170982.78</v>
-      </c>
-      <c r="H26" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="I26" s="24">
-        <v>705</v>
-      </c>
-      <c r="J26" s="24">
-        <v>397</v>
-      </c>
-      <c r="K26" s="24">
-        <v>44</v>
-      </c>
-      <c r="L26" s="24">
-        <v>25</v>
-      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="33600" yWindow="-7340" windowWidth="51200" windowHeight="28340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$M$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$M$34</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="323">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -562,34 +562,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只做交互稿中4、5点</t>
-    <rPh sb="0" eb="1">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zuo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jiao'hu'gao</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>dian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>降低微信封禁后的风险</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-33233</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -653,10 +630,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-42740</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网站联盟v3.2</t>
     <rPh sb="0" eb="1">
       <t>wang'zhan</t>
@@ -685,378 +658,2109 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://jira.netease.com/browse/KJDS-44328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-42258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商资格商品返佣改为根据返佣比例设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改微商资格商品购买后的短信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_开发票接口</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fa'piao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升用户体验</t>
+    <rPh sb="0" eb="1">
+      <t>ti'sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti'yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-43969</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://kks.me/akp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-28408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-38599</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_携程身份证解密算法修订</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持携程分销上线</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'cjhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xie'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-45061</t>
+  </si>
+  <si>
+    <t>王蝶丽/胡传奇/胡素雅</t>
+    <rPh sb="0" eb="1">
+      <t>wang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hu'chuan'q</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hu'su'ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待支付组支持</t>
+    <rPh sb="0" eb="1">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'fu'zu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi'chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_代下单系统合并</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xia'dan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>he'bing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_售后线上化</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou'hou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xian'shagn'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化商品运营</t>
+    <rPh sb="0" eb="1">
+      <t>qiang'hau</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'pin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yun'ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划中</t>
+    <rPh sb="0" eb="1">
+      <t>ce'hua'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高售后处理效率</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou'hou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chu'li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.im/1c0yr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动端开发组/石磊</t>
+    <rPh sb="0" eb="1">
+      <t>yi'dong'duan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kai'fa'zu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi'lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.im/1bs6t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_运营功能优化</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yun'ying</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong'neng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>you'hau</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成方案</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求评审，提交开发</t>
+    <rPh sb="0" eb="1">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping'shen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享赚钱</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuan'qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享赚钱v4.1</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hzuan'qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高用户体验，降低客诉</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti'yan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiang'di</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ke'su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结中</t>
+    <rPh sb="0" eb="1">
+      <t>dong'jei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RfwRvO6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-32048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商优先级更高，持续delay</t>
+    <rPh sb="0" eb="1">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'xian'ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>geng'gao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chi'xu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动链接分享除FTL路径外的解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-30743</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋飞翔/胡素雅</t>
+    <rPh sb="0" eb="1">
+      <t>song'fei'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付账号反作弊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低运营成本</t>
+    <rPh sb="0" eb="1">
+      <t>jiang'di</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yun'ying</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cheng'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-29015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短标题替换为商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和主站一致，保持统一性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结中</t>
+    <rPh sb="0" eb="1">
+      <t>dogn'jei'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-32503</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司徒</t>
+    <rPh sb="0" eb="1">
+      <t>si'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享赚钱wap支持唤起app后跟单</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuan'qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高用户体验，降低客诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结中</t>
+    <rPh sb="0" eb="1">
+      <t>dong'jei'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34651</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贝</t>
+    <rPh sb="0" eb="1">
+      <t>wang'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此任务为原有任务未完成的子任务部分</t>
+    <rPh sb="0" eb="1">
+      <t>ci'ren'wu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yuan'you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zi'ren'wu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu'fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动取消佣金功能</t>
+    <rPh sb="0" eb="1">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qu'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong'jin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节约成本</t>
+    <rPh sb="0" eb="1">
+      <t>jie'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'bne</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结中</t>
+    <rPh sb="0" eb="1">
+      <t>dong'jie'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合伙小队迭代优化</t>
+    <rPh sb="0" eb="1">
+      <t>he'huo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao'dui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>die'dai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营准备申请停运整个项目，相关迭代暂停</t>
+    <rPh sb="0" eb="1">
+      <t>yun'ying</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhun'bei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shen'qing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ting'yun</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zheng'ge</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiang'mu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xiang'guan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>die'dai</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zan'ting</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_订单确认接口税费细化</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ding'dan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shui'fei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xi'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升分销商对接要求</t>
+    <rPh sb="0" eb="1">
+      <t>ti'sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'xiao'shang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dui'jie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yao'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-39774</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄群/马鑫</t>
+    <rPh sb="0" eb="1">
+      <t>huang'qun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ma'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉微商v1.3（三期）</t>
+    <rPh sb="0" eb="1">
+      <t>kao'la</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RJ4EhuO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-37463</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商_提醒消息去密友化</t>
+    <rPh sb="3" eb="4">
+      <t>ti'ixng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低监管风险</t>
+    <rPh sb="0" eb="1">
+      <t>jiang'di</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian'guan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>feng'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.im/1c2oc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-42663</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_携程加密信息解密</t>
+  </si>
+  <si>
+    <t>支持携程分销上线</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xie'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-42169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_下单时仓库限定在渠道选定仓库内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决下单缺陷问题</t>
+    <rPh sb="0" eb="1">
+      <t>jie'jue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xia'dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>que'xian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-40291</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘巍巍/马鑫</t>
+    <rPh sb="0" eb="1">
+      <t>liu'wi'w</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ma'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商_屏蔽App专享团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-41451</t>
+  </si>
+  <si>
+    <t>周新宝/马鑫</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'xin'bao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ma'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商_链接特殊处理优化</t>
+    <rPh sb="0" eb="1">
+      <t>wei'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-40941</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销渠道取消订单接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-27167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄群/胡素雅</t>
+    <rPh sb="0" eb="1">
+      <t>huang'qun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hu'su'ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_商品查询接口开放3级类目信息</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shang'pin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cha'xun</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kai'fang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>lei'mu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升分销商对接效率</t>
+    <rPh sb="0" eb="1">
+      <t>ti'sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'xiao'shang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dui'jie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiao'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-39772</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入虚拟商品销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加分销销售品类，提高销售额</t>
+    <rPh sb="0" eb="1">
+      <t>zeng'jai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao'shou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiao'shou'e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享赚钱</t>
+  </si>
+  <si>
+    <t>CPS_后台风控迭代</t>
+    <rPh sb="4" eb="5">
+      <t>hou'tai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>feng'kong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>die'dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高安全性</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>an'quan'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-37460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商_公众号消息提醒优化</t>
+    <rPh sb="0" eb="1">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'zhong'hao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao'xi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti'xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RJBsBs3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-38978</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_锁定库存指定时间</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>suo'ding</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ku'cun</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi'jain</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少对主站售卖影响</t>
+    <rPh sb="0" eb="1">
+      <t>jian'shao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhu'zhan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shou'mai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ying'xinag</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/Riw5nHA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-39665</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉微商v1.3（二期）</t>
+    <rPh sb="0" eb="1">
+      <t>kao'la</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>er</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-37463</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享赚钱</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hzuan'qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS_身份证匹配优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化用户体验</t>
+    <rPh sb="0" eb="1">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti'yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-38521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税金计算公式修改</t>
+    <rPh sb="0" eb="1">
+      <t>shui'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ixugai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-37732</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉微商v1.3（一期）</t>
+    <rPh sb="0" eb="1">
+      <t>kao'la</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-37463</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分仓版库存查询功能</t>
+    <rPh sb="0" eb="1">
+      <t>fen'cang'ban</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ban'bne</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ku'cun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cha'xun</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合分仓影响，配合分仓项目</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'cang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ying'xinag</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pei'he</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fen'cang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiang'mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-37720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_数据总览</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zong'lan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高查看数据的便利性</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cha'kan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bian'li'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-37832</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王宏/马鑫</t>
+    <rPh sb="0" eb="1">
+      <t>wang'hong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ma'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_订单查询接口库存查询加字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程合作要求</t>
+    <rPh sb="0" eb="1">
+      <t>xie'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he'zuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yao'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-38112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商_运营页登录提示机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给微商提供素材</t>
+    <rPh sb="0" eb="1">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>su'cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-38193</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉微商v1.2（消息通知部分）</t>
+    <rPh sb="9" eb="10">
+      <t>xiao'xi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tong'zhi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu'fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RIO8l4t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34592</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS_新增返佣商品表支持数据分析业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持数据分析业务</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen'xi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ye'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-36091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合伙小队_排除虚拟商品后消费总额不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高用户体验，降低客诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-35110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戚龙辉/魏雅婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大分销业务线分仓后数据修订</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-31362</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升分销系统体验，提高效率</t>
+    <rPh sb="0" eb="1">
+      <t>ti'sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ti'yan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiao'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-35776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_分仓版</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fen'cang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ban'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/Rf2r4Qk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-30748</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春节活动2017</t>
+    <rPh sb="0" eb="1">
+      <t>chun'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hud'oong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年末专题活动，提高曝光、拉新</t>
+    <rPh sb="0" eb="1">
+      <t>nian'mo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuan'ti</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huo'dong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bao'guang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>la'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RItK8zO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄武汉/马鑫</t>
+    <rPh sb="0" eb="1">
+      <t>huang'wu'han</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ma'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗鱼CPS商品查询接口升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高合作效果</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he'zuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-29869</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司徒/胡素雅</t>
+    <rPh sb="0" eb="1">
+      <t>si'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息中心优化（App3.5）</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'xi'zhong'ixn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/1/19 (App3.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RfoQgRe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-25538</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周明明/石磊</t>
+    <rPh sb="0" eb="1">
+      <t>zhou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉微商v1.2</t>
+    <rPh sb="0" eb="1">
+      <t>kao'la</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34592</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>native分享浮层文案修改（修订）</t>
+    <rPh sb="15" eb="16">
+      <t>xiu'ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化文案排版</t>
+    <rPh sb="0" eb="1">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen'an</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pai'ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-35885</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销导出数据脱敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RfSJsqe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-31808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销V2.0</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高运营效率，排除法务风险</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yun'ying</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao'lv</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pai'chu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fa'wu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>feng'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/Rt5X0yq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-21592</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄群/朱开诚</t>
+    <rPh sb="0" eb="1">
+      <t>huang'qun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhu'kai'cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cheng'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>native分享浮层文案修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助解除微信屏蔽</t>
+    <rPh sb="0" eb="1">
+      <t>xie'zhu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei'xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ping'bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34631</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉微商</t>
+    <rPh sb="0" eb="1">
+      <t>kao'la</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入用户的初级工具</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chu'ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gong'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷启动工具</t>
+    <rPh sb="0" eb="1">
+      <t>leng'qi'dong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已撤销</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>che'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-32666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉微商V1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修补内测过程中发现的问题</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nei'ce</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guo'cheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fa'xian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司徒/朱开诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增QQ分享能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和主站一致，保持统一性</t>
+    <rPh sb="0" eb="1">
+      <t>he</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhu'zhan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bao'chi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>togn'yi'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-29271</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭梅/张杰</t>
+    <rPh sb="3" eb="4">
+      <t>zhang'jei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分售后原因不扣除佣金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-22558</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司徒/张杰</t>
+    <rPh sb="0" eb="1">
+      <t>si'tu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhang'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销V2.0_税款计算接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前支持拼多多合作</t>
+    <rPh sb="0" eb="1">
+      <t>ti'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pin'duo'duo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>he'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33557</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人物品清关独立对分销的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销兼容个人物品清关独立</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian'rong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ge'ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qing'guan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>du'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>native分享浮层“分享赚”标题可配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/12/19 (APP3.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33249</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈智钊/石磊</t>
+    <rPh sb="4" eb="5">
+      <t>shi'lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wap链接唤起app能跟踪cps订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-28405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘新奇/石磊</t>
+    <rPh sb="0" eb="1">
+      <t>liu'xin'qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">APP商品详情页获取CPS返佣信息接口改动 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低技术风险</t>
+    <rPh sb="0" eb="1">
+      <t>jiang'di</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>feng'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-28739</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王志超/石磊</t>
+    <rPh sb="4" eb="5">
+      <t>shi'lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉微商V1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开辟新的拉新、成交渠道</t>
+    <rPh sb="0" eb="1">
+      <t>kai'pi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>la'xin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cheng'jiao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qu'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RcnD3mx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-28569</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕昱君/朱开诚</t>
+    <rPh sb="0" eb="1">
+      <t>lv'yu'jun</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu'kai'cheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cheng'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享赚钱_用户审核接入杭研多媒体接口（优化）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-29785</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合伙返利排除POP商品、虚拟商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节约成本</t>
+    <rPh sb="0" eb="1">
+      <t>jie'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已上线</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-31682</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPS渠道屏蔽wap页“APP专享价”区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排除对CPS渠道的负面影响</t>
+    <rPh sb="0" eb="1">
+      <t>pai'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qu'dao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fu'mian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ying'xinag</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已上线</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-32557</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘新奇/孙丹丹</t>
+    <rPh sb="0" eb="1">
+      <t>liu'xin'qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sun'dan'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出用户身份证照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税务报税所需</t>
+    <rPh sb="0" eb="1">
+      <t>shui'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao'shui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>suo'xu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-26860</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范世龙/凌杏红</t>
+    <rPh sb="0" eb="1">
+      <t>fan'shi'logn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ling'xing'hong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销对接网易支付余额自动购买积分接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-25324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屈国庆/蒋川静</t>
+    <rPh sb="0" eb="1">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chuan'jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>测试验收，跟进上线</t>
     <rPh sb="0" eb="1">
-      <t>ce'shi'yan'shou</t>
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan'shou</t>
     </rPh>
     <rPh sb="5" eb="6">
       <t>gen'jin</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-44328</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-42258</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微商资格商品返佣改为根据返佣比例设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改微商资格商品购买后的短信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销_开发票接口</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>kai</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fa'piao</t>
+      <t>shang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-41544</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商 App v1.0_前端部分</t>
+    <rPh sb="12" eb="13">
+      <t>qian'duan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bu'fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯子龙/关宁</t>
+    <rPh sb="0" eb="1">
+      <t>feng'zi'long</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guan'ning</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RXT6UjB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RXT6M2c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-46214</t>
+  </si>
+  <si>
+    <t>对接招行的物流信息接口和取消订单接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_下单接口地址校验强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-42740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成方案，需求评审，提交开发</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-45279</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-45281</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.im/1bvaz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进开发</t>
+    <rPh sb="0" eb="1">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划完成50%</t>
+    <rPh sb="0" eb="1">
+      <t>ce'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试验收搜索部分</t>
+    <rPh sb="0" eb="1">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan'shou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sou'suo</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>jie'kou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升用户体验</t>
-    <rPh sb="0" eb="1">
-      <t>ti'sheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yong'hu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ti'yan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-43969</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://kks.me/akp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-28408</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对接招行的物流信息接口和取消订单接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-38599</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销_下单接口地址校验强化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销_携程身份证解密算法修订</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持携程分销上线</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'cjhi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xie'cheng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fen'xiao</t>
+      <t>bu'fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进剩余部分开发</t>
+    <rPh sb="0" eb="1">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sheng'yu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'fen</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-45061</t>
-  </si>
-  <si>
-    <t>王蝶丽/胡传奇/胡素雅</t>
-    <rPh sb="0" eb="1">
-      <t>wang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>hu'chuan'q</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>hu'su'ya</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待支付组支持</t>
-    <rPh sb="0" eb="1">
-      <t>deng'dai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhi'fu'zu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhi'chi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销_代下单系统合并</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>dai</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xia'dan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xi'tong</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>he'bing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销_售后线上化</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shou'hou</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xian'shagn'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化商品运营</t>
-    <rPh sb="0" eb="1">
-      <t>qiang'hau</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shang'pin</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yun'ying</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划中</t>
-    <rPh sb="0" eb="1">
-      <t>ce'hua'zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高售后处理效率</t>
-    <rPh sb="0" eb="1">
-      <t>ti'gao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shou'hou</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>chu'li</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xiao'lv</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-41544</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.im/1c0yr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-45279</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动端开发组/石磊</t>
-    <rPh sb="0" eb="1">
-      <t>yi'dong'duan</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>kai'fa'zu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shi'lei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.im/1bs6t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认需求，完成方案，提交开发，测试验收，跟进上线</t>
-    <rPh sb="0" eb="1">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.im/1bvaz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://kks.me/dkn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销_运营功能优化</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yun'ying</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>gong'neng</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>you'hau</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认需求，完成方案</t>
-    <rPh sb="0" eb="1">
-      <t>qiue'ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fang'an</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给售后组重新讲解需求，跟进开发</t>
-    <rPh sb="4" eb="5">
-      <t>chong'xin</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC评审，完成H5部分交互</t>
-    <rPh sb="2" eb="3">
-      <t>ping'shen</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>bu'fen</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>jiao'hu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进开发</t>
-    <rPh sb="0" eb="1">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认需求</t>
-    <rPh sb="0" eb="1">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成方案</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fang'an</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求评审，提交开发</t>
-    <rPh sb="0" eb="1">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ping'shen</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="7" eb="8">
       <t>kai'fa</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1106,7 +2810,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1155,6 +2859,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1165,7 +2875,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="228">
+  <cellStyleXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1394,8 +3104,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1444,8 +3164,17 @@
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="228">
+  <cellStyles count="238">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -1674,6 +3403,16 @@
     <cellStyle name="已访问的超链接" xfId="225" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="237" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1948,10 +3687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2027,9 +3766,7 @@
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
         <v>22</v>
@@ -2038,16 +3775,16 @@
         <v>26</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>61</v>
+        <v>302</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2055,7 +3792,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>84</v>
+        <v>311</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>30</v>
@@ -2076,7 +3813,7 @@
         <v>34</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>40</v>
@@ -2085,35 +3822,33 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>111</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="11">
-        <v>42849</v>
+      <c r="H4" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>85</v>
+        <v>313</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>40</v>
@@ -2125,29 +3860,21 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
+      <c r="E5" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>62</v>
-      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="4"/>
     </row>
@@ -2156,21 +3883,33 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="E6" s="12" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="14"/>
+      <c r="G6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="L6" s="14"/>
       <c r="M6" s="4"/>
     </row>
@@ -2179,29 +3918,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>104</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="6"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -2212,10 +3941,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="12" t="s">
@@ -2231,119 +3960,135 @@
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
+      <c r="A9" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="12" t="s">
-        <v>11</v>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="H9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>319</v>
+      </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>32</v>
+      <c r="H10" s="11">
+        <v>42859</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>27</v>
+        <v>317</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>40</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="L10" s="14"/>
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>65</v>
+      <c r="E11" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="11">
-        <v>42859</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>66</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>71</v>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="12" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>112</v>
+        <v>321</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+        <v>322</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -2351,36 +4096,34 @@
         <v>43</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>111</v>
+        <v>319</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="11" t="s">
-        <v>80</v>
+      <c r="H13" s="11">
+        <v>42880</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>97</v>
+        <v>315</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>40</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="L13" s="14"/>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -2388,283 +4131,2137 @@
         <v>43</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>64</v>
+        <v>305</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>60</v>
+        <v>306</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>110</v>
+        <v>314</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="11">
         <v>42880</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>98</v>
+        <v>309</v>
       </c>
       <c r="J14" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="B18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" s="14" t="s">
+      <c r="C18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="I18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="1" t="s">
-        <v>6</v>
+      <c r="M18" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>7</v>
+      <c r="A19" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="19">
-        <v>42844</v>
-      </c>
       <c r="I19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>43</v>
+      <c r="A20" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="E20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="19">
-        <v>42843</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>82</v>
+      <c r="I20" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>43</v>
+      <c r="A21" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="19">
-        <v>42842</v>
-      </c>
+      <c r="E21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="4"/>
       <c r="I21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+        <v>115</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>43</v>
+      <c r="A22" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="19">
-        <v>42842</v>
-      </c>
+      <c r="E22" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="21"/>
       <c r="I22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>7</v>
+      <c r="A23" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="E23" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="19">
-        <v>42842</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>37</v>
-      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="14"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="19">
+        <v>42849</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L29" s="14"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="11">
+        <v>42844</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" s="14"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="11">
+        <v>42843</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L31" s="14"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="11">
+        <v>42842</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="11">
+        <v>42842</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="14"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="11">
+        <v>42842</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34" s="14"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="11">
+        <v>42823</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L35" s="14"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="11">
+        <v>42821</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="14"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="11">
+        <v>42818</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L37" s="14"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="11">
+        <v>42817</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L38" s="14"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="11">
+        <v>42810</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L39" s="14"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="H40" s="11">
+        <v>42810</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L40" s="14"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="11">
+        <v>42809</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="14"/>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="H42" s="11">
+        <v>42809</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L42" s="14"/>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="H43" s="11">
+        <v>42809</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L43" s="14"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="H44" s="11">
+        <v>42808</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L44" s="14"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="11">
+        <v>42808</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L45" s="14"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="11">
+        <v>42808</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" s="14"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="11">
+        <v>42808</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L47" s="14"/>
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="11">
+        <v>42797</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L48" s="14"/>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="11">
+        <v>42789</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L49" s="14"/>
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="11">
+        <v>42789</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L50" s="14"/>
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="11">
+        <v>42789</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L51" s="14"/>
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="11">
+        <v>42787</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L52" s="14"/>
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="11">
+        <v>42787</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="L53" s="14"/>
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="11">
+        <v>42787</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L54" s="14"/>
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="H55" s="11">
+        <v>42782</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L55" s="14"/>
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="11">
+        <v>42782</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L56" s="14"/>
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="11">
+        <v>42782</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L57" s="14"/>
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="11">
+        <v>42781</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K58" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="L58" s="14"/>
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="11">
+        <v>42781</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L59" s="14"/>
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="11">
+        <v>42779</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L60" s="14"/>
+      <c r="M60" s="4"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="11">
+        <v>42779</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="K61" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L61" s="14"/>
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="11">
+        <v>42754</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="K62" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="L62" s="14"/>
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="11">
+        <v>42754</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="K63" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L63" s="14"/>
+      <c r="M63" s="4"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K64" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="L64" s="14"/>
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="11">
+        <v>42754</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="K65" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L65" s="14"/>
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="11">
+        <v>42753</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L66" s="14"/>
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="11">
+        <v>42738</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L67" s="14"/>
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="11">
+        <v>42738</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="K68" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="L68" s="14"/>
+      <c r="M68" s="4"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="11">
+        <v>42738</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L69" s="14"/>
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="K70" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L70" s="14"/>
+      <c r="M70" s="4"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="11">
+        <v>42733</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K71" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="L71" s="14"/>
+      <c r="M71" s="4"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="11">
+        <v>42733</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="L72" s="14"/>
+      <c r="M72" s="4"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="4"/>
+      <c r="H73" s="11">
+        <v>42725</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="L73" s="14"/>
+      <c r="M73" s="4"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="11">
+        <v>42725</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="K74" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="L74" s="14"/>
+      <c r="M74" s="4"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="11">
+        <v>42725</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="K75" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L75" s="14"/>
+      <c r="M75" s="4"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="K76" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="L76" s="14"/>
+      <c r="M76" s="4"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="K77" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="L77" s="14"/>
+      <c r="M77" s="4"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="K78" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="L78" s="14"/>
+      <c r="M78" s="4"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="11">
+        <v>42709</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="L79" s="14"/>
+      <c r="M79" s="4"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="11">
+        <v>42709</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K80" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L80" s="14"/>
+      <c r="M80" s="4"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="11">
+        <v>42705</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="K81" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="L81" s="14"/>
+      <c r="M81" s="4"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D82" s="4"/>
+      <c r="E82" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="11">
+        <v>42705</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="K82" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L82" s="14"/>
+      <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D83" s="4"/>
+      <c r="E83" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="2">
+        <v>42703</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="K83" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="L83" s="14"/>
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>299</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="H84" s="2">
+        <v>42690</v>
+      </c>
+      <c r="I84" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="K84" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="L84" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J23" r:id="rId1"/>
+    <hyperlink ref="J34" r:id="rId1"/>
     <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="I10" r:id="rId3"/>
+    <hyperlink ref="I9" r:id="rId3"/>
     <hyperlink ref="J2" r:id="rId4"/>
-    <hyperlink ref="J10" r:id="rId5"/>
+    <hyperlink ref="J9" r:id="rId5"/>
     <hyperlink ref="J3" r:id="rId6"/>
-    <hyperlink ref="I14" r:id="rId7"/>
-    <hyperlink ref="I20" r:id="rId8"/>
-    <hyperlink ref="I7" r:id="rId9"/>
+    <hyperlink ref="I13" r:id="rId7"/>
+    <hyperlink ref="I31" r:id="rId8"/>
+    <hyperlink ref="I18" r:id="rId9"/>
+    <hyperlink ref="J19" r:id="rId10"/>
+    <hyperlink ref="J18" r:id="rId11"/>
+    <hyperlink ref="J20" r:id="rId12"/>
+    <hyperlink ref="J22" r:id="rId13"/>
+    <hyperlink ref="I68" r:id="rId14"/>
+    <hyperlink ref="J68" r:id="rId15"/>
+    <hyperlink ref="J42" r:id="rId16"/>
+    <hyperlink ref="J73" r:id="rId17"/>
+    <hyperlink ref="J77" r:id="rId18"/>
+    <hyperlink ref="J78" r:id="rId19"/>
+    <hyperlink ref="J72" r:id="rId20"/>
+    <hyperlink ref="J64" r:id="rId21"/>
+    <hyperlink ref="I64" r:id="rId22"/>
+    <hyperlink ref="J59" r:id="rId23"/>
+    <hyperlink ref="I67" r:id="rId24"/>
+    <hyperlink ref="J67" r:id="rId25"/>
+    <hyperlink ref="J63" r:id="rId26"/>
+    <hyperlink ref="J70" r:id="rId27"/>
+    <hyperlink ref="J84" r:id="rId28"/>
+    <hyperlink ref="J83" r:id="rId29"/>
+    <hyperlink ref="J82" r:id="rId30"/>
+    <hyperlink ref="J81" r:id="rId31"/>
+    <hyperlink ref="J80" r:id="rId32"/>
+    <hyperlink ref="J74" r:id="rId33"/>
+    <hyperlink ref="J79" r:id="rId34"/>
+    <hyperlink ref="I79" r:id="rId35"/>
+    <hyperlink ref="I65" r:id="rId36"/>
+    <hyperlink ref="J58" r:id="rId37"/>
+    <hyperlink ref="I56" r:id="rId38"/>
+    <hyperlink ref="J52" r:id="rId39"/>
+    <hyperlink ref="I47" r:id="rId40"/>
+    <hyperlink ref="J49" r:id="rId41"/>
+    <hyperlink ref="I37" r:id="rId42"/>
+    <hyperlink ref="J37" r:id="rId43"/>
+    <hyperlink ref="I14" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -13,10 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$M$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$M$43</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="361">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -118,13 +117,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>shi'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未启动</t>
-    <rPh sb="0" eb="1">
-      <t>wei'qi'dong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,10 +221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已上线</t>
     <rPh sb="0" eb="1">
       <t>yi'shang'xian</t>
@@ -260,15 +248,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://t.cn/RfjEWKM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://t.cn/RfgjXOb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-33463</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -338,10 +318,6 @@
     <rPh sb="7" eb="8">
       <t>wen'dnag</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -515,14 +491,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站联盟订单管理优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网站联盟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -587,24 +555,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微商 App v1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <rPh sb="0" eb="1">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王贝/胡素雅</t>
-    <rPh sb="0" eb="1">
-      <t>wagn'bei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>强化地址校验，保证推单成功</t>
     <rPh sb="0" eb="1">
       <t>qiang'hua</t>
@@ -662,48 +612,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-42258</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>微商资格商品返佣改为根据返佣比例设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修改微商资格商品购买后的短信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销_开发票接口</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>kai</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fa'piao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>jie'kou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升用户体验</t>
-    <rPh sb="0" eb="1">
-      <t>ti'sheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yong'hu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ti'yan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -759,51 +672,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等待支付组支持</t>
-    <rPh sb="0" eb="1">
-      <t>deng'dai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhi'fu'zu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhi'chi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销_代下单系统合并</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>dai</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xia'dan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xi'tong</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>he'bing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销_售后线上化</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shou'hou</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xian'shagn'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>强化商品运营</t>
     <rPh sb="0" eb="1">
       <t>qiang'hau</t>
@@ -814,33 +682,6 @@
     <rPh sb="4" eb="5">
       <t>yun'ying</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划中</t>
-    <rPh sb="0" eb="1">
-      <t>ce'hua'zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高售后处理效率</t>
-    <rPh sb="0" eb="1">
-      <t>ti'gao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shou'hou</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>chu'li</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xiao'lv</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.im/1c0yr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -861,10 +702,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分销_运营功能优化</t>
     <rPh sb="0" eb="1">
       <t>fen'xiao</t>
@@ -885,32 +722,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成方案</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fang'an</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求评审，提交开发</t>
-    <rPh sb="0" eb="1">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ping'shen</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分享赚钱</t>
     <rPh sb="0" eb="1">
       <t>fen'xiang</t>
@@ -968,22 +779,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微商优先级更高，持续delay</t>
-    <rPh sb="0" eb="1">
-      <t>wei'shang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>you'xian'ji</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>geng'gao</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>chi'xu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>活动链接分享除FTL路径外的解决方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1074,40 +869,6 @@
     <t>王贝</t>
     <rPh sb="0" eb="1">
       <t>wang'bei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此任务为原有任务未完成的子任务部分</t>
-    <rPh sb="0" eb="1">
-      <t>ci'ren'wu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yuan'you</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>you</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ren'wu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>de</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zi'ren'wu</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>bu'fen</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1162,37 +923,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营准备申请停运整个项目，相关迭代暂停</t>
-    <rPh sb="0" eb="1">
-      <t>yun'ying</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhun'bei</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shen'qing</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ting'yun</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zheng'ge</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>xiang'mu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>xiang'guan</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>die'dai</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>zan'ting</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2614,29 +2344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-33233</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试验收，跟进上线</t>
-    <rPh sb="0" eb="1">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yan'shou</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shang</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-41544</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2665,22 +2372,460 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>对接招行的物流信息接口和取消订单接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_下单接口地址校验强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-45279</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-34079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33463</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王贝/关宁</t>
+    <rPh sb="0" eb="1">
+      <t>wagn'bei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>guan'ning</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商_资格时间</t>
+    <rPh sb="0" eb="1">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'ge</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持新的资格售卖形式</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'ge</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shou'mai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xing'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-42258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.im/1bvaz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高活动运营效率</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huo'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yun'yign</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ixaolv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动排期落地</t>
+    <rPh sb="0" eb="1">
+      <t>tui'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pai'qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>luo'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商_订单管理增加明细</t>
+    <rPh sb="0" eb="1">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guan'li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zeng'jai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持运营数据分析</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yun'ying</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fen'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低微信封禁后的风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-47346</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-47637</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商2.0 提供给易信接口</t>
+  </si>
+  <si>
+    <t>支持新的微商业务开展</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei'shang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kai'zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.im/1c0yr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RXT6M2c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://t.cn/RXT6UjB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://t.cn/RXT6M2c</t>
+    <t>领券中心v1.0</t>
+    <rPh sb="0" eb="1">
+      <t>ling'quan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhogn'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加新的流量利用方式</t>
+    <rPh sb="0" eb="1">
+      <t>zeng'jai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>liu'liang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>li'yong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fang'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-47491</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/YaNbY0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS落地页配置优化（一期非热区部分）</t>
+    <rPh sb="12" eb="13">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>re'qu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu'fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS落地页配置优化（一期热区部分）</t>
+    <rPh sb="12" eb="13">
+      <t>re'qu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bu'fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱琪/郑安然/周湘琳</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>an'ran</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiang'xi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>lin</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://jira.netease.com/browse/KJDS-46214</t>
-  </si>
-  <si>
-    <t>对接招行的物流信息接口和取消订单接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销_下单接口地址校验强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-48267</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约2017/6/28</t>
+    <rPh sb="0" eb="1">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持海关接口对接</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hai'guan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dui'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销v2.0接口地址code自动匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商 App v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站联盟订单管理优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有一小部分没做完</t>
+    <rPh sb="0" eb="1">
+      <t>hai'you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mei'zuo'wan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-33233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-49695</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑有为/关宁</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'you'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-47638</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑有为/王岩</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'you'wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-46822</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/ROHiZ1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RfjEWKM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划中</t>
+    <rPh sb="0" eb="1">
+      <t>ce'hua'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成方案</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站联盟前台信息修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新网盟信息，促进网盟合作</t>
+    <rPh sb="0" eb="1">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wang'meng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <rPh sb="0" eb="1">
+      <t>kai'f'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认需求，完成方案，提交开发</t>
+    <rPh sb="0" eb="1">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ti'jaio</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆忠芳/关宁</t>
+    <rPh sb="0" eb="1">
+      <t>lu'zhong'fang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guan'ning</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS落地页配置优化（二期）</t>
+    <rPh sb="10" eb="11">
+      <t>er'qi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2688,80 +2833,283 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成方案，需求评审，提交开发</t>
+    <t>https://163.lu/7r9oK3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/YaNbY0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-50926</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-48632</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动排期落地</t>
+  </si>
+  <si>
+    <t>确认新增需求</t>
+    <rPh sb="0" eb="1">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进上线，使用效果评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求评审，技术评审，修订方案，推动排期落地</t>
+    <rPh sb="5" eb="6">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ping'shen</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiu'ding</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS落地页</t>
+    <rPh sb="2" eb="3">
+      <t>luo'di'ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营</t>
+    <rPh sb="0" eb="1">
+      <t>yun'ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关弹窗优化</t>
+    <rPh sb="0" eb="1">
+      <t>you'hui'quan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiang'guan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tan'chuang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>you'hau</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认需求</t>
+    <rPh sb="0" eb="1">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成方案，提交开发</t>
     <rPh sb="0" eb="1">
       <t>wan'cheng</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>fang'an</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-45279</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-45281</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.im/1bvaz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-34079</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进开发</t>
-    <rPh sb="0" eb="1">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="5" eb="6">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
       <t>kai'fa</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>策划完成50%</t>
-    <rPh sb="0" eb="1">
-      <t>ce'hua</t>
-    </rPh>
-    <rPh sb="2" eb="3">
+    <t>商品推荐算法优化</t>
+    <rPh sb="0" eb="1">
+      <t>shang'pin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tui'jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>suan'fa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高页面转化</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ye'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhuan'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专辑优化</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高专辑效果</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuan'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时购优化</t>
+    <rPh sb="0" eb="1">
+      <t>xian'shi'gou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高限时购效果</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian'shi'gou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiao'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期调研，提交数据需求</t>
+    <rPh sb="0" eb="1">
+      <t>qian'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>diao'yan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti'jaio</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿到数据后撰写分析报告，确定产品设计方向</t>
+    <rPh sb="0" eb="1">
+      <t>na'ado</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuan'xie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fen'xi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bao'gao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ding</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chan'pin</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>fang'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期调研中</t>
+    <rPh sb="4" eb="5">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成前期调研，确定产品设计方向</t>
+    <rPh sb="0" eb="1">
       <t>wan'cheng</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试验收搜索部分</t>
-    <rPh sb="0" eb="1">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yan'shou</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>sou'suo</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>bu'fen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进剩余部分开发</t>
-    <rPh sb="0" eb="1">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>sheng'yu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bu'fen</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>kai'fa</t>
+    <rPh sb="2" eb="3">
+      <t>qian'qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>diao'yan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>que'ding</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chan'pin</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fang'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈仁广/王婷英</t>
+    <rPh sb="0" eb="1">
+      <t>chen'ren'guang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wang'ting'ying</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2770,7 +3118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2803,11 +3151,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2875,7 +3218,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="238">
+  <cellStyleXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3114,8 +3457,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3159,11 +3555,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3173,8 +3564,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="238">
+  <cellStyles count="291">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -3413,6 +3810,59 @@
     <cellStyle name="已访问的超链接" xfId="235" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="236" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="290" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3687,22 +4137,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.83203125" customWidth="1"/>
-    <col min="7" max="7" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="47.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="38.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" style="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="15" bestFit="1" customWidth="1"/>
@@ -3717,10 +4166,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -3729,7 +4178,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>10</v>
@@ -3741,10 +4190,10 @@
         <v>5</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>6</v>
@@ -3755,36 +4204,33 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>280</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>26</v>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>302</v>
+        <v>29</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -3792,66 +4238,66 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>34</v>
+        <v>336</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>312</v>
+        <v>74</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>14</v>
+      <c r="H4" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M4" s="4"/>
     </row>
@@ -3860,923 +4306,900 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>74</v>
+        <v>316</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>75</v>
+        <v>315</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="14"/>
+      <c r="H5" s="11">
+        <v>42907</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="L5" s="14"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
+      <c r="A6" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>89</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>94</v>
+      <c r="G6" s="4"/>
+      <c r="H6" s="11">
+        <v>42907</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>308</v>
+        <v>24</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="14"/>
+        <v>324</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
+    <row r="7" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="B8" s="4" t="s">
-        <v>87</v>
+        <v>330</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>90</v>
+        <v>331</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>333</v>
+      </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="14"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="L8" s="14"/>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>12</v>
+      <c r="A9" s="10" t="s">
+        <v>345</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>54</v>
+        <v>309</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="4"/>
+        <v>292</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>343</v>
+      </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>27</v>
+      <c r="H9" s="22">
+        <v>42891</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>338</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>39</v>
+        <v>307</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>311</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>55</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>345</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>310</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>292</v>
+      </c>
       <c r="E10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>319</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="11">
-        <v>42859</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>317</v>
+        <v>42907</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>308</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>68</v>
+        <v>313</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>345</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>335</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>292</v>
+      </c>
       <c r="E11" s="12" t="s">
-        <v>89</v>
+        <v>328</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>97</v>
+        <v>329</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="6"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>43</v>
+      <c r="A12" s="10" t="s">
+        <v>345</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>46</v>
+        <v>347</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>328</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="4"/>
+        <v>349</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>43</v>
+      <c r="A13" s="10" t="s">
+        <v>345</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>62</v>
+        <v>350</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>9</v>
+        <v>351</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>328</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="11">
-        <v>42880</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="4"/>
+        <v>348</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>43</v>
+      <c r="A14" s="17" t="s">
+        <v>346</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>305</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>9</v>
+      <c r="E14" s="18" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="11">
-        <v>42880</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>309</v>
+      <c r="H14" s="2">
+        <v>42935</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>337</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="I18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="I19" s="4" t="s">
-        <v>14</v>
+      <c r="H19" s="11"/>
+      <c r="I19" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>108</v>
+        <v>285</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>105</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>99</v>
+      <c r="A20" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>288</v>
+      </c>
       <c r="E20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="4"/>
+        <v>79</v>
+      </c>
       <c r="G20" s="4"/>
-      <c r="I20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>99</v>
+      <c r="A21" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>112</v>
+        <v>294</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>295</v>
+      </c>
       <c r="E21" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="I21" s="4" t="s">
-        <v>14</v>
+        <v>79</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="I21" t="s">
+        <v>13</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>115</v>
+        <v>299</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" s="4"/>
+        <v>285</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
-        <v>99</v>
+      <c r="A22" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="4" t="s">
-        <v>14</v>
+        <v>79</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="I22" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>121</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="K22" s="14"/>
       <c r="L22" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>122</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
-        <v>99</v>
+      <c r="A23" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
+      <c r="I23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="I24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="J24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="I25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="C28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G29" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="19">
-        <v>42849</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="11">
-        <v>42844</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="11">
-        <v>42843</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="4"/>
       <c r="E32" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="11">
-        <v>42842</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>14</v>
+      <c r="H32" s="23">
+        <v>42887</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K32" s="14"/>
+        <v>320</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="L32" s="14"/>
       <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>72</v>
+        <v>317</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="E33" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="11">
-        <v>42842</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>14</v>
+        <v>42881</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>302</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>69</v>
+        <v>282</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L33" s="14"/>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>7</v>
+      <c r="A34" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="4"/>
+        <v>296</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>278</v>
+      </c>
       <c r="E34" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="11">
-        <v>42842</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>14</v>
+        <v>42881</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>303</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>37</v>
+        <v>279</v>
       </c>
       <c r="L34" s="14"/>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>129</v>
+      <c r="A35" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="4"/>
+        <v>301</v>
+      </c>
       <c r="E35" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="11">
-        <v>42823</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>14</v>
+        <v>42879</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>132</v>
+        <v>323</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>43</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D36" s="4"/>
       <c r="E36" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="11">
-        <v>42821</v>
+        <v>42859</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>136</v>
+        <v>291</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>137</v>
+        <v>289</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>36</v>
+        <v>285</v>
       </c>
       <c r="L36" s="14"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>43</v>
+    <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="11">
-        <v>42818</v>
+      <c r="H37" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="L37" s="14"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="11">
-        <v>42817</v>
+        <v>42849</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L38" s="14"/>
       <c r="M38" s="4"/>
@@ -4786,433 +5209,427 @@
         <v>7</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="11">
-        <v>42810</v>
+        <v>42844</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="L39" s="14"/>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
       <c r="H40" s="11">
-        <v>42810</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>14</v>
+        <v>42843</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="L40" s="14"/>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="11">
-        <v>42809</v>
+        <v>42842</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="K41" s="14" t="s">
-        <v>36</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="K41" s="14"/>
       <c r="L41" s="14"/>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>7</v>
+      <c r="A42" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
       <c r="H42" s="11">
-        <v>42809</v>
+        <v>42842</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="L42" s="14"/>
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
       <c r="H43" s="11">
-        <v>42809</v>
+        <v>42842</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="L43" s="14"/>
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
       <c r="H44" s="11">
-        <v>42808</v>
+        <v>42823</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>318</v>
+        <v>106</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="L44" s="14"/>
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
-        <v>163</v>
+      <c r="A45" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D45" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E45" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
       <c r="H45" s="11">
-        <v>42808</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>14</v>
+        <v>42821</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L45" s="14"/>
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D46" s="4"/>
       <c r="E46" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="11">
-        <v>42808</v>
+        <v>42818</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="L46" s="14"/>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="11">
-        <v>42808</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>172</v>
+        <v>42817</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="L47" s="14"/>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
-        <v>43</v>
+      <c r="A48" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D48" s="4"/>
       <c r="E48" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="11">
-        <v>42797</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>136</v>
+        <v>42810</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="L48" s="14"/>
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="s">
-        <v>176</v>
+      <c r="A49" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
       <c r="H49" s="11">
-        <v>42789</v>
+        <v>42810</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="L49" s="14"/>
       <c r="M49" s="4"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="20" t="s">
-        <v>99</v>
+      <c r="A50" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="11">
-        <v>42789</v>
+        <v>42809</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L50" s="14"/>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>43</v>
+      <c r="A51" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D51" s="4"/>
       <c r="E51" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
       <c r="H51" s="11">
-        <v>42789</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>136</v>
+        <v>42809</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="L51" s="14"/>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
       <c r="H52" s="11">
-        <v>42787</v>
+        <v>42809</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="L52" s="14"/>
       <c r="M52" s="4"/>
@@ -5222,245 +5639,250 @@
         <v>7</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
       <c r="H53" s="11">
-        <v>42787</v>
+        <v>42808</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="L53" s="14"/>
       <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>7</v>
+      <c r="A54" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="11">
-        <v>42787</v>
+        <v>42808</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="L54" s="14"/>
       <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D55" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E55" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
       <c r="H55" s="11">
-        <v>42782</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>14</v>
+        <v>42808</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L55" s="14"/>
       <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
-        <v>43</v>
+      <c r="A56" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D56" s="4"/>
       <c r="E56" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="11">
-        <v>42782</v>
+        <v>42808</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="L56" s="14"/>
       <c r="M56" s="4"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="20" t="s">
-        <v>99</v>
+      <c r="A57" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D57" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E57" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="11">
-        <v>42782</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>14</v>
+        <v>42797</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="L57" s="14"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
-        <v>13</v>
+      <c r="A58" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>204</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="D58" s="4"/>
       <c r="E58" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="11">
-        <v>42781</v>
+        <v>42789</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" s="22" t="s">
-        <v>205</v>
+        <v>13</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c r="L58" s="14"/>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>7</v>
+      <c r="A59" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="11">
-        <v>42781</v>
+        <v>42789</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="L59" s="14"/>
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>7</v>
+      <c r="A60" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D60" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E60" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="11">
-        <v>42779</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>14</v>
+        <v>42789</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="L60" s="14"/>
       <c r="M60" s="4"/>
@@ -5470,222 +5892,214 @@
         <v>7</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="D61" s="4"/>
       <c r="E61" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="11">
-        <v>42779</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>212</v>
+        <v>42787</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="L61" s="14"/>
       <c r="M61" s="4"/>
     </row>
-    <row r="62" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="10" t="s">
-        <v>13</v>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="D62" s="4"/>
       <c r="E62" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="11">
-        <v>42754</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>216</v>
+        <v>42787</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="L62" s="14"/>
       <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
-        <v>12</v>
+      <c r="A63" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="11">
-        <v>42754</v>
+        <v>42787</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c r="L63" s="14"/>
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="H64" s="11">
+        <v>42782</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>226</v>
-      </c>
       <c r="J64" s="6" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="L64" s="14"/>
       <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="11">
-        <v>42754</v>
+        <v>42782</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L65" s="14"/>
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="20" t="s">
-        <v>99</v>
+      <c r="A66" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="11">
-        <v>42753</v>
+        <v>42782</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="K66" s="14" t="s">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="L66" s="14"/>
       <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>7</v>
+      <c r="A67" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D67" s="4"/>
+        <v>178</v>
+      </c>
       <c r="E67" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="11">
-        <v>42738</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>236</v>
+        <v>42781</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="L67" s="14"/>
       <c r="M67" s="4"/>
@@ -5695,625 +6109,866 @@
         <v>7</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="D68" s="4"/>
       <c r="E68" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="11">
-        <v>42738</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>239</v>
+        <v>42781</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>241</v>
+        <v>92</v>
       </c>
       <c r="L68" s="14"/>
       <c r="M68" s="4"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="20" t="s">
-        <v>99</v>
+      <c r="A69" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="11">
-        <v>42738</v>
+        <v>42779</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="L69" s="14"/>
       <c r="M69" s="4"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="9" t="s">
-        <v>245</v>
+      <c r="A70" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="9" t="s">
-        <v>248</v>
+        <v>159</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>14</v>
+      <c r="H70" s="11">
+        <v>42779</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="K70" s="14" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="L70" s="14"/>
       <c r="M70" s="4"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
-        <v>245</v>
+    <row r="71" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D71" s="4"/>
+        <v>189</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E71" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="11">
-        <v>42733</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>14</v>
+        <v>42754</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="K71" s="14" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="L71" s="14"/>
       <c r="M71" s="4"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="20" t="s">
-        <v>99</v>
+      <c r="A72" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="7" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="11">
-        <v>42733</v>
+        <v>42754</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="K72" s="14" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="L72" s="14"/>
       <c r="M72" s="4"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="20" t="s">
-        <v>99</v>
+      <c r="A73" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="E73" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F73" s="4"/>
-      <c r="H73" s="11">
-        <v>42725</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>14</v>
+      <c r="G73" s="4"/>
+      <c r="H73" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="L73" s="14"/>
       <c r="M73" s="4"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
-        <v>7</v>
+      <c r="A74" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D74" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E74" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="11">
-        <v>42725</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>14</v>
+        <v>42754</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="L74" s="14"/>
       <c r="M74" s="4"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
-        <v>7</v>
+      <c r="A75" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="11">
-        <v>42725</v>
+        <v>42753</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="L75" s="14"/>
       <c r="M75" s="4"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="20" t="s">
-        <v>99</v>
+      <c r="A76" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>14</v>
+      <c r="H76" s="11">
+        <v>42738</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>271</v>
+        <v>130</v>
       </c>
       <c r="L76" s="14"/>
       <c r="M76" s="4"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="8" t="s">
-        <v>12</v>
+      <c r="A77" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D77" s="4"/>
+        <v>212</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="E77" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>14</v>
+      <c r="H77" s="11">
+        <v>42738</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="L77" s="14"/>
       <c r="M77" s="4"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="20" t="s">
-        <v>99</v>
+      <c r="A78" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
-      <c r="H78" s="21" t="s">
-        <v>269</v>
+      <c r="H78" s="11">
+        <v>42738</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>278</v>
+        <v>196</v>
       </c>
       <c r="L78" s="14"/>
       <c r="M78" s="4"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>23</v>
+        <v>221</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="11">
-        <v>42709</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>281</v>
+      <c r="H79" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>282</v>
+        <v>224</v>
       </c>
       <c r="K79" s="14" t="s">
-        <v>283</v>
+        <v>196</v>
       </c>
       <c r="L79" s="14"/>
       <c r="M79" s="4"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="20" t="s">
-        <v>99</v>
+      <c r="A80" s="9" t="s">
+        <v>219</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>284</v>
+        <v>225</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="11">
-        <v>42709</v>
+        <v>42733</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>285</v>
+        <v>227</v>
       </c>
       <c r="K80" s="14" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L80" s="14"/>
       <c r="M80" s="4"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="10" t="s">
-        <v>13</v>
+      <c r="A81" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F81" s="4"/>
+        <v>21</v>
+      </c>
       <c r="G81" s="4"/>
       <c r="H81" s="11">
-        <v>42705</v>
+        <v>42733</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="K81" s="14" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="L81" s="14"/>
       <c r="M81" s="4"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="8" t="s">
-        <v>12</v>
+      <c r="A82" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="7" t="s">
-        <v>292</v>
+        <v>21</v>
       </c>
       <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
       <c r="H82" s="11">
-        <v>42705</v>
+        <v>42725</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c r="K82" s="14" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="L82" s="14"/>
       <c r="M82" s="4"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="20" t="s">
-        <v>99</v>
+      <c r="A83" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>295</v>
+        <v>236</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>296</v>
+        <v>237</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="2">
-        <v>42703</v>
+      <c r="H83" s="11">
+        <v>42725</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>297</v>
+        <v>238</v>
       </c>
       <c r="K83" s="14" t="s">
-        <v>298</v>
+        <v>215</v>
       </c>
       <c r="L83" s="14"/>
       <c r="M83" s="4"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B84" t="s">
-        <v>299</v>
-      </c>
-      <c r="C84" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="H84" s="2">
+      <c r="B84" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D84" s="4"/>
+      <c r="E84" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="11">
+        <v>42725</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K84" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L84" s="14"/>
+      <c r="M84" s="4"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="K85" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="L85" s="14"/>
+      <c r="M85" s="4"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="K86" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="L86" s="14"/>
+      <c r="M86" s="4"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="K87" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="L87" s="14"/>
+      <c r="M87" s="4"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="11">
+        <v>42709</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="K88" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="L88" s="14"/>
+      <c r="M88" s="4"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="4"/>
+      <c r="E89" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="11">
+        <v>42709</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="K89" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="L89" s="14"/>
+      <c r="M89" s="4"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="11">
+        <v>42705</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="K90" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="L90" s="14"/>
+      <c r="M90" s="4"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="11">
+        <v>42705</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="K91" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="L91" s="14"/>
+      <c r="M91" s="4"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="2">
+        <v>42703</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="K92" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="L92" s="14"/>
+      <c r="M92" s="4"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>273</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="H93" s="2">
         <v>42690</v>
       </c>
-      <c r="I84" t="s">
-        <v>14</v>
-      </c>
-      <c r="J84" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="K84" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="L84" s="14"/>
+      <c r="I93" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="K93" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="L93" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J34" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="I9" r:id="rId3"/>
-    <hyperlink ref="J2" r:id="rId4"/>
-    <hyperlink ref="J9" r:id="rId5"/>
-    <hyperlink ref="J3" r:id="rId6"/>
-    <hyperlink ref="I13" r:id="rId7"/>
-    <hyperlink ref="I31" r:id="rId8"/>
-    <hyperlink ref="I18" r:id="rId9"/>
-    <hyperlink ref="J19" r:id="rId10"/>
-    <hyperlink ref="J18" r:id="rId11"/>
-    <hyperlink ref="J20" r:id="rId12"/>
-    <hyperlink ref="J22" r:id="rId13"/>
-    <hyperlink ref="I68" r:id="rId14"/>
-    <hyperlink ref="J68" r:id="rId15"/>
-    <hyperlink ref="J42" r:id="rId16"/>
-    <hyperlink ref="J73" r:id="rId17"/>
-    <hyperlink ref="J77" r:id="rId18"/>
-    <hyperlink ref="J78" r:id="rId19"/>
-    <hyperlink ref="J72" r:id="rId20"/>
-    <hyperlink ref="J64" r:id="rId21"/>
-    <hyperlink ref="I64" r:id="rId22"/>
-    <hyperlink ref="J59" r:id="rId23"/>
-    <hyperlink ref="I67" r:id="rId24"/>
-    <hyperlink ref="J67" r:id="rId25"/>
-    <hyperlink ref="J63" r:id="rId26"/>
-    <hyperlink ref="J70" r:id="rId27"/>
-    <hyperlink ref="J84" r:id="rId28"/>
-    <hyperlink ref="J83" r:id="rId29"/>
-    <hyperlink ref="J82" r:id="rId30"/>
-    <hyperlink ref="J81" r:id="rId31"/>
-    <hyperlink ref="J80" r:id="rId32"/>
-    <hyperlink ref="J74" r:id="rId33"/>
-    <hyperlink ref="J79" r:id="rId34"/>
-    <hyperlink ref="I79" r:id="rId35"/>
-    <hyperlink ref="I65" r:id="rId36"/>
-    <hyperlink ref="J58" r:id="rId37"/>
-    <hyperlink ref="I56" r:id="rId38"/>
-    <hyperlink ref="J52" r:id="rId39"/>
-    <hyperlink ref="I47" r:id="rId40"/>
-    <hyperlink ref="J49" r:id="rId41"/>
-    <hyperlink ref="I37" r:id="rId42"/>
-    <hyperlink ref="J37" r:id="rId43"/>
-    <hyperlink ref="I14" r:id="rId44"/>
+    <hyperlink ref="J43" r:id="rId1"/>
+    <hyperlink ref="I32" r:id="rId2"/>
+    <hyperlink ref="I6" r:id="rId3"/>
+    <hyperlink ref="J32" r:id="rId4"/>
+    <hyperlink ref="J6" r:id="rId5"/>
+    <hyperlink ref="J2" r:id="rId6"/>
+    <hyperlink ref="I33" r:id="rId7"/>
+    <hyperlink ref="I40" r:id="rId8"/>
+    <hyperlink ref="I22" r:id="rId9"/>
+    <hyperlink ref="J23" r:id="rId10"/>
+    <hyperlink ref="J22" r:id="rId11"/>
+    <hyperlink ref="J24" r:id="rId12"/>
+    <hyperlink ref="J26" r:id="rId13"/>
+    <hyperlink ref="I77" r:id="rId14"/>
+    <hyperlink ref="J77" r:id="rId15"/>
+    <hyperlink ref="J51" r:id="rId16"/>
+    <hyperlink ref="J82" r:id="rId17"/>
+    <hyperlink ref="J86" r:id="rId18"/>
+    <hyperlink ref="J87" r:id="rId19"/>
+    <hyperlink ref="J81" r:id="rId20"/>
+    <hyperlink ref="J73" r:id="rId21"/>
+    <hyperlink ref="I73" r:id="rId22"/>
+    <hyperlink ref="J68" r:id="rId23"/>
+    <hyperlink ref="I76" r:id="rId24"/>
+    <hyperlink ref="J76" r:id="rId25"/>
+    <hyperlink ref="J72" r:id="rId26"/>
+    <hyperlink ref="J79" r:id="rId27"/>
+    <hyperlink ref="J93" r:id="rId28"/>
+    <hyperlink ref="J92" r:id="rId29"/>
+    <hyperlink ref="J91" r:id="rId30"/>
+    <hyperlink ref="J90" r:id="rId31"/>
+    <hyperlink ref="J89" r:id="rId32"/>
+    <hyperlink ref="J83" r:id="rId33"/>
+    <hyperlink ref="J88" r:id="rId34"/>
+    <hyperlink ref="I88" r:id="rId35"/>
+    <hyperlink ref="I74" r:id="rId36"/>
+    <hyperlink ref="J67" r:id="rId37"/>
+    <hyperlink ref="I65" r:id="rId38"/>
+    <hyperlink ref="J61" r:id="rId39"/>
+    <hyperlink ref="I56" r:id="rId40"/>
+    <hyperlink ref="J58" r:id="rId41"/>
+    <hyperlink ref="I46" r:id="rId42"/>
+    <hyperlink ref="J46" r:id="rId43"/>
+    <hyperlink ref="I34" r:id="rId44"/>
+    <hyperlink ref="I9" r:id="rId45"/>
+    <hyperlink ref="J9" r:id="rId46"/>
+    <hyperlink ref="J21" r:id="rId47"/>
+    <hyperlink ref="I10" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E18:F24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="18" spans="5:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="5:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="5:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="5:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="5:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="5:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="5:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-7340" windowWidth="51200" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$M$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$M$46</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="370">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -922,10 +922,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分销</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2445,10 +2441,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://t.im/1bvaz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2465,19 +2457,6 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ixaolv</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推动排期落地</t>
-    <rPh sb="0" eb="1">
-      <t>tui'dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pai'qi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>luo'di</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2646,14 +2625,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-46214</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-48267</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>约2017/6/28</t>
     <rPh sb="0" eb="1">
       <t>yue</t>
@@ -2709,10 +2680,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-49695</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>郑有为/关宁</t>
     <rPh sb="0" eb="1">
       <t>zheng'you'wei</t>
@@ -2737,10 +2704,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-46822</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://163.lu/ROHiZ1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2786,28 +2749,6 @@
     <t>开发中</t>
     <rPh sb="0" eb="1">
       <t>kai'f'zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认需求，完成方案，提交开发</t>
-    <rPh sb="0" eb="1">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ti'jaio</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>kai'fa</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2833,58 +2774,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://163.lu/7r9oK3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://163.lu/YaNbY0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-50926</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-48632</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推动排期落地</t>
-  </si>
-  <si>
-    <t>确认新增需求</t>
-    <rPh sb="0" eb="1">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xin'zeng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xu'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟进上线，使用效果评估</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求评审，技术评审，修订方案，推动排期落地</t>
-    <rPh sb="5" eb="6">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ping'shen</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>xiu'ding</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>fang'an</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MS落地页</t>
     <rPh sb="2" eb="3">
       <t>luo'di'ye</t>
@@ -2895,48 +2792,6 @@
     <t>运营</t>
     <rPh sb="0" eb="1">
       <t>yun'ying</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券相关弹窗优化</t>
-    <rPh sb="0" eb="1">
-      <t>you'hui'quan</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>xiang'guan</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>tan'chuang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>you'hau</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认需求</t>
-    <rPh sb="0" eb="1">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成方案，提交开发</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>kai'fa</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3016,101 +2871,219 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前期调研，提交数据需求</t>
-    <rPh sb="0" eb="1">
-      <t>qian'qi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>diao'yan</t>
+    <t>陈仁广/王婷英</t>
+    <rPh sb="0" eb="1">
+      <t>chen'ren'guang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wang'ting'ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-51739</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5活动模板_领券弹窗样式优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS落地页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS后台“品牌信息配置”加去重逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进排期落地</t>
+    <rPh sb="0" eb="1">
+      <t>gen'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pai'qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>luo'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-52224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛洋/周湘琳</t>
+    <rPh sb="0" eb="1">
+      <t>niu'yang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-46214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS落地页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持会员业务</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui'yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ye'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-52629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-50926</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-46822</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试验收，跟进上线</t>
+    <rPh sb="0" eb="1">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan'shou</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>ti'jaio</t>
+      <t>gen'jin'shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-48267</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认需求，完成方案</t>
+    <rPh sb="0" eb="1">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan'cheng</t>
     </rPh>
     <rPh sb="7" eb="8">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <rPh sb="0" eb="1">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未启动</t>
+    <rPh sb="0" eb="1">
+      <t>wei'lai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qi'dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5活动落地页新增模板（会员商品）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试验收，跟进上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/7r9oK3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-49695</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和数据分析师沟通并提出数据需求</t>
+    <rPh sb="0" eb="1">
+      <t>he</t>
+    </rPh>
+    <rPh sb="1" eb="2">
       <t>shu'ju</t>
     </rPh>
+    <rPh sb="3" eb="4">
+      <t>fen'xi'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gou'tong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bing</t>
+    </rPh>
     <rPh sb="9" eb="10">
+      <t>ti'chu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="13" eb="14">
       <t>xu'qiu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拿到数据后撰写分析报告，确定产品设计方向</t>
-    <rPh sb="0" eb="1">
-      <t>na'ado</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>hou</t>
+    <t>https://163.lu/k/O5Duc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成方案，提交开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS落地页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS落地页配置_优惠券兑换码改成方案ID</t>
+  </si>
+  <si>
+    <t>支持优惠券改动</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'hui'quan</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>zhuan'xie</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fen'xi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>bao'gao</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ding</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>chan'pin</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>she'ji</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>fang'xiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前期调研中</t>
-    <rPh sb="4" eb="5">
-      <t>zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成前期调研，确定产品设计方向</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qian'qi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>diao'yan</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>que'ding</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>chan'pin</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>she'ji</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fang'xiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈仁广/王婷英</t>
-    <rPh sb="0" eb="1">
-      <t>chen'ren'guang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wang'ting'ying</t>
-    </rPh>
+      <t>gai'dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-52854</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3218,7 +3191,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="291">
+  <cellStyleXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3510,8 +3483,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3570,8 +3561,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="291">
+  <cellStyles count="309">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -3863,6 +3857,24 @@
     <cellStyle name="已访问的超链接" xfId="288" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="289" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="308" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4137,10 +4149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4204,7 +4216,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>26</v>
@@ -4238,7 +4250,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>55</v>
@@ -4256,7 +4268,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>53</v>
@@ -4284,14 +4296,14 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>314</v>
+      <c r="H4" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>53</v>
@@ -4306,27 +4318,27 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="11">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="H5" s="22">
         <v>42907</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>53</v>
@@ -4339,7 +4351,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>19</v>
@@ -4349,18 +4361,20 @@
         <v>8</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="11">
+      <c r="G6" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="H6" s="22">
         <v>42907</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L6" s="14" t="s">
         <v>35</v>
@@ -4382,20 +4396,18 @@
         <v>8</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>290</v>
+      <c r="G7" s="4"/>
+      <c r="H7" s="11">
+        <v>42914</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>35</v>
@@ -4407,137 +4419,129 @@
         <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="11"/>
+      <c r="H8" s="22">
+        <v>42907</v>
+      </c>
       <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>290</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>353</v>
+      </c>
       <c r="H9" s="22">
-        <v>42891</v>
+        <v>42908</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="L9" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="L9" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
+        <v>290</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="11">
-        <v>42907</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>35</v>
-      </c>
+      <c r="G10" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>334</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>348</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="19"/>
@@ -4545,296 +4549,299 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="K13" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>350</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2">
-        <v>42935</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>360</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>346</v>
+      <c r="A15" s="10" t="s">
+        <v>365</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>328</v>
+        <v>367</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="6"/>
+        <v>364</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>328</v>
+        <v>303</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>356</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="6"/>
+        <v>362</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="2">
+        <v>42935</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="1" t="s">
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>294</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>295</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="I21" t="s">
-        <v>13</v>
+      <c r="H21" s="11"/>
+      <c r="I21" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>76</v>
+      <c r="A22" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="4"/>
+        <v>287</v>
+      </c>
       <c r="E22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="I22" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>76</v>
+      <c r="A23" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>82</v>
+        <v>291</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="4"/>
+        <v>292</v>
+      </c>
       <c r="E23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="I23" s="4" t="s">
+      <c r="G23" s="4"/>
+      <c r="I23" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>83</v>
+        <v>296</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M23" s="4"/>
+        <v>284</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="I24" s="4" t="s">
-        <v>13</v>
+      <c r="I24" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>34</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="K24" s="14"/>
       <c r="L24" s="14" t="s">
         <v>35</v>
       </c>
@@ -4845,24 +4852,24 @@
         <v>76</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F25" s="4"/>
       <c r="I25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L25" s="14" t="s">
         <v>35</v>
@@ -4874,24 +4881,25 @@
         <v>76</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H26" s="18"/>
+        <v>79</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
       <c r="I26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="L26" s="14" t="s">
         <v>35</v>
@@ -4903,165 +4911,152 @@
         <v>76</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="I27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+      <c r="H29" s="11"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G29" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>286</v>
-      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="24"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="G31" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="1" t="s">
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="23">
-        <v>42887</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="11">
-        <v>42881</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="L33" s="14"/>
-      <c r="M33" s="4"/>
-    </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>38</v>
+      <c r="A34" s="10" t="s">
+        <v>331</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>21</v>
@@ -5069,150 +5064,157 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="11">
-        <v>42881</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>303</v>
+        <v>42891</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>329</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="4"/>
+        <v>304</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
-        <v>38</v>
+      <c r="A35" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>300</v>
+        <v>28</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>301</v>
+        <v>20</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="11">
-        <v>42879</v>
-      </c>
-      <c r="I35" t="s">
-        <v>13</v>
+      <c r="H35" s="23">
+        <v>42887</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>320</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="L35" s="14"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>49</v>
+        <v>312</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="E36" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="11">
-        <v>42859</v>
+        <v>42881</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>285</v>
+        <v>72</v>
       </c>
       <c r="L36" s="14"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
-        <v>12</v>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="4"/>
+        <v>293</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="E37" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="11" t="s">
-        <v>43</v>
+      <c r="H37" s="11">
+        <v>42881</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>47</v>
+        <v>294</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="L37" s="14"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>7</v>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>39</v>
+        <v>297</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="4"/>
+        <v>298</v>
+      </c>
       <c r="E38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="11">
-        <v>42849</v>
-      </c>
-      <c r="I38" s="4" t="s">
+        <v>42879</v>
+      </c>
+      <c r="I38" t="s">
         <v>13</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>66</v>
+        <v>317</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L38" s="14"/>
-      <c r="M38" s="4"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>7</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="7" t="s">
@@ -5221,29 +5223,29 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="11">
-        <v>42844</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>13</v>
+        <v>42859</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>289</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>69</v>
+        <v>288</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>53</v>
+        <v>284</v>
       </c>
       <c r="L39" s="14"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>38</v>
+    <row r="40" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="7" t="s">
@@ -5251,30 +5253,30 @@
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="11">
-        <v>42843</v>
+      <c r="H40" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="L40" s="14"/>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>38</v>
+    <row r="41" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="7" t="s">
@@ -5283,27 +5285,29 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="11">
-        <v>42842</v>
+        <v>42849</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K41" s="14"/>
+        <v>66</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="L41" s="14"/>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>38</v>
+      <c r="A42" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="7" t="s">
@@ -5312,29 +5316,29 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="11">
-        <v>42842</v>
+        <v>42844</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L42" s="14"/>
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>7</v>
+      <c r="A43" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="7" t="s">
@@ -5343,29 +5347,29 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="11">
-        <v>42842</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>13</v>
+        <v>42843</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="L43" s="14"/>
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>103</v>
+      <c r="A44" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="7" t="s">
@@ -5374,17 +5378,15 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="11">
-        <v>42823</v>
+        <v>42842</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K44" s="14" t="s">
-        <v>107</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="K44" s="14"/>
       <c r="L44" s="14"/>
       <c r="M44" s="4"/>
     </row>
@@ -5393,42 +5395,41 @@
         <v>38</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D45" s="4"/>
       <c r="E45" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
       <c r="H45" s="11">
-        <v>42821</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>110</v>
+        <v>42842</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="L45" s="14"/>
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
-        <v>38</v>
+      <c r="A46" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="7" t="s">
@@ -5437,29 +5438,29 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="11">
-        <v>42818</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>114</v>
+        <v>42842</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="L46" s="14"/>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="7" t="s">
@@ -5468,47 +5469,48 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="11">
-        <v>42817</v>
+        <v>42823</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="L47" s="14"/>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>7</v>
+      <c r="A48" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="E48" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
       <c r="H48" s="11">
-        <v>42810</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>13</v>
+        <v>42821</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="L48" s="14"/>
       <c r="M48" s="4"/>
@@ -5518,40 +5520,41 @@
         <v>38</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
       <c r="H49" s="11">
-        <v>42810</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>13</v>
+        <v>42818</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="L49" s="14"/>
       <c r="M49" s="4"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>38</v>
+      <c r="A50" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="7" t="s">
@@ -5560,16 +5563,16 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="11">
-        <v>42809</v>
+        <v>42817</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L50" s="14"/>
       <c r="M50" s="4"/>
@@ -5579,40 +5582,41 @@
         <v>7</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
       <c r="H51" s="11">
-        <v>42809</v>
+        <v>42810</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="L51" s="14"/>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>131</v>
+      <c r="A52" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="7" t="s">
@@ -5620,218 +5624,214 @@
       </c>
       <c r="F52" s="4"/>
       <c r="H52" s="11">
-        <v>42809</v>
+        <v>42810</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="L52" s="14"/>
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
-        <v>7</v>
+      <c r="A53" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
       <c r="H53" s="11">
-        <v>42808</v>
+        <v>42809</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>283</v>
+        <v>126</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="L53" s="14"/>
       <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
-        <v>137</v>
+      <c r="A54" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
       <c r="H54" s="11">
-        <v>42808</v>
+        <v>42809</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="L54" s="14"/>
       <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
-        <v>38</v>
+      <c r="A55" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D55" s="4"/>
       <c r="E55" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
       <c r="H55" s="11">
-        <v>42808</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>142</v>
+        <v>42809</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="L55" s="14"/>
       <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
       <c r="H56" s="11">
         <v>42808</v>
       </c>
-      <c r="I56" s="6" t="s">
-        <v>146</v>
+      <c r="I56" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>147</v>
+        <v>282</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="L56" s="14"/>
       <c r="M56" s="4"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
-        <v>38</v>
+      <c r="A57" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D57" s="4"/>
       <c r="E57" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="11">
-        <v>42797</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>110</v>
+        <v>42808</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L57" s="14"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
-        <v>150</v>
+      <c r="A58" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D58" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="E58" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="11">
-        <v>42789</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>13</v>
+        <v>42808</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L58" s="14"/>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="17" t="s">
-        <v>76</v>
+      <c r="A59" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="7" t="s">
@@ -5840,16 +5840,16 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="11">
-        <v>42789</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>13</v>
+        <v>42808</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="L59" s="14"/>
       <c r="M59" s="4"/>
@@ -5859,13 +5859,13 @@
         <v>38</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>21</v>
@@ -5873,13 +5873,13 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="11">
-        <v>42789</v>
+        <v>42797</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="K60" s="14" t="s">
         <v>31</v>
@@ -5888,14 +5888,14 @@
       <c r="M60" s="4"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>7</v>
+      <c r="A61" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="7" t="s">
@@ -5904,29 +5904,29 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="11">
-        <v>42787</v>
+        <v>42789</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="L61" s="14"/>
       <c r="M61" s="4"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>7</v>
+      <c r="A62" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="7" t="s">
@@ -5935,123 +5935,124 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="11">
-        <v>42787</v>
+        <v>42789</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="L62" s="14"/>
       <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>7</v>
+      <c r="A63" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D63" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="E63" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="11">
-        <v>42787</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>13</v>
+        <v>42789</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="L63" s="14"/>
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
-        <v>38</v>
+      <c r="A64" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
       <c r="H64" s="11">
-        <v>42782</v>
+        <v>42787</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="L64" s="14"/>
       <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
-        <v>38</v>
+      <c r="A65" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="D65" s="4"/>
       <c r="E65" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="11">
-        <v>42782</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>172</v>
+        <v>42787</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="L65" s="14"/>
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="17" t="s">
-        <v>76</v>
+      <c r="A66" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="7" t="s">
@@ -6060,90 +6061,92 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="11">
-        <v>42782</v>
+        <v>42787</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="K66" s="14" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="L66" s="14"/>
       <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="10" t="s">
-        <v>12</v>
+      <c r="A67" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>178</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="D67" s="4"/>
       <c r="E67" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
       <c r="H67" s="11">
-        <v>42781</v>
+        <v>42782</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J67" s="19" t="s">
-        <v>179</v>
+      <c r="J67" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="L67" s="14"/>
       <c r="M67" s="4"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>7</v>
+      <c r="A68" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D68" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="E68" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="11">
-        <v>42781</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>13</v>
+        <v>42782</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="L68" s="14"/>
       <c r="M68" s="4"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
-        <v>7</v>
+      <c r="A69" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="7" t="s">
@@ -6152,32 +6155,29 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="11">
-        <v>42779</v>
+        <v>42782</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="L69" s="14"/>
       <c r="M69" s="4"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
-        <v>7</v>
+      <c r="A70" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>21</v>
@@ -6185,62 +6185,60 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="11">
-        <v>42779</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>187</v>
+        <v>42781</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="K70" s="14" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="L70" s="14"/>
       <c r="M70" s="4"/>
     </row>
-    <row r="71" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="10" t="s">
-        <v>12</v>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D71" s="4"/>
       <c r="E71" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="11">
-        <v>42754</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>190</v>
+        <v>42781</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="K71" s="14" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="L71" s="14"/>
       <c r="M71" s="4"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="8" t="s">
-        <v>11</v>
+      <c r="A72" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="7" t="s">
@@ -6249,65 +6247,65 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="11">
-        <v>42754</v>
+        <v>42779</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="K72" s="14" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="L72" s="14"/>
       <c r="M72" s="4"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="10" t="s">
-        <v>12</v>
+      <c r="A73" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="18" t="s">
-        <v>199</v>
+      <c r="H73" s="11">
+        <v>42779</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="L73" s="14"/>
       <c r="M73" s="4"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="9" t="s">
-        <v>38</v>
+    <row r="74" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>21</v>
@@ -6318,26 +6316,26 @@
         <v>42754</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="L74" s="14"/>
       <c r="M74" s="4"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="17" t="s">
-        <v>76</v>
+      <c r="A75" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="7" t="s">
@@ -6346,63 +6344,65 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="11">
-        <v>42753</v>
+        <v>42754</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L75" s="14"/>
       <c r="M75" s="4"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
-        <v>7</v>
+      <c r="A76" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D76" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="E76" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="11">
-        <v>42738</v>
+      <c r="H76" s="18" t="s">
+        <v>198</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="L76" s="14"/>
       <c r="M76" s="4"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
-        <v>7</v>
+      <c r="A77" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>21</v>
@@ -6410,16 +6410,16 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="11">
-        <v>42738</v>
+        <v>42754</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="L77" s="14"/>
       <c r="M77" s="4"/>
@@ -6429,10 +6429,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="7" t="s">
@@ -6441,78 +6441,80 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="11">
-        <v>42738</v>
+        <v>42753</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L78" s="14"/>
       <c r="M78" s="4"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="9" t="s">
-        <v>219</v>
+      <c r="A79" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="D79" s="4"/>
-      <c r="E79" s="9" t="s">
-        <v>222</v>
+      <c r="E79" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>13</v>
+      <c r="H79" s="11">
+        <v>42738</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="K79" s="14" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="L79" s="14"/>
       <c r="M79" s="4"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
-        <v>219</v>
+      <c r="A80" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D80" s="4"/>
+        <v>211</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="E80" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="11">
-        <v>42733</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>13</v>
+        <v>42738</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="K80" s="14" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L80" s="14"/>
       <c r="M80" s="4"/>
@@ -6522,70 +6524,72 @@
         <v>76</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="11">
-        <v>42733</v>
+        <v>42738</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="K81" s="14" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="L81" s="14"/>
       <c r="M81" s="4"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="17" t="s">
-        <v>76</v>
+      <c r="A82" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="D82" s="4"/>
-      <c r="E82" s="7" t="s">
-        <v>21</v>
+      <c r="E82" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="F82" s="4"/>
-      <c r="H82" s="11">
-        <v>42725</v>
+      <c r="G82" s="4"/>
+      <c r="H82" s="18" t="s">
+        <v>222</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="K82" s="14" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="L82" s="14"/>
       <c r="M82" s="4"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
-        <v>7</v>
+      <c r="A83" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="7" t="s">
@@ -6594,47 +6598,46 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="11">
-        <v>42725</v>
+        <v>42733</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="K83" s="14" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="L83" s="14"/>
       <c r="M83" s="4"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
-        <v>7</v>
+      <c r="A84" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="11">
-        <v>42725</v>
+        <v>42733</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="L84" s="14"/>
       <c r="M84" s="4"/>
@@ -6644,41 +6647,40 @@
         <v>76</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="18" t="s">
-        <v>243</v>
+      <c r="H85" s="11">
+        <v>42725</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="L85" s="14"/>
       <c r="M85" s="4"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86" s="8" t="s">
-        <v>11</v>
+      <c r="A86" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="7" t="s">
@@ -6686,30 +6688,30 @@
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
-      <c r="H86" s="18" t="s">
-        <v>243</v>
+      <c r="H86" s="11">
+        <v>42725</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="L86" s="14"/>
       <c r="M86" s="4"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" s="17" t="s">
-        <v>76</v>
+      <c r="A87" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="7" t="s">
@@ -6717,63 +6719,61 @@
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="18" t="s">
-        <v>243</v>
+      <c r="H87" s="11">
+        <v>42725</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="K87" s="14" t="s">
-        <v>252</v>
+        <v>129</v>
       </c>
       <c r="L87" s="14"/>
       <c r="M87" s="4"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" s="9" t="s">
-        <v>219</v>
+      <c r="A88" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="D88" s="4"/>
       <c r="E88" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="11">
-        <v>42709</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>255</v>
+      <c r="H88" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="K88" s="14" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="L88" s="14"/>
       <c r="M88" s="4"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89" s="17" t="s">
-        <v>76</v>
+      <c r="A89" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="7" t="s">
@@ -6781,79 +6781,81 @@
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
-      <c r="H89" s="11">
-        <v>42709</v>
+      <c r="H89" s="18" t="s">
+        <v>242</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="K89" s="14" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="L89" s="14"/>
       <c r="M89" s="4"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A90" s="10" t="s">
-        <v>12</v>
+      <c r="A90" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="7" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
-      <c r="H90" s="11">
-        <v>42705</v>
+      <c r="H90" s="18" t="s">
+        <v>242</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="K90" s="14" t="s">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="L90" s="14"/>
       <c r="M90" s="4"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" s="8" t="s">
-        <v>11</v>
+      <c r="A91" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D91" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="E91" s="7" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="11">
-        <v>42705</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>13</v>
+        <v>42709</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="K91" s="14" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="L91" s="14"/>
       <c r="M91" s="4"/>
@@ -6863,10 +6865,10 @@
         <v>76</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>270</v>
+        <v>19</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="7" t="s">
@@ -6874,99 +6876,193 @@
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="2">
-        <v>42703</v>
+      <c r="H92" s="11">
+        <v>42709</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="K92" s="14" t="s">
-        <v>272</v>
+        <v>195</v>
       </c>
       <c r="L92" s="14"/>
       <c r="M92" s="4"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="11">
+        <v>42705</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="K93" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="L93" s="14"/>
+      <c r="M93" s="4"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="11">
+        <v>42705</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="K94" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="L94" s="14"/>
+      <c r="M94" s="4"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D95" s="4"/>
+      <c r="E95" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="2">
+        <v>42703</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="K95" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="L95" s="14"/>
+      <c r="M95" s="4"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B96" t="s">
+        <v>272</v>
+      </c>
+      <c r="C96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="H96" s="2">
+        <v>42690</v>
+      </c>
+      <c r="I96" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="C93" t="s">
-        <v>19</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="H93" s="2">
-        <v>42690</v>
-      </c>
-      <c r="I93" t="s">
-        <v>13</v>
-      </c>
-      <c r="J93" s="19" t="s">
+      <c r="K96" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="K93" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="L93" s="14"/>
+      <c r="L96" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J43" r:id="rId1"/>
-    <hyperlink ref="I32" r:id="rId2"/>
+    <hyperlink ref="J46" r:id="rId1"/>
+    <hyperlink ref="I35" r:id="rId2"/>
     <hyperlink ref="I6" r:id="rId3"/>
-    <hyperlink ref="J32" r:id="rId4"/>
+    <hyperlink ref="J35" r:id="rId4"/>
     <hyperlink ref="J6" r:id="rId5"/>
     <hyperlink ref="J2" r:id="rId6"/>
-    <hyperlink ref="I33" r:id="rId7"/>
-    <hyperlink ref="I40" r:id="rId8"/>
-    <hyperlink ref="I22" r:id="rId9"/>
-    <hyperlink ref="J23" r:id="rId10"/>
-    <hyperlink ref="J22" r:id="rId11"/>
-    <hyperlink ref="J24" r:id="rId12"/>
-    <hyperlink ref="J26" r:id="rId13"/>
-    <hyperlink ref="I77" r:id="rId14"/>
-    <hyperlink ref="J77" r:id="rId15"/>
-    <hyperlink ref="J51" r:id="rId16"/>
-    <hyperlink ref="J82" r:id="rId17"/>
-    <hyperlink ref="J86" r:id="rId18"/>
-    <hyperlink ref="J87" r:id="rId19"/>
-    <hyperlink ref="J81" r:id="rId20"/>
-    <hyperlink ref="J73" r:id="rId21"/>
-    <hyperlink ref="I73" r:id="rId22"/>
-    <hyperlink ref="J68" r:id="rId23"/>
-    <hyperlink ref="I76" r:id="rId24"/>
-    <hyperlink ref="J76" r:id="rId25"/>
-    <hyperlink ref="J72" r:id="rId26"/>
-    <hyperlink ref="J79" r:id="rId27"/>
-    <hyperlink ref="J93" r:id="rId28"/>
-    <hyperlink ref="J92" r:id="rId29"/>
-    <hyperlink ref="J91" r:id="rId30"/>
-    <hyperlink ref="J90" r:id="rId31"/>
-    <hyperlink ref="J89" r:id="rId32"/>
-    <hyperlink ref="J83" r:id="rId33"/>
-    <hyperlink ref="J88" r:id="rId34"/>
-    <hyperlink ref="I88" r:id="rId35"/>
-    <hyperlink ref="I74" r:id="rId36"/>
-    <hyperlink ref="J67" r:id="rId37"/>
-    <hyperlink ref="I65" r:id="rId38"/>
-    <hyperlink ref="J61" r:id="rId39"/>
-    <hyperlink ref="I56" r:id="rId40"/>
-    <hyperlink ref="J58" r:id="rId41"/>
-    <hyperlink ref="I46" r:id="rId42"/>
-    <hyperlink ref="J46" r:id="rId43"/>
-    <hyperlink ref="I34" r:id="rId44"/>
-    <hyperlink ref="I9" r:id="rId45"/>
-    <hyperlink ref="J9" r:id="rId46"/>
-    <hyperlink ref="J21" r:id="rId47"/>
-    <hyperlink ref="I10" r:id="rId48"/>
+    <hyperlink ref="I36" r:id="rId7"/>
+    <hyperlink ref="I43" r:id="rId8"/>
+    <hyperlink ref="I24" r:id="rId9"/>
+    <hyperlink ref="J25" r:id="rId10"/>
+    <hyperlink ref="J24" r:id="rId11"/>
+    <hyperlink ref="J26" r:id="rId12"/>
+    <hyperlink ref="J28" r:id="rId13"/>
+    <hyperlink ref="I80" r:id="rId14"/>
+    <hyperlink ref="J80" r:id="rId15"/>
+    <hyperlink ref="J54" r:id="rId16"/>
+    <hyperlink ref="J85" r:id="rId17"/>
+    <hyperlink ref="J89" r:id="rId18"/>
+    <hyperlink ref="J90" r:id="rId19"/>
+    <hyperlink ref="J84" r:id="rId20"/>
+    <hyperlink ref="J76" r:id="rId21"/>
+    <hyperlink ref="I76" r:id="rId22"/>
+    <hyperlink ref="J71" r:id="rId23"/>
+    <hyperlink ref="I79" r:id="rId24"/>
+    <hyperlink ref="J79" r:id="rId25"/>
+    <hyperlink ref="J75" r:id="rId26"/>
+    <hyperlink ref="J82" r:id="rId27"/>
+    <hyperlink ref="J96" r:id="rId28"/>
+    <hyperlink ref="J95" r:id="rId29"/>
+    <hyperlink ref="J94" r:id="rId30"/>
+    <hyperlink ref="J93" r:id="rId31"/>
+    <hyperlink ref="J92" r:id="rId32"/>
+    <hyperlink ref="J86" r:id="rId33"/>
+    <hyperlink ref="J91" r:id="rId34"/>
+    <hyperlink ref="I91" r:id="rId35"/>
+    <hyperlink ref="I77" r:id="rId36"/>
+    <hyperlink ref="J70" r:id="rId37"/>
+    <hyperlink ref="I68" r:id="rId38"/>
+    <hyperlink ref="J64" r:id="rId39"/>
+    <hyperlink ref="I59" r:id="rId40"/>
+    <hyperlink ref="J61" r:id="rId41"/>
+    <hyperlink ref="I49" r:id="rId42"/>
+    <hyperlink ref="J49" r:id="rId43"/>
+    <hyperlink ref="I37" r:id="rId44"/>
+    <hyperlink ref="I34" r:id="rId45"/>
+    <hyperlink ref="J34" r:id="rId46"/>
+    <hyperlink ref="J23" r:id="rId47"/>
+    <hyperlink ref="I9" r:id="rId48"/>
+    <hyperlink ref="I14" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20440" tabRatio="500"/>
+    <workbookView xWindow="33600" yWindow="-7340" windowWidth="51200" windowHeight="28340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$M$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$M$47</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="384">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -245,10 +245,6 @@
     <rPh sb="2" eb="3">
       <t>ji'hua</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.cn/RfgjXOb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2553,25 +2549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增加新的流量利用方式</t>
-    <rPh sb="0" eb="1">
-      <t>zeng'jai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xin'de</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>liu'liang</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>li'yong</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>fang'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-47491</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2625,13 +2602,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>约2017/6/28</t>
-    <rPh sb="0" eb="1">
-      <t>yue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支持海关接口对接</t>
     <rPh sb="0" eb="1">
       <t>zhi'chi</t>
@@ -2653,10 +2623,6 @@
   </si>
   <si>
     <t>微商 App v1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站联盟订单管理优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2770,15 +2736,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-42740</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://163.lu/YaNbY0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-48632</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2825,52 +2783,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>专辑优化</t>
-    <rPh sb="0" eb="1">
-      <t>zhuan'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>you'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高专辑效果</t>
-    <rPh sb="0" eb="1">
-      <t>ti'gao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhuan'ji</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xiao'guo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限时购优化</t>
-    <rPh sb="0" eb="1">
-      <t>xian'shi'gou</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>you'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高限时购效果</t>
-    <rPh sb="0" eb="1">
-      <t>ti'gao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xian'shi'gou</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xiao'guo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陈仁广/王婷英</t>
     <rPh sb="0" eb="1">
       <t>chen'ren'guang</t>
@@ -2924,10 +2836,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-46214</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MS落地页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2974,7 +2882,146 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确认需求，完成方案</t>
+    <t>开发中</t>
+    <rPh sb="0" eb="1">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5活动落地页新增模板（会员商品）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试验收，跟进上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-49695</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和数据分析师沟通并提出数据需求</t>
+    <rPh sb="0" eb="1">
+      <t>he</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fen'xi'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gou'tong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ti'chu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/k/O5Duc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成方案，提交开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS落地页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS落地页配置_优惠券兑换码改成方案ID</t>
+  </si>
+  <si>
+    <t>支持优惠券改动</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'hui'quan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gai'dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-52854</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领券中心v2.0</t>
+    <rPh sb="0" eb="1">
+      <t>ling'quan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhogn'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未启动</t>
+    <rPh sb="0" eb="1">
+      <t>wei'qi'dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/7r9oK3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站联盟</t>
+    <rPh sb="0" eb="1">
+      <t>wang'zhan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lian'emng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站联盟_URS订单推送接口</t>
+  </si>
+  <si>
+    <t>提供技术支持，促进网盟合作</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cu'jin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wang'meng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>he'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认需求，完成方案，提交开发</t>
     <rPh sb="0" eb="1">
       <t>que'ren</t>
     </rPh>
@@ -2987,103 +3034,205 @@
     <rPh sb="7" eb="8">
       <t>fang'an</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <rPh sb="0" eb="1">
+    <rPh sb="10" eb="11">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
       <t>kai'fa</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未启动</t>
-    <rPh sb="0" eb="1">
-      <t>wei'lai</t>
-    </rPh>
-    <rPh sb="1" eb="2">
+    <t>http://jira.netease.com/browse/KJDS-53281</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RfgjXOb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站联盟订单管理优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试验收，跟进上线</t>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-48632</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS落地页_H5品牌图自定义功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持相关业务</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'guan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ye'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-53343</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-42740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕超镇/马鑫</t>
+    <rPh sb="0" eb="1">
+      <t>lv'chao'zhen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ma'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-46214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推进主站配合给到接口</t>
+    <rPh sb="0" eb="1">
+      <t>tui'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu'zhan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pei'he</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gei'dao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie'kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认需求</t>
+  </si>
+  <si>
+    <t>讨论需求，确认需求</t>
+    <rPh sb="0" eb="1">
+      <t>tao'lun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐组给到算法后进行MS后台方案设计</t>
+    <rPh sb="0" eb="1">
+      <t>tui'ijan'zu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gei'dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>suan'fa</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hou'tai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>she'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加强主站流量转化</t>
+    <rPh sb="0" eb="1">
+      <t>jia'qiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu'zhan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>liu'liang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuan'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增秒杀玩法，提高入口流量</t>
+    <rPh sb="0" eb="1">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>miao'sha</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wan'fa</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ru'kou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>liu'laing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论实现方案</t>
+    <rPh sb="0" eb="1">
+      <t>tao'lun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动策划</t>
+    <rPh sb="0" eb="1">
       <t>qi'dong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H5活动落地页新增模板（会员商品）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试验收，跟进上线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://163.lu/7r9oK3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-49695</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和数据分析师沟通并提出数据需求</t>
-    <rPh sb="0" eb="1">
-      <t>he</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>fen'xi'shi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>gou'tong</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>bing</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ti'chu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>xu'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://163.lu/k/O5Duc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成方案，提交开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS落地页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS落地页配置_优惠券兑换码改成方案ID</t>
-  </si>
-  <si>
-    <t>支持优惠券改动</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'chi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>you'hui'quan</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>gai'dong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-52854</t>
+    <rPh sb="2" eb="3">
+      <t>ce'hua</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3191,11 +3340,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="309">
+  <cellStyleXfs count="321">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3565,7 +3726,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="309">
+  <cellStyles count="321">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -3875,6 +4036,18 @@
     <cellStyle name="已访问的超链接" xfId="306" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="307" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="320" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4149,10 +4322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4202,10 +4375,10 @@
         <v>5</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>6</v>
@@ -4216,10 +4389,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
@@ -4227,22 +4400,22 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -4250,31 +4423,33 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>376</v>
+      </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>53</v>
+        <v>374</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3" s="4"/>
     </row>
@@ -4283,33 +4458,33 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="2" t="s">
-        <v>309</v>
+      <c r="H4" s="2">
+        <v>42921</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M4" s="4"/>
     </row>
@@ -4318,19 +4493,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>353</v>
-      </c>
+      <c r="F5" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="22">
         <v>42907</v>
       </c>
@@ -4338,10 +4513,10 @@
         <v>13</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="4"/>
@@ -4351,7 +4526,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>313</v>
+        <v>366</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>19</v>
@@ -4360,36 +4535,36 @@
       <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>353</v>
-      </c>
+      <c r="F6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="22">
         <v>42907</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>24</v>
+        <v>365</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
@@ -4401,16 +4576,16 @@
         <v>42914</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" s="4"/>
     </row>
@@ -4419,17 +4594,17 @@
         <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="22">
@@ -4439,724 +4614,755 @@
         <v>13</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>331</v>
+    <row r="9" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>359</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>307</v>
+        <v>360</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>290</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="G9" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="H9" s="22">
-        <v>42908</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>305</v>
+        <v>334</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>35</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>321</v>
+        <v>289</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="6"/>
+        <v>342</v>
+      </c>
+      <c r="H10" s="11">
+        <v>42912</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>340</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>333</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>321</v>
+        <v>18</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="6"/>
+        <v>334</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="4"/>
+        <v>328</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>377</v>
+      </c>
       <c r="G13" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>35</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>349</v>
+        <v>18</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="G14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>334</v>
+      </c>
       <c r="H14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>363</v>
+        <v>32</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>350</v>
+        <v>335</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>336</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="G15" s="4"/>
+        <v>350</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>334</v>
+      </c>
       <c r="H15" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="I15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J16" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="L15" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="C17" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="2">
-        <v>42935</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="6"/>
+      <c r="G17" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="F18" s="4"/>
+        <v>380</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>348</v>
+      </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="H18" s="2">
+        <v>42935</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="1" t="s">
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>287</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>79</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F22" s="4"/>
       <c r="G22" s="4"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="I23" t="s">
+      <c r="E24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="I24" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="I24" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="J24" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M24" s="4"/>
+        <v>295</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="C25" s="4" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="I25" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="I25" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="J25" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>84</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="K25" s="14"/>
       <c r="L25" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
       <c r="I26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K26" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L26" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
       <c r="I27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" s="18"/>
+        <v>89</v>
+      </c>
+      <c r="F28" s="4"/>
       <c r="I28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="H29" s="18"/>
+      <c r="I29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>12</v>
+      <c r="A30" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>78</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="24"/>
+        <v>99</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="6"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
+      <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G31" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="24"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G32" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="1" t="s">
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="11">
-        <v>42891</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="J34" s="6" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="K34" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="23">
-        <v>42887</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>320</v>
+      <c r="H35" s="11">
+        <v>42891</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="4"/>
+        <v>302</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>38</v>
+      <c r="A36" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>312</v>
+        <v>27</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="11">
-        <v>42881</v>
+      <c r="H36" s="23">
+        <v>42887</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="L36" s="14"/>
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>293</v>
+        <v>50</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>277</v>
+        <v>51</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>21</v>
@@ -5167,26 +5373,29 @@
         <v>42881</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>278</v>
+        <v>71</v>
       </c>
       <c r="L37" s="14"/>
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>21</v>
@@ -5194,58 +5403,57 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="11">
-        <v>42879</v>
-      </c>
-      <c r="I38" t="s">
-        <v>13</v>
+        <v>42881</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>48</v>
+        <v>277</v>
+      </c>
+      <c r="L38" s="14"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>49</v>
+        <v>296</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="4"/>
+        <v>297</v>
+      </c>
       <c r="E39" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="11">
-        <v>42859</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>289</v>
+        <v>42879</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="L39" s="14"/>
-      <c r="M39" s="4"/>
-    </row>
-    <row r="40" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
-        <v>12</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="7" t="s">
@@ -5253,30 +5461,30 @@
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="11" t="s">
-        <v>43</v>
+      <c r="H40" s="11">
+        <v>42859</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>47</v>
+        <v>287</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="L40" s="14"/>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>7</v>
+    <row r="41" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="7" t="s">
@@ -5284,30 +5492,30 @@
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="11">
-        <v>42849</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>13</v>
+      <c r="H41" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="L41" s="14"/>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="7" t="s">
@@ -5316,29 +5524,29 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="11">
-        <v>42844</v>
+        <v>42849</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J42" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K42" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="K42" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="L42" s="14"/>
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>38</v>
+      <c r="A43" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="7" t="s">
@@ -5347,29 +5555,29 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="11">
-        <v>42843</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>64</v>
+        <v>42844</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L43" s="14"/>
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="7" t="s">
@@ -5378,27 +5586,29 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="11">
-        <v>42842</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>13</v>
+        <v>42843</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K44" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="L44" s="14"/>
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="7" t="s">
@@ -5415,21 +5625,19 @@
       <c r="J45" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K45" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="K45" s="14"/>
       <c r="L45" s="14"/>
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>7</v>
+      <c r="A46" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="7" t="s">
@@ -5444,23 +5652,23 @@
         <v>13</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="L46" s="14"/>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="7" t="s">
@@ -5469,92 +5677,92 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="11">
-        <v>42823</v>
+        <v>42842</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="L47" s="14"/>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
-        <v>38</v>
+      <c r="A48" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D48" s="4"/>
       <c r="E48" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
       <c r="H48" s="11">
-        <v>42821</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>109</v>
+        <v>42823</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="L48" s="14"/>
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="E49" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
       <c r="H49" s="11">
-        <v>42818</v>
+        <v>42821</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="L49" s="14"/>
       <c r="M49" s="4"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>7</v>
+      <c r="A50" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="7" t="s">
@@ -5563,13 +5771,13 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="11">
-        <v>42817</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>13</v>
+        <v>42818</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K50" s="14" t="s">
         <v>53</v>
@@ -5582,10 +5790,10 @@
         <v>7</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="7" t="s">
@@ -5594,35 +5802,36 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="11">
-        <v>42810</v>
+        <v>42817</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="L51" s="14"/>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
-        <v>38</v>
+      <c r="A52" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
       <c r="H52" s="11">
         <v>42810</v>
       </c>
@@ -5630,60 +5839,60 @@
         <v>13</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L52" s="14"/>
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
       <c r="H53" s="11">
-        <v>42809</v>
+        <v>42810</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="L53" s="14"/>
       <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>7</v>
+      <c r="A54" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
       <c r="H54" s="11">
         <v>42809</v>
       </c>
@@ -5691,23 +5900,23 @@
         <v>13</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="L54" s="14"/>
       <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="7" t="s">
@@ -5721,23 +5930,23 @@
         <v>13</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="L55" s="14"/>
       <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="7" t="s">
@@ -5745,36 +5954,35 @@
       </c>
       <c r="F56" s="4"/>
       <c r="H56" s="11">
-        <v>42808</v>
+        <v>42809</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>282</v>
+        <v>132</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="L56" s="14"/>
       <c r="M56" s="4"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="s">
-        <v>136</v>
+      <c r="A57" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
       <c r="H57" s="11">
         <v>42808</v>
       </c>
@@ -5782,27 +5990,25 @@
         <v>13</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>139</v>
+        <v>281</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="L57" s="14"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
-        <v>38</v>
+      <c r="A58" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D58" s="4"/>
       <c r="E58" s="7" t="s">
         <v>21</v>
       </c>
@@ -5811,29 +6017,31 @@
       <c r="H58" s="11">
         <v>42808</v>
       </c>
-      <c r="I58" s="6" t="s">
-        <v>141</v>
+      <c r="I58" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L58" s="14"/>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>130</v>
+      <c r="A59" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="E59" s="7" t="s">
         <v>21</v>
       </c>
@@ -5843,90 +6051,90 @@
         <v>42808</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="L59" s="14"/>
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
-        <v>38</v>
+      <c r="A60" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D60" s="4"/>
       <c r="E60" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="11">
-        <v>42797</v>
+        <v>42808</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="L60" s="14"/>
       <c r="M60" s="4"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="17" t="s">
-        <v>149</v>
+      <c r="A61" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D61" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="E61" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="11">
-        <v>42789</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>13</v>
+        <v>42797</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L61" s="14"/>
       <c r="M61" s="4"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="17" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="7" t="s">
@@ -5941,27 +6149,25 @@
         <v>13</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L62" s="14"/>
       <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
-        <v>38</v>
+      <c r="A63" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D63" s="4"/>
       <c r="E63" s="7" t="s">
         <v>21</v>
       </c>
@@ -5970,45 +6176,47 @@
       <c r="H63" s="11">
         <v>42789</v>
       </c>
-      <c r="I63" s="6" t="s">
-        <v>109</v>
+      <c r="I63" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L63" s="14"/>
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>7</v>
+      <c r="A64" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D64" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="E64" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="11">
-        <v>42787</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>13</v>
+        <v>42789</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="L64" s="14"/>
       <c r="M64" s="4"/>
@@ -6018,10 +6226,10 @@
         <v>7</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="7" t="s">
@@ -6036,10 +6244,10 @@
         <v>13</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="L65" s="14"/>
       <c r="M65" s="4"/>
@@ -6049,10 +6257,10 @@
         <v>7</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="7" t="s">
@@ -6067,88 +6275,88 @@
         <v>13</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K66" s="14" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="L66" s="14"/>
       <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
-        <v>38</v>
+      <c r="A67" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
       <c r="H67" s="11">
-        <v>42782</v>
+        <v>42787</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="L67" s="14"/>
       <c r="M67" s="4"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="D68" s="4"/>
       <c r="E68" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
       <c r="H68" s="11">
         <v>42782</v>
       </c>
-      <c r="I68" s="6" t="s">
-        <v>171</v>
+      <c r="I68" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L68" s="14"/>
       <c r="M68" s="4"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="17" t="s">
-        <v>76</v>
+      <c r="A69" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D69" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="E69" s="7" t="s">
         <v>21</v>
       </c>
@@ -6157,59 +6365,59 @@
       <c r="H69" s="11">
         <v>42782</v>
       </c>
-      <c r="I69" s="4" t="s">
-        <v>13</v>
+      <c r="I69" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="L69" s="14"/>
       <c r="M69" s="4"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="10" t="s">
-        <v>12</v>
+      <c r="A70" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>177</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D70" s="4"/>
       <c r="E70" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="11">
-        <v>42781</v>
+        <v>42782</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="19" t="s">
-        <v>178</v>
+      <c r="J70" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="K70" s="14" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="L70" s="14"/>
       <c r="M70" s="4"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
-        <v>7</v>
+      <c r="A71" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D71" s="4"/>
+        <v>176</v>
+      </c>
       <c r="E71" s="7" t="s">
         <v>21</v>
       </c>
@@ -6221,11 +6429,11 @@
       <c r="I71" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="6" t="s">
-        <v>181</v>
+      <c r="J71" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="K71" s="14" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="L71" s="14"/>
       <c r="M71" s="4"/>
@@ -6235,10 +6443,10 @@
         <v>7</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="7" t="s">
@@ -6247,16 +6455,16 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="11">
-        <v>42779</v>
+        <v>42781</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K72" s="14" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="L72" s="14"/>
       <c r="M72" s="4"/>
@@ -6266,14 +6474,12 @@
         <v>7</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D73" s="4"/>
       <c r="E73" s="7" t="s">
         <v>21</v>
       </c>
@@ -6282,30 +6488,30 @@
       <c r="H73" s="11">
         <v>42779</v>
       </c>
-      <c r="I73" s="6" t="s">
-        <v>185</v>
+      <c r="I73" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L73" s="14"/>
       <c r="M73" s="4"/>
     </row>
-    <row r="74" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="10" t="s">
-        <v>12</v>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>21</v>
@@ -6313,31 +6519,33 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="11">
-        <v>42754</v>
+        <v>42779</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="L74" s="14"/>
       <c r="M74" s="4"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="8" t="s">
-        <v>11</v>
+    <row r="75" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D75" s="4"/>
+        <v>187</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="E75" s="7" t="s">
         <v>21</v>
       </c>
@@ -6346,124 +6554,124 @@
       <c r="H75" s="11">
         <v>42754</v>
       </c>
-      <c r="I75" s="4" t="s">
-        <v>13</v>
+      <c r="I75" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L75" s="14"/>
       <c r="M75" s="4"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="10" t="s">
-        <v>12</v>
+      <c r="A76" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>197</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="D76" s="4"/>
       <c r="E76" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>199</v>
+      <c r="H76" s="11">
+        <v>42754</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="L76" s="14"/>
       <c r="M76" s="4"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
-        <v>38</v>
+      <c r="A77" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>108</v>
+        <v>196</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="11">
-        <v>42754</v>
+      <c r="H77" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="L77" s="14"/>
       <c r="M77" s="4"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="17" t="s">
-        <v>76</v>
+      <c r="A78" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D78" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="E78" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="11">
-        <v>42753</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>13</v>
+        <v>42754</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="L78" s="14"/>
       <c r="M78" s="4"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
-        <v>7</v>
+      <c r="A79" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="7" t="s">
@@ -6472,16 +6680,16 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="11">
-        <v>42738</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>208</v>
+        <v>42753</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K79" s="14" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="L79" s="14"/>
       <c r="M79" s="4"/>
@@ -6491,14 +6699,12 @@
         <v>7</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D80" s="4"/>
       <c r="E80" s="7" t="s">
         <v>21</v>
       </c>
@@ -6508,28 +6714,30 @@
         <v>42738</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K80" s="14" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="L80" s="14"/>
       <c r="M80" s="4"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="17" t="s">
-        <v>76</v>
+      <c r="A81" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D81" s="4"/>
+        <v>210</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="E81" s="7" t="s">
         <v>21</v>
       </c>
@@ -6538,94 +6746,95 @@
       <c r="H81" s="11">
         <v>42738</v>
       </c>
-      <c r="I81" s="4" t="s">
-        <v>13</v>
+      <c r="I81" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K81" s="14" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="L81" s="14"/>
       <c r="M81" s="4"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="9" t="s">
-        <v>218</v>
+      <c r="A82" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D82" s="4"/>
-      <c r="E82" s="9" t="s">
-        <v>221</v>
+      <c r="E82" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
-      <c r="H82" s="18" t="s">
-        <v>222</v>
+      <c r="H82" s="11">
+        <v>42738</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="K82" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L82" s="14"/>
       <c r="M82" s="4"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="C83" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D83" s="4"/>
-      <c r="E83" s="7" t="s">
-        <v>21</v>
+      <c r="E83" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="11">
-        <v>42733</v>
+      <c r="H83" s="18" t="s">
+        <v>221</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K83" s="14" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="L83" s="14"/>
       <c r="M83" s="4"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
-        <v>76</v>
+      <c r="A84" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="11">
         <v>42733</v>
@@ -6634,60 +6843,59 @@
         <v>13</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L84" s="14"/>
       <c r="M84" s="4"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
       <c r="H85" s="11">
-        <v>42725</v>
+        <v>42733</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L85" s="14"/>
       <c r="M85" s="4"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
-        <v>7</v>
+      <c r="A86" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
       <c r="H86" s="11">
         <v>42725</v>
       </c>
@@ -6695,10 +6903,10 @@
         <v>13</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="L86" s="14"/>
       <c r="M86" s="4"/>
@@ -6708,10 +6916,10 @@
         <v>7</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="7" t="s">
@@ -6726,23 +6934,23 @@
         <v>13</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K87" s="14" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="L87" s="14"/>
       <c r="M87" s="4"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" s="17" t="s">
-        <v>76</v>
+      <c r="A88" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="7" t="s">
@@ -6750,30 +6958,30 @@
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="18" t="s">
-        <v>242</v>
+      <c r="H88" s="11">
+        <v>42725</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K88" s="14" t="s">
-        <v>244</v>
+        <v>128</v>
       </c>
       <c r="L88" s="14"/>
       <c r="M88" s="4"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89" s="8" t="s">
-        <v>11</v>
+      <c r="A89" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="7" t="s">
@@ -6782,29 +6990,29 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K89" s="14" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L89" s="14"/>
       <c r="M89" s="4"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
-        <v>76</v>
+      <c r="A90" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="7" t="s">
@@ -6813,64 +7021,64 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K90" s="14" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L90" s="14"/>
       <c r="M90" s="4"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" s="9" t="s">
-        <v>218</v>
+      <c r="A91" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="D91" s="4"/>
       <c r="E91" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="11">
-        <v>42709</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>254</v>
+      <c r="H91" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K91" s="14" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L91" s="14"/>
       <c r="M91" s="4"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A92" s="17" t="s">
-        <v>76</v>
+      <c r="A92" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" s="4"/>
+        <v>252</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="E92" s="7" t="s">
         <v>21</v>
       </c>
@@ -6879,62 +7087,62 @@
       <c r="H92" s="11">
         <v>42709</v>
       </c>
-      <c r="I92" s="4" t="s">
-        <v>13</v>
+      <c r="I92" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K92" s="14" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="L92" s="14"/>
       <c r="M92" s="4"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="10" t="s">
-        <v>12</v>
+      <c r="A93" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="7" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="11">
-        <v>42705</v>
+        <v>42709</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K93" s="14" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="L93" s="14"/>
       <c r="M93" s="4"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94" s="8" t="s">
-        <v>11</v>
+      <c r="A94" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -6945,124 +7153,155 @@
         <v>13</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K94" s="14" t="s">
-        <v>267</v>
+        <v>178</v>
       </c>
       <c r="L94" s="14"/>
       <c r="M94" s="4"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="17" t="s">
-        <v>76</v>
+      <c r="A95" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="7" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="2">
-        <v>42703</v>
+      <c r="H95" s="11">
+        <v>42705</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="L95" s="14"/>
       <c r="M95" s="4"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D96" s="4"/>
+      <c r="E96" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="2">
+        <v>42703</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="K96" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="L96" s="14"/>
+      <c r="M96" s="4"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
+        <v>271</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="H97" s="2">
+        <v>42690</v>
+      </c>
+      <c r="I97" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="C96" t="s">
-        <v>19</v>
-      </c>
-      <c r="E96" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="H96" s="2">
-        <v>42690</v>
-      </c>
-      <c r="I96" t="s">
-        <v>13</v>
-      </c>
-      <c r="J96" s="19" t="s">
+      <c r="K97" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K96" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="L96" s="14"/>
+      <c r="L97" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J46" r:id="rId1"/>
-    <hyperlink ref="I35" r:id="rId2"/>
+    <hyperlink ref="J47" r:id="rId1"/>
+    <hyperlink ref="I36" r:id="rId2"/>
     <hyperlink ref="I6" r:id="rId3"/>
-    <hyperlink ref="J35" r:id="rId4"/>
+    <hyperlink ref="J36" r:id="rId4"/>
     <hyperlink ref="J6" r:id="rId5"/>
     <hyperlink ref="J2" r:id="rId6"/>
-    <hyperlink ref="I36" r:id="rId7"/>
-    <hyperlink ref="I43" r:id="rId8"/>
-    <hyperlink ref="I24" r:id="rId9"/>
-    <hyperlink ref="J25" r:id="rId10"/>
-    <hyperlink ref="J24" r:id="rId11"/>
-    <hyperlink ref="J26" r:id="rId12"/>
-    <hyperlink ref="J28" r:id="rId13"/>
-    <hyperlink ref="I80" r:id="rId14"/>
-    <hyperlink ref="J80" r:id="rId15"/>
-    <hyperlink ref="J54" r:id="rId16"/>
-    <hyperlink ref="J85" r:id="rId17"/>
-    <hyperlink ref="J89" r:id="rId18"/>
-    <hyperlink ref="J90" r:id="rId19"/>
-    <hyperlink ref="J84" r:id="rId20"/>
-    <hyperlink ref="J76" r:id="rId21"/>
-    <hyperlink ref="I76" r:id="rId22"/>
-    <hyperlink ref="J71" r:id="rId23"/>
-    <hyperlink ref="I79" r:id="rId24"/>
-    <hyperlink ref="J79" r:id="rId25"/>
-    <hyperlink ref="J75" r:id="rId26"/>
-    <hyperlink ref="J82" r:id="rId27"/>
-    <hyperlink ref="J96" r:id="rId28"/>
-    <hyperlink ref="J95" r:id="rId29"/>
-    <hyperlink ref="J94" r:id="rId30"/>
-    <hyperlink ref="J93" r:id="rId31"/>
-    <hyperlink ref="J92" r:id="rId32"/>
-    <hyperlink ref="J86" r:id="rId33"/>
-    <hyperlink ref="J91" r:id="rId34"/>
-    <hyperlink ref="I91" r:id="rId35"/>
-    <hyperlink ref="I77" r:id="rId36"/>
-    <hyperlink ref="J70" r:id="rId37"/>
-    <hyperlink ref="I68" r:id="rId38"/>
-    <hyperlink ref="J64" r:id="rId39"/>
-    <hyperlink ref="I59" r:id="rId40"/>
-    <hyperlink ref="J61" r:id="rId41"/>
-    <hyperlink ref="I49" r:id="rId42"/>
-    <hyperlink ref="J49" r:id="rId43"/>
-    <hyperlink ref="I37" r:id="rId44"/>
-    <hyperlink ref="I34" r:id="rId45"/>
-    <hyperlink ref="J34" r:id="rId46"/>
-    <hyperlink ref="J23" r:id="rId47"/>
-    <hyperlink ref="I9" r:id="rId48"/>
-    <hyperlink ref="I14" r:id="rId49"/>
+    <hyperlink ref="I37" r:id="rId7"/>
+    <hyperlink ref="I44" r:id="rId8"/>
+    <hyperlink ref="I25" r:id="rId9"/>
+    <hyperlink ref="J26" r:id="rId10"/>
+    <hyperlink ref="J25" r:id="rId11"/>
+    <hyperlink ref="J27" r:id="rId12"/>
+    <hyperlink ref="J29" r:id="rId13"/>
+    <hyperlink ref="I81" r:id="rId14"/>
+    <hyperlink ref="J81" r:id="rId15"/>
+    <hyperlink ref="J55" r:id="rId16"/>
+    <hyperlink ref="J86" r:id="rId17"/>
+    <hyperlink ref="J90" r:id="rId18"/>
+    <hyperlink ref="J91" r:id="rId19"/>
+    <hyperlink ref="J85" r:id="rId20"/>
+    <hyperlink ref="J77" r:id="rId21"/>
+    <hyperlink ref="I77" r:id="rId22"/>
+    <hyperlink ref="J72" r:id="rId23"/>
+    <hyperlink ref="I80" r:id="rId24"/>
+    <hyperlink ref="J80" r:id="rId25"/>
+    <hyperlink ref="J76" r:id="rId26"/>
+    <hyperlink ref="J83" r:id="rId27"/>
+    <hyperlink ref="J97" r:id="rId28"/>
+    <hyperlink ref="J96" r:id="rId29"/>
+    <hyperlink ref="J95" r:id="rId30"/>
+    <hyperlink ref="J94" r:id="rId31"/>
+    <hyperlink ref="J93" r:id="rId32"/>
+    <hyperlink ref="J87" r:id="rId33"/>
+    <hyperlink ref="J92" r:id="rId34"/>
+    <hyperlink ref="I92" r:id="rId35"/>
+    <hyperlink ref="I78" r:id="rId36"/>
+    <hyperlink ref="J71" r:id="rId37"/>
+    <hyperlink ref="I69" r:id="rId38"/>
+    <hyperlink ref="J65" r:id="rId39"/>
+    <hyperlink ref="I60" r:id="rId40"/>
+    <hyperlink ref="J62" r:id="rId41"/>
+    <hyperlink ref="I50" r:id="rId42"/>
+    <hyperlink ref="J50" r:id="rId43"/>
+    <hyperlink ref="I38" r:id="rId44"/>
+    <hyperlink ref="I35" r:id="rId45"/>
+    <hyperlink ref="J35" r:id="rId46"/>
+    <hyperlink ref="J24" r:id="rId47"/>
+    <hyperlink ref="I10" r:id="rId48"/>
+    <hyperlink ref="I15" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -15,7 +15,7 @@
     <sheet name="项目" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$M$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$M$48</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="386">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -2535,10 +2535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://t.cn/RXT6UjB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>领券中心v1.0</t>
     <rPh sb="0" eb="1">
       <t>ling'quan</t>
@@ -2685,16 +2681,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成方案</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fang'an</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网站联盟前台信息修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2708,13 +2694,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>xin'xi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <rPh sb="0" eb="1">
-      <t>kai'f'zhong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2809,19 +2788,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跟进排期落地</t>
-    <rPh sb="0" eb="1">
-      <t>gen'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pai'qi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>luo'di</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-52224</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2853,31 +2819,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-52629</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-50926</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-46822</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试验收，跟进上线</t>
-    <rPh sb="0" eb="1">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yan'shou</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>gen'jin'shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-48267</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2889,51 +2834,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>H5活动落地页新增模板（会员商品）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试验收，跟进上线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-49695</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>和数据分析师沟通并提出数据需求</t>
-    <rPh sb="0" eb="1">
-      <t>he</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>fen'xi'shi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>gou'tong</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>bing</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ti'chu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>xu'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://163.lu/k/O5Duc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成方案，提交开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2982,10 +2887,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://163.lu/7r9oK3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网站联盟</t>
     <rPh sb="0" eb="1">
       <t>wang'zhan</t>
@@ -3021,36 +2922,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确认需求，完成方案，提交开发</t>
-    <rPh sb="0" eb="1">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-53281</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://t.cn/RfgjXOb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3059,13 +2930,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试验收，跟进上线</t>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-48632</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MS落地页_H5品牌图自定义功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3083,15 +2947,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-53343</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-42740</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3128,25 +2984,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确认需求</t>
-  </si>
-  <si>
-    <t>讨论需求，确认需求</t>
-    <rPh sb="0" eb="1">
-      <t>tao'lun</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xu'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推荐组给到算法后进行MS后台方案设计</t>
     <rPh sb="0" eb="1">
       <t>tui'ijan'zu</t>
@@ -3213,12 +3050,178 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>讨论实现方案</t>
-    <rPh sb="0" eb="1">
-      <t>tao'lun</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi'xian</t>
+    <t>http://jira.netease.com/browse/KJDS-50926</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-48632</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-53281</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推进排期落地</t>
+    <rPh sb="0" eb="1">
+      <t>tui'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pai'qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>luo'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试验收，跟进上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榜单专辑优化</t>
+    <rPh sb="0" eb="1">
+      <t>bang'dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuan'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高榜单专辑入口流量</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bang'dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhuan'ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ru'kou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>liu'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-54142</t>
+  </si>
+  <si>
+    <t>H5活动落地页新增模板（会员商品）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RXT6UjB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-54302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/k/zGOrA4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-52629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/7r9oK3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安排交互调研</t>
+    <rPh sb="0" eb="1">
+      <t>an'pai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>diao'yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成二次运营沟通，策划完成50%</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>er'ci</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yun'ying</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gou'to'g'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-42740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营初审，需求评审，推进排期落地</t>
+    <rPh sb="0" eb="1">
+      <t>yun'ying</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chu'shen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ping'shen</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tui'jin</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>pai'qi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>luo'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划完成100%，完成内审</t>
+    <rPh sb="0" eb="1">
+      <t>ce'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>nei'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成初步方案</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chu'bu</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>fang'an</t>
@@ -3226,13 +3229,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>启动策划</t>
-    <rPh sb="0" eb="1">
-      <t>qi'dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ce'hua</t>
-    </rPh>
+    <t>策划完成100%，完成内审</t>
+    <rPh sb="0" eb="1">
+      <t>ce'hau</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>nei'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求评审</t>
+    <rPh sb="2" eb="3">
+      <t>ping'shne</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求评审</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3340,11 +3364,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="321">
+  <cellStyleXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3726,7 +3761,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="321">
+  <cellStyles count="332">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -4048,6 +4083,17 @@
     <cellStyle name="已访问的超链接" xfId="318" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="319" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="331" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4322,10 +4368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4434,7 +4480,7 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>45</v>
@@ -4443,10 +4489,10 @@
         <v>13</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>34</v>
@@ -4470,15 +4516,17 @@
         <v>9</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>365</v>
+      </c>
       <c r="H4" s="2">
         <v>42921</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>52</v>
@@ -4488,599 +4536,577 @@
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
+    <row r="5" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>308</v>
+        <v>55</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>307</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="22">
-        <v>42907</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>13</v>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H5" s="11">
+        <v>42921</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="14"/>
+        <v>311</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>11</v>
+        <v>347</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>349</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="22">
-        <v>42907</v>
-      </c>
-      <c r="I6" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>365</v>
       </c>
+      <c r="H6" s="2">
+        <v>42921</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J6" s="6" t="s">
-        <v>282</v>
+        <v>363</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L6" s="14" t="s">
         <v>34</v>
       </c>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>57</v>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>322</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>304</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>289</v>
+      </c>
       <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="22">
+        <v>42912</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="11">
-        <v>42914</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="L7" s="14" t="s">
+      <c r="F8" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="L8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="22">
-        <v>42907</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="K8" s="14" t="s">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>359</v>
-      </c>
       <c r="B9" s="4" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>18</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>334</v>
-      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="11" t="s">
-        <v>364</v>
+        <v>32</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="4"/>
+        <v>327</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
+      <c r="E10" s="12" t="s">
+        <v>346</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="H10" s="11">
-        <v>42912</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>34</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>334</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>13</v>
+      <c r="F12" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>339</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>330</v>
+        <v>374</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="6"/>
+        <v>342</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>18</v>
+        <v>353</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="H14" s="11" t="s">
+      <c r="F14" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="2">
+        <v>42935</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>339</v>
+      <c r="K15" s="15" t="s">
+        <v>326</v>
       </c>
       <c r="L15" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>351</v>
+      <c r="A16" s="17" t="s">
+        <v>323</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>8</v>
+        <v>360</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="L16" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="L20" s="14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="2">
-        <v>42935</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="6"/>
+      <c r="M20" s="4" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="4"/>
+        <v>291</v>
+      </c>
       <c r="E22" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6" t="s">
-        <v>72</v>
+      <c r="I22" t="s">
+        <v>13</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="K22" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="L22" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>310</v>
-      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>37</v>
+      <c r="A23" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>286</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="I23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>37</v>
+      <c r="A24" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>291</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="I24" t="s">
+      <c r="F24" s="4"/>
+      <c r="I24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>283</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>75</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="I25" s="6" t="s">
-        <v>79</v>
+      <c r="G25" s="4"/>
+      <c r="I25" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K25" s="14"/>
+        <v>86</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="L25" s="14" t="s">
         <v>34</v>
       </c>
@@ -5091,24 +5117,24 @@
         <v>75</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F26" s="4"/>
       <c r="I26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="L26" s="14" t="s">
         <v>34</v>
@@ -5120,25 +5146,24 @@
         <v>75</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="H27" s="18"/>
       <c r="I27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="L27" s="14" t="s">
         <v>34</v>
@@ -5150,236 +5175,240 @@
         <v>75</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="I28" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="24"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G30" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="11">
+        <v>42907</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="4" t="s">
+      <c r="J33" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="L33" s="14"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="11">
+        <v>42907</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="24"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G32" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="J34" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L34" s="14"/>
+      <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>325</v>
+      <c r="A35" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>289</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D35" s="4"/>
       <c r="E35" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="11">
-        <v>42891</v>
-      </c>
-      <c r="I35" s="19" t="s">
-        <v>324</v>
+        <v>42907</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>350</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>306</v>
+        <v>282</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>313</v>
       </c>
       <c r="L35" s="14" t="s">
         <v>34</v>
       </c>
+      <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>7</v>
+      <c r="A36" s="10" t="s">
+        <v>322</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>27</v>
+        <v>303</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="23">
-        <v>42887</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>316</v>
+      <c r="H36" s="11">
+        <v>42891</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>321</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="K36" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="4"/>
+        <v>301</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>37</v>
+      <c r="A37" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>309</v>
+        <v>27</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="11">
-        <v>42881</v>
+      <c r="H37" s="23">
+        <v>42887</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="L37" s="14"/>
       <c r="M37" s="4"/>
@@ -5389,13 +5418,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>292</v>
+        <v>50</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>276</v>
+        <v>51</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>21</v>
@@ -5406,13 +5435,13 @@
         <v>42881</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>277</v>
+        <v>71</v>
       </c>
       <c r="L38" s="14"/>
       <c r="M38" s="4"/>
@@ -5422,10 +5451,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>21</v>
@@ -5433,58 +5465,57 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="11">
-        <v>42879</v>
-      </c>
-      <c r="I39" t="s">
-        <v>13</v>
+        <v>42881</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>47</v>
+        <v>277</v>
+      </c>
+      <c r="L39" s="14"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>48</v>
+        <v>296</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="4"/>
+        <v>297</v>
+      </c>
       <c r="E40" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="11">
-        <v>42859</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>288</v>
+        <v>42879</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="K40" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="4"/>
-    </row>
-    <row r="41" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
-        <v>12</v>
+    </row>
+    <row r="41" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="7" t="s">
@@ -5492,30 +5523,30 @@
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="11" t="s">
-        <v>42</v>
+      <c r="H41" s="11">
+        <v>42859</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>46</v>
+        <v>287</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="L41" s="14"/>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>7</v>
+    <row r="42" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="7" t="s">
@@ -5523,30 +5554,30 @@
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="11">
-        <v>42849</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>13</v>
+      <c r="H42" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="L42" s="14"/>
       <c r="M42" s="4"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="7" t="s">
@@ -5555,29 +5586,29 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="11">
-        <v>42844</v>
+        <v>42849</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="L43" s="14"/>
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>37</v>
+      <c r="A44" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="7" t="s">
@@ -5586,16 +5617,16 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="11">
-        <v>42843</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>63</v>
+        <v>42844</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L44" s="14"/>
       <c r="M44" s="4"/>
@@ -5605,7 +5636,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>36</v>
@@ -5617,15 +5648,17 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="11">
-        <v>42842</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>13</v>
+        <v>42843</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="L45" s="14"/>
       <c r="M45" s="4"/>
     </row>
@@ -5634,7 +5667,7 @@
         <v>37</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>36</v>
@@ -5652,23 +5685,21 @@
         <v>13</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K46" s="14" t="s">
-        <v>53</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="K46" s="14"/>
       <c r="L46" s="14"/>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>7</v>
+      <c r="A47" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="7" t="s">
@@ -5683,23 +5714,23 @@
         <v>13</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L47" s="14"/>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="7" t="s">
@@ -5708,48 +5739,47 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="11">
-        <v>42823</v>
+        <v>42842</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="L48" s="14"/>
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>37</v>
+      <c r="A49" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D49" s="4"/>
       <c r="E49" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
       <c r="H49" s="11">
-        <v>42821</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>108</v>
+        <v>42823</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="L49" s="14"/>
       <c r="M49" s="4"/>
@@ -5759,41 +5789,42 @@
         <v>37</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="E50" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
       <c r="H50" s="11">
-        <v>42818</v>
+        <v>42821</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="L50" s="14"/>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>7</v>
+      <c r="A51" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="7" t="s">
@@ -5802,16 +5833,16 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="11">
-        <v>42817</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>13</v>
+        <v>42818</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L51" s="14"/>
       <c r="M51" s="4"/>
@@ -5821,10 +5852,10 @@
         <v>7</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="7" t="s">
@@ -5833,35 +5864,36 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="11">
-        <v>42810</v>
+        <v>42817</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="L52" s="14"/>
       <c r="M52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
-        <v>37</v>
+      <c r="A53" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
       <c r="H53" s="11">
         <v>42810</v>
       </c>
@@ -5869,10 +5901,10 @@
         <v>13</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L53" s="14"/>
       <c r="M53" s="4"/>
@@ -5882,7 +5914,7 @@
         <v>37</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>24</v>
@@ -5892,37 +5924,37 @@
         <v>21</v>
       </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
       <c r="H54" s="11">
-        <v>42809</v>
+        <v>42810</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="L54" s="14"/>
       <c r="M54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>7</v>
+      <c r="A55" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
       <c r="H55" s="11">
         <v>42809</v>
       </c>
@@ -5930,23 +5962,23 @@
         <v>13</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="L55" s="14"/>
       <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="7" t="s">
@@ -5960,23 +5992,23 @@
         <v>13</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="L56" s="14"/>
       <c r="M56" s="4"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="7" t="s">
@@ -5984,36 +6016,35 @@
       </c>
       <c r="F57" s="4"/>
       <c r="H57" s="11">
-        <v>42808</v>
+        <v>42809</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>281</v>
+        <v>132</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="L57" s="14"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
-        <v>135</v>
+      <c r="A58" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
       <c r="H58" s="11">
         <v>42808</v>
       </c>
@@ -6021,27 +6052,25 @@
         <v>13</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>138</v>
+        <v>281</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="L58" s="14"/>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
-        <v>37</v>
+      <c r="A59" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D59" s="4"/>
       <c r="E59" s="7" t="s">
         <v>21</v>
       </c>
@@ -6050,29 +6079,31 @@
       <c r="H59" s="11">
         <v>42808</v>
       </c>
-      <c r="I59" s="6" t="s">
-        <v>140</v>
+      <c r="I59" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L59" s="14"/>
       <c r="M59" s="4"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>129</v>
+      <c r="A60" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="E60" s="7" t="s">
         <v>21</v>
       </c>
@@ -6082,90 +6113,90 @@
         <v>42808</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="L60" s="14"/>
       <c r="M60" s="4"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
-        <v>37</v>
+      <c r="A61" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D61" s="4"/>
       <c r="E61" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="11">
-        <v>42797</v>
+        <v>42808</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="L61" s="14"/>
       <c r="M61" s="4"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="17" t="s">
-        <v>148</v>
+      <c r="A62" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D62" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="E62" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="11">
-        <v>42789</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>13</v>
+        <v>42797</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L62" s="14"/>
       <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="17" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="7" t="s">
@@ -6180,7 +6211,7 @@
         <v>13</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K63" s="14" t="s">
         <v>33</v>
@@ -6189,18 +6220,16 @@
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
-        <v>37</v>
+      <c r="A64" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D64" s="4"/>
       <c r="E64" s="7" t="s">
         <v>21</v>
       </c>
@@ -6209,45 +6238,47 @@
       <c r="H64" s="11">
         <v>42789</v>
       </c>
-      <c r="I64" s="6" t="s">
-        <v>108</v>
+      <c r="I64" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L64" s="14"/>
       <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
-        <v>7</v>
+      <c r="A65" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D65" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="E65" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="11">
-        <v>42787</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>13</v>
+        <v>42789</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="L65" s="14"/>
       <c r="M65" s="4"/>
@@ -6257,10 +6288,10 @@
         <v>7</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="7" t="s">
@@ -6275,10 +6306,10 @@
         <v>13</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K66" s="14" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="L66" s="14"/>
       <c r="M66" s="4"/>
@@ -6288,10 +6319,10 @@
         <v>7</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="7" t="s">
@@ -6306,40 +6337,41 @@
         <v>13</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="L67" s="14"/>
       <c r="M67" s="4"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
-        <v>37</v>
+      <c r="A68" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
       <c r="H68" s="11">
-        <v>42782</v>
+        <v>42787</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="L68" s="14"/>
       <c r="M68" s="4"/>
@@ -6349,27 +6381,24 @@
         <v>37</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="D69" s="4"/>
       <c r="E69" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
       <c r="H69" s="11">
         <v>42782</v>
       </c>
-      <c r="I69" s="6" t="s">
-        <v>170</v>
+      <c r="I69" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K69" s="14" t="s">
         <v>30</v>
@@ -6378,16 +6407,18 @@
       <c r="M69" s="4"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
-        <v>75</v>
+      <c r="A70" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D70" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="E70" s="7" t="s">
         <v>21</v>
       </c>
@@ -6396,59 +6427,59 @@
       <c r="H70" s="11">
         <v>42782</v>
       </c>
-      <c r="I70" s="4" t="s">
-        <v>13</v>
+      <c r="I70" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K70" s="14" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="L70" s="14"/>
       <c r="M70" s="4"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" s="10" t="s">
-        <v>12</v>
+      <c r="A71" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>176</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D71" s="4"/>
       <c r="E71" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="11">
-        <v>42781</v>
+        <v>42782</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="19" t="s">
-        <v>177</v>
+      <c r="J71" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="K71" s="14" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="L71" s="14"/>
       <c r="M71" s="4"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
-        <v>7</v>
+      <c r="A72" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D72" s="4"/>
+        <v>176</v>
+      </c>
       <c r="E72" s="7" t="s">
         <v>21</v>
       </c>
@@ -6460,11 +6491,11 @@
       <c r="I72" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="6" t="s">
-        <v>180</v>
+      <c r="J72" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="K72" s="14" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="L72" s="14"/>
       <c r="M72" s="4"/>
@@ -6477,7 +6508,7 @@
         <v>179</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="7" t="s">
@@ -6486,16 +6517,16 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="11">
-        <v>42779</v>
+        <v>42781</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="L73" s="14"/>
       <c r="M73" s="4"/>
@@ -6505,14 +6536,12 @@
         <v>7</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D74" s="4"/>
       <c r="E74" s="7" t="s">
         <v>21</v>
       </c>
@@ -6521,11 +6550,11 @@
       <c r="H74" s="11">
         <v>42779</v>
       </c>
-      <c r="I74" s="6" t="s">
-        <v>184</v>
+      <c r="I74" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K74" s="14" t="s">
         <v>128</v>
@@ -6533,15 +6562,15 @@
       <c r="L74" s="14"/>
       <c r="M74" s="4"/>
     </row>
-    <row r="75" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="10" t="s">
-        <v>12</v>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>107</v>
@@ -6552,31 +6581,33 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="11">
-        <v>42754</v>
+        <v>42779</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="L75" s="14"/>
       <c r="M75" s="4"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="8" t="s">
-        <v>11</v>
+    <row r="76" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D76" s="4"/>
+        <v>187</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="E76" s="7" t="s">
         <v>21</v>
       </c>
@@ -6585,124 +6616,124 @@
       <c r="H76" s="11">
         <v>42754</v>
       </c>
-      <c r="I76" s="4" t="s">
-        <v>13</v>
+      <c r="I76" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L76" s="14"/>
       <c r="M76" s="4"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="10" t="s">
-        <v>12</v>
+      <c r="A77" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>196</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="D77" s="4"/>
       <c r="E77" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>198</v>
+      <c r="H77" s="11">
+        <v>42754</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L77" s="14"/>
       <c r="M77" s="4"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
-        <v>37</v>
+      <c r="A78" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
-      <c r="H78" s="11">
-        <v>42754</v>
+      <c r="H78" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="L78" s="14"/>
       <c r="M78" s="4"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="17" t="s">
-        <v>75</v>
+      <c r="A79" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D79" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="E79" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="11">
-        <v>42753</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>13</v>
+        <v>42754</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K79" s="14" t="s">
-        <v>194</v>
+        <v>30</v>
       </c>
       <c r="L79" s="14"/>
       <c r="M79" s="4"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
-        <v>7</v>
+      <c r="A80" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="7" t="s">
@@ -6711,16 +6742,16 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="11">
-        <v>42738</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>207</v>
+        <v>42753</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K80" s="14" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="L80" s="14"/>
       <c r="M80" s="4"/>
@@ -6730,14 +6761,12 @@
         <v>7</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D81" s="4"/>
       <c r="E81" s="7" t="s">
         <v>21</v>
       </c>
@@ -6747,28 +6776,30 @@
         <v>42738</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K81" s="14" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="L81" s="14"/>
       <c r="M81" s="4"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="17" t="s">
-        <v>75</v>
+      <c r="A82" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D82" s="4"/>
+        <v>210</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="E82" s="7" t="s">
         <v>21</v>
       </c>
@@ -6777,42 +6808,42 @@
       <c r="H82" s="11">
         <v>42738</v>
       </c>
-      <c r="I82" s="4" t="s">
-        <v>13</v>
+      <c r="I82" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K82" s="14" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="L82" s="14"/>
       <c r="M82" s="4"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="9" t="s">
-        <v>217</v>
+      <c r="A83" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D83" s="4"/>
-      <c r="E83" s="9" t="s">
-        <v>220</v>
+      <c r="E83" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="18" t="s">
-        <v>221</v>
+      <c r="H83" s="11">
+        <v>42738</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K83" s="14" t="s">
         <v>194</v>
@@ -6825,46 +6856,47 @@
         <v>217</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D84" s="4"/>
-      <c r="E84" s="7" t="s">
-        <v>21</v>
+      <c r="E84" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
-      <c r="H84" s="11">
-        <v>42733</v>
+      <c r="H84" s="18" t="s">
+        <v>221</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="L84" s="14"/>
       <c r="M84" s="4"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="17" t="s">
-        <v>75</v>
+      <c r="A85" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="11">
         <v>42733</v>
@@ -6873,10 +6905,10 @@
         <v>13</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L85" s="14"/>
       <c r="M85" s="4"/>
@@ -6886,47 +6918,46 @@
         <v>75</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
       <c r="H86" s="11">
-        <v>42725</v>
+        <v>42733</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L86" s="14"/>
       <c r="M86" s="4"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
-        <v>7</v>
+      <c r="A87" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
       <c r="H87" s="11">
         <v>42725</v>
       </c>
@@ -6934,10 +6965,10 @@
         <v>13</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K87" s="14" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="L87" s="14"/>
       <c r="M87" s="4"/>
@@ -6947,10 +6978,10 @@
         <v>7</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="7" t="s">
@@ -6965,23 +6996,23 @@
         <v>13</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K88" s="14" t="s">
-        <v>128</v>
+        <v>213</v>
       </c>
       <c r="L88" s="14"/>
       <c r="M88" s="4"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89" s="17" t="s">
-        <v>75</v>
+      <c r="A89" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="7" t="s">
@@ -6989,30 +7020,30 @@
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
-      <c r="H89" s="18" t="s">
-        <v>241</v>
+      <c r="H89" s="11">
+        <v>42725</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K89" s="14" t="s">
-        <v>243</v>
+        <v>128</v>
       </c>
       <c r="L89" s="14"/>
       <c r="M89" s="4"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A90" s="8" t="s">
-        <v>11</v>
+      <c r="A90" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="7" t="s">
@@ -7027,23 +7058,23 @@
         <v>13</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K90" s="14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L90" s="14"/>
       <c r="M90" s="4"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" s="17" t="s">
-        <v>75</v>
+      <c r="A91" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="7" t="s">
@@ -7058,58 +7089,58 @@
         <v>13</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K91" s="14" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L91" s="14"/>
       <c r="M91" s="4"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A92" s="9" t="s">
-        <v>217</v>
+      <c r="A92" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="D92" s="4"/>
       <c r="E92" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="11">
-        <v>42709</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>253</v>
+      <c r="H92" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K92" s="14" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L92" s="14"/>
       <c r="M92" s="4"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="17" t="s">
-        <v>75</v>
+      <c r="A93" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="4"/>
+        <v>252</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="E93" s="7" t="s">
         <v>21</v>
       </c>
@@ -7118,62 +7149,62 @@
       <c r="H93" s="11">
         <v>42709</v>
       </c>
-      <c r="I93" s="4" t="s">
-        <v>13</v>
+      <c r="I93" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K93" s="14" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="L93" s="14"/>
       <c r="M93" s="4"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94" s="10" t="s">
-        <v>12</v>
+      <c r="A94" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>259</v>
+        <v>19</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="7" t="s">
-        <v>260</v>
+        <v>21</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="11">
-        <v>42705</v>
+        <v>42709</v>
       </c>
       <c r="I94" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K94" s="14" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="L94" s="14"/>
       <c r="M94" s="4"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="8" t="s">
-        <v>11</v>
+      <c r="A95" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
@@ -7184,124 +7215,155 @@
         <v>13</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>266</v>
+        <v>178</v>
       </c>
       <c r="L95" s="14"/>
       <c r="M95" s="4"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96" s="17" t="s">
-        <v>75</v>
+      <c r="A96" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="7" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
-      <c r="H96" s="2">
-        <v>42703</v>
+      <c r="H96" s="11">
+        <v>42705</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K96" s="14" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L96" s="14"/>
       <c r="M96" s="4"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97" s="20" t="s">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="2">
+        <v>42703</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="K97" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="L97" s="14"/>
+      <c r="M97" s="4"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>271</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C98" t="s">
         <v>19</v>
       </c>
-      <c r="E97" s="21" t="s">
+      <c r="E98" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="H97" s="2">
+      <c r="H98" s="2">
         <v>42690</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I98" t="s">
         <v>13</v>
       </c>
-      <c r="J97" s="19" t="s">
+      <c r="J98" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="K97" s="14" t="s">
+      <c r="K98" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="L97" s="14"/>
+      <c r="L98" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J47" r:id="rId1"/>
-    <hyperlink ref="I36" r:id="rId2"/>
-    <hyperlink ref="I6" r:id="rId3"/>
-    <hyperlink ref="J36" r:id="rId4"/>
-    <hyperlink ref="J6" r:id="rId5"/>
+    <hyperlink ref="J48" r:id="rId1"/>
+    <hyperlink ref="I37" r:id="rId2"/>
+    <hyperlink ref="I35" r:id="rId3"/>
+    <hyperlink ref="J37" r:id="rId4"/>
+    <hyperlink ref="J35" r:id="rId5"/>
     <hyperlink ref="J2" r:id="rId6"/>
-    <hyperlink ref="I37" r:id="rId7"/>
-    <hyperlink ref="I44" r:id="rId8"/>
-    <hyperlink ref="I25" r:id="rId9"/>
-    <hyperlink ref="J26" r:id="rId10"/>
-    <hyperlink ref="J25" r:id="rId11"/>
-    <hyperlink ref="J27" r:id="rId12"/>
-    <hyperlink ref="J29" r:id="rId13"/>
-    <hyperlink ref="I81" r:id="rId14"/>
-    <hyperlink ref="J81" r:id="rId15"/>
-    <hyperlink ref="J55" r:id="rId16"/>
-    <hyperlink ref="J86" r:id="rId17"/>
-    <hyperlink ref="J90" r:id="rId18"/>
-    <hyperlink ref="J91" r:id="rId19"/>
-    <hyperlink ref="J85" r:id="rId20"/>
-    <hyperlink ref="J77" r:id="rId21"/>
-    <hyperlink ref="I77" r:id="rId22"/>
-    <hyperlink ref="J72" r:id="rId23"/>
-    <hyperlink ref="I80" r:id="rId24"/>
-    <hyperlink ref="J80" r:id="rId25"/>
-    <hyperlink ref="J76" r:id="rId26"/>
-    <hyperlink ref="J83" r:id="rId27"/>
-    <hyperlink ref="J97" r:id="rId28"/>
-    <hyperlink ref="J96" r:id="rId29"/>
-    <hyperlink ref="J95" r:id="rId30"/>
-    <hyperlink ref="J94" r:id="rId31"/>
-    <hyperlink ref="J93" r:id="rId32"/>
-    <hyperlink ref="J87" r:id="rId33"/>
-    <hyperlink ref="J92" r:id="rId34"/>
-    <hyperlink ref="I92" r:id="rId35"/>
-    <hyperlink ref="I78" r:id="rId36"/>
-    <hyperlink ref="J71" r:id="rId37"/>
-    <hyperlink ref="I69" r:id="rId38"/>
-    <hyperlink ref="J65" r:id="rId39"/>
-    <hyperlink ref="I60" r:id="rId40"/>
-    <hyperlink ref="J62" r:id="rId41"/>
-    <hyperlink ref="I50" r:id="rId42"/>
-    <hyperlink ref="J50" r:id="rId43"/>
-    <hyperlink ref="I38" r:id="rId44"/>
-    <hyperlink ref="I35" r:id="rId45"/>
-    <hyperlink ref="J35" r:id="rId46"/>
-    <hyperlink ref="J24" r:id="rId47"/>
-    <hyperlink ref="I10" r:id="rId48"/>
-    <hyperlink ref="I15" r:id="rId49"/>
+    <hyperlink ref="I38" r:id="rId7"/>
+    <hyperlink ref="I45" r:id="rId8"/>
+    <hyperlink ref="I23" r:id="rId9"/>
+    <hyperlink ref="J24" r:id="rId10"/>
+    <hyperlink ref="J23" r:id="rId11"/>
+    <hyperlink ref="J25" r:id="rId12"/>
+    <hyperlink ref="J27" r:id="rId13"/>
+    <hyperlink ref="I82" r:id="rId14"/>
+    <hyperlink ref="J82" r:id="rId15"/>
+    <hyperlink ref="J56" r:id="rId16"/>
+    <hyperlink ref="J87" r:id="rId17"/>
+    <hyperlink ref="J91" r:id="rId18"/>
+    <hyperlink ref="J92" r:id="rId19"/>
+    <hyperlink ref="J86" r:id="rId20"/>
+    <hyperlink ref="J78" r:id="rId21"/>
+    <hyperlink ref="I78" r:id="rId22"/>
+    <hyperlink ref="J73" r:id="rId23"/>
+    <hyperlink ref="I81" r:id="rId24"/>
+    <hyperlink ref="J81" r:id="rId25"/>
+    <hyperlink ref="J77" r:id="rId26"/>
+    <hyperlink ref="J84" r:id="rId27"/>
+    <hyperlink ref="J98" r:id="rId28"/>
+    <hyperlink ref="J97" r:id="rId29"/>
+    <hyperlink ref="J96" r:id="rId30"/>
+    <hyperlink ref="J95" r:id="rId31"/>
+    <hyperlink ref="J94" r:id="rId32"/>
+    <hyperlink ref="J88" r:id="rId33"/>
+    <hyperlink ref="J93" r:id="rId34"/>
+    <hyperlink ref="I93" r:id="rId35"/>
+    <hyperlink ref="I79" r:id="rId36"/>
+    <hyperlink ref="J72" r:id="rId37"/>
+    <hyperlink ref="I70" r:id="rId38"/>
+    <hyperlink ref="J66" r:id="rId39"/>
+    <hyperlink ref="I61" r:id="rId40"/>
+    <hyperlink ref="J63" r:id="rId41"/>
+    <hyperlink ref="I51" r:id="rId42"/>
+    <hyperlink ref="J51" r:id="rId43"/>
+    <hyperlink ref="I39" r:id="rId44"/>
+    <hyperlink ref="I36" r:id="rId45"/>
+    <hyperlink ref="J36" r:id="rId46"/>
+    <hyperlink ref="J22" r:id="rId47"/>
+    <hyperlink ref="I7" r:id="rId48"/>
+    <hyperlink ref="I12" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-7340" windowWidth="51200" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="42960" yWindow="-900" windowWidth="33600" windowHeight="20440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$M$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$M$57</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="402">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -479,10 +479,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-38484</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1739,10 +1735,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017/1/19 (App3.5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1899,53 +1891,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>导入用户的初级工具</t>
-    <rPh sb="0" eb="1">
-      <t>dao'ru</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yong'hu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>de</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>chu'ji</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>gong'ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷启动工具</t>
-    <rPh sb="0" eb="1">
-      <t>leng'qi'dong</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>gong'ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已撤销</t>
-    <rPh sb="0" eb="1">
-      <t>yi'jing</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>che'xiao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-32666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>考拉微商V1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2350,10 +2295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冯子龙/关宁</t>
     <rPh sb="0" eb="1">
       <t>feng'zi'long</t>
@@ -2622,22 +2563,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>还有一小部分没做完</t>
-    <rPh sb="0" eb="1">
-      <t>hai'you</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi'xiao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bu'fen</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>mei'zuo'wan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-33233</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2671,13 +2596,6 @@
   </si>
   <si>
     <t>http://t.cn/RfjEWKM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划中</t>
-    <rPh sb="0" eb="1">
-      <t>ce'hua'zhong</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2733,35 +2651,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品推荐算法优化</t>
-    <rPh sb="0" eb="1">
-      <t>shang'pin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tui'jian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>suan'fa</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>you'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高页面转化</t>
-    <rPh sb="0" eb="1">
-      <t>ti'gao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ye'mian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhuan'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陈仁广/王婷英</t>
     <rPh sb="0" eb="1">
       <t>chen'ren'guang</t>
@@ -2773,10 +2662,6 @@
   </si>
   <si>
     <t>http://jira.netease.com/browse/KJDS-51739</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H5活动模板_领券弹窗样式优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2819,10 +2704,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-46822</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-48267</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2961,57 +2842,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-46214</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推进主站配合给到接口</t>
-    <rPh sb="0" eb="1">
-      <t>tui'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhu'zhan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pei'he</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>gei'dao</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jie'kou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐组给到算法后进行MS后台方案设计</t>
-    <rPh sb="0" eb="1">
-      <t>tui'ijan'zu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>gei'dao</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>suan'fa</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jin'xing</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>hou'tai</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>she'ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加强主站流量转化</t>
     <rPh sb="0" eb="1">
       <t>jia'qiang</t>
@@ -3058,40 +2888,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-53281</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推进排期落地</t>
-    <rPh sb="0" eb="1">
-      <t>tui'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pai'qi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>luo'di</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试验收，跟进上线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>榜单专辑优化</t>
-    <rPh sb="0" eb="1">
-      <t>bang'dan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhuan'ji</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>you'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提高榜单专辑入口流量</t>
     <rPh sb="0" eb="1">
       <t>ti'gao</t>
@@ -3111,152 +2907,484 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>H5活动落地页新增模板（会员商品）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RXT6UjB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-52629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/7r9oK3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-42740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高流量转化</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'liang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhuan'hau</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-54943</t>
+  </si>
+  <si>
+    <t>https://163.lu/k/zGOrA4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-54302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS落地页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持工厂店项目</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'chang'dian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang'mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_自动购买积分功能优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王蝶丽/李丽品</t>
+    <rPh sb="0" eb="1">
+      <t>wang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>li'li'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-55261</t>
+  </si>
+  <si>
+    <t>优化前台展示，提高转化</t>
+    <rPh sb="0" eb="1">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qian'tai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhan'shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhuan'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主站接口评估后暂时不可用，暂停此任务</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'zhan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ping'gu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zan'shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ke'yong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zan'ting</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-46214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-46822</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-53281</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5活动模板视觉优化</t>
+    <rPh sb="6" eb="7">
+      <t>shi'jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5活动模板_领券弹窗样式优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地页满减标签显示优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS落地页新增工厂店标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求在7月底之前上线</t>
+    <rPh sb="0" eb="1">
+      <t>yao'qiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yue'di</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi'qian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://jira.netease.com/browse/KJDS-54142</t>
-  </si>
-  <si>
-    <t>H5活动落地页新增模板（会员商品）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://t.cn/RXT6UjB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-54302</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://163.lu/k/zGOrA4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-52629</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://163.lu/7r9oK3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安排交互调研</t>
-    <rPh sb="0" eb="1">
-      <t>an'pai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jiao'hu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>diao'yan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成二次运营沟通，策划完成50%</t>
-    <rPh sb="0" eb="1">
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增模板，提高页面转化</t>
+    <rPh sb="0" eb="1">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo'ban</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ye'mian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhuan'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_身份实名校验加限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高接口风控水平</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>feng'kong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shui'png</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/k/QUZHS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/k/vjiKF4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增模板，提高运营配置效率</t>
+    <rPh sb="0" eb="1">
+      <t>xin'zegn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo'ban</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yun'ying</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiao'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈仁广/周湘琳</t>
+    <rPh sb="0" eb="1">
+      <t>chen'ren'guang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhou'xiang'lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-55218</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-55201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/k/AgF4Z1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5活动模板新增（品牌购、图片/商品轮播）</t>
+    <rPh sb="2" eb="3">
+      <t>huo'dng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mo'ban</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pin'pai'gou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gou'wu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tu'pian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shang'pin</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>lun'bo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5活动模板新增（店铺一排二）</t>
+    <rPh sb="2" eb="3">
+      <t>huo'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mo'ban</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dian'pu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi'pai'er</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场</t>
+    <rPh sb="0" eb="1">
+      <t>shi'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持企业合作，拉新和促销</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'ye</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he'zuo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>la'xin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>he</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cu'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>818专辑优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业会员专享折扣</t>
+    <rPh sb="0" eb="1">
+      <t>qi'ye</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui'yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhuan'xinag</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhe'kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持网易支付合作</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wang'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-56377</t>
+  </si>
+  <si>
+    <t>确认需求，完成方案</t>
+    <rPh sb="0" eb="1">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司徒/关宁</t>
+    <rPh sb="0" eb="1">
+      <t>si'tu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>guan'ning</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给网易推手提供新的接口信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求评审</t>
+    <rPh sb="0" eb="1">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认需求，完成方案</t>
+    <rPh sb="0" eb="1">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
       <t>wan'cheng</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>er'ci</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yun'ying</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>gou'to'g'm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-42740</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营初审，需求评审，推进排期落地</t>
-    <rPh sb="0" eb="1">
-      <t>yun'ying</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chu'shen</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xu'qiu</t>
-    </rPh>
     <rPh sb="7" eb="8">
-      <t>ping'shen</t>
-    </rPh>
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-55063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-55717</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划中</t>
+    <rPh sb="0" eb="1">
+      <t>ce'hua'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS落地页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS落地页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS落地页配置优化（三期）</t>
     <rPh sb="10" eb="11">
-      <t>tui'jin</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>pai'qi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>luo'di</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划完成100%，完成内审</t>
-    <rPh sb="0" eb="1">
-      <t>ce'hua</t>
-    </rPh>
-    <rPh sb="2" eb="3">
+      <t>san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成方案</t>
+    <rPh sb="0" eb="1">
       <t>wan'cheng</t>
     </rPh>
-    <rPh sb="9" eb="10">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>nei'shen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成初步方案</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chu'bu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
+    <rPh sb="2" eb="3">
       <t>fang'an</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划完成100%，完成内审</t>
-    <rPh sb="0" eb="1">
-      <t>ce'hau</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>nei'shen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求评审</t>
-    <rPh sb="2" eb="3">
-      <t>ping'shne</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求评审</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3364,7 +3492,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="332">
+  <cellStyleXfs count="368">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3697,8 +3825,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3751,9 +3915,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3761,7 +3922,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="332">
+  <cellStyles count="368">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -4094,6 +4255,42 @@
     <cellStyle name="已访问的超链接" xfId="329" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="330" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="367" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4368,10 +4565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4382,7 +4579,7 @@
     <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="47.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="38.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" style="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="15" bestFit="1" customWidth="1"/>
@@ -4435,207 +4632,170 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>278</v>
+        <v>358</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
+      <c r="H2" s="2">
+        <v>42956</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>28</v>
+        <v>379</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>374</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>45</v>
+      <c r="G3" s="4"/>
+      <c r="H3" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>355</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="K3" s="14"/>
       <c r="L3" s="14" t="s">
         <v>34</v>
       </c>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
+      <c r="A4" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>73</v>
+        <v>310</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>365</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="2">
-        <v>42921</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>370</v>
+        <v>42950</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>354</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="L4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>57</v>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>55</v>
+        <v>367</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>18</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="H5" s="11">
-        <v>42921</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>314</v>
+      <c r="G5" s="4"/>
+      <c r="H5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>347</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>316</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>18</v>
+      </c>
       <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="H6" s="2">
-        <v>42921</v>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="L6" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="L6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>365</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="22">
-        <v>42912</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>302</v>
+      <c r="H7" s="2">
+        <v>42943</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>34</v>
@@ -4643,31 +4803,26 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>379</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="H8" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>373</v>
+        <v>329</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>34</v>
@@ -4675,106 +4830,110 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>339</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>8</v>
+        <v>323</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="11" t="s">
-        <v>32</v>
+      <c r="H9" s="2">
+        <v>42943</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>327</v>
+        <v>340</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>346</v>
+        <v>352</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="6"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>357</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>332</v>
+        <v>395</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>34</v>
       </c>
+      <c r="M11" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>383</v>
-      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>34</v>
@@ -4782,330 +4941,331 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>34</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>322</v>
+        <v>398</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>34</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>323</v>
+      <c r="A15" s="10" t="s">
+        <v>399</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="2">
-        <v>42935</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>34</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="6"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="2">
+        <v>42940</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="6" t="s">
-        <v>368</v>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="2">
+        <v>42950</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A19" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>37</v>
+      <c r="A20" s="17" t="s">
+        <v>384</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>392</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>388</v>
+      </c>
       <c r="E20" s="4" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="6" t="s">
-        <v>72</v>
+      <c r="H20" s="2">
+        <v>42949</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="L20" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="L20" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="I22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>283</v>
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>75</v>
+      <c r="A23" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="I23" s="6" t="s">
-        <v>79</v>
+      <c r="G23" s="4"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K23" s="14"/>
+        <v>351</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>341</v>
+      </c>
       <c r="L23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="M23" s="4"/>
+      <c r="M23" s="4" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>75</v>
+      <c r="A24" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="L24" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="M24" s="4"/>
+      <c r="M24" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>75</v>
+      <c r="A25" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="I25" s="4" t="s">
-        <v>13</v>
+      <c r="H25" s="11"/>
+      <c r="I25" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>86</v>
+        <v>267</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="L25" s="14" t="s">
         <v>34</v>
@@ -5113,381 +5273,349 @@
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>75</v>
+      <c r="A26" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>87</v>
+        <v>277</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="4"/>
+        <v>278</v>
+      </c>
       <c r="E26" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="I26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="I27" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="J27" s="6" t="s">
-        <v>95</v>
+        <v>287</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M27" s="4"/>
+        <v>275</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="C28" s="4" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="I28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
+      <c r="L28" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>12</v>
+      <c r="A29" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="24"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
+      <c r="I29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G30" s="4" t="s">
-        <v>294</v>
-      </c>
+      <c r="A30" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
       <c r="I30" s="4" t="s">
-        <v>284</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="I31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>11</v>
+      <c r="A32" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>317</v>
+        <v>96</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>318</v>
+        <v>97</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="11">
-        <v>42907</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>319</v>
-      </c>
+      <c r="E33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>7</v>
+      <c r="A34" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>307</v>
+        <v>99</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="7" t="s">
-        <v>21</v>
+        <v>76</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="11">
-        <v>42907</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>52</v>
-      </c>
+      <c r="G34" s="23"/>
+      <c r="K34" s="14"/>
       <c r="L34" s="14"/>
-      <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="11">
-        <v>42907</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="11">
-        <v>42891</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="L36" s="14" t="s">
-        <v>34</v>
+      <c r="G35" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="23">
-        <v>42887</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="K37" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>37</v>
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>308</v>
+        <v>54</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D38" s="4"/>
       <c r="E38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="11">
-        <v>42881</v>
+        <v>42921</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>280</v>
+        <v>364</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L38" s="14"/>
+        <v>302</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>37</v>
+    <row r="39" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>333</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>275</v>
+        <v>334</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>276</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="D39" s="4"/>
       <c r="E39" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="11">
-        <v>42881</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>299</v>
+        <v>42921</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>293</v>
+        <v>365</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="L39" s="14"/>
+        <v>302</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>37</v>
+      <c r="A40" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>296</v>
+        <v>72</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>297</v>
+        <v>69</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>21</v>
@@ -5495,58 +5623,57 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="11">
-        <v>42879</v>
-      </c>
-      <c r="I40" t="s">
-        <v>13</v>
+        <v>42914</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="J40" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L40" s="14"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="K40" s="14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="B41" s="4" t="s">
-        <v>48</v>
+        <v>296</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="4"/>
+        <v>281</v>
+      </c>
       <c r="E41" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="11">
-        <v>42859</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>288</v>
+        <v>42912</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>294</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="K41" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="L41" s="14"/>
-      <c r="M41" s="4"/>
-    </row>
-    <row r="42" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
-        <v>12</v>
+        <v>322</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>18</v>
+        <v>308</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="7" t="s">
@@ -5554,30 +5681,30 @@
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>43</v>
+      <c r="H42" s="11">
+        <v>42907</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>46</v>
+        <v>344</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>44</v>
+        <v>309</v>
       </c>
       <c r="L42" s="14"/>
       <c r="M42" s="4"/>
     </row>
-    <row r="43" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>38</v>
+        <v>299</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>39</v>
+        <v>298</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="7" t="s">
@@ -5586,29 +5713,29 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="11">
-        <v>42849</v>
+        <v>42907</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>65</v>
+        <v>345</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="L43" s="14"/>
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>7</v>
+      <c r="A44" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>66</v>
+        <v>337</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="7" t="s">
@@ -5617,77 +5744,79 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="11">
-        <v>42844</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>13</v>
+        <v>42907</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>336</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>68</v>
+        <v>274</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>52</v>
+        <v>304</v>
       </c>
       <c r="L44" s="14"/>
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
-        <v>37</v>
+      <c r="A45" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>56</v>
+        <v>295</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="4"/>
+        <v>281</v>
+      </c>
       <c r="E45" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="11">
-        <v>42843</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>63</v>
+        <v>42891</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>311</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K45" s="14" t="s">
-        <v>53</v>
+        <v>293</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>297</v>
       </c>
       <c r="L45" s="14"/>
-      <c r="M45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
-        <v>37</v>
+      <c r="A46" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="E46" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="11">
-        <v>42842</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>13</v>
+      <c r="H46" s="22">
+        <v>42887</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>306</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K46" s="14"/>
+        <v>301</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="L46" s="14"/>
       <c r="M46" s="4"/>
     </row>
@@ -5696,41 +5825,43 @@
         <v>37</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="E47" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="11">
-        <v>42842</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>13</v>
+        <v>42881</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="L47" s="14"/>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>7</v>
+      <c r="A48" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="7" t="s">
@@ -5739,92 +5870,88 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="11">
-        <v>42842</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>13</v>
+        <v>42881</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>64</v>
+        <v>285</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>31</v>
+        <v>269</v>
       </c>
       <c r="L48" s="14"/>
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>101</v>
+      <c r="A49" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>102</v>
+        <v>288</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="4"/>
+        <v>289</v>
+      </c>
       <c r="E49" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="11">
-        <v>42823</v>
-      </c>
-      <c r="I49" s="4" t="s">
+        <v>42879</v>
+      </c>
+      <c r="I49" t="s">
         <v>13</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>104</v>
+        <v>303</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="L49" s="14"/>
-      <c r="M49" s="4"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>37</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D50" s="4"/>
       <c r="E50" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
       <c r="H50" s="11">
-        <v>42821</v>
+        <v>42859</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>109</v>
+        <v>279</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>30</v>
+        <v>275</v>
       </c>
       <c r="L50" s="14"/>
       <c r="M50" s="4"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>37</v>
+    <row r="51" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="7" t="s">
@@ -5832,30 +5959,30 @@
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="11">
-        <v>42818</v>
+      <c r="H51" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L51" s="14"/>
       <c r="M51" s="4"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="7" t="s">
@@ -5864,16 +5991,16 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="11">
-        <v>42817</v>
+        <v>42849</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="L52" s="14"/>
       <c r="M52" s="4"/>
@@ -5883,10 +6010,10 @@
         <v>7</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="7" t="s">
@@ -5895,16 +6022,16 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="11">
-        <v>42810</v>
+        <v>42844</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="L53" s="14"/>
       <c r="M53" s="4"/>
@@ -5914,27 +6041,28 @@
         <v>37</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
       <c r="H54" s="11">
-        <v>42810</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>13</v>
+        <v>42843</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="L54" s="14"/>
       <c r="M54" s="4"/>
@@ -5944,10 +6072,10 @@
         <v>37</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="7" t="s">
@@ -5956,137 +6084,139 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="11">
-        <v>42809</v>
+        <v>42842</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="K55" s="14" t="s">
-        <v>30</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="K55" s="14"/>
       <c r="L55" s="14"/>
       <c r="M55" s="4"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>7</v>
+      <c r="A56" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
       <c r="H56" s="11">
-        <v>42809</v>
+        <v>42842</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="L56" s="14"/>
       <c r="M56" s="4"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
       <c r="H57" s="11">
-        <v>42809</v>
+        <v>42842</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="L57" s="14"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
       <c r="H58" s="11">
-        <v>42808</v>
+        <v>42823</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>281</v>
+        <v>103</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="L58" s="14"/>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="17" t="s">
-        <v>135</v>
+      <c r="A59" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D59" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="E59" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
       <c r="H59" s="11">
-        <v>42808</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>13</v>
+        <v>42821</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L59" s="14"/>
       <c r="M59" s="4"/>
@@ -6096,43 +6226,41 @@
         <v>37</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D60" s="4"/>
       <c r="E60" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="11">
-        <v>42808</v>
+        <v>42818</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="L60" s="14"/>
       <c r="M60" s="4"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="7" t="s">
@@ -6141,93 +6269,90 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="11">
-        <v>42808</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>144</v>
+        <v>42817</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="L61" s="14"/>
       <c r="M61" s="4"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
-        <v>37</v>
+      <c r="A62" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D62" s="4"/>
       <c r="E62" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="11">
-        <v>42797</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>108</v>
+        <v>42810</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="L62" s="14"/>
       <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="17" t="s">
-        <v>148</v>
+      <c r="A63" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
       <c r="H63" s="11">
-        <v>42789</v>
+        <v>42810</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="L63" s="14"/>
       <c r="M63" s="4"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="17" t="s">
-        <v>75</v>
+      <c r="A64" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="7" t="s">
@@ -6236,80 +6361,76 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="11">
-        <v>42789</v>
+        <v>42809</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L64" s="14"/>
       <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
-        <v>37</v>
+      <c r="A65" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D65" s="4"/>
       <c r="E65" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
       <c r="H65" s="11">
-        <v>42789</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>108</v>
+        <v>42809</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="L65" s="14"/>
       <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
       <c r="H66" s="11">
-        <v>42787</v>
+        <v>42809</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="K66" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L66" s="14"/>
       <c r="M66" s="4"/>
@@ -6319,41 +6440,40 @@
         <v>7</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
       <c r="H67" s="11">
-        <v>42787</v>
+        <v>42808</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>161</v>
+        <v>273</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="L67" s="14"/>
       <c r="M67" s="4"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>7</v>
+      <c r="A68" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="7" t="s">
@@ -6362,16 +6482,16 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="11">
-        <v>42787</v>
+        <v>42808</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="L68" s="14"/>
       <c r="M68" s="4"/>
@@ -6381,24 +6501,27 @@
         <v>37</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D69" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="E69" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
       <c r="H69" s="11">
-        <v>42782</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>13</v>
+        <v>42808</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="K69" s="14" t="s">
         <v>30</v>
@@ -6407,108 +6530,109 @@
       <c r="M69" s="4"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="9" t="s">
-        <v>37</v>
+      <c r="A70" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D70" s="4"/>
       <c r="E70" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="11">
-        <v>42782</v>
+        <v>42808</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="K70" s="14" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="L70" s="14"/>
       <c r="M70" s="4"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" s="17" t="s">
-        <v>75</v>
+      <c r="A71" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D71" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="E71" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="11">
-        <v>42782</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>13</v>
+        <v>42797</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="K71" s="14" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="L71" s="14"/>
       <c r="M71" s="4"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="10" t="s">
-        <v>12</v>
+      <c r="A72" s="17" t="s">
+        <v>147</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>176</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D72" s="4"/>
       <c r="E72" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="11">
-        <v>42781</v>
+        <v>42789</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="19" t="s">
-        <v>177</v>
+      <c r="J72" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="K72" s="14" t="s">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="L72" s="14"/>
       <c r="M72" s="4"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
-        <v>7</v>
+      <c r="A73" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="7" t="s">
@@ -6517,47 +6641,49 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="11">
-        <v>42781</v>
+        <v>42789</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="L73" s="14"/>
       <c r="M73" s="4"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
-        <v>7</v>
+      <c r="A74" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D74" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="E74" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="11">
-        <v>42779</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>13</v>
+        <v>42789</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="L74" s="14"/>
       <c r="M74" s="4"/>
@@ -6567,76 +6693,72 @@
         <v>7</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="D75" s="4"/>
       <c r="E75" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="11">
-        <v>42779</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>184</v>
+        <v>42787</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="L75" s="14"/>
       <c r="M75" s="4"/>
     </row>
-    <row r="76" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="10" t="s">
-        <v>12</v>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="D76" s="4"/>
       <c r="E76" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="11">
-        <v>42754</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>188</v>
+        <v>42787</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="L76" s="14"/>
       <c r="M76" s="4"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="8" t="s">
-        <v>11</v>
+      <c r="A77" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="7" t="s">
@@ -6645,49 +6767,46 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="11">
-        <v>42754</v>
+        <v>42787</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="L77" s="14"/>
       <c r="M77" s="4"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="10" t="s">
-        <v>12</v>
+      <c r="A78" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>196</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D78" s="4"/>
       <c r="E78" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>198</v>
+      <c r="H78" s="11">
+        <v>42782</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="L78" s="14"/>
       <c r="M78" s="4"/>
@@ -6697,13 +6816,13 @@
         <v>37</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>21</v>
@@ -6711,13 +6830,13 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="11">
-        <v>42754</v>
+        <v>42782</v>
       </c>
       <c r="I79" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J79" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="J79" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="K79" s="14" t="s">
         <v>30</v>
@@ -6727,13 +6846,13 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="7" t="s">
@@ -6742,47 +6861,46 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="11">
-        <v>42753</v>
+        <v>42782</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="K80" s="14" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="L80" s="14"/>
       <c r="M80" s="4"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
-        <v>7</v>
+      <c r="A81" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D81" s="4"/>
+        <v>175</v>
+      </c>
       <c r="E81" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="11">
-        <v>42738</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="J81" s="6" t="s">
-        <v>208</v>
+        <v>42781</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" s="19" t="s">
+        <v>176</v>
       </c>
       <c r="K81" s="14" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="L81" s="14"/>
       <c r="M81" s="4"/>
@@ -6792,43 +6910,41 @@
         <v>7</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="D82" s="4"/>
       <c r="E82" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="11">
-        <v>42738</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>211</v>
+        <v>42781</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="K82" s="14" t="s">
-        <v>213</v>
+        <v>90</v>
       </c>
       <c r="L82" s="14"/>
       <c r="M82" s="4"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="17" t="s">
-        <v>75</v>
+      <c r="A83" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="7" t="s">
@@ -6837,182 +6953,190 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="11">
-        <v>42738</v>
+        <v>42779</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="K83" s="14" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="L83" s="14"/>
       <c r="M83" s="4"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" s="9" t="s">
-        <v>217</v>
+      <c r="A84" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="9" t="s">
-        <v>220</v>
+        <v>156</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
-      <c r="H84" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>13</v>
+      <c r="H84" s="11">
+        <v>42779</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="L84" s="14"/>
       <c r="M84" s="4"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="9" t="s">
-        <v>217</v>
+    <row r="85" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D85" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="E85" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="11">
-        <v>42733</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>13</v>
+        <v>42754</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="L85" s="14"/>
       <c r="M85" s="4"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86" s="17" t="s">
-        <v>75</v>
+      <c r="A86" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="11">
-        <v>42733</v>
+        <v>42754</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="L86" s="14"/>
       <c r="M86" s="4"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" s="17" t="s">
-        <v>75</v>
+      <c r="A87" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F87" s="4"/>
-      <c r="H87" s="11">
-        <v>42725</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>13</v>
+      <c r="G87" s="4"/>
+      <c r="H87" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="K87" s="14" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="L87" s="14"/>
       <c r="M87" s="4"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="s">
-        <v>7</v>
+      <c r="A88" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D88" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="E88" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="11">
-        <v>42725</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>13</v>
+        <v>42754</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="K88" s="14" t="s">
-        <v>213</v>
+        <v>30</v>
       </c>
       <c r="L88" s="14"/>
       <c r="M88" s="4"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
-        <v>7</v>
+      <c r="A89" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="7" t="s">
@@ -7021,29 +7145,29 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="11">
-        <v>42725</v>
+        <v>42753</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="K89" s="14" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="L89" s="14"/>
       <c r="M89" s="4"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
-        <v>75</v>
+      <c r="A90" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="7" t="s">
@@ -7051,61 +7175,63 @@
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
-      <c r="H90" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>13</v>
+      <c r="H90" s="11">
+        <v>42738</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="K90" s="14" t="s">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c r="L90" s="14"/>
       <c r="M90" s="4"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" s="8" t="s">
-        <v>11</v>
+      <c r="A91" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D91" s="4"/>
+        <v>208</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="E91" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>13</v>
+      <c r="H91" s="11">
+        <v>42738</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="K91" s="14" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="L91" s="14"/>
       <c r="M91" s="4"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="7" t="s">
@@ -7113,156 +7239,152 @@
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="18" t="s">
-        <v>241</v>
+      <c r="H92" s="11">
+        <v>42738</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="K92" s="14" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="L92" s="14"/>
       <c r="M92" s="4"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="D93" s="4"/>
       <c r="E93" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="11">
-        <v>42709</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>253</v>
+        <v>42733</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="K93" s="14" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="L93" s="14"/>
       <c r="M93" s="4"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="11">
-        <v>42709</v>
+        <v>42733</v>
       </c>
       <c r="I94" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="K94" s="14" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="L94" s="14"/>
       <c r="M94" s="4"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="10" t="s">
-        <v>12</v>
+      <c r="A95" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="7" t="s">
-        <v>260</v>
+        <v>21</v>
       </c>
       <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
       <c r="H95" s="11">
-        <v>42705</v>
+        <v>42725</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="L95" s="14"/>
       <c r="M95" s="4"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96" s="8" t="s">
-        <v>11</v>
+      <c r="A96" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="7" t="s">
-        <v>264</v>
+        <v>21</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="11">
-        <v>42705</v>
+        <v>42725</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="K96" s="14" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="L96" s="14"/>
       <c r="M96" s="4"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A97" s="17" t="s">
-        <v>75</v>
+      <c r="A97" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="7" t="s">
@@ -7270,100 +7392,353 @@
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
-      <c r="H97" s="2">
-        <v>42703</v>
+      <c r="H97" s="11">
+        <v>42725</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="K97" s="14" t="s">
-        <v>270</v>
+        <v>127</v>
       </c>
       <c r="L97" s="14"/>
       <c r="M97" s="4"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="K98" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="L98" s="14"/>
+      <c r="M98" s="4"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D99" s="4"/>
+      <c r="E99" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="K99" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="L99" s="14"/>
+      <c r="M99" s="4"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D100" s="4"/>
+      <c r="E100" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="K100" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="L100" s="14"/>
+      <c r="M100" s="4"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="11">
+        <v>42709</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="K101" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="L101" s="14"/>
+      <c r="M101" s="4"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="11">
+        <v>42709</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="K102" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="L102" s="14"/>
+      <c r="M102" s="4"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D103" s="4"/>
+      <c r="E103" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="11">
+        <v>42705</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="K103" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="L103" s="14"/>
+      <c r="M103" s="4"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="11">
+        <v>42705</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="K104" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="L104" s="14"/>
+      <c r="M104" s="4"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="2">
+        <v>42703</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="K105" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="L105" s="14"/>
+      <c r="M105" s="4"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B98" t="s">
-        <v>271</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B106" t="s">
+        <v>264</v>
+      </c>
+      <c r="C106" t="s">
         <v>19</v>
       </c>
-      <c r="E98" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="H98" s="2">
+      <c r="E106" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="H106" s="2">
         <v>42690</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I106" t="s">
         <v>13</v>
       </c>
-      <c r="J98" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="K98" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="L98" s="14"/>
+      <c r="J106" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="K106" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="L106" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J48" r:id="rId1"/>
-    <hyperlink ref="I37" r:id="rId2"/>
-    <hyperlink ref="I35" r:id="rId3"/>
-    <hyperlink ref="J37" r:id="rId4"/>
-    <hyperlink ref="J35" r:id="rId5"/>
-    <hyperlink ref="J2" r:id="rId6"/>
-    <hyperlink ref="I38" r:id="rId7"/>
-    <hyperlink ref="I45" r:id="rId8"/>
-    <hyperlink ref="I23" r:id="rId9"/>
-    <hyperlink ref="J24" r:id="rId10"/>
-    <hyperlink ref="J23" r:id="rId11"/>
-    <hyperlink ref="J25" r:id="rId12"/>
-    <hyperlink ref="J27" r:id="rId13"/>
-    <hyperlink ref="I82" r:id="rId14"/>
-    <hyperlink ref="J82" r:id="rId15"/>
-    <hyperlink ref="J56" r:id="rId16"/>
-    <hyperlink ref="J87" r:id="rId17"/>
-    <hyperlink ref="J91" r:id="rId18"/>
-    <hyperlink ref="J92" r:id="rId19"/>
-    <hyperlink ref="J86" r:id="rId20"/>
-    <hyperlink ref="J78" r:id="rId21"/>
-    <hyperlink ref="I78" r:id="rId22"/>
-    <hyperlink ref="J73" r:id="rId23"/>
-    <hyperlink ref="I81" r:id="rId24"/>
-    <hyperlink ref="J81" r:id="rId25"/>
-    <hyperlink ref="J77" r:id="rId26"/>
-    <hyperlink ref="J84" r:id="rId27"/>
-    <hyperlink ref="J98" r:id="rId28"/>
-    <hyperlink ref="J97" r:id="rId29"/>
-    <hyperlink ref="J96" r:id="rId30"/>
-    <hyperlink ref="J95" r:id="rId31"/>
-    <hyperlink ref="J94" r:id="rId32"/>
-    <hyperlink ref="J88" r:id="rId33"/>
-    <hyperlink ref="J93" r:id="rId34"/>
-    <hyperlink ref="I93" r:id="rId35"/>
-    <hyperlink ref="I79" r:id="rId36"/>
-    <hyperlink ref="J72" r:id="rId37"/>
-    <hyperlink ref="I70" r:id="rId38"/>
-    <hyperlink ref="J66" r:id="rId39"/>
-    <hyperlink ref="I61" r:id="rId40"/>
-    <hyperlink ref="J63" r:id="rId41"/>
-    <hyperlink ref="I51" r:id="rId42"/>
-    <hyperlink ref="J51" r:id="rId43"/>
-    <hyperlink ref="I39" r:id="rId44"/>
-    <hyperlink ref="I36" r:id="rId45"/>
-    <hyperlink ref="J36" r:id="rId46"/>
-    <hyperlink ref="J22" r:id="rId47"/>
+    <hyperlink ref="J57" r:id="rId1"/>
+    <hyperlink ref="I46" r:id="rId2"/>
+    <hyperlink ref="I44" r:id="rId3"/>
+    <hyperlink ref="J46" r:id="rId4"/>
+    <hyperlink ref="J44" r:id="rId5"/>
+    <hyperlink ref="J24" r:id="rId6"/>
+    <hyperlink ref="I47" r:id="rId7"/>
+    <hyperlink ref="I54" r:id="rId8"/>
+    <hyperlink ref="I28" r:id="rId9"/>
+    <hyperlink ref="J29" r:id="rId10"/>
+    <hyperlink ref="J28" r:id="rId11"/>
+    <hyperlink ref="J30" r:id="rId12"/>
+    <hyperlink ref="J32" r:id="rId13"/>
+    <hyperlink ref="I91" r:id="rId14"/>
+    <hyperlink ref="J91" r:id="rId15"/>
+    <hyperlink ref="J65" r:id="rId16"/>
+    <hyperlink ref="J95" r:id="rId17"/>
+    <hyperlink ref="J99" r:id="rId18"/>
+    <hyperlink ref="J100" r:id="rId19"/>
+    <hyperlink ref="J94" r:id="rId20"/>
+    <hyperlink ref="J87" r:id="rId21"/>
+    <hyperlink ref="I87" r:id="rId22"/>
+    <hyperlink ref="J82" r:id="rId23"/>
+    <hyperlink ref="I90" r:id="rId24"/>
+    <hyperlink ref="J90" r:id="rId25"/>
+    <hyperlink ref="J86" r:id="rId26"/>
+    <hyperlink ref="J106" r:id="rId27"/>
+    <hyperlink ref="J105" r:id="rId28"/>
+    <hyperlink ref="J104" r:id="rId29"/>
+    <hyperlink ref="J103" r:id="rId30"/>
+    <hyperlink ref="J102" r:id="rId31"/>
+    <hyperlink ref="J96" r:id="rId32"/>
+    <hyperlink ref="J101" r:id="rId33"/>
+    <hyperlink ref="I101" r:id="rId34"/>
+    <hyperlink ref="I88" r:id="rId35"/>
+    <hyperlink ref="J81" r:id="rId36"/>
+    <hyperlink ref="I79" r:id="rId37"/>
+    <hyperlink ref="J75" r:id="rId38"/>
+    <hyperlink ref="I70" r:id="rId39"/>
+    <hyperlink ref="J72" r:id="rId40"/>
+    <hyperlink ref="I60" r:id="rId41"/>
+    <hyperlink ref="J60" r:id="rId42"/>
+    <hyperlink ref="I48" r:id="rId43"/>
+    <hyperlink ref="I45" r:id="rId44"/>
+    <hyperlink ref="J45" r:id="rId45"/>
+    <hyperlink ref="J27" r:id="rId46"/>
+    <hyperlink ref="I41" r:id="rId47"/>
     <hyperlink ref="I7" r:id="rId48"/>
-    <hyperlink ref="I12" r:id="rId49"/>
+    <hyperlink ref="J2" r:id="rId49"/>
+    <hyperlink ref="J38" r:id="rId50"/>
+    <hyperlink ref="I12" r:id="rId51" display="https://163.lu/k/eVjXk0"/>
+    <hyperlink ref="J18" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/项目管理表.xlsx
+++ b/项目管理表.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="42960" yWindow="-900" windowWidth="33600" windowHeight="20440" tabRatio="500"/>
+    <workbookView xWindow="33600" yWindow="-7340" windowWidth="51200" windowHeight="28340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$M$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目!$A$1:$M$68</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="472">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -266,53 +266,6 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>he'zuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决和招行进行分销合作的问题</t>
-    <rPh sb="0" eb="1">
-      <t>jie'jue</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>he</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zhao'hang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>jin'xing</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fen'xiao</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>he'zuo</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>de</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>wen'ti</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待招行给到接口文档</t>
-    <rPh sb="0" eb="1">
-      <t>dai</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zhao'ahng</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>gei'dao</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>jie'kou</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>wen'dnag</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,10 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-35106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>负责开发/QA</t>
     <rPh sb="0" eb="1">
       <t>fu'ze</t>
@@ -361,10 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>司徒/胡素雅</t>
     <rPh sb="0" eb="1">
       <t>si'tu</t>
@@ -438,16 +383,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>考拉微商v1.4</t>
-    <rPh sb="0" eb="1">
-      <t>kao'la</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wei'shang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消息中心优化（App3.6）</t>
     <rPh sb="0" eb="1">
       <t>xiao'xi</t>
@@ -547,31 +482,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>强化地址校验，保证推单成功</t>
-    <rPh sb="0" eb="1">
-      <t>qiang'hua</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>di'zhi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jiao'yan</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>bao'zheng</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>tui'dan</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>dan'zi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>cheng'gong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网站联盟v3.2</t>
     <rPh sb="0" eb="1">
       <t>wang'zhan</t>
@@ -690,10 +600,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://t.im/1bs6t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分销_运营功能优化</t>
     <rPh sb="0" eb="1">
       <t>fen'xiao</t>
@@ -724,16 +630,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分享赚钱v4.1</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hzuan'qian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提高用户体验，降低客诉</t>
     <rPh sb="0" eb="1">
       <t>ti'gao</t>
@@ -763,137 +659,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://t.cn/RfwRvO6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-32048</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动链接分享除FTL路径外的解决方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-30743</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋飞翔/胡素雅</t>
-    <rPh sb="0" eb="1">
-      <t>song'fei'xiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付账号反作弊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低运营成本</t>
-    <rPh sb="0" eb="1">
-      <t>jiang'di</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yun'ying</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>cheng'ben</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-29015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短标题替换为商品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和主站一致，保持统一性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冻结中</t>
-    <rPh sb="0" eb="1">
-      <t>dogn'jei'zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-32503</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>司徒</t>
     <rPh sb="0" eb="1">
       <t>si'tu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享赚钱wap支持唤起app后跟单</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhuan'qian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高用户体验，降低客诉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冻结中</t>
-    <rPh sb="0" eb="1">
-      <t>dong'jei'zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-34651</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王贝</t>
-    <rPh sb="0" eb="1">
-      <t>wang'bei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动取消佣金功能</t>
-    <rPh sb="0" eb="1">
-      <t>zi'dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qu'xiao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yong'jin</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>gong'neng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节约成本</t>
-    <rPh sb="0" eb="1">
-      <t>jie'yue</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cheng'bne</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冻结中</t>
-    <rPh sb="0" eb="1">
-      <t>dong'jie'zhong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1679,10 +1447,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://t.cn/RItK8zO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-34707</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2281,10 +2045,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-41544</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>微商 App v1.0_前端部分</t>
     <rPh sb="12" eb="13">
       <t>qian'duan</t>
@@ -2305,14 +2065,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对接招行的物流信息接口和取消订单接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销_下单接口地址校验强化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-45279</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2339,41 +2091,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微商_资格时间</t>
-    <rPh sb="0" eb="1">
-      <t>wei'shang</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zi'ge</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shi'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持新的资格售卖形式</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'chi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xin</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>de</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zi'ge</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shou'mai</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>xing'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-42258</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2398,35 +2115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微商_订单管理增加明细</t>
-    <rPh sb="0" eb="1">
-      <t>wei'shang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>guan'li</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zeng'jai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持运营数据分析</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'chi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yun'ying</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>fen'xi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>降低微信封禁后的风险</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2436,10 +2124,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-47637</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2661,19 +2345,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-51739</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MS落地页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MS后台“品牌信息配置”加去重逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-52224</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2708,26 +2384,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开发中</t>
-    <rPh sb="0" eb="1">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-49695</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://163.lu/k/O5Duc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MS落地页</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS落地页配置_优惠券兑换码改成方案ID</t>
   </si>
   <si>
     <t>支持优惠券改动</t>
@@ -2747,23 +2409,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-52854</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>领券中心v2.0</t>
     <rPh sb="0" eb="1">
       <t>ling'quan</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>zhogn'xin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未启动</t>
-    <rPh sb="0" eb="1">
-      <t>wei'qi'dong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2811,10 +2462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MS落地页_H5品牌图自定义功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支持相关业务</t>
     <rPh sb="0" eb="1">
       <t>zhi'chi</t>
@@ -2824,20 +2471,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ye'wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-53343</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕超镇/马鑫</t>
-    <rPh sb="0" eb="1">
-      <t>lv'chao'zhen</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ma'xin</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2907,26 +2540,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>H5活动落地页新增模板（会员商品）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://t.cn/RXT6UjB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-52629</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://163.lu/7r9oK3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-42740</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提高流量转化</t>
     <rPh sb="0" eb="1">
       <t>ti'gao</t>
@@ -2937,17 +2554,6 @@
     <rPh sb="4" eb="5">
       <t>zhuan'hau</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-54943</t>
-  </si>
-  <si>
-    <t>https://163.lu/k/zGOrA4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-54302</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3001,44 +2607,6 @@
     <rPh sb="9" eb="10">
       <t>zhuan'hua</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主站接口评估后暂时不可用，暂停此任务</t>
-    <rPh sb="0" eb="1">
-      <t>zhu'zhan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'kou</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ping'gu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zan'shi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ke'yong</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zan'ting</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ci</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ren'wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-46214</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3069,49 +2637,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>要求在7月底之前上线</t>
-    <rPh sb="0" eb="1">
-      <t>yao'qiu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yue'di</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhi'qian</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shang'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://jira.netease.com/browse/KJDS-54142</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增模板，提高页面转化</t>
-    <rPh sb="0" eb="1">
-      <t>xin'zeng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>mo'ban</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ti'gao</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ye'mian</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zhuan'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销_身份实名校验加限制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3131,101 +2657,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://163.lu/k/QUZHS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://163.lu/k/vjiKF4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增模板，提高运营配置效率</t>
-    <rPh sb="0" eb="1">
-      <t>xin'zegn</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>mo'ban</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ti'gao</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yun'ying</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>pei'zhi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>xiao'lv</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陈仁广/周湘琳</t>
     <rPh sb="0" eb="1">
       <t>chen'ren'guang</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>zhou'xiang'lin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-55218</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-55201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://163.lu/k/AgF4Z1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H5活动模板新增（品牌购、图片/商品轮播）</t>
-    <rPh sb="2" eb="3">
-      <t>huo'dng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>mo'ban</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xin'zeng</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>pin'pai'gou</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>gou'wu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>tu'pian</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>shang'pin</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>lun'bo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H5活动模板新增（店铺一排二）</t>
-    <rPh sb="2" eb="3">
-      <t>huo'dong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>mo'ban</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xin'zeng</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>dian'pu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yi'pai'er</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3259,10 +2696,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>818专辑优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>企业会员专享折扣</t>
     <rPh sb="0" eb="1">
       <t>qi'ye</t>
@@ -3295,19 +2728,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://jira.netease.com/browse/KJDS-56377</t>
-  </si>
-  <si>
-    <t>确认需求，完成方案</t>
-    <rPh sb="0" eb="1">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>司徒/关宁</t>
     <rPh sb="0" eb="1">
       <t>si'tu</t>
@@ -3319,40 +2739,6 @@
   </si>
   <si>
     <t>给网易推手提供新的接口信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求评审</t>
-    <rPh sb="0" eb="1">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ping'shen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认需求，完成方案</t>
-    <rPh sb="0" eb="1">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fang'an</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-55063</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jira.netease.com/browse/KJDS-55717</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3378,13 +2764,1037 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成方案</t>
-    <rPh sb="0" eb="1">
+    <t>http://jira.netease.com/browse/KJDS-46214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app首页4.0</t>
+    <rPh sb="3" eb="4">
+      <t>shou'ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加强app首页流量转化</t>
+    <rPh sb="0" eb="1">
+      <t>jia'qiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shou'ye</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>liu'liang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhuan'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防止资损</t>
+    <rPh sb="0" eb="1">
+      <t>fang'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑有为/关宁</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'you'wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guan'ning</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌限时购 接入推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高品牌限时购转化</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pin'pai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xian'shi'gou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhuan'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王东旭/周湘林</t>
+    <rPh sb="0" eb="1">
+      <t>wang'dong'xu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhou'xiang'lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/k/O5Duc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高品牌模块转化</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pin'pai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mo'kuai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuan'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app3.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复地址库匹配问题</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'zhi'ku</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pi'pei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销地址库转换优化</t>
+    <rPh sb="5" eb="6">
+      <t>zhuan'huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/k/nL58j0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高流量转化</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'liang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhuan'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-57561</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关停分享赚钱、考拉微商追单功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-56377</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高限时购转化和整体产出</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian'shi'gou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuan'hau</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>he</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zheng'ti</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chan'chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-58395</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5活动落地页新增模板（会员商品）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS落地页_H5品牌图自定义功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-53343</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌模块配置项优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/k/QUZHS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>818专辑优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已上线</t>
+  </si>
+  <si>
+    <t>https://163.lu/k/vjiKF4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服装城</t>
+    <rPh sb="0" eb="1">
+      <t>fu'zhuang'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持服装城业务</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu'zhuang'cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ye'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉超市</t>
+    <rPh sb="0" eb="1">
+      <t>kao'la</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chao'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持超市业务</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chao'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ye'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-60190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高提醒类业务转化</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti'xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhuan'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS落地页配置_优惠券兑换码改成方案ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易推手_新增类目接口</t>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持网易推手业务</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wang'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tui'shou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ye'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易推手_商城H5页面分享后可关闭浮层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-55218</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-58574</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-51739</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-52224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动排期落地</t>
+    <rPh sb="0" eb="1">
+      <t>tui'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pai'qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>luo'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-51970</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <rPh sb="0" eb="1">
+      <t>kai'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/k/um7vu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS落地页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS落地页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持大促预告价打问号玩法</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da'cu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu'gao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>da'wen'hao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wan'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持定时售卖业务</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shou'mai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ye'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高活动页流量转化效果</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huo'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liu'liang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhuan'hua</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiao'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大促预告价打问号功能</t>
+    <rPh sb="0" eb="1">
+      <t>da'cu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'gao'jia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>da</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen'hao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS落地页活动模板新增（预付定金商品）</t>
+    <rPh sb="2" eb="3">
+      <t>luo'di'ye</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huo'dng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mo'ban</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yu'fu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ding'jin</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shang'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-60188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-60258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马建明/邹丽萍/褚静怡</t>
+    <rPh sb="0" eb="1">
+      <t>ma'jian'ming</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zou'li'p</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chu'jing'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-61104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动落地页搜索框置顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_针对各渠道设立开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高风控水平</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>feng'kong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shui'png</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡传奇/关宁</t>
+    <rPh sb="0" eb="1">
+      <t>hu'chuan'qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guan'ning</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领券中心v1.1</t>
+    <rPh sb="0" eb="1">
+      <t>ling'quan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhogn'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现初级秒杀功能，加强主站流量转化</t>
+    <rPh sb="0" eb="1">
+      <t>shi'xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chu'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>miao'sha</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gong'neng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jia'qiang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhu'zhan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>liu'liang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhuan'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌斌星/王鲁才/丁洋</t>
+    <rPh sb="0" eb="1">
+      <t>ling'bin'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wang'lu'cai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ding'yang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用系统日历提醒功能（app3.9）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/k/UOTeV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双11 P0</t>
+    <rPh sb="0" eb="1">
+      <t>shuagn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双11 P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双11 P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉私人FM</t>
+    <rPh sb="0" eb="1">
+      <t>kao'la</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>si'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创新业务，提高主站流量利用</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhu'zhan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>liu'liang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>li'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易推手_领券中心页处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排期中</t>
+    <rPh sb="0" eb="1">
+      <t>p'qi'qi'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-55063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动落地页_指定默认跳转链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS落地页工厂店标签改动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持工厂店项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排期中</t>
+    <rPh sb="0" eb="1">
+      <t>pai'qi'h'song</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘啸林/周湘琳</t>
+    <rPh sb="0" eb="1">
+      <t>liu'xiao'lin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhou'xiang'lin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/k/sy5C61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-55717</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分销_身份实名校验加限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发反馈双11之前上线</t>
+    <rPh sb="0" eb="1">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan'kui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shuagn</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi'qian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shagn'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑安然/周湘琳</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'an'ran</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhou'xiang'lin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领券中心_后台校验优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈仁广/杨林</t>
+    <rPh sb="0" eb="1">
+      <t>chen'ren'guang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yang'lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-52629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-62228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <rPh sb="0" eb="1">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://t.cn/RItK8zO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狗合作_屏蔽新人弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持搜狗合作业务</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sou'gou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he'zuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ye'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/7r9oK3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/k/KMSH84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-63568</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/k/c78mb1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-62985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-57934</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时购_前台展示商品扩增到100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周凯/杨林</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'kai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yang'lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-63951</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-60462</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-60465</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5活动模板新增（工厂店商品）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-55201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-54302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/k/zGOrA4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/k/AgF4Z1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和高层定方案后推进下一步计划</t>
+    <rPh sb="6" eb="7">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tui'jin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xia'yi'bu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/k/p38tr4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/k/NQktb1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <rPh sb="0" eb="1">
+      <t>kia'fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/k/8bQN73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站联盟_追踪链接中新增统计参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持网盟数据统计业务</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wang'meng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tong'ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ye'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认需求，完成方案</t>
+    <rPh sb="0" eb="1">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
       <t>wan'cheng</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="7" eb="8">
       <t>fang'an</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-61560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/k/zIUls2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-61538</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-57432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-52854</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-54943</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://163.lu/k/bOMtK0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-61102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-61100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-59288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-62323</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-63507</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jira.netease.com/browse/KJDS-64639</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3392,7 +3802,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3426,8 +3836,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3482,6 +3900,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3492,7 +3916,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="368">
+  <cellStyleXfs count="467">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3861,8 +4285,107 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3921,8 +4444,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="368">
+  <cellStyles count="467">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -4291,6 +4817,105 @@
     <cellStyle name="已访问的超链接" xfId="365" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="366" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="466" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4565,19 +5190,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="38.83203125" bestFit="1" customWidth="1"/>
@@ -4618,935 +5244,991 @@
         <v>5</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>393</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="2">
-        <v>42956</v>
+      <c r="H2" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>379</v>
+        <v>461</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
+      <c r="A3" s="10" t="s">
+        <v>285</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>286</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
       <c r="H3" s="11" t="s">
-        <v>32</v>
+        <v>287</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="4"/>
+        <v>463</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>310</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="2">
-        <v>42950</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>354</v>
+      <c r="H4" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>355</v>
+        <v>464</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+